--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -1,36 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krokh\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15150" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Вода" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Соль" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Вода SKU" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Соль SKU" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Вода" sheetId="1" r:id="rId1"/>
+    <sheet name="Соль" sheetId="2" r:id="rId2"/>
+    <sheet name="Вода SKU" sheetId="3" r:id="rId3"/>
+    <sheet name="Соль SKU" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Water_SKU" hidden="0">'Вода SKU'!$A$1:$A$100</definedName>
+    <definedName name="Water_SKU">'Вода SKU'!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
-    <t xml:space="preserve">Номер варки</t>
+    <t>Номер варки</t>
   </si>
   <si>
-    <t xml:space="preserve">Тип варки</t>
+    <t>Тип варки</t>
   </si>
   <si>
-    <t xml:space="preserve">Объем варки</t>
+    <t>Объем варки</t>
   </si>
   <si>
-    <t xml:space="preserve">Форм фактор</t>
+    <t>Форм фактор</t>
   </si>
   <si>
     <t>SKU</t>
@@ -45,33 +51,29 @@
     <t>Разделитель</t>
   </si>
   <si>
-    <t xml:space="preserve">Остатки cumsum</t>
+    <t>Остатки cumsum</t>
   </si>
   <si>
-    <t xml:space="preserve">Разделитель int</t>
+    <t>Разделитель int</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
-      <color indexed="64"/>
-      <sz val="11.000000"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="10.000000"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
+      <sz val="7"/>
       <name val="Calibri"/>
-      <sz val="8.000000"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="7.000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,327 +93,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -463,7 +218,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -534,38 +289,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
-      <pane state="frozen" topLeftCell="M2" xSplit="12" ySplit="1"/>
-      <selection activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F3" sqref="F3"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" hidden="1" min="1" max="1" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="2" max="4" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="0" width="10.359999999999999"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="0" width="37.729999999999997"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="0" width="8.7200000000000006"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="9" max="9" style="0" width="7.6399999999999997"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="10" max="10" style="0" width="3.54"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="11" max="11" style="0" width="3.0899999999999999"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="12" max="12" style="0" width="4.0899999999999999"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="13" max="13" style="0" width="5.1799999999999997"/>
-    <col bestFit="1" customWidth="1" min="14" max="1025" style="0" width="8.5299999999999994"/>
+    <col min="1" max="1" width="15" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.08984375" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.08984375" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="136.5">
+    <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,2607 +359,2607 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="str">
-        <f ca="1">IF(F2="","",IF(I2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L2))))))</f>
+        <f t="shared" ref="B2:B33" ca="1" si="0">IF(F2="","",IF(I2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L2))))))</f>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H9" ca="1" si="0">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
+        <f t="shared" ref="H2:H9" ca="1" si="1">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
         <v/>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" ca="1" si="1">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
+        <f t="shared" ref="J2:J9" ca="1" si="2">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" ca="1" si="2">IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
+        <f t="shared" ref="K2:K9" ca="1" si="3">IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L9" si="3">IF(I2="-",1,0)</f>
+        <f t="shared" ref="L2:L9" si="4">IF(I2="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M9" ca="1" si="4">IF(K2 = 0, INDIRECT("M" &amp; ROW() - 1), K2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5">
+        <f t="shared" ref="M2:M9" ca="1" si="5">IF(K2 = 0, INDIRECT("M" &amp; ROW() - 1), K2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f ca="1">IF(F3="","",IF(I3="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L3))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L3))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f ca="1">IF(F4="","",IF(I4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L4))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f ca="1">IF(F5="","",IF(I5="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L5))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L5))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f ca="1">IF(F6="","",IF(I6="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L6))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L6))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f ca="1">IF(F7="","",IF(I7="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L7))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L7))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f ca="1">IF(F8="","",IF(I8="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L8))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L8))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f ca="1">IF(F9="","",IF(I9="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L9))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L9))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f ca="1">IF(F10="","",IF(I10="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L10))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L10))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H73" ca="1" si="5">IF(M10 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M10)</f>
+        <f t="shared" ref="H10:H73" ca="1" si="6">IF(M10 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M10)</f>
         <v/>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J70" ca="1" si="6">IF(I10 = "-", -INDIRECT("D" &amp; ROW() - 1),G10)</f>
+        <f t="shared" ref="J10:J70" ca="1" si="7">IF(I10 = "-", -INDIRECT("D" &amp; ROW() - 1),G10)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K73" ca="1" si="7">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
+        <f t="shared" ref="K10:K73" ca="1" si="8">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L73" si="8">IF(I10="-",1,0)</f>
+        <f t="shared" ref="L10:L73" si="9">IF(I10="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M18" ca="1" si="9">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.5">
+        <f t="shared" ref="M10:M18" ca="1" si="10">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f ca="1">IF(F11="","",IF(I11="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L11))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L11))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f ca="1">IF(F12="","",IF(I12="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L12))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L12))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f ca="1">IF(F13="","",IF(I13="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L13))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L13))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f ca="1">IF(F14="","",IF(I14="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L14))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L14))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f ca="1">IF(F15="","",IF(I15="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L15))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L15))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f ca="1">IF(F16="","",IF(I16="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L16))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L16))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f ca="1">IF(F17="","",IF(I17="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L17))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L17))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f ca="1">IF(F18="","",IF(I18="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L18))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L18))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f ca="1">IF(F19="","",IF(I19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L19))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M82" si="10">IF(K19 = 0, M18, K19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.5">
+        <f t="shared" ref="M19:M82" ca="1" si="11">IF(K19 = 0, M18, K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f ca="1">IF(F20="","",IF(I20="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L20))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L20))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f ca="1">IF(F21="","",IF(I21="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L21))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L21))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f ca="1">IF(F22="","",IF(I22="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L22))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L22))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f ca="1">IF(F23="","",IF(I23="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L23))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L23))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f ca="1">IF(F24="","",IF(I24="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L24))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L24))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f ca="1">IF(F25="","",IF(I25="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L25))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L25))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>5</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f ca="1">IF(F26="","",IF(I26="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L26))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L26))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f ca="1">IF(F27="","",IF(I27="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L27))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L27))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f ca="1">IF(F28="","",IF(I28="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L28))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L28))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f ca="1">IF(F29="","",IF(I29="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L29))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L29))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f ca="1">IF(F30="","",IF(I30="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L30))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L30))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f ca="1">IF(F31="","",IF(I31="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L31))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L31))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f ca="1">IF(F32="","",IF(I32="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L32))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L32))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f ca="1">IF(F33="","",IF(I33="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L33))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L33))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>6</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f ca="1">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
+        <f t="shared" ref="B34:B65" ca="1" si="12">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f ca="1">IF(F35="","",IF(I35="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L35))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L35))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f ca="1">IF(F36="","",IF(I36="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L36))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L36))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>6</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f ca="1">IF(F37="","",IF(I37="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L37))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L37))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f ca="1">IF(F38="","",IF(I38="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L38))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L38))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f ca="1">IF(F39="","",IF(I39="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L39))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L39))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>6</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f ca="1">IF(F40="","",IF(I40="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L40))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L40))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f ca="1">IF(F41="","",IF(I41="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L41))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L41))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>6</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f ca="1">IF(F42="","",IF(I42="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L42))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L42))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>9</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f ca="1">IF(F43="","",IF(I43="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L43))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L43))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f ca="1">IF(F44="","",IF(I44="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L44))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L44))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>9</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f ca="1">IF(F45="","",IF(I45="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L45))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L45))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f ca="1">IF(F46="","",IF(I46="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L46))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L46))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>9</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f ca="1">IF(F47="","",IF(I47="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L47))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L47))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>9</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f ca="1">IF(F48="","",IF(I48="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L48))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L48))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="str">
-        <f ca="1">IF(F49="","",IF(I49="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L49))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L49))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="str">
-        <f ca="1">IF(F50="","",IF(I50="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L50))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L50))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="str">
-        <f ca="1">IF(F51="","",IF(I51="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L51))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L51))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="str">
-        <f ca="1">IF(F52="","",IF(I52="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L52))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L52))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="str">
-        <f ca="1">IF(F53="","",IF(I53="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L53))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L53))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="str">
-        <f ca="1">IF(F54="","",IF(I54="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L54))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L54))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="str">
-        <f ca="1">IF(F55="","",IF(I55="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L55))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L55))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="str">
-        <f ca="1">IF(F56="","",IF(I56="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L56))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L56))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="str">
-        <f ca="1">IF(F57="","",IF(I57="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L57))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L57))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="str">
-        <f ca="1">IF(F58="","",IF(I58="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L58))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L58))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="str">
-        <f ca="1">IF(F59="","",IF(I59="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L59))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L59))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="str">
-        <f ca="1">IF(F60="","",IF(I60="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L60))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L60))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="str">
-        <f ca="1">IF(F61="","",IF(I61="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L61))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L61))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="str">
-        <f ca="1">IF(F62="","",IF(I62="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L62))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L62))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H62" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="str">
-        <f ca="1">IF(F63="","",IF(I63="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L63))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L63))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="str">
-        <f ca="1">IF(F64="","",IF(I64="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L64))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L64))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="str">
-        <f ca="1">IF(F65="","",IF(I65="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L65))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L65))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="str">
-        <f ca="1">IF(F66="","",IF(I66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L66))))))</f>
+        <f t="shared" ref="B66:B77" ca="1" si="13">IF(F66="","",IF(I66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L66))))))</f>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="str">
-        <f ca="1">IF(F67="","",IF(I67="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L67))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="str">
-        <f ca="1">IF(F68="","",IF(I68="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L68))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L68))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="str">
-        <f ca="1">IF(F69="","",IF(I69="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L69))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="str">
-        <f ca="1">IF(F70="","",IF(I70="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L70))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L70))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J70">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="str">
-        <f ca="1">IF(F71="","",IF(I71="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L71))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J99" si="11">IF(I71 = "-", -D70,G71)</f>
+        <f t="shared" ref="J71:J99" si="14">IF(I71 = "-", -D70,G71)</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="str">
-        <f ca="1">IF(F72="","",IF(I72="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L72))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L72))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="str">
-        <f ca="1">IF(F73="","",IF(I73="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L73))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="str">
-        <f ca="1">IF(F74="","",IF(I74="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L74))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ref="H74:H99" ca="1" si="12">IF(M74-INDIRECT("M"&amp;ROW()-1)=0,"",INDIRECT("M"&amp;ROW()-1)-M74)</f>
+        <f t="shared" ref="H74:H99" ca="1" si="15">IF(M74-INDIRECT("M"&amp;ROW()-1)=0,"",INDIRECT("M"&amp;ROW()-1)-M74)</f>
         <v/>
       </c>
       <c r="J74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:K99" ca="1" si="13">IF(I74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J74)))),0)</f>
+        <f t="shared" ref="K74:K99" ca="1" si="16">IF(I74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J74)))),0)</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L99" si="14">IF(I74="-",1,0)</f>
+        <f t="shared" ref="L74:L99" si="17">IF(I74="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="str">
-        <f ca="1">IF(F75="","",IF(I75="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L75))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K75">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B76" s="3" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
+        <v/>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J76">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M75">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.5">
-      <c r="B76" s="3" t="str">
-        <f ca="1">IF(F76="","",IF(I76="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L76))))))</f>
-        <v/>
-      </c>
-      <c r="H76" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K76">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B77" s="3" t="str">
         <f t="shared" ca="1" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="L76">
+        <v/>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J77">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M76">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.5">
-      <c r="B77" s="3" t="str">
-        <f ca="1">IF(F77="","",IF(I77="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L77))))))</f>
-        <v/>
-      </c>
-      <c r="H77" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K77">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L77">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H78" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J78">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M77">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.5">
-      <c r="H78" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K78">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L78">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H79" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J79">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M78">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.5">
-      <c r="H79" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K79">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L79">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H80" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J80">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M79">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.5">
-      <c r="H80" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K80">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L80">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H81" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J81">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M80">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.5">
-      <c r="H81" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J81">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K81">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L81">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H82" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J82">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.5">
-      <c r="H82" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J82">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K82">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L82">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H83" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J83">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M82">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.5">
-      <c r="H83" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J83">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K83">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L83">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <f t="shared" ref="M83:M99" ca="1" si="18">IF(K83=0,M82,K83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H84" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J84">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M83">
-        <f t="shared" ref="M83:M99" si="15">IF(K83=0,M82,K83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.5">
-      <c r="H84" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J84">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K84">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L84">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H85" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J85">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M84">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.5">
-      <c r="H85" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J85">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K85">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L85">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H86" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J86">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M85">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.5">
-      <c r="H86" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J86">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K86">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L86">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H87" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J87">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M86">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.5">
-      <c r="H87" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J87">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K87">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L87">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H88" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J88">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M87">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.5">
-      <c r="H88" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J88">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K88">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L88">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H89" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J89">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M88">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.5">
-      <c r="H89" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J89">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K89">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L89">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H90" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J90">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M89">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.5">
-      <c r="H90" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J90">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K90">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L90">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H91" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J91">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M90">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.5">
-      <c r="H91" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J91">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K91">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L91">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H92" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J92">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M91">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.5">
-      <c r="H92" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J92">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K92">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L92">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H93" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J93">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M92">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.5">
-      <c r="H93" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J93">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K93">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L93">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H94" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J94">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M93">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.5">
-      <c r="H94" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J94">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K94">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L94">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H95" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J95">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M94">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.5">
-      <c r="H95" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J95">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K95">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L95">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H96" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J96">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M95">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.5">
-      <c r="H96" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J96">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K96">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L96">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H97" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J97">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M96">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.5">
-      <c r="H97" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J97">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K97">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L97">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H98" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J98">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M97">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.5">
-      <c r="H98" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J98">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K98">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L98">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H99" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v/>
+      </c>
+      <c r="J99">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="M98">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.5">
-      <c r="H99" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="J99">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
       <c r="K99">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H100" t="str">
-        <f t="shared" ref="H100:H122" ca="1" si="16">IF(M100 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M100)</f>
+        <f t="shared" ref="H100:H122" ca="1" si="19">IF(M100 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M100)</f>
         <v/>
       </c>
       <c r="J100">
@@ -3211,557 +2967,573 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" ref="K100:K122" ca="1" si="17">IF(I100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J100)))), 0)</f>
+        <f t="shared" ref="K100:K122" ca="1" si="20">IF(I100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J100)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:L122" si="18">IF(I100="-",1,0)</f>
+        <f t="shared" ref="L100:L122" si="21">IF(I100="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M100">
-        <f>IF(K100 = 0, M99, K100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.5">
+        <f ca="1">IF(K100 = 0, M99, K100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H101" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J101">
-        <f t="shared" ref="J101:J122" si="19">IF(I101 = "-", -D100,G101)</f>
+        <f t="shared" ref="J101:J122" si="22">IF(I101 = "-", -D100,G101)</f>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" ref="M101:M122" si="20">IF(K101 = 0, M100, K101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.5">
+        <f t="shared" ref="M101:M122" ca="1" si="23">IF(K101 = 0, M100, K101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H102" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H103" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H104" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H105" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H106" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H107" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H108" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J108">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M108">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H109" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J109">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M109">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H110" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J110">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H111" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J111">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M111">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H112" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J112">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H113" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J113">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M113">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H114" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J114">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M114">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H115" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J115">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M115">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H116" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J116">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M116">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H117" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J117">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H118" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J118">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H119" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J119">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H120" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J120">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M120">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H121" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J121">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M121">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H122" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J122">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="20"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1" disablePrompts="0">
-    <dataValidation sqref="F2:F59" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-      <formula1>'Вода SKU'!$A$1:$A$137</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="0" gridLines="0"/>
+  <conditionalFormatting sqref="H2:H192">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+      <formula>1</formula>
+      <formula>100000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Вода SKU'!$A$1:$A$137</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F59</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
-      <pane state="frozen" topLeftCell="M2" xSplit="12" ySplit="1"/>
-      <selection activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F7" sqref="F7"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" hidden="1" min="1" max="1" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="2" max="4" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="5" max="5" style="0" width="10.359999999999999"/>
-    <col bestFit="1" customWidth="1" min="6" max="6" style="0" width="37.729999999999997"/>
-    <col bestFit="1" customWidth="1" min="7" max="7" style="0" width="15"/>
-    <col bestFit="1" customWidth="1" min="8" max="8" style="0" width="8.7200000000000006"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="9" max="9" style="0" width="7.6399999999999997"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="10" max="10" style="0" width="3.54"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="11" max="11" style="0" width="3.0899999999999999"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="12" max="12" style="0" width="4.0899999999999999"/>
-    <col bestFit="1" customWidth="1" hidden="1" min="13" max="13" style="0" width="5.1799999999999997"/>
-    <col bestFit="1" customWidth="1" min="14" max="1025" style="0" width="8.5299999999999994"/>
+    <col min="1" max="1" width="15" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.54296875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.08984375" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.08984375" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.1796875" hidden="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="136.5">
+    <row r="1" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3799,2607 +3571,2607 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.5">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="str">
-        <f ca="1">IF(F2="","",IF(I2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L2))))))</f>
+        <f t="shared" ref="B2:B33" ca="1" si="0">IF(F2="","",IF(I2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L2))))))</f>
         <v/>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H9" ca="1" si="21">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
+        <f t="shared" ref="H2:H9" ca="1" si="1">IF(M2 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M2)</f>
         <v/>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J9" ca="1" si="22">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
+        <f t="shared" ref="J2:J9" ca="1" si="2">IF(I2 = "-", -INDIRECT("D" &amp; ROW() - 1),G2)</f>
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K9" ca="1" si="23">IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
+        <f t="shared" ref="K2:K9" ca="1" si="3">IF(I2 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J2)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J2)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L9" si="24">IF(I2="-",1,0)</f>
+        <f t="shared" ref="L2:L9" si="4">IF(I2="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M9" ca="1" si="25">IF(K2 = 0, INDIRECT("M" &amp; ROW() - 1), K2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="14.5">
+        <f t="shared" ref="M2:M9" ca="1" si="5">IF(K2 = 0, INDIRECT("M" &amp; ROW() - 1), K2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f ca="1">IF(F3="","",IF(I3="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L3))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L3))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K3">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M3">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f ca="1">IF(F4="","",IF(I4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L4))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J4">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f ca="1">IF(F5="","",IF(I5="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L5))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L5))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J5">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f ca="1">IF(F6="","",IF(I6="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L6))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L6))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J6">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f ca="1">IF(F7="","",IF(I7="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L7))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L7))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J7">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L7">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M7">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f ca="1">IF(F8="","",IF(I8="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L8))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L8))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J8">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M8">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f ca="1">IF(F9="","",IF(I9="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L9))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L9))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="L9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="14.5">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f ca="1">IF(F10="","",IF(I10="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L10))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L10))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H73" ca="1" si="26">IF(M10 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M10)</f>
+        <f t="shared" ref="H10:H73" ca="1" si="6">IF(M10 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M10)</f>
         <v/>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J70" ca="1" si="27">IF(I10 = "-", -INDIRECT("D" &amp; ROW() - 1),G10)</f>
+        <f t="shared" ref="J10:J70" ca="1" si="7">IF(I10 = "-", -INDIRECT("D" &amp; ROW() - 1),G10)</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K73" ca="1" si="28">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
+        <f t="shared" ref="K10:K73" ca="1" si="8">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f t="shared" ref="L10:L73" si="29">IF(I10="-",1,0)</f>
+        <f t="shared" ref="L10:L73" si="9">IF(I10="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M18" ca="1" si="30">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="14.5">
+        <f t="shared" ref="M10:M18" ca="1" si="10">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f ca="1">IF(F11="","",IF(I11="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L11))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L11))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J11">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f ca="1">IF(F12="","",IF(I12="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L12))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L12))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J12">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K12">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L12">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f ca="1">IF(F13="","",IF(I13="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L13))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L13))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L13">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f ca="1">IF(F14="","",IF(I14="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L14))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L14))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L14">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f ca="1">IF(F15="","",IF(I15="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L15))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L15))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L15">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f ca="1">IF(F16="","",IF(I16="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L16))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L16))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L16">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f ca="1">IF(F17="","",IF(I17="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L17))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L17))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L17">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f ca="1">IF(F18="","",IF(I18="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L18))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L18))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L18">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="14.5">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>2</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f ca="1">IF(F19="","",IF(I19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L19))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M82" si="31">IF(K19 = 0, M18, K19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="14.5">
+        <f t="shared" ref="M19:M82" ca="1" si="11">IF(K19 = 0, M18, K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f ca="1">IF(F20="","",IF(I20="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L20))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L20))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J20">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>2</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f ca="1">IF(F21="","",IF(I21="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L21))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L21))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J21">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K21">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L21">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f ca="1">IF(F22="","",IF(I22="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L22))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L22))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J22">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f ca="1">IF(F23="","",IF(I23="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L23))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L23))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J23">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M23">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f ca="1">IF(F24="","",IF(I24="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L24))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L24))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J24">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f ca="1">IF(F25="","",IF(I25="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L25))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L25))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J25">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K25">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L25">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M25">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>5</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f ca="1">IF(F26="","",IF(I26="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L26))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L26))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J26">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K26">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M26">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f ca="1">IF(F27="","",IF(I27="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L27))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L27))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J27">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K27">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L27">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f ca="1">IF(F28="","",IF(I28="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L28))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L28))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J28">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L28">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>7</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f ca="1">IF(F29="","",IF(I29="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L29))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L29))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J29">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M29">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>6</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f ca="1">IF(F30="","",IF(I30="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L30))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L30))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J30">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M30">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f ca="1">IF(F31="","",IF(I31="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L31))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L31))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J31">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M31">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f ca="1">IF(F32="","",IF(I32="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L32))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L32))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J32">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M32">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>6</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f ca="1">IF(F33="","",IF(I33="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L33))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L33))))))</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J33">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M33">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>6</v>
       </c>
       <c r="B34" s="3" t="str">
-        <f ca="1">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
+        <f t="shared" ref="B34:B65" ca="1" si="12">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
         <v/>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J34">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M34">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>6</v>
       </c>
       <c r="B35" s="3" t="str">
-        <f ca="1">IF(F35="","",IF(I35="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L35))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L35))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J35">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M35">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>6</v>
       </c>
       <c r="B36" s="3" t="str">
-        <f ca="1">IF(F36="","",IF(I36="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L36))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L36))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J36">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M36">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>6</v>
       </c>
       <c r="B37" s="3" t="str">
-        <f ca="1">IF(F37="","",IF(I37="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L37))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L37))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J37">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M37">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>6</v>
       </c>
       <c r="B38" s="3" t="str">
-        <f ca="1">IF(F38="","",IF(I38="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L38))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L38))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H38" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J38">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M38">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>6</v>
       </c>
       <c r="B39" s="3" t="str">
-        <f ca="1">IF(F39="","",IF(I39="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L39))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L39))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H39" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J39">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>6</v>
       </c>
       <c r="B40" s="3" t="str">
-        <f ca="1">IF(F40="","",IF(I40="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L40))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L40))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H40" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J40">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>6</v>
       </c>
       <c r="B41" s="3" t="str">
-        <f ca="1">IF(F41="","",IF(I41="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L41))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L41))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H41" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J41">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>6</v>
       </c>
       <c r="B42" s="3" t="str">
-        <f ca="1">IF(F42="","",IF(I42="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L42))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L42))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H42" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J42">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>9</v>
       </c>
       <c r="B43" s="3" t="str">
-        <f ca="1">IF(F43="","",IF(I43="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L43))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L43))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H43" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J43">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>9</v>
       </c>
       <c r="B44" s="3" t="str">
-        <f ca="1">IF(F44="","",IF(I44="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L44))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L44))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H44" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J44">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M44">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>9</v>
       </c>
       <c r="B45" s="3" t="str">
-        <f ca="1">IF(F45="","",IF(I45="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L45))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L45))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H45" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J45">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M45">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>9</v>
       </c>
       <c r="B46" s="3" t="str">
-        <f ca="1">IF(F46="","",IF(I46="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L46))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L46))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H46" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J46">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L46">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M46">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>9</v>
       </c>
       <c r="B47" s="3" t="str">
-        <f ca="1">IF(F47="","",IF(I47="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L47))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L47))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J47">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>9</v>
       </c>
       <c r="B48" s="3" t="str">
-        <f ca="1">IF(F48="","",IF(I48="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L48))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L48))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H48" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J48">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K48">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L48">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B49" s="3" t="str">
-        <f ca="1">IF(F49="","",IF(I49="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L49))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L49))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H49" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J49">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K49">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L49">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B50" s="3" t="str">
-        <f ca="1">IF(F50="","",IF(I50="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L50))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L50))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H50" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J50">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K50">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L50">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M50">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B51" s="3" t="str">
-        <f ca="1">IF(F51="","",IF(I51="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L51))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L51))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H51" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J51">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K51">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M51">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B52" s="3" t="str">
-        <f ca="1">IF(F52="","",IF(I52="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L52))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L52))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H52" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J52">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K52">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M52">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B53" s="3" t="str">
-        <f ca="1">IF(F53="","",IF(I53="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L53))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L53))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H53" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J53">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K53">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M53">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B54" s="3" t="str">
-        <f ca="1">IF(F54="","",IF(I54="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L54))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L54))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H54" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J54">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K54">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M54">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B55" s="3" t="str">
-        <f ca="1">IF(F55="","",IF(I55="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L55))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L55))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H55" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J55">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K55">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M55">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B56" s="3" t="str">
-        <f ca="1">IF(F56="","",IF(I56="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L56))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L56))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H56" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J56">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K56">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M56">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B57" s="3" t="str">
-        <f ca="1">IF(F57="","",IF(I57="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L57))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L57))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H57" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J57">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K57">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M57">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B58" s="3" t="str">
-        <f ca="1">IF(F58="","",IF(I58="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L58))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L58))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H58" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J58">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K58">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M58">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B59" s="3" t="str">
-        <f ca="1">IF(F59="","",IF(I59="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L59))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L59))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H59" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J59">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K59">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L59">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M59">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B60" s="3" t="str">
-        <f ca="1">IF(F60="","",IF(I60="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L60))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L60))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H60" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J60">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K60">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B61" s="3" t="str">
-        <f ca="1">IF(F61="","",IF(I61="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L61))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L61))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J61">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K61">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M61">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B62" s="3" t="str">
-        <f ca="1">IF(F62="","",IF(I62="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L62))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L62))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H62" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J62">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K62">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M62">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B63" s="3" t="str">
-        <f ca="1">IF(F63="","",IF(I63="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L63))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L63))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H63" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J63">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K63">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M63">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B64" s="3" t="str">
-        <f ca="1">IF(F64="","",IF(I64="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L64))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L64))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H64" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J64">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K64">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B65" s="3" t="str">
-        <f ca="1">IF(F65="","",IF(I65="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L65))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L65))))))</f>
+        <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
       <c r="H65" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J65">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K65">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B66" s="3" t="str">
-        <f ca="1">IF(F66="","",IF(I66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L66))))))</f>
+        <f t="shared" ref="B66:B77" ca="1" si="13">IF(F66="","",IF(I66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L66))))))</f>
         <v/>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J66">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K66">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B67" s="3" t="str">
-        <f ca="1">IF(F67="","",IF(I67="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L67))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H67" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J67">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B68" s="3" t="str">
-        <f ca="1">IF(F68="","",IF(I68="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L68))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L68))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H68" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J68">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K68">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B69" s="3" t="str">
-        <f ca="1">IF(F69="","",IF(I69="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L69))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H69" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J69">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K69">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B70" s="3" t="str">
-        <f ca="1">IF(F70="","",IF(I70="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L70))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L70))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H70" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J70">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="K70">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B71" s="3" t="str">
-        <f ca="1">IF(F71="","",IF(I71="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L71))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H71" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J71">
-        <f t="shared" ref="J71:J99" si="32">IF(I71 = "-", -D70,G71)</f>
+        <f t="shared" ref="J71:J99" si="14">IF(I71 = "-", -D70,G71)</f>
         <v>0</v>
       </c>
       <c r="K71">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B72" s="3" t="str">
-        <f ca="1">IF(F72="","",IF(I72="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L72))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L72))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H72" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J72">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K72">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B73" s="3" t="str">
-        <f ca="1">IF(F73="","",IF(I73="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L73))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H73" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J73">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K73">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="shared" si="29"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B74" s="3" t="str">
-        <f ca="1">IF(F74="","",IF(I74="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L74))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H74" t="str">
-        <f t="shared" ref="H74:H99" ca="1" si="33">IF(M74-INDIRECT("M"&amp;ROW()-1)=0,"",INDIRECT("M"&amp;ROW()-1)-M74)</f>
+        <f t="shared" ref="H74:H99" ca="1" si="15">IF(M74-INDIRECT("M"&amp;ROW()-1)=0,"",INDIRECT("M"&amp;ROW()-1)-M74)</f>
         <v/>
       </c>
       <c r="J74">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K74">
-        <f t="shared" ref="K74:K99" ca="1" si="34">IF(I74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J74)))),0)</f>
+        <f t="shared" ref="K74:K99" ca="1" si="16">IF(I74="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J74)))),0)</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="shared" ref="L74:L99" si="35">IF(I74="-",1,0)</f>
+        <f t="shared" ref="L74:L99" si="17">IF(I74="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B75" s="3" t="str">
-        <f ca="1">IF(F75="","",IF(I75="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L75))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H75" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J75">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K75">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M75">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B76" s="3" t="str">
-        <f ca="1">IF(F76="","",IF(I76="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L76))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H76" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J76">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K76">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B77" s="3" t="str">
-        <f ca="1">IF(F77="","",IF(I77="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L77))))))</f>
+        <f t="shared" ca="1" si="13"/>
         <v/>
       </c>
       <c r="H77" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J77">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K77">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H78" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J78">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K78">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H79" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J79">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K79">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H80" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J80">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M80">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H81" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J81">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K81">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H82" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J82">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K82">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" ht="14.5">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H83" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J83">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K83">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="shared" ref="M83:M99" si="36">IF(K83=0,M82,K83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" ht="14.5">
+        <f t="shared" ref="M83:M99" ca="1" si="18">IF(K83=0,M82,K83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H84" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J84">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K84">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H85" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J85">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K85">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H86" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J86">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K86">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H87" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J87">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K87">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M87">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H88" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J88">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K88">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M88">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H89" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J89">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K89">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M89">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H90" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J90">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K90">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M90">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H91" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J91">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K91">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M91">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H92" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J92">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K92">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H93" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J93">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K93">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M93">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H94" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J94">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K94">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H95" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J95">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K95">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M95">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H96" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J96">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K96">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M96">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H97" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J97">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K97">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M97">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H98" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J98">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K98">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M98">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H99" t="str">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="15"/>
         <v/>
       </c>
       <c r="J99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K99">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="16"/>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="shared" si="35"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" ht="14.5">
+        <f t="shared" ca="1" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H100" t="str">
-        <f t="shared" ref="H100:H122" ca="1" si="37">IF(M100 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M100)</f>
+        <f t="shared" ref="H100:H122" ca="1" si="19">IF(M100 - INDIRECT("M" &amp; ROW() - 1) = 0, "", INDIRECT("M" &amp; ROW() - 1) - M100)</f>
         <v/>
       </c>
       <c r="J100">
@@ -6407,572 +6179,580 @@
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" ref="K100:K122" ca="1" si="38">IF(I100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J100)))), 0)</f>
+        <f t="shared" ref="K100:K122" ca="1" si="20">IF(I100 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J100)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J100)))), 0)</f>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L100:L122" si="39">IF(I100="-",1,0)</f>
+        <f t="shared" ref="L100:L122" si="21">IF(I100="-",1,0)</f>
         <v>0</v>
       </c>
       <c r="M100">
-        <f>IF(K100 = 0, M99, K100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" ht="14.5">
+        <f ca="1">IF(K100 = 0, M99, K100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H101" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J101">
-        <f t="shared" ref="J101:J122" si="40">IF(I101 = "-", -D100,G101)</f>
+        <f t="shared" ref="J101:J122" si="22">IF(I101 = "-", -D100,G101)</f>
         <v>0</v>
       </c>
       <c r="K101">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="shared" ref="M101:M122" si="41">IF(K101 = 0, M100, K101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" ht="14.5">
+        <f t="shared" ref="M101:M122" ca="1" si="23">IF(K101 = 0, M100, K101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H102" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J102">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K102">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H103" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J103">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K103">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H104" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J104">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K104">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H105" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J105">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K105">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H106" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J106">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K106">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H107" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J107">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K107">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H108" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J108">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K108">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M108">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H109" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J109">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K109">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M109">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H110" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J110">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K110">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H111" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J111">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K111">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L111">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M111">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H112" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J112">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K112">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L112">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M112">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H113" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J113">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K113">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L113">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M113">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H114" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J114">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K114">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L114">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M114">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H115" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J115">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K115">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L115">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M115">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H116" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K116">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M116">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H117" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J117">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K117">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L117">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M117">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H118" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J118">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K118">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L118">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M118">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H119" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J119">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K119">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L119">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M119">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H120" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J120">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K120">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L120">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M120">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H121" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J121">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K121">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L121">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M121">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" ht="14.5">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="8:13" x14ac:dyDescent="0.35">
       <c r="H122" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="19"/>
         <v/>
       </c>
       <c r="J122">
-        <f t="shared" si="40"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="K122">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="20"/>
         <v>0</v>
       </c>
       <c r="L122">
-        <f t="shared" si="39"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M122">
-        <f t="shared" si="41"/>
+        <f t="shared" ca="1" si="23"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H:H">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFCFCFF"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1" disablePrompts="0">
-    <dataValidation sqref="F2:F122" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="1" showInputMessage="1">
-      <formula1>'Соль SKU'!$A$1:$A$137</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="0" gridLines="0"/>
+  <conditionalFormatting sqref="H2:H122">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H265">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+      <formula>1</formula>
+      <formula>100000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Соль SKU'!$A$1:$A$137</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>F2:F122</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
-      <selection activeCell="L22" activeCellId="0" sqref="L22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="0" width="43.630000000000003"/>
-    <col bestFit="1" customWidth="1" min="2" max="1025" style="0" width="8.5299999999999994"/>
+    <col min="1" max="1" width="43.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr filterMode="0">
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" workbookViewId="0" zoomScale="100">
-      <selection activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" style="0" width="43.719999999999999"/>
-    <col bestFit="1" customWidth="1" min="2" max="1025" style="0" width="8.5299999999999994"/>
+    <col min="1" max="1" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="1025" width="8.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup blackAndWhite="0" cellComments="none" copies="1" draft="0" errors="displayed" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>Номер варки</t>
   </si>
@@ -56,12 +56,15 @@
   <si>
     <t>Разделитель int</t>
   </si>
+  <si>
+    <t>Номер партии</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="64"/>
@@ -74,6 +77,12 @@
     <font>
       <sz val="7"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -105,15 +114,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -128,27 +147,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -302,13 +300,14 @@
       <selection activeCell="F3" sqref="F3"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -322,8 +321,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -386,9 +385,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -415,9 +412,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -444,9 +439,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -473,9 +466,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -502,9 +493,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -531,9 +520,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -560,9 +547,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -589,9 +574,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -618,9 +601,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -647,9 +628,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -676,9 +655,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -705,9 +682,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -734,9 +709,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -763,9 +736,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -792,9 +763,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -821,9 +790,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -850,9 +817,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -879,9 +844,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -908,9 +871,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -937,9 +898,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -966,9 +925,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -995,9 +952,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1024,9 +979,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1053,9 +1006,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1082,9 +1033,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1111,9 +1060,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>7</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1140,9 +1087,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>7</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1169,9 +1114,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1198,9 +1141,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1227,9 +1168,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>6</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1256,9 +1195,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>6</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -1285,9 +1222,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>6</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B65" ca="1" si="12">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
         <v/>
@@ -1314,9 +1249,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1343,9 +1276,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1372,9 +1303,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1401,9 +1330,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1430,9 +1357,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1459,9 +1384,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>6</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1488,9 +1411,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>6</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1517,9 +1438,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>6</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1546,9 +1465,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1575,9 +1492,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>9</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1604,9 +1519,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>9</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1633,9 +1546,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1662,9 +1573,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>9</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -1691,9 +1600,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>9</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -3477,10 +3384,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H192">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="between">
       <formula>1</formula>
       <formula>100000</formula>
     </cfRule>
@@ -3514,13 +3421,13 @@
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -3534,8 +3441,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3598,9 +3505,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3627,9 +3532,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3656,9 +3559,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3685,9 +3586,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3714,9 +3613,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3743,9 +3640,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3772,9 +3667,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3801,9 +3694,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3830,9 +3721,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3859,9 +3748,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3888,9 +3775,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="1">
-        <v>1</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3917,9 +3802,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
       <c r="B14" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3946,9 +3829,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -3975,9 +3856,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4004,9 +3883,7 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4033,9 +3910,7 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
-        <v>3</v>
-      </c>
+      <c r="A18" s="1"/>
       <c r="B18" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4062,9 +3937,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4091,9 +3964,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
-        <v>2</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4120,9 +3991,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4149,9 +4018,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4178,9 +4045,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4207,9 +4072,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4236,9 +4099,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>2</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4265,9 +4126,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4294,9 +4153,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>5</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4323,9 +4180,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>7</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4352,9 +4207,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>7</v>
-      </c>
+      <c r="A29" s="1"/>
       <c r="B29" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4381,9 +4234,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>6</v>
-      </c>
+      <c r="A30" s="1"/>
       <c r="B30" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4410,9 +4261,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>6</v>
-      </c>
+      <c r="A31" s="1"/>
       <c r="B31" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4439,9 +4288,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>6</v>
-      </c>
+      <c r="A32" s="1"/>
       <c r="B32" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4468,9 +4315,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>6</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
@@ -4497,9 +4342,7 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>6</v>
-      </c>
+      <c r="A34" s="1"/>
       <c r="B34" s="3" t="str">
         <f t="shared" ref="B34:B65" ca="1" si="12">IF(F34="","",IF(I34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(L34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(L34))))))</f>
         <v/>
@@ -4526,9 +4369,7 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>6</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4555,9 +4396,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>6</v>
-      </c>
+      <c r="A36" s="1"/>
       <c r="B36" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4584,9 +4423,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>6</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4613,9 +4450,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>6</v>
-      </c>
+      <c r="A38" s="1"/>
       <c r="B38" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4642,9 +4477,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>6</v>
-      </c>
+      <c r="A39" s="1"/>
       <c r="B39" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4671,9 +4504,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>6</v>
-      </c>
+      <c r="A40" s="1"/>
       <c r="B40" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4700,9 +4531,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>6</v>
-      </c>
+      <c r="A41" s="1"/>
       <c r="B41" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4729,9 +4558,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>6</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4758,9 +4585,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
+      <c r="A43" s="1"/>
       <c r="B43" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4787,9 +4612,7 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>9</v>
-      </c>
+      <c r="A44" s="1"/>
       <c r="B44" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4816,9 +4639,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>9</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4845,9 +4666,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>9</v>
-      </c>
+      <c r="A46" s="1"/>
       <c r="B46" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4874,9 +4693,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>9</v>
-      </c>
+      <c r="A47" s="1"/>
       <c r="B47" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -4903,9 +4720,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>9</v>
-      </c>
+      <c r="A48" s="1"/>
       <c r="B48" s="3" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
@@ -6689,12 +6504,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H122">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H265">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
       <formula>1</formula>
       <formula>100000</formula>
     </cfRule>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Вода" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Соль" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Вода SKU" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Соль SKU" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Типы варок" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'Вода SKU'!$A$1:$A$100</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t xml:space="preserve">Номер партии</t>
   </si>
@@ -63,6 +64,12 @@
   <si>
     <t xml:space="preserve">Разделитель int</t>
   </si>
+  <si>
+    <t xml:space="preserve">Тест</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тут</t>
+  </si>
 </sst>
 </file>
 
@@ -71,7 +78,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,6 +118,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -155,7 +169,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,6 +184,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -203,16 +221,17 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFEBF1DE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -235,7 +254,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -283,14 +302,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,9 +323,10 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="1.73"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="2"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="1.63"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="2.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="2.53"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="7.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="6.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -350,11 +370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="str">
         <f aca="true">IF(F2="","",IF(J2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M2))))))</f>
         <v/>
       </c>
+      <c r="C2" s="4"/>
       <c r="H2" s="0" t="str">
         <f aca="true">IF(N2 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N2)</f>
         <v/>
@@ -375,9 +396,13 @@
         <f aca="true">IF(L2 = 0, INDIRECT("N" &amp; ROW() - 1), L2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">IF(F2="","",VLOOKUP(F2,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="str">
         <f aca="true">IF(F3="","",IF(J3="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M3))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M3))))))</f>
         <v/>
@@ -402,9 +427,13 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="O3" s="0" t="str">
+        <f aca="false">IF(F3="","",VLOOKUP(F3,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
       <c r="B4" s="3" t="str">
         <f aca="true">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
         <v/>
@@ -429,9 +458,13 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
+      <c r="O4" s="0" t="str">
+        <f aca="false">IF(F4="","",VLOOKUP(F4,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="str">
         <f aca="true">IF(F5="","",IF(J5="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M5))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M5))))))</f>
         <v/>
@@ -456,9 +489,13 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
+      <c r="O5" s="0" t="str">
+        <f aca="false">IF(F5="","",VLOOKUP(F5,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="str">
         <f aca="true">IF(F6="","",IF(J6="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M6))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M6))))))</f>
         <v/>
@@ -483,9 +520,13 @@
         <f aca="true">IF(L6 = 0, INDIRECT("N" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="O6" s="0" t="str">
+        <f aca="false">IF(F6="","",VLOOKUP(F6,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="str">
         <f aca="true">IF(F7="","",IF(J7="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M7))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M7))))))</f>
         <v/>
@@ -510,9 +551,13 @@
         <f aca="true">IF(L7 = 0, INDIRECT("N" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="O7" s="0" t="str">
+        <f aca="false">IF(F7="","",VLOOKUP(F7,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="str">
         <f aca="true">IF(F8="","",IF(J8="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M8))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M8))))))</f>
         <v/>
@@ -537,9 +582,13 @@
         <f aca="true">IF(L8 = 0, INDIRECT("N" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="O8" s="0" t="str">
+        <f aca="false">IF(F8="","",VLOOKUP(F8,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="str">
         <f aca="true">IF(F9="","",IF(J9="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M9))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M9))))))</f>
         <v/>
@@ -564,9 +613,13 @@
         <f aca="true">IF(L9 = 0, INDIRECT("N" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="O9" s="0" t="str">
+        <f aca="false">IF(F9="","",VLOOKUP(F9,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="str">
         <f aca="true">IF(F10="","",IF(J10="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M10))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M10))))))</f>
         <v/>
@@ -591,9 +644,13 @@
         <f aca="true">IF(L10 = 0, INDIRECT("N" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="O10" s="0" t="str">
+        <f aca="false">IF(F10="","",VLOOKUP(F10,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
       <c r="B11" s="3" t="str">
         <f aca="true">IF(F11="","",IF(J11="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M11))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M11))))))</f>
         <v/>
@@ -618,9 +675,13 @@
         <f aca="true">IF(L11 = 0, INDIRECT("N" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+      <c r="O11" s="0" t="str">
+        <f aca="false">IF(F11="","",VLOOKUP(F11,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="str">
         <f aca="true">IF(F12="","",IF(J12="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M12))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M12))))))</f>
         <v/>
@@ -645,9 +706,13 @@
         <f aca="true">IF(L12 = 0, INDIRECT("N" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="O12" s="0" t="str">
+        <f aca="false">IF(F12="","",VLOOKUP(F12,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
       <c r="B13" s="3" t="str">
         <f aca="true">IF(F13="","",IF(J13="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M13))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M13))))))</f>
         <v/>
@@ -672,9 +737,13 @@
         <f aca="true">IF(L13 = 0, INDIRECT("N" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
+      <c r="O13" s="0" t="str">
+        <f aca="false">IF(F13="","",VLOOKUP(F13,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="str">
         <f aca="true">IF(F14="","",IF(J14="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M14))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M14))))))</f>
         <v/>
@@ -699,9 +768,13 @@
         <f aca="true">IF(L14 = 0, INDIRECT("N" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
+      <c r="O14" s="0" t="str">
+        <f aca="false">IF(F14="","",VLOOKUP(F14,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="str">
         <f aca="true">IF(F15="","",IF(J15="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M15))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M15))))))</f>
         <v/>
@@ -726,9 +799,13 @@
         <f aca="true">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
+      <c r="O15" s="0" t="str">
+        <f aca="false">IF(F15="","",VLOOKUP(F15,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="str">
         <f aca="true">IF(F16="","",IF(J16="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M16))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M16))))))</f>
         <v/>
@@ -753,9 +830,13 @@
         <f aca="true">IF(L16 = 0, INDIRECT("N" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(F16="","",VLOOKUP(F16,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="str">
         <f aca="true">IF(F17="","",IF(J17="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M17))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M17))))))</f>
         <v/>
@@ -780,9 +861,13 @@
         <f aca="true">IF(L17 = 0, INDIRECT("N" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(F17="","",VLOOKUP(F17,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="str">
         <f aca="true">IF(F18="","",IF(J18="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M18))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M18))))))</f>
         <v/>
@@ -807,9 +892,13 @@
         <f aca="true">IF(L18 = 0, INDIRECT("N" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
+      <c r="O18" s="0" t="str">
+        <f aca="false">IF(F18="","",VLOOKUP(F18,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="str">
         <f aca="true">IF(F19="","",IF(J19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M19))))))</f>
         <v/>
@@ -834,9 +923,13 @@
         <f aca="true">IF(L19 = 0, INDIRECT("N" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+      <c r="O19" s="0" t="str">
+        <f aca="false">IF(F19="","",VLOOKUP(F19,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="str">
         <f aca="true">IF(F20="","",IF(J20="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M20))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M20))))))</f>
         <v/>
@@ -861,9 +954,13 @@
         <f aca="true">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(F20="","",VLOOKUP(F20,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="str">
         <f aca="true">IF(F21="","",IF(J21="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M21))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M21))))))</f>
         <v/>
@@ -888,9 +985,13 @@
         <f aca="true">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(F21="","",VLOOKUP(F21,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="str">
         <f aca="true">IF(F22="","",IF(J22="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M22))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M22))))))</f>
         <v/>
@@ -915,9 +1016,13 @@
         <f aca="true">IF(L22 = 0, INDIRECT("N" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
+      <c r="O22" s="0" t="str">
+        <f aca="false">IF(F22="","",VLOOKUP(F22,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="str">
         <f aca="true">IF(F23="","",IF(J23="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M23))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M23))))))</f>
         <v/>
@@ -942,9 +1047,13 @@
         <f aca="true">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+      <c r="O23" s="0" t="str">
+        <f aca="false">IF(F23="","",VLOOKUP(F23,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="str">
         <f aca="true">IF(F24="","",IF(J24="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M24))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M24))))))</f>
         <v/>
@@ -969,9 +1078,13 @@
         <f aca="true">IF(L24 = 0, INDIRECT("N" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
+      <c r="O24" s="0" t="str">
+        <f aca="false">IF(F24="","",VLOOKUP(F24,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="str">
         <f aca="true">IF(F25="","",IF(J25="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M25))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M25))))))</f>
         <v/>
@@ -996,9 +1109,13 @@
         <f aca="true">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
+      <c r="O25" s="0" t="str">
+        <f aca="false">IF(F25="","",VLOOKUP(F25,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
       <c r="B26" s="3" t="str">
         <f aca="true">IF(F26="","",IF(J26="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M26))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M26))))))</f>
         <v/>
@@ -1023,9 +1140,13 @@
         <f aca="true">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
+      <c r="O26" s="0" t="str">
+        <f aca="false">IF(F26="","",VLOOKUP(F26,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
       <c r="B27" s="3" t="str">
         <f aca="true">IF(F27="","",IF(J27="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M27))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M27))))))</f>
         <v/>
@@ -1050,9 +1171,13 @@
         <f aca="true">IF(L27 = 0, INDIRECT("N" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
+      <c r="O27" s="0" t="str">
+        <f aca="false">IF(F27="","",VLOOKUP(F27,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="str">
         <f aca="true">IF(F28="","",IF(J28="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M28))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M28))))))</f>
         <v/>
@@ -1077,9 +1202,13 @@
         <f aca="true">IF(L28 = 0, INDIRECT("N" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
+      <c r="O28" s="0" t="str">
+        <f aca="false">IF(F28="","",VLOOKUP(F28,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
       <c r="B29" s="3" t="str">
         <f aca="true">IF(F29="","",IF(J29="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M29))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M29))))))</f>
         <v/>
@@ -1104,9 +1233,13 @@
         <f aca="true">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
+      <c r="O29" s="0" t="str">
+        <f aca="false">IF(F29="","",VLOOKUP(F29,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
       <c r="B30" s="3" t="str">
         <f aca="true">IF(F30="","",IF(J30="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M30))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M30))))))</f>
         <v/>
@@ -1131,9 +1264,13 @@
         <f aca="true">IF(L30 = 0, INDIRECT("N" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
+      <c r="O30" s="0" t="str">
+        <f aca="false">IF(F30="","",VLOOKUP(F30,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
       <c r="B31" s="3" t="str">
         <f aca="true">IF(F31="","",IF(J31="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M31))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M31))))))</f>
         <v/>
@@ -1158,9 +1295,13 @@
         <f aca="true">IF(L31 = 0, INDIRECT("N" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
+      <c r="O31" s="0" t="str">
+        <f aca="false">IF(F31="","",VLOOKUP(F31,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="str">
         <f aca="true">IF(F32="","",IF(J32="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M32))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M32))))))</f>
         <v/>
@@ -1185,9 +1326,13 @@
         <f aca="true">IF(L32 = 0, INDIRECT("N" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
+      <c r="O32" s="0" t="str">
+        <f aca="false">IF(F32="","",VLOOKUP(F32,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
       <c r="B33" s="3" t="str">
         <f aca="true">IF(F33="","",IF(J33="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M33))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M33))))))</f>
         <v/>
@@ -1212,9 +1357,13 @@
         <f aca="true">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
+      <c r="O33" s="0" t="str">
+        <f aca="false">IF(F33="","",VLOOKUP(F33,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
       <c r="B34" s="3" t="str">
         <f aca="true">IF(F34="","",IF(J34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M34))))))</f>
         <v/>
@@ -1239,9 +1388,13 @@
         <f aca="true">IF(L34 = 0, INDIRECT("N" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
+      <c r="O34" s="0" t="str">
+        <f aca="false">IF(F34="","",VLOOKUP(F34,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
       <c r="B35" s="3" t="str">
         <f aca="true">IF(F35="","",IF(J35="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M35))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M35))))))</f>
         <v/>
@@ -1266,9 +1419,13 @@
         <f aca="true">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
+      <c r="O35" s="0" t="str">
+        <f aca="false">IF(F35="","",VLOOKUP(F35,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
       <c r="B36" s="3" t="str">
         <f aca="true">IF(F36="","",IF(J36="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M36))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M36))))))</f>
         <v/>
@@ -1293,9 +1450,13 @@
         <f aca="true">IF(L36 = 0, INDIRECT("N" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
+      <c r="O36" s="0" t="str">
+        <f aca="false">IF(F36="","",VLOOKUP(F36,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
       <c r="B37" s="3" t="str">
         <f aca="true">IF(F37="","",IF(J37="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M37))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M37))))))</f>
         <v/>
@@ -1320,9 +1481,13 @@
         <f aca="true">IF(L37 = 0, INDIRECT("N" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
+      <c r="O37" s="0" t="str">
+        <f aca="false">IF(F37="","",VLOOKUP(F37,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
       <c r="B38" s="3" t="str">
         <f aca="true">IF(F38="","",IF(J38="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M38))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M38))))))</f>
         <v/>
@@ -1347,9 +1512,13 @@
         <f aca="true">IF(L38 = 0, INDIRECT("N" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
+      <c r="O38" s="0" t="str">
+        <f aca="false">IF(F38="","",VLOOKUP(F38,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
       <c r="B39" s="3" t="str">
         <f aca="true">IF(F39="","",IF(J39="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M39))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M39))))))</f>
         <v/>
@@ -1374,9 +1543,13 @@
         <f aca="true">IF(L39 = 0, INDIRECT("N" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
+      <c r="O39" s="0" t="str">
+        <f aca="false">IF(F39="","",VLOOKUP(F39,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
       <c r="B40" s="3" t="str">
         <f aca="true">IF(F40="","",IF(J40="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M40))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M40))))))</f>
         <v/>
@@ -1401,9 +1574,13 @@
         <f aca="true">IF(L40 = 0, INDIRECT("N" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
+      <c r="O40" s="0" t="str">
+        <f aca="false">IF(F40="","",VLOOKUP(F40,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
       <c r="B41" s="3" t="str">
         <f aca="true">IF(F41="","",IF(J41="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M41))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M41))))))</f>
         <v/>
@@ -1428,9 +1605,13 @@
         <f aca="true">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
+      <c r="O41" s="0" t="str">
+        <f aca="false">IF(F41="","",VLOOKUP(F41,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
       <c r="B42" s="3" t="str">
         <f aca="true">IF(F42="","",IF(J42="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M42))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M42))))))</f>
         <v/>
@@ -1455,9 +1636,13 @@
         <f aca="true">IF(L42 = 0, INDIRECT("N" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
+      <c r="O42" s="0" t="str">
+        <f aca="false">IF(F42="","",VLOOKUP(F42,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="str">
         <f aca="true">IF(F43="","",IF(J43="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M43))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M43))))))</f>
         <v/>
@@ -1482,9 +1667,13 @@
         <f aca="true">IF(L43 = 0, INDIRECT("N" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
+      <c r="O43" s="0" t="str">
+        <f aca="false">IF(F43="","",VLOOKUP(F43,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="str">
         <f aca="true">IF(F44="","",IF(J44="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M44))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M44))))))</f>
         <v/>
@@ -1509,9 +1698,13 @@
         <f aca="true">IF(L44 = 0, INDIRECT("N" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
+      <c r="O44" s="0" t="str">
+        <f aca="false">IF(F44="","",VLOOKUP(F44,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
       <c r="B45" s="3" t="str">
         <f aca="true">IF(F45="","",IF(J45="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M45))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M45))))))</f>
         <v/>
@@ -1536,9 +1729,13 @@
         <f aca="true">IF(L45 = 0, INDIRECT("N" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
+      <c r="O45" s="0" t="str">
+        <f aca="false">IF(F45="","",VLOOKUP(F45,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
       <c r="B46" s="3" t="str">
         <f aca="true">IF(F46="","",IF(J46="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M46))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M46))))))</f>
         <v/>
@@ -1563,9 +1760,13 @@
         <f aca="true">IF(L46 = 0, INDIRECT("N" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+      <c r="O46" s="0" t="str">
+        <f aca="false">IF(F46="","",VLOOKUP(F46,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
       <c r="B47" s="3" t="str">
         <f aca="true">IF(F47="","",IF(J47="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M47))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M47))))))</f>
         <v/>
@@ -1590,9 +1791,13 @@
         <f aca="true">IF(L47 = 0, INDIRECT("N" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
+      <c r="O47" s="0" t="str">
+        <f aca="false">IF(F47="","",VLOOKUP(F47,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
       <c r="B48" s="3" t="str">
         <f aca="true">IF(F48="","",IF(J48="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M48))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M48))))))</f>
         <v/>
@@ -1617,8 +1822,12 @@
         <f aca="true">IF(L48 = 0, INDIRECT("N" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O48" s="0" t="str">
+        <f aca="false">IF(F48="","",VLOOKUP(F48,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="str">
         <f aca="true">IF(F49="","",IF(J49="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M49))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M49))))))</f>
         <v/>
@@ -1643,8 +1852,12 @@
         <f aca="true">IF(L49 = 0, INDIRECT("N" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="0" t="str">
+        <f aca="false">IF(F49="","",VLOOKUP(F49,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="str">
         <f aca="true">IF(F50="","",IF(J50="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M50))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M50))))))</f>
         <v/>
@@ -1669,8 +1882,12 @@
         <f aca="true">IF(L50 = 0, INDIRECT("N" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O50" s="0" t="str">
+        <f aca="false">IF(F50="","",VLOOKUP(F50,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="str">
         <f aca="true">IF(F51="","",IF(J51="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M51))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M51))))))</f>
         <v/>
@@ -1695,8 +1912,12 @@
         <f aca="true">IF(L51 = 0, INDIRECT("N" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O51" s="0" t="str">
+        <f aca="false">IF(F51="","",VLOOKUP(F51,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="str">
         <f aca="true">IF(F52="","",IF(J52="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M52))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M52))))))</f>
         <v/>
@@ -1721,8 +1942,12 @@
         <f aca="true">IF(L52 = 0, INDIRECT("N" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O52" s="0" t="str">
+        <f aca="false">IF(F52="","",VLOOKUP(F52,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="str">
         <f aca="true">IF(F53="","",IF(J53="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M53))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M53))))))</f>
         <v/>
@@ -1747,8 +1972,12 @@
         <f aca="true">IF(L53 = 0, INDIRECT("N" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O53" s="0" t="str">
+        <f aca="false">IF(F53="","",VLOOKUP(F53,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="str">
         <f aca="true">IF(F54="","",IF(J54="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M54))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M54))))))</f>
         <v/>
@@ -1773,8 +2002,12 @@
         <f aca="true">IF(L54 = 0, INDIRECT("N" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O54" s="0" t="str">
+        <f aca="false">IF(F54="","",VLOOKUP(F54,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="str">
         <f aca="true">IF(F55="","",IF(J55="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M55))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M55))))))</f>
         <v/>
@@ -1799,8 +2032,12 @@
         <f aca="true">IF(L55 = 0, INDIRECT("N" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O55" s="0" t="str">
+        <f aca="false">IF(F55="","",VLOOKUP(F55,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="str">
         <f aca="true">IF(F56="","",IF(J56="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M56))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M56))))))</f>
         <v/>
@@ -1825,8 +2062,12 @@
         <f aca="true">IF(L56 = 0, INDIRECT("N" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O56" s="0" t="str">
+        <f aca="false">IF(F56="","",VLOOKUP(F56,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="str">
         <f aca="true">IF(F57="","",IF(J57="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M57))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M57))))))</f>
         <v/>
@@ -1851,8 +2092,12 @@
         <f aca="true">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O57" s="0" t="str">
+        <f aca="false">IF(F57="","",VLOOKUP(F57,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="str">
         <f aca="true">IF(F58="","",IF(J58="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M58))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M58))))))</f>
         <v/>
@@ -1877,8 +2122,12 @@
         <f aca="true">IF(L58 = 0, INDIRECT("N" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O58" s="0" t="str">
+        <f aca="false">IF(F58="","",VLOOKUP(F58,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="str">
         <f aca="true">IF(F59="","",IF(J59="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M59))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M59))))))</f>
         <v/>
@@ -1903,8 +2152,12 @@
         <f aca="true">IF(L59 = 0, INDIRECT("N" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O59" s="0" t="str">
+        <f aca="false">IF(F59="","",VLOOKUP(F59,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="str">
         <f aca="true">IF(F60="","",IF(J60="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M60))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M60))))))</f>
         <v/>
@@ -1929,8 +2182,12 @@
         <f aca="true">IF(L60 = 0, INDIRECT("N" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O60" s="0" t="str">
+        <f aca="false">IF(F60="","",VLOOKUP(F60,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="str">
         <f aca="true">IF(F61="","",IF(J61="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M61))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M61))))))</f>
         <v/>
@@ -1955,8 +2212,12 @@
         <f aca="true">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O61" s="0" t="str">
+        <f aca="false">IF(F61="","",VLOOKUP(F61,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="str">
         <f aca="true">IF(F62="","",IF(J62="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M62))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M62))))))</f>
         <v/>
@@ -1981,8 +2242,12 @@
         <f aca="true">IF(L62 = 0, INDIRECT("N" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O62" s="0" t="str">
+        <f aca="false">IF(F62="","",VLOOKUP(F62,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="str">
         <f aca="true">IF(F63="","",IF(J63="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M63))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M63))))))</f>
         <v/>
@@ -2007,8 +2272,12 @@
         <f aca="true">IF(L63 = 0, INDIRECT("N" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="0" t="str">
+        <f aca="false">IF(F63="","",VLOOKUP(F63,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="str">
         <f aca="true">IF(F64="","",IF(J64="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M64))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M64))))))</f>
         <v/>
@@ -2033,8 +2302,12 @@
         <f aca="true">IF(L64 = 0, INDIRECT("N" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O64" s="0" t="str">
+        <f aca="false">IF(F64="","",VLOOKUP(F64,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="str">
         <f aca="true">IF(F65="","",IF(J65="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M65))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M65))))))</f>
         <v/>
@@ -2059,8 +2332,12 @@
         <f aca="true">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O65" s="0" t="str">
+        <f aca="false">IF(F65="","",VLOOKUP(F65,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="str">
         <f aca="true">IF(F66="","",IF(J66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M66))))))</f>
         <v/>
@@ -2085,8 +2362,12 @@
         <f aca="true">IF(L66 = 0, INDIRECT("N" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O66" s="0" t="str">
+        <f aca="false">IF(F66="","",VLOOKUP(F66,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="str">
         <f aca="true">IF(F67="","",IF(J67="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M67))))))</f>
         <v/>
@@ -2111,8 +2392,12 @@
         <f aca="true">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O67" s="0" t="str">
+        <f aca="false">IF(F67="","",VLOOKUP(F67,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="str">
         <f aca="true">IF(F68="","",IF(J68="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M68))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M68))))))</f>
         <v/>
@@ -2137,8 +2422,12 @@
         <f aca="true">IF(L68 = 0, INDIRECT("N" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O68" s="0" t="str">
+        <f aca="false">IF(F68="","",VLOOKUP(F68,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="str">
         <f aca="true">IF(F69="","",IF(J69="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M69))))))</f>
         <v/>
@@ -2163,8 +2452,12 @@
         <f aca="true">IF(L69 = 0, INDIRECT("N" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O69" s="0" t="str">
+        <f aca="false">IF(F69="","",VLOOKUP(F69,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="str">
         <f aca="true">IF(F70="","",IF(J70="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M70))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M70))))))</f>
         <v/>
@@ -2189,8 +2482,12 @@
         <f aca="true">IF(L70 = 0, INDIRECT("N" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O70" s="0" t="str">
+        <f aca="false">IF(F70="","",VLOOKUP(F70,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="str">
         <f aca="true">IF(F71="","",IF(J71="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M71))))))</f>
         <v/>
@@ -2215,8 +2512,12 @@
         <f aca="true">IF(L71 = 0, INDIRECT("N" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="0" t="str">
+        <f aca="false">IF(F71="","",VLOOKUP(F71,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="str">
         <f aca="true">IF(F72="","",IF(J72="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M72))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M72))))))</f>
         <v/>
@@ -2241,8 +2542,12 @@
         <f aca="true">IF(L72 = 0, INDIRECT("N" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="0" t="str">
+        <f aca="false">IF(F72="","",VLOOKUP(F72,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="str">
         <f aca="true">IF(F73="","",IF(J73="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M73))))))</f>
         <v/>
@@ -2267,8 +2572,12 @@
         <f aca="true">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O73" s="0" t="str">
+        <f aca="false">IF(F73="","",VLOOKUP(F73,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="str">
         <f aca="true">IF(F74="","",IF(J74="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M74))))))</f>
         <v/>
@@ -2293,8 +2602,12 @@
         <f aca="true">IF(L74 = 0, INDIRECT("N" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O74" s="0" t="str">
+        <f aca="false">IF(F74="","",VLOOKUP(F74,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="str">
         <f aca="true">IF(F75="","",IF(J75="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M75))))))</f>
         <v/>
@@ -2319,8 +2632,12 @@
         <f aca="true">IF(L75 = 0, INDIRECT("N" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O75" s="0" t="str">
+        <f aca="false">IF(F75="","",VLOOKUP(F75,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="str">
         <f aca="true">IF(F76="","",IF(J76="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M76))))))</f>
         <v/>
@@ -2345,8 +2662,12 @@
         <f aca="true">IF(L76 = 0, INDIRECT("N" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O76" s="0" t="str">
+        <f aca="false">IF(F76="","",VLOOKUP(F76,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="str">
         <f aca="true">IF(F77="","",IF(J77="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M77))))))</f>
         <v/>
@@ -2371,8 +2692,12 @@
         <f aca="true">IF(L77 = 0, INDIRECT("N" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O77" s="0" t="str">
+        <f aca="false">IF(F77="","",VLOOKUP(F77,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H78" s="0" t="str">
         <f aca="true">IF(N78 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N78)</f>
         <v/>
@@ -2393,8 +2718,12 @@
         <f aca="true">IF(L78 = 0, INDIRECT("N" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O78" s="0" t="str">
+        <f aca="false">IF(F78="","",VLOOKUP(F78,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H79" s="0" t="str">
         <f aca="true">IF(N79 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N79)</f>
         <v/>
@@ -2415,8 +2744,12 @@
         <f aca="true">IF(L79 = 0, INDIRECT("N" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O79" s="0" t="str">
+        <f aca="false">IF(F79="","",VLOOKUP(F79,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H80" s="0" t="str">
         <f aca="true">IF(N80 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N80)</f>
         <v/>
@@ -2437,8 +2770,12 @@
         <f aca="true">IF(L80 = 0, INDIRECT("N" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O80" s="0" t="str">
+        <f aca="false">IF(F80="","",VLOOKUP(F80,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H81" s="0" t="str">
         <f aca="true">IF(N81 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N81)</f>
         <v/>
@@ -2459,8 +2796,12 @@
         <f aca="true">IF(L81 = 0, INDIRECT("N" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O81" s="0" t="str">
+        <f aca="false">IF(F81="","",VLOOKUP(F81,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H82" s="0" t="str">
         <f aca="true">IF(N82 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N82)</f>
         <v/>
@@ -2481,8 +2822,12 @@
         <f aca="true">IF(L82 = 0, INDIRECT("N" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O82" s="0" t="str">
+        <f aca="false">IF(F82="","",VLOOKUP(F82,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H83" s="0" t="str">
         <f aca="true">IF(N83 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N83)</f>
         <v/>
@@ -2503,8 +2848,12 @@
         <f aca="true">IF(L83 = 0, INDIRECT("N" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O83" s="0" t="str">
+        <f aca="false">IF(F83="","",VLOOKUP(F83,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H84" s="0" t="str">
         <f aca="true">IF(N84 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N84)</f>
         <v/>
@@ -2525,8 +2874,12 @@
         <f aca="true">IF(L84 = 0, INDIRECT("N" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O84" s="0" t="str">
+        <f aca="false">IF(F84="","",VLOOKUP(F84,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H85" s="0" t="str">
         <f aca="true">IF(N85 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N85)</f>
         <v/>
@@ -2547,8 +2900,12 @@
         <f aca="true">IF(L85 = 0, INDIRECT("N" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O85" s="0" t="str">
+        <f aca="false">IF(F85="","",VLOOKUP(F85,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H86" s="0" t="str">
         <f aca="true">IF(N86 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N86)</f>
         <v/>
@@ -2569,8 +2926,12 @@
         <f aca="true">IF(L86 = 0, INDIRECT("N" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O86" s="0" t="str">
+        <f aca="false">IF(F86="","",VLOOKUP(F86,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H87" s="0" t="str">
         <f aca="true">IF(N87 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N87)</f>
         <v/>
@@ -2591,8 +2952,12 @@
         <f aca="true">IF(L87 = 0, INDIRECT("N" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O87" s="0" t="str">
+        <f aca="false">IF(F87="","",VLOOKUP(F87,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H88" s="0" t="str">
         <f aca="true">IF(N88 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N88)</f>
         <v/>
@@ -2613,8 +2978,12 @@
         <f aca="true">IF(L88 = 0, INDIRECT("N" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O88" s="0" t="str">
+        <f aca="false">IF(F88="","",VLOOKUP(F88,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H89" s="0" t="str">
         <f aca="true">IF(N89 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N89)</f>
         <v/>
@@ -2635,8 +3004,12 @@
         <f aca="true">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O89" s="0" t="str">
+        <f aca="false">IF(F89="","",VLOOKUP(F89,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H90" s="0" t="str">
         <f aca="true">IF(N90 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N90)</f>
         <v/>
@@ -2657,8 +3030,12 @@
         <f aca="true">IF(L90 = 0, INDIRECT("N" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O90" s="0" t="str">
+        <f aca="false">IF(F90="","",VLOOKUP(F90,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="0" t="str">
         <f aca="true">IF(N91 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N91)</f>
         <v/>
@@ -2679,8 +3056,12 @@
         <f aca="true">IF(L91 = 0, INDIRECT("N" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O91" s="0" t="str">
+        <f aca="false">IF(F91="","",VLOOKUP(F91,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H92" s="0" t="str">
         <f aca="true">IF(N92 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N92)</f>
         <v/>
@@ -2701,8 +3082,12 @@
         <f aca="true">IF(L92 = 0, INDIRECT("N" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O92" s="0" t="str">
+        <f aca="false">IF(F92="","",VLOOKUP(F92,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H93" s="0" t="str">
         <f aca="true">IF(N93 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N93)</f>
         <v/>
@@ -2723,8 +3108,12 @@
         <f aca="true">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O93" s="0" t="str">
+        <f aca="false">IF(F93="","",VLOOKUP(F93,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H94" s="0" t="str">
         <f aca="true">IF(N94 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N94)</f>
         <v/>
@@ -2745,8 +3134,12 @@
         <f aca="true">IF(L94 = 0, INDIRECT("N" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O94" s="0" t="str">
+        <f aca="false">IF(F94="","",VLOOKUP(F94,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H95" s="0" t="str">
         <f aca="true">IF(N95 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N95)</f>
         <v/>
@@ -2767,8 +3160,12 @@
         <f aca="true">IF(L95 = 0, INDIRECT("N" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O95" s="0" t="str">
+        <f aca="false">IF(F95="","",VLOOKUP(F95,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H96" s="0" t="str">
         <f aca="true">IF(N96 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N96)</f>
         <v/>
@@ -2789,8 +3186,12 @@
         <f aca="true">IF(L96 = 0, INDIRECT("N" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O96" s="0" t="str">
+        <f aca="false">IF(F96="","",VLOOKUP(F96,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H97" s="0" t="str">
         <f aca="true">IF(N97 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N97)</f>
         <v/>
@@ -2811,8 +3212,12 @@
         <f aca="true">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O97" s="0" t="str">
+        <f aca="false">IF(F97="","",VLOOKUP(F97,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H98" s="0" t="str">
         <f aca="true">IF(N98 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N98)</f>
         <v/>
@@ -2833,8 +3238,12 @@
         <f aca="true">IF(L98 = 0, INDIRECT("N" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O98" s="0" t="str">
+        <f aca="false">IF(F98="","",VLOOKUP(F98,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H99" s="0" t="str">
         <f aca="true">IF(N99 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N99)</f>
         <v/>
@@ -2855,8 +3264,12 @@
         <f aca="true">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O99" s="0" t="str">
+        <f aca="false">IF(F99="","",VLOOKUP(F99,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H100" s="0" t="str">
         <f aca="true">IF(N100 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N100)</f>
         <v/>
@@ -2877,8 +3290,12 @@
         <f aca="true">IF(L100 = 0, INDIRECT("N" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O100" s="0" t="str">
+        <f aca="false">IF(F100="","",VLOOKUP(F100,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H101" s="0" t="str">
         <f aca="true">IF(N101 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N101)</f>
         <v/>
@@ -2899,8 +3316,12 @@
         <f aca="true">IF(L101 = 0, INDIRECT("N" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O101" s="0" t="str">
+        <f aca="false">IF(F101="","",VLOOKUP(F101,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H102" s="0" t="str">
         <f aca="true">IF(N102 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N102)</f>
         <v/>
@@ -2921,8 +3342,12 @@
         <f aca="true">IF(L102 = 0, INDIRECT("N" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O102" s="0" t="str">
+        <f aca="false">IF(F102="","",VLOOKUP(F102,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H103" s="0" t="str">
         <f aca="true">IF(N103 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N103)</f>
         <v/>
@@ -2943,8 +3368,12 @@
         <f aca="true">IF(L103 = 0, INDIRECT("N" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O103" s="0" t="str">
+        <f aca="false">IF(F103="","",VLOOKUP(F103,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H104" s="0" t="str">
         <f aca="true">IF(N104 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N104)</f>
         <v/>
@@ -2965,8 +3394,12 @@
         <f aca="true">IF(L104 = 0, INDIRECT("N" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O104" s="0" t="str">
+        <f aca="false">IF(F104="","",VLOOKUP(F104,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H105" s="0" t="str">
         <f aca="true">IF(N105 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N105)</f>
         <v/>
@@ -2987,8 +3420,12 @@
         <f aca="true">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O105" s="0" t="str">
+        <f aca="false">IF(F105="","",VLOOKUP(F105,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H106" s="0" t="str">
         <f aca="true">IF(N106 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N106)</f>
         <v/>
@@ -3009,8 +3446,12 @@
         <f aca="true">IF(L106 = 0, INDIRECT("N" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O106" s="0" t="str">
+        <f aca="false">IF(F106="","",VLOOKUP(F106,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H107" s="0" t="str">
         <f aca="true">IF(N107 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N107)</f>
         <v/>
@@ -3031,8 +3472,12 @@
         <f aca="true">IF(L107 = 0, INDIRECT("N" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O107" s="0" t="str">
+        <f aca="false">IF(F107="","",VLOOKUP(F107,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H108" s="0" t="str">
         <f aca="true">IF(N108 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N108)</f>
         <v/>
@@ -3053,8 +3498,12 @@
         <f aca="true">IF(L108 = 0, INDIRECT("N" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O108" s="0" t="str">
+        <f aca="false">IF(F108="","",VLOOKUP(F108,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H109" s="0" t="str">
         <f aca="true">IF(N109 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N109)</f>
         <v/>
@@ -3075,8 +3524,12 @@
         <f aca="true">IF(L109 = 0, INDIRECT("N" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O109" s="0" t="str">
+        <f aca="false">IF(F109="","",VLOOKUP(F109,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H110" s="0" t="str">
         <f aca="true">IF(N110 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N110)</f>
         <v/>
@@ -3097,8 +3550,12 @@
         <f aca="true">IF(L110 = 0, INDIRECT("N" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O110" s="0" t="str">
+        <f aca="false">IF(F110="","",VLOOKUP(F110,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H111" s="0" t="str">
         <f aca="true">IF(N111 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N111)</f>
         <v/>
@@ -3119,8 +3576,12 @@
         <f aca="true">IF(L111 = 0, INDIRECT("N" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O111" s="0" t="str">
+        <f aca="false">IF(F111="","",VLOOKUP(F111,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H112" s="0" t="str">
         <f aca="true">IF(N112 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N112)</f>
         <v/>
@@ -3141,8 +3602,12 @@
         <f aca="true">IF(L112 = 0, INDIRECT("N" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O112" s="0" t="str">
+        <f aca="false">IF(F112="","",VLOOKUP(F112,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="0" t="str">
         <f aca="true">IF(N113 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N113)</f>
         <v/>
@@ -3163,8 +3628,12 @@
         <f aca="true">IF(L113 = 0, INDIRECT("N" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O113" s="0" t="str">
+        <f aca="false">IF(F113="","",VLOOKUP(F113,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="0" t="str">
         <f aca="true">IF(N114 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N114)</f>
         <v/>
@@ -3185,8 +3654,12 @@
         <f aca="true">IF(L114 = 0, INDIRECT("N" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O114" s="0" t="str">
+        <f aca="false">IF(F114="","",VLOOKUP(F114,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="0" t="str">
         <f aca="true">IF(N115 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N115)</f>
         <v/>
@@ -3207,8 +3680,12 @@
         <f aca="true">IF(L115 = 0, INDIRECT("N" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O115" s="0" t="str">
+        <f aca="false">IF(F115="","",VLOOKUP(F115,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="0" t="str">
         <f aca="true">IF(N116 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N116)</f>
         <v/>
@@ -3229,8 +3706,12 @@
         <f aca="true">IF(L116 = 0, INDIRECT("N" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O116" s="0" t="str">
+        <f aca="false">IF(F116="","",VLOOKUP(F116,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="0" t="str">
         <f aca="true">IF(N117 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N117)</f>
         <v/>
@@ -3251,8 +3732,12 @@
         <f aca="true">IF(L117 = 0, INDIRECT("N" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O117" s="0" t="str">
+        <f aca="false">IF(F117="","",VLOOKUP(F117,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="0" t="str">
         <f aca="true">IF(N118 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N118)</f>
         <v/>
@@ -3273,8 +3758,12 @@
         <f aca="true">IF(L118 = 0, INDIRECT("N" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O118" s="0" t="str">
+        <f aca="false">IF(F118="","",VLOOKUP(F118,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="0" t="str">
         <f aca="true">IF(N119 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N119)</f>
         <v/>
@@ -3295,8 +3784,12 @@
         <f aca="true">IF(L119 = 0, INDIRECT("N" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O119" s="0" t="str">
+        <f aca="false">IF(F119="","",VLOOKUP(F119,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="0" t="str">
         <f aca="true">IF(N120 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N120)</f>
         <v/>
@@ -3317,8 +3810,12 @@
         <f aca="true">IF(L120 = 0, INDIRECT("N" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O120" s="0" t="str">
+        <f aca="false">IF(F120="","",VLOOKUP(F120,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="0" t="str">
         <f aca="true">IF(N121 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N121)</f>
         <v/>
@@ -3339,8 +3836,12 @@
         <f aca="true">IF(L121 = 0, INDIRECT("N" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O121" s="0" t="str">
+        <f aca="false">IF(F121="","",VLOOKUP(F121,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="0" t="str">
         <f aca="true">IF(N122 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N122)</f>
         <v/>
@@ -3360,6 +3861,10 @@
       <c r="N122" s="0" t="n">
         <f aca="true">IF(L122 = 0, INDIRECT("N" &amp; ROW() - 1), L122)</f>
         <v>0</v>
+      </c>
+      <c r="O122" s="0" t="str">
+        <f aca="false">IF(F122="","",VLOOKUP(F122,'Вода SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -3373,9 +3878,21 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="C2:C122">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C2&lt;&gt;$O2</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>$C2&lt;&gt;$O2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F59" type="list">
       <formula1>'Вода SKU'!$A$1:$A$137</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="C2:C122" type="list">
+      <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3394,14 +3911,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="1" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F21" activeCellId="0" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3417,7 +3934,8 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="3.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="7.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="16" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3461,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="3" t="str">
         <f aca="true">IF(F2="","",IF(J2="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M2))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M2))))))</f>
         <v/>
@@ -3486,9 +4004,13 @@
         <f aca="true">IF(L2 = 0, INDIRECT("N" &amp; ROW() - 1), L2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="O2" s="0" t="str">
+        <f aca="false">IF(F2="","",VLOOKUP(F2,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5"/>
       <c r="B3" s="3" t="str">
         <f aca="true">IF(F3="","",IF(J3="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M3))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M3))))))</f>
         <v/>
@@ -3513,9 +4035,13 @@
         <f aca="true">IF(L3 = 0, INDIRECT("N" &amp; ROW() - 1), L3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="O3" s="0" t="str">
+        <f aca="false">IF(F3="","",VLOOKUP(F3,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
       <c r="B4" s="3" t="str">
         <f aca="true">IF(F4="","",IF(J4="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M4))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M4))))))</f>
         <v/>
@@ -3540,9 +4066,13 @@
         <f aca="true">IF(L4 = 0, INDIRECT("N" &amp; ROW() - 1), L4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
+      <c r="O4" s="0" t="str">
+        <f aca="false">IF(F4="","",VLOOKUP(F4,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5"/>
       <c r="B5" s="3" t="str">
         <f aca="true">IF(F5="","",IF(J5="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M5))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M5))))))</f>
         <v/>
@@ -3567,9 +4097,13 @@
         <f aca="true">IF(L5 = 0, INDIRECT("N" &amp; ROW() - 1), L5)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
+      <c r="O5" s="0" t="str">
+        <f aca="false">IF(F5="","",VLOOKUP(F5,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5"/>
       <c r="B6" s="3" t="str">
         <f aca="true">IF(F6="","",IF(J6="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M6))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M6))))))</f>
         <v/>
@@ -3594,9 +4128,13 @@
         <f aca="true">IF(L6 = 0, INDIRECT("N" &amp; ROW() - 1), L6)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
+      <c r="O6" s="0" t="str">
+        <f aca="false">IF(F6="","",VLOOKUP(F6,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="str">
         <f aca="true">IF(F7="","",IF(J7="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M7))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M7))))))</f>
         <v/>
@@ -3621,9 +4159,13 @@
         <f aca="true">IF(L7 = 0, INDIRECT("N" &amp; ROW() - 1), L7)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
+      <c r="O7" s="0" t="str">
+        <f aca="false">IF(F7="","",VLOOKUP(F7,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5"/>
       <c r="B8" s="3" t="str">
         <f aca="true">IF(F8="","",IF(J8="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M8))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M8))))))</f>
         <v/>
@@ -3648,9 +4190,13 @@
         <f aca="true">IF(L8 = 0, INDIRECT("N" &amp; ROW() - 1), L8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="O8" s="0" t="str">
+        <f aca="false">IF(F8="","",VLOOKUP(F8,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="str">
         <f aca="true">IF(F9="","",IF(J9="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M9))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M9))))))</f>
         <v/>
@@ -3675,9 +4221,13 @@
         <f aca="true">IF(L9 = 0, INDIRECT("N" &amp; ROW() - 1), L9)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="O9" s="0" t="str">
+        <f aca="false">IF(F9="","",VLOOKUP(F9,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5"/>
       <c r="B10" s="3" t="str">
         <f aca="true">IF(F10="","",IF(J10="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M10))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M10))))))</f>
         <v/>
@@ -3702,9 +4252,13 @@
         <f aca="true">IF(L10 = 0, INDIRECT("N" &amp; ROW() - 1), L10)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="O10" s="0" t="str">
+        <f aca="false">IF(F10="","",VLOOKUP(F10,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5"/>
       <c r="B11" s="3" t="str">
         <f aca="true">IF(F11="","",IF(J11="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M11))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M11))))))</f>
         <v/>
@@ -3729,9 +4283,13 @@
         <f aca="true">IF(L11 = 0, INDIRECT("N" &amp; ROW() - 1), L11)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4"/>
+      <c r="O11" s="0" t="str">
+        <f aca="false">IF(F11="","",VLOOKUP(F11,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5"/>
       <c r="B12" s="3" t="str">
         <f aca="true">IF(F12="","",IF(J12="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M12))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M12))))))</f>
         <v/>
@@ -3756,9 +4314,13 @@
         <f aca="true">IF(L12 = 0, INDIRECT("N" &amp; ROW() - 1), L12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
+      <c r="O12" s="0" t="str">
+        <f aca="false">IF(F12="","",VLOOKUP(F12,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5"/>
       <c r="B13" s="3" t="str">
         <f aca="true">IF(F13="","",IF(J13="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M13))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M13))))))</f>
         <v/>
@@ -3783,9 +4345,13 @@
         <f aca="true">IF(L13 = 0, INDIRECT("N" &amp; ROW() - 1), L13)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
+      <c r="O13" s="0" t="str">
+        <f aca="false">IF(F13="","",VLOOKUP(F13,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5"/>
       <c r="B14" s="3" t="str">
         <f aca="true">IF(F14="","",IF(J14="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M14))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M14))))))</f>
         <v/>
@@ -3810,9 +4376,13 @@
         <f aca="true">IF(L14 = 0, INDIRECT("N" &amp; ROW() - 1), L14)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
+      <c r="O14" s="0" t="str">
+        <f aca="false">IF(F14="","",VLOOKUP(F14,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
       <c r="B15" s="3" t="str">
         <f aca="true">IF(F15="","",IF(J15="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M15))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M15))))))</f>
         <v/>
@@ -3837,9 +4407,13 @@
         <f aca="true">IF(L15 = 0, INDIRECT("N" &amp; ROW() - 1), L15)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4"/>
+      <c r="O15" s="0" t="str">
+        <f aca="false">IF(F15="","",VLOOKUP(F15,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5"/>
       <c r="B16" s="3" t="str">
         <f aca="true">IF(F16="","",IF(J16="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M16))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M16))))))</f>
         <v/>
@@ -3864,9 +4438,13 @@
         <f aca="true">IF(L16 = 0, INDIRECT("N" &amp; ROW() - 1), L16)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4"/>
+      <c r="O16" s="0" t="str">
+        <f aca="false">IF(F16="","",VLOOKUP(F16,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5"/>
       <c r="B17" s="3" t="str">
         <f aca="true">IF(F17="","",IF(J17="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M17))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M17))))))</f>
         <v/>
@@ -3891,9 +4469,13 @@
         <f aca="true">IF(L17 = 0, INDIRECT("N" &amp; ROW() - 1), L17)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
+      <c r="O17" s="0" t="str">
+        <f aca="false">IF(F17="","",VLOOKUP(F17,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
       <c r="B18" s="3" t="str">
         <f aca="true">IF(F18="","",IF(J18="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M18))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M18))))))</f>
         <v/>
@@ -3918,9 +4500,13 @@
         <f aca="true">IF(L18 = 0, INDIRECT("N" &amp; ROW() - 1), L18)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
+      <c r="O18" s="0" t="str">
+        <f aca="false">IF(F18="","",VLOOKUP(F18,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5"/>
       <c r="B19" s="3" t="str">
         <f aca="true">IF(F19="","",IF(J19="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M19))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M19))))))</f>
         <v/>
@@ -3945,9 +4531,13 @@
         <f aca="true">IF(L19 = 0, INDIRECT("N" &amp; ROW() - 1), L19)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
+      <c r="O19" s="0" t="str">
+        <f aca="false">IF(F19="","",VLOOKUP(F19,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="str">
         <f aca="true">IF(F20="","",IF(J20="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M20))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M20))))))</f>
         <v/>
@@ -3972,9 +4562,13 @@
         <f aca="true">IF(L20 = 0, INDIRECT("N" &amp; ROW() - 1), L20)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+      <c r="O20" s="0" t="str">
+        <f aca="false">IF(F20="","",VLOOKUP(F20,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="str">
         <f aca="true">IF(F21="","",IF(J21="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M21))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M21))))))</f>
         <v/>
@@ -3999,9 +4593,13 @@
         <f aca="true">IF(L21 = 0, INDIRECT("N" &amp; ROW() - 1), L21)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
+      <c r="O21" s="0" t="str">
+        <f aca="false">IF(F21="","",VLOOKUP(F21,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="str">
         <f aca="true">IF(F22="","",IF(J22="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M22))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M22))))))</f>
         <v/>
@@ -4026,9 +4624,13 @@
         <f aca="true">IF(L22 = 0, INDIRECT("N" &amp; ROW() - 1), L22)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4"/>
+      <c r="O22" s="0" t="str">
+        <f aca="false">IF(F22="","",VLOOKUP(F22,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
       <c r="B23" s="3" t="str">
         <f aca="true">IF(F23="","",IF(J23="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M23))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M23))))))</f>
         <v/>
@@ -4053,9 +4655,13 @@
         <f aca="true">IF(L23 = 0, INDIRECT("N" &amp; ROW() - 1), L23)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
+      <c r="O23" s="0" t="str">
+        <f aca="false">IF(F23="","",VLOOKUP(F23,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="str">
         <f aca="true">IF(F24="","",IF(J24="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M24))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M24))))))</f>
         <v/>
@@ -4080,9 +4686,13 @@
         <f aca="true">IF(L24 = 0, INDIRECT("N" &amp; ROW() - 1), L24)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
+      <c r="O24" s="0" t="str">
+        <f aca="false">IF(F24="","",VLOOKUP(F24,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5"/>
       <c r="B25" s="3" t="str">
         <f aca="true">IF(F25="","",IF(J25="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M25))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M25))))))</f>
         <v/>
@@ -4107,9 +4717,13 @@
         <f aca="true">IF(L25 = 0, INDIRECT("N" &amp; ROW() - 1), L25)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
+      <c r="O25" s="0" t="str">
+        <f aca="false">IF(F25="","",VLOOKUP(F25,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
       <c r="B26" s="3" t="str">
         <f aca="true">IF(F26="","",IF(J26="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M26))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M26))))))</f>
         <v/>
@@ -4134,9 +4748,13 @@
         <f aca="true">IF(L26 = 0, INDIRECT("N" &amp; ROW() - 1), L26)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
+      <c r="O26" s="0" t="str">
+        <f aca="false">IF(F26="","",VLOOKUP(F26,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5"/>
       <c r="B27" s="3" t="str">
         <f aca="true">IF(F27="","",IF(J27="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M27))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M27))))))</f>
         <v/>
@@ -4161,9 +4779,13 @@
         <f aca="true">IF(L27 = 0, INDIRECT("N" &amp; ROW() - 1), L27)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
+      <c r="O27" s="0" t="str">
+        <f aca="false">IF(F27="","",VLOOKUP(F27,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5"/>
       <c r="B28" s="3" t="str">
         <f aca="true">IF(F28="","",IF(J28="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M28))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M28))))))</f>
         <v/>
@@ -4188,9 +4810,13 @@
         <f aca="true">IF(L28 = 0, INDIRECT("N" &amp; ROW() - 1), L28)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4"/>
+      <c r="O28" s="0" t="str">
+        <f aca="false">IF(F28="","",VLOOKUP(F28,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5"/>
       <c r="B29" s="3" t="str">
         <f aca="true">IF(F29="","",IF(J29="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M29))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M29))))))</f>
         <v/>
@@ -4215,9 +4841,13 @@
         <f aca="true">IF(L29 = 0, INDIRECT("N" &amp; ROW() - 1), L29)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4"/>
+      <c r="O29" s="0" t="str">
+        <f aca="false">IF(F29="","",VLOOKUP(F29,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5"/>
       <c r="B30" s="3" t="str">
         <f aca="true">IF(F30="","",IF(J30="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M30))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M30))))))</f>
         <v/>
@@ -4242,9 +4872,13 @@
         <f aca="true">IF(L30 = 0, INDIRECT("N" &amp; ROW() - 1), L30)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
+      <c r="O30" s="0" t="str">
+        <f aca="false">IF(F30="","",VLOOKUP(F30,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5"/>
       <c r="B31" s="3" t="str">
         <f aca="true">IF(F31="","",IF(J31="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M31))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M31))))))</f>
         <v/>
@@ -4269,9 +4903,13 @@
         <f aca="true">IF(L31 = 0, INDIRECT("N" &amp; ROW() - 1), L31)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
+      <c r="O31" s="0" t="str">
+        <f aca="false">IF(F31="","",VLOOKUP(F31,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5"/>
       <c r="B32" s="3" t="str">
         <f aca="true">IF(F32="","",IF(J32="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M32))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M32))))))</f>
         <v/>
@@ -4296,9 +4934,13 @@
         <f aca="true">IF(L32 = 0, INDIRECT("N" &amp; ROW() - 1), L32)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
+      <c r="O32" s="0" t="str">
+        <f aca="false">IF(F32="","",VLOOKUP(F32,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5"/>
       <c r="B33" s="3" t="str">
         <f aca="true">IF(F33="","",IF(J33="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M33))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M33))))))</f>
         <v/>
@@ -4323,9 +4965,13 @@
         <f aca="true">IF(L33 = 0, INDIRECT("N" &amp; ROW() - 1), L33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
+      <c r="O33" s="0" t="str">
+        <f aca="false">IF(F33="","",VLOOKUP(F33,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5"/>
       <c r="B34" s="3" t="str">
         <f aca="true">IF(F34="","",IF(J34="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M34))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M34))))))</f>
         <v/>
@@ -4350,9 +4996,13 @@
         <f aca="true">IF(L34 = 0, INDIRECT("N" &amp; ROW() - 1), L34)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
+      <c r="O34" s="0" t="str">
+        <f aca="false">IF(F34="","",VLOOKUP(F34,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5"/>
       <c r="B35" s="3" t="str">
         <f aca="true">IF(F35="","",IF(J35="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M35))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M35))))))</f>
         <v/>
@@ -4377,9 +5027,13 @@
         <f aca="true">IF(L35 = 0, INDIRECT("N" &amp; ROW() - 1), L35)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
+      <c r="O35" s="0" t="str">
+        <f aca="false">IF(F35="","",VLOOKUP(F35,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5"/>
       <c r="B36" s="3" t="str">
         <f aca="true">IF(F36="","",IF(J36="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M36))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M36))))))</f>
         <v/>
@@ -4404,9 +5058,13 @@
         <f aca="true">IF(L36 = 0, INDIRECT("N" &amp; ROW() - 1), L36)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
+      <c r="O36" s="0" t="str">
+        <f aca="false">IF(F36="","",VLOOKUP(F36,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5"/>
       <c r="B37" s="3" t="str">
         <f aca="true">IF(F37="","",IF(J37="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M37))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M37))))))</f>
         <v/>
@@ -4431,9 +5089,13 @@
         <f aca="true">IF(L37 = 0, INDIRECT("N" &amp; ROW() - 1), L37)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
+      <c r="O37" s="0" t="str">
+        <f aca="false">IF(F37="","",VLOOKUP(F37,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5"/>
       <c r="B38" s="3" t="str">
         <f aca="true">IF(F38="","",IF(J38="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M38))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M38))))))</f>
         <v/>
@@ -4458,9 +5120,13 @@
         <f aca="true">IF(L38 = 0, INDIRECT("N" &amp; ROW() - 1), L38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
+      <c r="O38" s="0" t="str">
+        <f aca="false">IF(F38="","",VLOOKUP(F38,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5"/>
       <c r="B39" s="3" t="str">
         <f aca="true">IF(F39="","",IF(J39="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M39))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M39))))))</f>
         <v/>
@@ -4485,9 +5151,13 @@
         <f aca="true">IF(L39 = 0, INDIRECT("N" &amp; ROW() - 1), L39)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
+      <c r="O39" s="0" t="str">
+        <f aca="false">IF(F39="","",VLOOKUP(F39,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5"/>
       <c r="B40" s="3" t="str">
         <f aca="true">IF(F40="","",IF(J40="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M40))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M40))))))</f>
         <v/>
@@ -4512,9 +5182,13 @@
         <f aca="true">IF(L40 = 0, INDIRECT("N" &amp; ROW() - 1), L40)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4"/>
+      <c r="O40" s="0" t="str">
+        <f aca="false">IF(F40="","",VLOOKUP(F40,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5"/>
       <c r="B41" s="3" t="str">
         <f aca="true">IF(F41="","",IF(J41="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M41))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M41))))))</f>
         <v/>
@@ -4539,9 +5213,13 @@
         <f aca="true">IF(L41 = 0, INDIRECT("N" &amp; ROW() - 1), L41)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
+      <c r="O41" s="0" t="str">
+        <f aca="false">IF(F41="","",VLOOKUP(F41,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5"/>
       <c r="B42" s="3" t="str">
         <f aca="true">IF(F42="","",IF(J42="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M42))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M42))))))</f>
         <v/>
@@ -4566,9 +5244,13 @@
         <f aca="true">IF(L42 = 0, INDIRECT("N" &amp; ROW() - 1), L42)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
+      <c r="O42" s="0" t="str">
+        <f aca="false">IF(F42="","",VLOOKUP(F42,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5"/>
       <c r="B43" s="3" t="str">
         <f aca="true">IF(F43="","",IF(J43="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M43))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M43))))))</f>
         <v/>
@@ -4593,9 +5275,13 @@
         <f aca="true">IF(L43 = 0, INDIRECT("N" &amp; ROW() - 1), L43)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4"/>
+      <c r="O43" s="0" t="str">
+        <f aca="false">IF(F43="","",VLOOKUP(F43,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5"/>
       <c r="B44" s="3" t="str">
         <f aca="true">IF(F44="","",IF(J44="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M44))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M44))))))</f>
         <v/>
@@ -4620,9 +5306,13 @@
         <f aca="true">IF(L44 = 0, INDIRECT("N" &amp; ROW() - 1), L44)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4"/>
+      <c r="O44" s="0" t="str">
+        <f aca="false">IF(F44="","",VLOOKUP(F44,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
       <c r="B45" s="3" t="str">
         <f aca="true">IF(F45="","",IF(J45="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M45))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M45))))))</f>
         <v/>
@@ -4647,9 +5337,13 @@
         <f aca="true">IF(L45 = 0, INDIRECT("N" &amp; ROW() - 1), L45)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4"/>
+      <c r="O45" s="0" t="str">
+        <f aca="false">IF(F45="","",VLOOKUP(F45,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
       <c r="B46" s="3" t="str">
         <f aca="true">IF(F46="","",IF(J46="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M46))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M46))))))</f>
         <v/>
@@ -4674,9 +5368,13 @@
         <f aca="true">IF(L46 = 0, INDIRECT("N" &amp; ROW() - 1), L46)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4"/>
+      <c r="O46" s="0" t="str">
+        <f aca="false">IF(F46="","",VLOOKUP(F46,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
       <c r="B47" s="3" t="str">
         <f aca="true">IF(F47="","",IF(J47="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M47))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M47))))))</f>
         <v/>
@@ -4701,9 +5399,13 @@
         <f aca="true">IF(L47 = 0, INDIRECT("N" &amp; ROW() - 1), L47)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
+      <c r="O47" s="0" t="str">
+        <f aca="false">IF(F47="","",VLOOKUP(F47,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
       <c r="B48" s="3" t="str">
         <f aca="true">IF(F48="","",IF(J48="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M48))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M48))))))</f>
         <v/>
@@ -4728,8 +5430,12 @@
         <f aca="true">IF(L48 = 0, INDIRECT("N" &amp; ROW() - 1), L48)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O48" s="0" t="str">
+        <f aca="false">IF(F48="","",VLOOKUP(F48,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="str">
         <f aca="true">IF(F49="","",IF(J49="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M49))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M49))))))</f>
         <v/>
@@ -4754,8 +5460,12 @@
         <f aca="true">IF(L49 = 0, INDIRECT("N" &amp; ROW() - 1), L49)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O49" s="0" t="str">
+        <f aca="false">IF(F49="","",VLOOKUP(F49,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="str">
         <f aca="true">IF(F50="","",IF(J50="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M50))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M50))))))</f>
         <v/>
@@ -4780,8 +5490,12 @@
         <f aca="true">IF(L50 = 0, INDIRECT("N" &amp; ROW() - 1), L50)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O50" s="0" t="str">
+        <f aca="false">IF(F50="","",VLOOKUP(F50,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="str">
         <f aca="true">IF(F51="","",IF(J51="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M51))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M51))))))</f>
         <v/>
@@ -4806,8 +5520,12 @@
         <f aca="true">IF(L51 = 0, INDIRECT("N" &amp; ROW() - 1), L51)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O51" s="0" t="str">
+        <f aca="false">IF(F51="","",VLOOKUP(F51,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="str">
         <f aca="true">IF(F52="","",IF(J52="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M52))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M52))))))</f>
         <v/>
@@ -4832,8 +5550,12 @@
         <f aca="true">IF(L52 = 0, INDIRECT("N" &amp; ROW() - 1), L52)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O52" s="0" t="str">
+        <f aca="false">IF(F52="","",VLOOKUP(F52,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="str">
         <f aca="true">IF(F53="","",IF(J53="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M53))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M53))))))</f>
         <v/>
@@ -4858,8 +5580,12 @@
         <f aca="true">IF(L53 = 0, INDIRECT("N" &amp; ROW() - 1), L53)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O53" s="0" t="str">
+        <f aca="false">IF(F53="","",VLOOKUP(F53,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="str">
         <f aca="true">IF(F54="","",IF(J54="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M54))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M54))))))</f>
         <v/>
@@ -4884,8 +5610,12 @@
         <f aca="true">IF(L54 = 0, INDIRECT("N" &amp; ROW() - 1), L54)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O54" s="0" t="str">
+        <f aca="false">IF(F54="","",VLOOKUP(F54,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="str">
         <f aca="true">IF(F55="","",IF(J55="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M55))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M55))))))</f>
         <v/>
@@ -4910,8 +5640,12 @@
         <f aca="true">IF(L55 = 0, INDIRECT("N" &amp; ROW() - 1), L55)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O55" s="0" t="str">
+        <f aca="false">IF(F55="","",VLOOKUP(F55,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="str">
         <f aca="true">IF(F56="","",IF(J56="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M56))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M56))))))</f>
         <v/>
@@ -4936,8 +5670,12 @@
         <f aca="true">IF(L56 = 0, INDIRECT("N" &amp; ROW() - 1), L56)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O56" s="0" t="str">
+        <f aca="false">IF(F56="","",VLOOKUP(F56,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="str">
         <f aca="true">IF(F57="","",IF(J57="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M57))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M57))))))</f>
         <v/>
@@ -4962,8 +5700,12 @@
         <f aca="true">IF(L57 = 0, INDIRECT("N" &amp; ROW() - 1), L57)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O57" s="0" t="str">
+        <f aca="false">IF(F57="","",VLOOKUP(F57,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="str">
         <f aca="true">IF(F58="","",IF(J58="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M58))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M58))))))</f>
         <v/>
@@ -4988,8 +5730,12 @@
         <f aca="true">IF(L58 = 0, INDIRECT("N" &amp; ROW() - 1), L58)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O58" s="0" t="str">
+        <f aca="false">IF(F58="","",VLOOKUP(F58,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="str">
         <f aca="true">IF(F59="","",IF(J59="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M59))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M59))))))</f>
         <v/>
@@ -5014,8 +5760,12 @@
         <f aca="true">IF(L59 = 0, INDIRECT("N" &amp; ROW() - 1), L59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O59" s="0" t="str">
+        <f aca="false">IF(F59="","",VLOOKUP(F59,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="str">
         <f aca="true">IF(F60="","",IF(J60="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M60))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M60))))))</f>
         <v/>
@@ -5040,8 +5790,12 @@
         <f aca="true">IF(L60 = 0, INDIRECT("N" &amp; ROW() - 1), L60)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O60" s="0" t="str">
+        <f aca="false">IF(F60="","",VLOOKUP(F60,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="str">
         <f aca="true">IF(F61="","",IF(J61="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M61))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M61))))))</f>
         <v/>
@@ -5066,8 +5820,12 @@
         <f aca="true">IF(L61 = 0, INDIRECT("N" &amp; ROW() - 1), L61)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O61" s="0" t="str">
+        <f aca="false">IF(F61="","",VLOOKUP(F61,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="str">
         <f aca="true">IF(F62="","",IF(J62="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M62))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M62))))))</f>
         <v/>
@@ -5092,8 +5850,12 @@
         <f aca="true">IF(L62 = 0, INDIRECT("N" &amp; ROW() - 1), L62)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O62" s="0" t="str">
+        <f aca="false">IF(F62="","",VLOOKUP(F62,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="str">
         <f aca="true">IF(F63="","",IF(J63="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M63))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M63))))))</f>
         <v/>
@@ -5118,8 +5880,12 @@
         <f aca="true">IF(L63 = 0, INDIRECT("N" &amp; ROW() - 1), L63)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O63" s="0" t="str">
+        <f aca="false">IF(F63="","",VLOOKUP(F63,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="str">
         <f aca="true">IF(F64="","",IF(J64="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M64))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M64))))))</f>
         <v/>
@@ -5144,8 +5910,12 @@
         <f aca="true">IF(L64 = 0, INDIRECT("N" &amp; ROW() - 1), L64)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O64" s="0" t="str">
+        <f aca="false">IF(F64="","",VLOOKUP(F64,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="str">
         <f aca="true">IF(F65="","",IF(J65="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M65))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M65))))))</f>
         <v/>
@@ -5170,8 +5940,12 @@
         <f aca="true">IF(L65 = 0, INDIRECT("N" &amp; ROW() - 1), L65)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O65" s="0" t="str">
+        <f aca="false">IF(F65="","",VLOOKUP(F65,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="str">
         <f aca="true">IF(F66="","",IF(J66="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M66))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M66))))))</f>
         <v/>
@@ -5196,8 +5970,12 @@
         <f aca="true">IF(L66 = 0, INDIRECT("N" &amp; ROW() - 1), L66)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O66" s="0" t="str">
+        <f aca="false">IF(F66="","",VLOOKUP(F66,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="str">
         <f aca="true">IF(F67="","",IF(J67="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M67))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M67))))))</f>
         <v/>
@@ -5222,8 +6000,12 @@
         <f aca="true">IF(L67 = 0, INDIRECT("N" &amp; ROW() - 1), L67)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O67" s="0" t="str">
+        <f aca="false">IF(F67="","",VLOOKUP(F67,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="str">
         <f aca="true">IF(F68="","",IF(J68="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M68))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M68))))))</f>
         <v/>
@@ -5248,8 +6030,12 @@
         <f aca="true">IF(L68 = 0, INDIRECT("N" &amp; ROW() - 1), L68)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O68" s="0" t="str">
+        <f aca="false">IF(F68="","",VLOOKUP(F68,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="str">
         <f aca="true">IF(F69="","",IF(J69="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M69))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M69))))))</f>
         <v/>
@@ -5274,8 +6060,12 @@
         <f aca="true">IF(L69 = 0, INDIRECT("N" &amp; ROW() - 1), L69)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O69" s="0" t="str">
+        <f aca="false">IF(F69="","",VLOOKUP(F69,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="str">
         <f aca="true">IF(F70="","",IF(J70="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M70))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M70))))))</f>
         <v/>
@@ -5300,8 +6090,12 @@
         <f aca="true">IF(L70 = 0, INDIRECT("N" &amp; ROW() - 1), L70)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O70" s="0" t="str">
+        <f aca="false">IF(F70="","",VLOOKUP(F70,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="str">
         <f aca="true">IF(F71="","",IF(J71="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M71))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M71))))))</f>
         <v/>
@@ -5326,8 +6120,12 @@
         <f aca="true">IF(L71 = 0, INDIRECT("N" &amp; ROW() - 1), L71)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O71" s="0" t="str">
+        <f aca="false">IF(F71="","",VLOOKUP(F71,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="str">
         <f aca="true">IF(F72="","",IF(J72="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M72))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M72))))))</f>
         <v/>
@@ -5352,8 +6150,12 @@
         <f aca="true">IF(L72 = 0, INDIRECT("N" &amp; ROW() - 1), L72)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O72" s="0" t="str">
+        <f aca="false">IF(F72="","",VLOOKUP(F72,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="str">
         <f aca="true">IF(F73="","",IF(J73="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M73))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M73))))))</f>
         <v/>
@@ -5378,8 +6180,12 @@
         <f aca="true">IF(L73 = 0, INDIRECT("N" &amp; ROW() - 1), L73)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O73" s="0" t="str">
+        <f aca="false">IF(F73="","",VLOOKUP(F73,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="str">
         <f aca="true">IF(F74="","",IF(J74="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M74))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M74))))))</f>
         <v/>
@@ -5404,8 +6210,12 @@
         <f aca="true">IF(L74 = 0, INDIRECT("N" &amp; ROW() - 1), L74)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O74" s="0" t="str">
+        <f aca="false">IF(F74="","",VLOOKUP(F74,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="str">
         <f aca="true">IF(F75="","",IF(J75="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M75))))))</f>
         <v/>
@@ -5430,8 +6240,12 @@
         <f aca="true">IF(L75 = 0, INDIRECT("N" &amp; ROW() - 1), L75)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O75" s="0" t="str">
+        <f aca="false">IF(F75="","",VLOOKUP(F75,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="str">
         <f aca="true">IF(F76="","",IF(J76="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M76))))))</f>
         <v/>
@@ -5456,8 +6270,12 @@
         <f aca="true">IF(L76 = 0, INDIRECT("N" &amp; ROW() - 1), L76)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O76" s="0" t="str">
+        <f aca="false">IF(F76="","",VLOOKUP(F76,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="str">
         <f aca="true">IF(F77="","",IF(J77="-","",1+SUM(INDIRECT(ADDRESS(2,COLUMN(M77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(M77))))))</f>
         <v/>
@@ -5482,8 +6300,12 @@
         <f aca="true">IF(L77 = 0, INDIRECT("N" &amp; ROW() - 1), L77)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O77" s="0" t="str">
+        <f aca="false">IF(F77="","",VLOOKUP(F77,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H78" s="0" t="str">
         <f aca="true">IF(N78-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N78)</f>
         <v/>
@@ -5504,8 +6326,12 @@
         <f aca="true">IF(L78 = 0, INDIRECT("N" &amp; ROW() - 1), L78)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O78" s="0" t="str">
+        <f aca="false">IF(F78="","",VLOOKUP(F78,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H79" s="0" t="str">
         <f aca="true">IF(N79-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N79)</f>
         <v/>
@@ -5526,8 +6352,12 @@
         <f aca="true">IF(L79 = 0, INDIRECT("N" &amp; ROW() - 1), L79)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O79" s="0" t="str">
+        <f aca="false">IF(F79="","",VLOOKUP(F79,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H80" s="0" t="str">
         <f aca="true">IF(N80-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N80)</f>
         <v/>
@@ -5548,8 +6378,12 @@
         <f aca="true">IF(L80 = 0, INDIRECT("N" &amp; ROW() - 1), L80)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O80" s="0" t="str">
+        <f aca="false">IF(F80="","",VLOOKUP(F80,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H81" s="0" t="str">
         <f aca="true">IF(N81-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N81)</f>
         <v/>
@@ -5570,8 +6404,12 @@
         <f aca="true">IF(L81 = 0, INDIRECT("N" &amp; ROW() - 1), L81)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O81" s="0" t="str">
+        <f aca="false">IF(F81="","",VLOOKUP(F81,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H82" s="0" t="str">
         <f aca="true">IF(N82-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N82)</f>
         <v/>
@@ -5592,8 +6430,12 @@
         <f aca="true">IF(L82 = 0, INDIRECT("N" &amp; ROW() - 1), L82)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O82" s="0" t="str">
+        <f aca="false">IF(F82="","",VLOOKUP(F82,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H83" s="0" t="str">
         <f aca="true">IF(N83-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N83)</f>
         <v/>
@@ -5614,8 +6456,12 @@
         <f aca="true">IF(L83 = 0, INDIRECT("N" &amp; ROW() - 1), L83)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O83" s="0" t="str">
+        <f aca="false">IF(F83="","",VLOOKUP(F83,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H84" s="0" t="str">
         <f aca="true">IF(N84-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N84)</f>
         <v/>
@@ -5636,8 +6482,12 @@
         <f aca="true">IF(L84 = 0, INDIRECT("N" &amp; ROW() - 1), L84)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O84" s="0" t="str">
+        <f aca="false">IF(F84="","",VLOOKUP(F84,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H85" s="0" t="str">
         <f aca="true">IF(N85-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N85)</f>
         <v/>
@@ -5658,8 +6508,12 @@
         <f aca="true">IF(L85 = 0, INDIRECT("N" &amp; ROW() - 1), L85)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O85" s="0" t="str">
+        <f aca="false">IF(F85="","",VLOOKUP(F85,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H86" s="0" t="str">
         <f aca="true">IF(N86-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N86)</f>
         <v/>
@@ -5680,8 +6534,12 @@
         <f aca="true">IF(L86 = 0, INDIRECT("N" &amp; ROW() - 1), L86)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O86" s="0" t="str">
+        <f aca="false">IF(F86="","",VLOOKUP(F86,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H87" s="0" t="str">
         <f aca="true">IF(N87-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N87)</f>
         <v/>
@@ -5702,8 +6560,12 @@
         <f aca="true">IF(L87 = 0, INDIRECT("N" &amp; ROW() - 1), L87)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O87" s="0" t="str">
+        <f aca="false">IF(F87="","",VLOOKUP(F87,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H88" s="0" t="str">
         <f aca="true">IF(N88-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N88)</f>
         <v/>
@@ -5724,8 +6586,12 @@
         <f aca="true">IF(L88 = 0, INDIRECT("N" &amp; ROW() - 1), L88)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O88" s="0" t="str">
+        <f aca="false">IF(F88="","",VLOOKUP(F88,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H89" s="0" t="str">
         <f aca="true">IF(N89-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N89)</f>
         <v/>
@@ -5746,8 +6612,12 @@
         <f aca="true">IF(L89 = 0, INDIRECT("N" &amp; ROW() - 1), L89)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O89" s="0" t="str">
+        <f aca="false">IF(F89="","",VLOOKUP(F89,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H90" s="0" t="str">
         <f aca="true">IF(N90-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N90)</f>
         <v/>
@@ -5768,8 +6638,12 @@
         <f aca="true">IF(L90 = 0, INDIRECT("N" &amp; ROW() - 1), L90)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O90" s="0" t="str">
+        <f aca="false">IF(F90="","",VLOOKUP(F90,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H91" s="0" t="str">
         <f aca="true">IF(N91-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N91)</f>
         <v/>
@@ -5790,8 +6664,12 @@
         <f aca="true">IF(L91 = 0, INDIRECT("N" &amp; ROW() - 1), L91)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O91" s="0" t="str">
+        <f aca="false">IF(F91="","",VLOOKUP(F91,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H92" s="0" t="str">
         <f aca="true">IF(N92-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N92)</f>
         <v/>
@@ -5812,8 +6690,12 @@
         <f aca="true">IF(L92 = 0, INDIRECT("N" &amp; ROW() - 1), L92)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O92" s="0" t="str">
+        <f aca="false">IF(F92="","",VLOOKUP(F92,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H93" s="0" t="str">
         <f aca="true">IF(N93-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N93)</f>
         <v/>
@@ -5834,8 +6716,12 @@
         <f aca="true">IF(L93 = 0, INDIRECT("N" &amp; ROW() - 1), L93)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O93" s="0" t="str">
+        <f aca="false">IF(F93="","",VLOOKUP(F93,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H94" s="0" t="str">
         <f aca="true">IF(N94-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N94)</f>
         <v/>
@@ -5856,8 +6742,12 @@
         <f aca="true">IF(L94 = 0, INDIRECT("N" &amp; ROW() - 1), L94)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O94" s="0" t="str">
+        <f aca="false">IF(F94="","",VLOOKUP(F94,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H95" s="0" t="str">
         <f aca="true">IF(N95-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N95)</f>
         <v/>
@@ -5878,8 +6768,12 @@
         <f aca="true">IF(L95 = 0, INDIRECT("N" &amp; ROW() - 1), L95)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O95" s="0" t="str">
+        <f aca="false">IF(F95="","",VLOOKUP(F95,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H96" s="0" t="str">
         <f aca="true">IF(N96-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N96)</f>
         <v/>
@@ -5900,8 +6794,12 @@
         <f aca="true">IF(L96 = 0, INDIRECT("N" &amp; ROW() - 1), L96)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O96" s="0" t="str">
+        <f aca="false">IF(F96="","",VLOOKUP(F96,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H97" s="0" t="str">
         <f aca="true">IF(N97-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N97)</f>
         <v/>
@@ -5922,8 +6820,12 @@
         <f aca="true">IF(L97 = 0, INDIRECT("N" &amp; ROW() - 1), L97)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O97" s="0" t="str">
+        <f aca="false">IF(F97="","",VLOOKUP(F97,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H98" s="0" t="str">
         <f aca="true">IF(N98-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N98)</f>
         <v/>
@@ -5944,8 +6846,12 @@
         <f aca="true">IF(L98 = 0, INDIRECT("N" &amp; ROW() - 1), L98)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O98" s="0" t="str">
+        <f aca="false">IF(F98="","",VLOOKUP(F98,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H99" s="0" t="str">
         <f aca="true">IF(N99-INDIRECT("N"&amp;ROW()-1)=0,"",INDIRECT("N"&amp;ROW()-1)-N99)</f>
         <v/>
@@ -5966,8 +6872,12 @@
         <f aca="true">IF(L99 = 0, INDIRECT("N" &amp; ROW() - 1), L99)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O99" s="0" t="str">
+        <f aca="false">IF(F99="","",VLOOKUP(F99,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H100" s="0" t="str">
         <f aca="true">IF(N100 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N100)</f>
         <v/>
@@ -5988,8 +6898,12 @@
         <f aca="true">IF(L100 = 0, INDIRECT("N" &amp; ROW() - 1), L100)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O100" s="0" t="str">
+        <f aca="false">IF(F100="","",VLOOKUP(F100,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H101" s="0" t="str">
         <f aca="true">IF(N101 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N101)</f>
         <v/>
@@ -6010,8 +6924,12 @@
         <f aca="true">IF(L101 = 0, INDIRECT("N" &amp; ROW() - 1), L101)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O101" s="0" t="str">
+        <f aca="false">IF(F101="","",VLOOKUP(F101,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H102" s="0" t="str">
         <f aca="true">IF(N102 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N102)</f>
         <v/>
@@ -6032,8 +6950,12 @@
         <f aca="true">IF(L102 = 0, INDIRECT("N" &amp; ROW() - 1), L102)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O102" s="0" t="str">
+        <f aca="false">IF(F102="","",VLOOKUP(F102,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H103" s="0" t="str">
         <f aca="true">IF(N103 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N103)</f>
         <v/>
@@ -6054,8 +6976,12 @@
         <f aca="true">IF(L103 = 0, INDIRECT("N" &amp; ROW() - 1), L103)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O103" s="0" t="str">
+        <f aca="false">IF(F103="","",VLOOKUP(F103,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H104" s="0" t="str">
         <f aca="true">IF(N104 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N104)</f>
         <v/>
@@ -6076,8 +7002,12 @@
         <f aca="true">IF(L104 = 0, INDIRECT("N" &amp; ROW() - 1), L104)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O104" s="0" t="str">
+        <f aca="false">IF(F104="","",VLOOKUP(F104,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H105" s="0" t="str">
         <f aca="true">IF(N105 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N105)</f>
         <v/>
@@ -6098,8 +7028,12 @@
         <f aca="true">IF(L105 = 0, INDIRECT("N" &amp; ROW() - 1), L105)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O105" s="0" t="str">
+        <f aca="false">IF(F105="","",VLOOKUP(F105,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H106" s="0" t="str">
         <f aca="true">IF(N106 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N106)</f>
         <v/>
@@ -6120,8 +7054,12 @@
         <f aca="true">IF(L106 = 0, INDIRECT("N" &amp; ROW() - 1), L106)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O106" s="0" t="str">
+        <f aca="false">IF(F106="","",VLOOKUP(F106,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H107" s="0" t="str">
         <f aca="true">IF(N107 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N107)</f>
         <v/>
@@ -6142,8 +7080,12 @@
         <f aca="true">IF(L107 = 0, INDIRECT("N" &amp; ROW() - 1), L107)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O107" s="0" t="str">
+        <f aca="false">IF(F107="","",VLOOKUP(F107,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H108" s="0" t="str">
         <f aca="true">IF(N108 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N108)</f>
         <v/>
@@ -6164,8 +7106,12 @@
         <f aca="true">IF(L108 = 0, INDIRECT("N" &amp; ROW() - 1), L108)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O108" s="0" t="str">
+        <f aca="false">IF(F108="","",VLOOKUP(F108,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H109" s="0" t="str">
         <f aca="true">IF(N109 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N109)</f>
         <v/>
@@ -6186,8 +7132,12 @@
         <f aca="true">IF(L109 = 0, INDIRECT("N" &amp; ROW() - 1), L109)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O109" s="0" t="str">
+        <f aca="false">IF(F109="","",VLOOKUP(F109,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H110" s="0" t="str">
         <f aca="true">IF(N110 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N110)</f>
         <v/>
@@ -6208,8 +7158,12 @@
         <f aca="true">IF(L110 = 0, INDIRECT("N" &amp; ROW() - 1), L110)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O110" s="0" t="str">
+        <f aca="false">IF(F110="","",VLOOKUP(F110,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H111" s="0" t="str">
         <f aca="true">IF(N111 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N111)</f>
         <v/>
@@ -6230,8 +7184,12 @@
         <f aca="true">IF(L111 = 0, INDIRECT("N" &amp; ROW() - 1), L111)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O111" s="0" t="str">
+        <f aca="false">IF(F111="","",VLOOKUP(F111,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H112" s="0" t="str">
         <f aca="true">IF(N112 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N112)</f>
         <v/>
@@ -6252,8 +7210,12 @@
         <f aca="true">IF(L112 = 0, INDIRECT("N" &amp; ROW() - 1), L112)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O112" s="0" t="str">
+        <f aca="false">IF(F112="","",VLOOKUP(F112,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H113" s="0" t="str">
         <f aca="true">IF(N113 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N113)</f>
         <v/>
@@ -6274,8 +7236,12 @@
         <f aca="true">IF(L113 = 0, INDIRECT("N" &amp; ROW() - 1), L113)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O113" s="0" t="str">
+        <f aca="false">IF(F113="","",VLOOKUP(F113,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H114" s="0" t="str">
         <f aca="true">IF(N114 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N114)</f>
         <v/>
@@ -6296,8 +7262,12 @@
         <f aca="true">IF(L114 = 0, INDIRECT("N" &amp; ROW() - 1), L114)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O114" s="0" t="str">
+        <f aca="false">IF(F114="","",VLOOKUP(F114,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H115" s="0" t="str">
         <f aca="true">IF(N115 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N115)</f>
         <v/>
@@ -6318,8 +7288,12 @@
         <f aca="true">IF(L115 = 0, INDIRECT("N" &amp; ROW() - 1), L115)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O115" s="0" t="str">
+        <f aca="false">IF(F115="","",VLOOKUP(F115,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H116" s="0" t="str">
         <f aca="true">IF(N116 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N116)</f>
         <v/>
@@ -6340,8 +7314,12 @@
         <f aca="true">IF(L116 = 0, INDIRECT("N" &amp; ROW() - 1), L116)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O116" s="0" t="str">
+        <f aca="false">IF(F116="","",VLOOKUP(F116,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H117" s="0" t="str">
         <f aca="true">IF(N117 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N117)</f>
         <v/>
@@ -6362,8 +7340,12 @@
         <f aca="true">IF(L117 = 0, INDIRECT("N" &amp; ROW() - 1), L117)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O117" s="0" t="str">
+        <f aca="false">IF(F117="","",VLOOKUP(F117,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H118" s="0" t="str">
         <f aca="true">IF(N118 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N118)</f>
         <v/>
@@ -6384,8 +7366,12 @@
         <f aca="true">IF(L118 = 0, INDIRECT("N" &amp; ROW() - 1), L118)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O118" s="0" t="str">
+        <f aca="false">IF(F118="","",VLOOKUP(F118,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H119" s="0" t="str">
         <f aca="true">IF(N119 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N119)</f>
         <v/>
@@ -6406,8 +7392,12 @@
         <f aca="true">IF(L119 = 0, INDIRECT("N" &amp; ROW() - 1), L119)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O119" s="0" t="str">
+        <f aca="false">IF(F119="","",VLOOKUP(F119,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H120" s="0" t="str">
         <f aca="true">IF(N120 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N120)</f>
         <v/>
@@ -6428,8 +7418,12 @@
         <f aca="true">IF(L120 = 0, INDIRECT("N" &amp; ROW() - 1), L120)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O120" s="0" t="str">
+        <f aca="false">IF(F120="","",VLOOKUP(F120,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H121" s="0" t="str">
         <f aca="true">IF(N121 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N121)</f>
         <v/>
@@ -6450,8 +7444,12 @@
         <f aca="true">IF(L121 = 0, INDIRECT("N" &amp; ROW() - 1), L121)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O121" s="0" t="str">
+        <f aca="false">IF(F121="","",VLOOKUP(F121,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H122" s="0" t="str">
         <f aca="true">IF(N122 - INDIRECT("N" &amp; ROW() - 1) = 0, "", INDIRECT("N" &amp; ROW() - 1) - N122)</f>
         <v/>
@@ -6471,6 +7469,10 @@
       <c r="N122" s="0" t="n">
         <f aca="true">IF(L122 = 0, INDIRECT("N" &amp; ROW() - 1), L122)</f>
         <v>0</v>
+      </c>
+      <c r="O122" s="0" t="str">
+        <f aca="false">IF(F122="","",VLOOKUP(F122,'Соль SKU'!$A$1:$B$150,2,0))</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -6484,7 +7486,16 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <conditionalFormatting sqref="C2:C122">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>$C2&lt;&gt;$O2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="C2:C122" type="list">
+      <formula1>'Типы варок'!$A$1:$A$102</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F2:F122" type="list">
       <formula1>'Соль SKU'!$A$1:$A$137</formula1>
       <formula2>0</formula2>
@@ -6505,10 +7516,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6516,7 +7527,24 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6552,4 +7580,31 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.53"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Вода" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Соль" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Вода SKU" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Соль SKU" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Типы варок" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Дополнительная фасовка" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Вода SKU" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Соль SKU" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Типы варок" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'Вода SKU'!$A$1:$A$100</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t xml:space="preserve">Номер партии</t>
   </si>
@@ -68,6 +69,12 @@
     <t xml:space="preserve">Разделитель int</t>
   </si>
   <si>
+    <t xml:space="preserve">Название SKU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительная фасовка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Тест</t>
   </si>
   <si>
@@ -81,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,6 +136,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -172,7 +187,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -194,6 +209,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3919,12 +3938,12 @@
   </sheetPr>
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7525,6 +7544,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -7539,7 +7594,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -7547,7 +7602,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>2</v>
@@ -7564,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -7591,7 +7646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,15 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Вода" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Соль" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Дополнительная фасовка" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Вода SKU" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Соль SKU" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Типы варок" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="планирование суточное" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Вода" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Соль" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Дополнительная фасовка" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Вода SKU" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Соль SKU" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Типы варок" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Расписание" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'Вода SKU'!$A$1:$A$100</definedName>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -79,12 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Подставить</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тест</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тут</t>
   </si>
 </sst>
 </file>
@@ -331,6 +328,58 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -5550,14 +5599,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:T122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
@@ -10770,7 +10819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10806,15 +10855,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10823,22 +10872,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10850,7 +10893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10877,7 +10920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -10902,4 +10945,30 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M39" activeCellId="0" sqref="M39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -63,10 +63,10 @@
     <t xml:space="preserve">Номер команды</t>
   </si>
   <si>
-    <t xml:space="preserve">Варки</t>
+    <t xml:space="preserve">Конфигурация варок</t>
   </si>
   <si>
-    <t xml:space="preserve">Сумма варок</t>
+    <t xml:space="preserve">Вес объединенной варки</t>
   </si>
   <si>
     <t xml:space="preserve">Разделитель</t>
@@ -86,6 +86,12 @@
   <si>
     <t xml:space="preserve">Подставить</t>
   </si>
+  <si>
+    <t xml:space="preserve">Сумма варок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Количество варок</t>
+  </si>
 </sst>
 </file>
 
@@ -94,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,9 +125,22 @@
     </font>
     <font>
       <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -136,13 +155,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,24 +199,36 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,8 +236,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -383,14 +407,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" activeCellId="0" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="K13" activeCellId="0" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -401,7 +425,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
@@ -412,80 +437,84 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="4.52"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="6.72"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="8.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>11</v>
+      <c r="U1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="I2" s="5" t="str">
-        <f aca="true">IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="str">
-        <f aca="false">IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2))</f>
+      <c r="A2" s="7"/>
+      <c r="I2" s="1" t="str">
+        <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
+        <v/>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="str">
+        <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
       <c r="N2" s="0" t="n">
@@ -500,9 +529,9 @@
         <f aca="false">IF(M2="-",1,0)</f>
         <v>0</v>
       </c>
-      <c r="Q2" s="0" t="str">
-        <f aca="true">IF(O2 = 0, INDIRECT("P" &amp; ROW() - 1), O2)</f>
-        <v>Разделитель int</v>
+      <c r="Q2" s="0" t="n">
+        <f aca="true">IF(O2 = 0, INDIRECT("Q" &amp; ROW() - 1), O2)</f>
+        <v>0</v>
       </c>
       <c r="R2" s="0" t="str">
         <f aca="false">IF(G2="","",VLOOKUP(G2,'Вода SKU'!$A$1:$B$150,2,0))</f>
@@ -520,14 +549,18 @@
         <f aca="false">IF(T2 = "", "", T2/S2)</f>
         <v>0</v>
       </c>
+      <c r="V2" s="0" t="str">
+        <f aca="true">IF(M2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q2)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="5" t="str">
-        <f aca="true">IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3)</f>
-        <v/>
-      </c>
-      <c r="L3" s="6" t="str">
-        <f aca="false">IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3))</f>
+      <c r="I3" s="1" t="str">
+        <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
+        <v/>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
       <c r="N3" s="0" t="n">
@@ -543,7 +576,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <f aca="true">IF(O3 = 0, INDIRECT("P" &amp; ROW() - 1), O3)</f>
+        <f aca="true">IF(O3 = 0, INDIRECT("Q" &amp; ROW() - 1), O3)</f>
         <v>0</v>
       </c>
       <c r="R3" s="0" t="str">
@@ -562,14 +595,18 @@
         <f aca="false">IF(T3 = "", "", T3/S3)</f>
         <v>0</v>
       </c>
+      <c r="V3" s="0" t="str">
+        <f aca="true">IF(M3="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q3)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="5" t="str">
-        <f aca="true">IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f aca="false">IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4))</f>
+      <c r="I4" s="1" t="str">
+        <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
+        <v/>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
       <c r="N4" s="0" t="n">
@@ -585,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <f aca="true">IF(O4 = 0, INDIRECT("P" &amp; ROW() - 1), O4)</f>
+        <f aca="true">IF(O4 = 0, INDIRECT("Q" &amp; ROW() - 1), O4)</f>
         <v>0</v>
       </c>
       <c r="R4" s="0" t="str">
@@ -604,14 +641,18 @@
         <f aca="false">IF(T4 = "", "", T4/S4)</f>
         <v>0</v>
       </c>
+      <c r="V4" s="0" t="str">
+        <f aca="true">IF(M4="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q4)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="5" t="str">
-        <f aca="true">IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5)</f>
-        <v/>
-      </c>
-      <c r="L5" s="6" t="str">
-        <f aca="false">IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5))</f>
+      <c r="I5" s="1" t="str">
+        <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
+        <v/>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
       <c r="N5" s="0" t="n">
@@ -627,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="Q5" s="0" t="n">
-        <f aca="true">IF(O5 = 0, INDIRECT("P" &amp; ROW() - 1), O5)</f>
+        <f aca="true">IF(O5 = 0, INDIRECT("Q" &amp; ROW() - 1), O5)</f>
         <v>0</v>
       </c>
       <c r="R5" s="0" t="str">
@@ -646,14 +687,18 @@
         <f aca="false">IF(T5 = "", "", T5/S5)</f>
         <v>0</v>
       </c>
+      <c r="V5" s="0" t="str">
+        <f aca="true">IF(M5="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q5)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="5" t="str">
-        <f aca="true">IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="6" t="str">
-        <f aca="false">IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6))</f>
+      <c r="I6" s="1" t="str">
+        <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
+        <v/>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
       <c r="N6" s="0" t="n">
@@ -669,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <f aca="true">IF(O6 = 0, INDIRECT("P" &amp; ROW() - 1), O6)</f>
+        <f aca="true">IF(O6 = 0, INDIRECT("Q" &amp; ROW() - 1), O6)</f>
         <v>0</v>
       </c>
       <c r="R6" s="0" t="str">
@@ -688,14 +733,18 @@
         <f aca="false">IF(T6 = "", "", T6/S6)</f>
         <v>0</v>
       </c>
+      <c r="V6" s="0" t="str">
+        <f aca="true">IF(M6="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q6)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="5" t="str">
-        <f aca="true">IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7)</f>
-        <v/>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f aca="false">IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7))</f>
+      <c r="I7" s="1" t="str">
+        <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
+        <v/>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
       <c r="N7" s="0" t="n">
@@ -711,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <f aca="true">IF(O7 = 0, INDIRECT("P" &amp; ROW() - 1), O7)</f>
+        <f aca="true">IF(O7 = 0, INDIRECT("Q" &amp; ROW() - 1), O7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="0" t="str">
@@ -730,14 +779,18 @@
         <f aca="false">IF(T7 = "", "", T7/S7)</f>
         <v>0</v>
       </c>
+      <c r="V7" s="0" t="str">
+        <f aca="true">IF(M7="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q7)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="5" t="str">
-        <f aca="true">IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8)</f>
-        <v/>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f aca="false">IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8))</f>
+      <c r="I8" s="1" t="str">
+        <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
+        <v/>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
       <c r="N8" s="0" t="n">
@@ -753,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="0" t="n">
-        <f aca="true">IF(O8 = 0, INDIRECT("P" &amp; ROW() - 1), O8)</f>
+        <f aca="true">IF(O8 = 0, INDIRECT("Q" &amp; ROW() - 1), O8)</f>
         <v>0</v>
       </c>
       <c r="R8" s="0" t="str">
@@ -772,14 +825,18 @@
         <f aca="false">IF(T8 = "", "", T8/S8)</f>
         <v>0</v>
       </c>
+      <c r="V8" s="0" t="str">
+        <f aca="true">IF(M8="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q8)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="5" t="str">
-        <f aca="true">IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9)</f>
-        <v/>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f aca="false">IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9))</f>
+      <c r="I9" s="1" t="str">
+        <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
+        <v/>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
       <c r="N9" s="0" t="n">
@@ -795,7 +852,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <f aca="true">IF(O9 = 0, INDIRECT("P" &amp; ROW() - 1), O9)</f>
+        <f aca="true">IF(O9 = 0, INDIRECT("Q" &amp; ROW() - 1), O9)</f>
         <v>0</v>
       </c>
       <c r="R9" s="0" t="str">
@@ -814,14 +871,18 @@
         <f aca="false">IF(T9 = "", "", T9/S9)</f>
         <v>0</v>
       </c>
+      <c r="V9" s="0" t="str">
+        <f aca="true">IF(M9="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q9)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="5" t="str">
-        <f aca="true">IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10)</f>
-        <v/>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f aca="false">IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10))</f>
+      <c r="I10" s="1" t="str">
+        <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
+        <v/>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
       <c r="N10" s="0" t="n">
@@ -837,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <f aca="true">IF(O10 = 0, INDIRECT("P" &amp; ROW() - 1), O10)</f>
+        <f aca="true">IF(O10 = 0, INDIRECT("Q" &amp; ROW() - 1), O10)</f>
         <v>0</v>
       </c>
       <c r="R10" s="0" t="str">
@@ -856,14 +917,18 @@
         <f aca="false">IF(T10 = "", "", T10/S10)</f>
         <v>0</v>
       </c>
+      <c r="V10" s="0" t="str">
+        <f aca="true">IF(M10="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q10)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="5" t="str">
-        <f aca="true">IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11)</f>
-        <v/>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f aca="false">IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11))</f>
+      <c r="I11" s="1" t="str">
+        <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
+        <v/>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
       <c r="N11" s="0" t="n">
@@ -879,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <f aca="true">IF(O11 = 0, INDIRECT("P" &amp; ROW() - 1), O11)</f>
+        <f aca="true">IF(O11 = 0, INDIRECT("Q" &amp; ROW() - 1), O11)</f>
         <v>0</v>
       </c>
       <c r="R11" s="0" t="str">
@@ -898,14 +963,18 @@
         <f aca="false">IF(T11 = "", "", T11/S11)</f>
         <v>0</v>
       </c>
+      <c r="V11" s="0" t="str">
+        <f aca="true">IF(M11="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q11)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="5" t="str">
-        <f aca="true">IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12)</f>
-        <v/>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f aca="false">IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12))</f>
+      <c r="I12" s="1" t="str">
+        <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
+        <v/>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
       <c r="N12" s="0" t="n">
@@ -921,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <f aca="true">IF(O12 = 0, INDIRECT("P" &amp; ROW() - 1), O12)</f>
+        <f aca="true">IF(O12 = 0, INDIRECT("Q" &amp; ROW() - 1), O12)</f>
         <v>0</v>
       </c>
       <c r="R12" s="0" t="str">
@@ -940,14 +1009,18 @@
         <f aca="false">IF(T12 = "", "", T12/S12)</f>
         <v>0</v>
       </c>
+      <c r="V12" s="0" t="str">
+        <f aca="true">IF(M12="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q12)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="5" t="str">
-        <f aca="true">IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13)</f>
-        <v/>
-      </c>
-      <c r="L13" s="6" t="str">
-        <f aca="false">IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13))</f>
+      <c r="I13" s="1" t="str">
+        <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
+        <v/>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
       <c r="N13" s="0" t="n">
@@ -963,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <f aca="true">IF(O13 = 0, INDIRECT("P" &amp; ROW() - 1), O13)</f>
+        <f aca="true">IF(O13 = 0, INDIRECT("Q" &amp; ROW() - 1), O13)</f>
         <v>0</v>
       </c>
       <c r="R13" s="0" t="str">
@@ -982,14 +1055,18 @@
         <f aca="false">IF(T13 = "", "", T13/S13)</f>
         <v>0</v>
       </c>
+      <c r="V13" s="0" t="str">
+        <f aca="true">IF(M13="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q13)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="5" t="str">
-        <f aca="true">IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14)</f>
-        <v/>
-      </c>
-      <c r="L14" s="6" t="str">
-        <f aca="false">IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14))</f>
+      <c r="I14" s="1" t="str">
+        <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
+        <v/>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
       <c r="N14" s="0" t="n">
@@ -1005,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <f aca="true">IF(O14 = 0, INDIRECT("P" &amp; ROW() - 1), O14)</f>
+        <f aca="true">IF(O14 = 0, INDIRECT("Q" &amp; ROW() - 1), O14)</f>
         <v>0</v>
       </c>
       <c r="R14" s="0" t="str">
@@ -1024,14 +1101,18 @@
         <f aca="false">IF(T14 = "", "", T14/S14)</f>
         <v>0</v>
       </c>
+      <c r="V14" s="0" t="str">
+        <f aca="true">IF(M14="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q14)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="5" t="str">
-        <f aca="true">IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15)</f>
-        <v/>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f aca="false">IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15))</f>
+      <c r="I15" s="1" t="str">
+        <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
+        <v/>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
       <c r="N15" s="0" t="n">
@@ -1066,14 +1147,18 @@
         <f aca="false">IF(T15 = "", "", T15/S15)</f>
         <v>0</v>
       </c>
+      <c r="V15" s="0" t="str">
+        <f aca="true">IF(M15="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q15)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="5" t="str">
-        <f aca="true">IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16)</f>
-        <v/>
-      </c>
-      <c r="L16" s="6" t="str">
-        <f aca="false">IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16))</f>
+      <c r="I16" s="1" t="str">
+        <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
+        <v/>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
       <c r="N16" s="0" t="n">
@@ -1108,14 +1193,18 @@
         <f aca="false">IF(T16 = "", "", T16/S16)</f>
         <v>0</v>
       </c>
+      <c r="V16" s="0" t="str">
+        <f aca="true">IF(M16="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q16)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="5" t="str">
-        <f aca="true">IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17)</f>
-        <v/>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f aca="false">IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17))</f>
+      <c r="I17" s="1" t="str">
+        <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
+        <v/>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
       <c r="N17" s="0" t="n">
@@ -1150,14 +1239,18 @@
         <f aca="false">IF(T17 = "", "", T17/S17)</f>
         <v>0</v>
       </c>
+      <c r="V17" s="0" t="str">
+        <f aca="true">IF(M17="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q17)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="5" t="str">
-        <f aca="true">IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18)</f>
-        <v/>
-      </c>
-      <c r="L18" s="6" t="str">
-        <f aca="false">IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18))</f>
+      <c r="I18" s="1" t="str">
+        <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
+        <v/>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
       <c r="N18" s="0" t="n">
@@ -1192,14 +1285,18 @@
         <f aca="false">IF(T18 = "", "", T18/S18)</f>
         <v>0</v>
       </c>
+      <c r="V18" s="0" t="str">
+        <f aca="true">IF(M18="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q18)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="5" t="str">
-        <f aca="true">IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19)</f>
-        <v/>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f aca="false">IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19))</f>
+      <c r="I19" s="1" t="str">
+        <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
+        <v/>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
       <c r="N19" s="0" t="n">
@@ -1234,14 +1331,18 @@
         <f aca="false">IF(T19 = "", "", T19/S19)</f>
         <v>0</v>
       </c>
+      <c r="V19" s="0" t="str">
+        <f aca="true">IF(M19="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q19)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="5" t="str">
-        <f aca="true">IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20)</f>
-        <v/>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f aca="false">IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20))</f>
+      <c r="I20" s="1" t="str">
+        <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
+        <v/>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
       <c r="N20" s="0" t="n">
@@ -1276,14 +1377,18 @@
         <f aca="false">IF(T20 = "", "", T20/S20)</f>
         <v>0</v>
       </c>
+      <c r="V20" s="0" t="str">
+        <f aca="true">IF(M20="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q20)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="5" t="str">
-        <f aca="true">IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21)</f>
-        <v/>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f aca="false">IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21))</f>
+      <c r="I21" s="1" t="str">
+        <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
+        <v/>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
       <c r="N21" s="0" t="n">
@@ -1318,14 +1423,18 @@
         <f aca="false">IF(T21 = "", "", T21/S21)</f>
         <v>0</v>
       </c>
+      <c r="V21" s="0" t="str">
+        <f aca="true">IF(M21="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q21)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="5" t="str">
-        <f aca="true">IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22)</f>
-        <v/>
-      </c>
-      <c r="L22" s="6" t="str">
-        <f aca="false">IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22))</f>
+      <c r="I22" s="1" t="str">
+        <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
+        <v/>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
       <c r="N22" s="0" t="n">
@@ -1360,14 +1469,18 @@
         <f aca="false">IF(T22 = "", "", T22/S22)</f>
         <v>0</v>
       </c>
+      <c r="V22" s="0" t="str">
+        <f aca="true">IF(M22="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q22)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="5" t="str">
-        <f aca="true">IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23)</f>
-        <v/>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f aca="false">IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23))</f>
+      <c r="I23" s="1" t="str">
+        <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
+        <v/>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
       <c r="N23" s="0" t="n">
@@ -1402,14 +1515,18 @@
         <f aca="false">IF(T23 = "", "", T23/S23)</f>
         <v>0</v>
       </c>
+      <c r="V23" s="0" t="str">
+        <f aca="true">IF(M23="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q23)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="5" t="str">
-        <f aca="true">IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24)</f>
-        <v/>
-      </c>
-      <c r="L24" s="6" t="str">
-        <f aca="false">IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24))</f>
+      <c r="I24" s="1" t="str">
+        <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
+        <v/>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
       <c r="N24" s="0" t="n">
@@ -1444,14 +1561,18 @@
         <f aca="false">IF(T24 = "", "", T24/S24)</f>
         <v>0</v>
       </c>
+      <c r="V24" s="0" t="str">
+        <f aca="true">IF(M24="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q24)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="5" t="str">
-        <f aca="true">IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25)</f>
-        <v/>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f aca="false">IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25))</f>
+      <c r="I25" s="1" t="str">
+        <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
+        <v/>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
       <c r="N25" s="0" t="n">
@@ -1486,14 +1607,18 @@
         <f aca="false">IF(T25 = "", "", T25/S25)</f>
         <v>0</v>
       </c>
+      <c r="V25" s="0" t="str">
+        <f aca="true">IF(M25="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q25)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="5" t="str">
-        <f aca="true">IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26)</f>
-        <v/>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f aca="false">IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26))</f>
+      <c r="I26" s="1" t="str">
+        <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
+        <v/>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
       <c r="N26" s="0" t="n">
@@ -1528,14 +1653,18 @@
         <f aca="false">IF(T26 = "", "", T26/S26)</f>
         <v>0</v>
       </c>
+      <c r="V26" s="0" t="str">
+        <f aca="true">IF(M26="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q26)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="5" t="str">
-        <f aca="true">IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27)</f>
-        <v/>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f aca="false">IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27))</f>
+      <c r="I27" s="1" t="str">
+        <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
+        <v/>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
       <c r="N27" s="0" t="n">
@@ -1570,14 +1699,18 @@
         <f aca="false">IF(T27 = "", "", T27/S27)</f>
         <v>0</v>
       </c>
+      <c r="V27" s="0" t="str">
+        <f aca="true">IF(M27="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q27)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="5" t="str">
-        <f aca="true">IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28)</f>
-        <v/>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f aca="false">IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28))</f>
+      <c r="I28" s="1" t="str">
+        <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
+        <v/>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
       <c r="N28" s="0" t="n">
@@ -1612,14 +1745,18 @@
         <f aca="false">IF(T28 = "", "", T28/S28)</f>
         <v>0</v>
       </c>
+      <c r="V28" s="0" t="str">
+        <f aca="true">IF(M28="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q28)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="5" t="str">
-        <f aca="true">IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29)</f>
-        <v/>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f aca="false">IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29))</f>
+      <c r="I29" s="1" t="str">
+        <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
+        <v/>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
       <c r="N29" s="0" t="n">
@@ -1654,14 +1791,18 @@
         <f aca="false">IF(T29 = "", "", T29/S29)</f>
         <v>0</v>
       </c>
+      <c r="V29" s="0" t="str">
+        <f aca="true">IF(M29="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q29)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="5" t="str">
-        <f aca="true">IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30)</f>
-        <v/>
-      </c>
-      <c r="L30" s="6" t="str">
-        <f aca="false">IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30))</f>
+      <c r="I30" s="1" t="str">
+        <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
+        <v/>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
       <c r="N30" s="0" t="n">
@@ -1696,14 +1837,18 @@
         <f aca="false">IF(T30 = "", "", T30/S30)</f>
         <v>0</v>
       </c>
+      <c r="V30" s="0" t="str">
+        <f aca="true">IF(M30="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q30)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="5" t="str">
-        <f aca="true">IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31)</f>
-        <v/>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f aca="false">IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31))</f>
+      <c r="I31" s="1" t="str">
+        <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
+        <v/>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
       <c r="N31" s="0" t="n">
@@ -1738,14 +1883,18 @@
         <f aca="false">IF(T31 = "", "", T31/S31)</f>
         <v>0</v>
       </c>
+      <c r="V31" s="0" t="str">
+        <f aca="true">IF(M31="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q31)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="5" t="str">
-        <f aca="true">IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32)</f>
-        <v/>
-      </c>
-      <c r="L32" s="6" t="str">
-        <f aca="false">IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32))</f>
+      <c r="I32" s="1" t="str">
+        <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
+        <v/>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
       <c r="N32" s="0" t="n">
@@ -1780,14 +1929,18 @@
         <f aca="false">IF(T32 = "", "", T32/S32)</f>
         <v>0</v>
       </c>
+      <c r="V32" s="0" t="str">
+        <f aca="true">IF(M32="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q32)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="5" t="str">
-        <f aca="true">IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33)</f>
-        <v/>
-      </c>
-      <c r="L33" s="6" t="str">
-        <f aca="false">IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33))</f>
+      <c r="I33" s="1" t="str">
+        <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
+        <v/>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
       <c r="N33" s="0" t="n">
@@ -1822,14 +1975,18 @@
         <f aca="false">IF(T33 = "", "", T33/S33)</f>
         <v>0</v>
       </c>
+      <c r="V33" s="0" t="str">
+        <f aca="true">IF(M33="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q33)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="5" t="str">
-        <f aca="true">IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34)</f>
-        <v/>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f aca="false">IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34))</f>
+      <c r="I34" s="1" t="str">
+        <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
+        <v/>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
       <c r="N34" s="0" t="n">
@@ -1864,14 +2021,18 @@
         <f aca="false">IF(T34 = "", "", T34/S34)</f>
         <v>0</v>
       </c>
+      <c r="V34" s="0" t="str">
+        <f aca="true">IF(M34="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q34)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="5" t="str">
-        <f aca="true">IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35)</f>
-        <v/>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f aca="false">IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35))</f>
+      <c r="I35" s="1" t="str">
+        <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
+        <v/>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
       <c r="N35" s="0" t="n">
@@ -1906,14 +2067,18 @@
         <f aca="false">IF(T35 = "", "", T35/S35)</f>
         <v>0</v>
       </c>
+      <c r="V35" s="0" t="str">
+        <f aca="true">IF(M35="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q35)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="5" t="str">
-        <f aca="true">IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36)</f>
-        <v/>
-      </c>
-      <c r="L36" s="6" t="str">
-        <f aca="false">IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36))</f>
+      <c r="I36" s="1" t="str">
+        <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
+        <v/>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
       <c r="N36" s="0" t="n">
@@ -1948,14 +2113,18 @@
         <f aca="false">IF(T36 = "", "", T36/S36)</f>
         <v>0</v>
       </c>
+      <c r="V36" s="0" t="str">
+        <f aca="true">IF(M36="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q36)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="5" t="str">
-        <f aca="true">IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37)</f>
-        <v/>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f aca="false">IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37))</f>
+      <c r="I37" s="1" t="str">
+        <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
+        <v/>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
       <c r="N37" s="0" t="n">
@@ -1990,14 +2159,18 @@
         <f aca="false">IF(T37 = "", "", T37/S37)</f>
         <v>0</v>
       </c>
+      <c r="V37" s="0" t="str">
+        <f aca="true">IF(M37="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q37)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="5" t="str">
-        <f aca="true">IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38)</f>
-        <v/>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f aca="false">IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38))</f>
+      <c r="I38" s="1" t="str">
+        <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
+        <v/>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
       <c r="N38" s="0" t="n">
@@ -2032,14 +2205,18 @@
         <f aca="false">IF(T38 = "", "", T38/S38)</f>
         <v>0</v>
       </c>
+      <c r="V38" s="0" t="str">
+        <f aca="true">IF(M38="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q38)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="5" t="str">
-        <f aca="true">IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39)</f>
-        <v/>
-      </c>
-      <c r="L39" s="6" t="str">
-        <f aca="false">IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39))</f>
+      <c r="I39" s="1" t="str">
+        <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
+        <v/>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
       <c r="N39" s="0" t="n">
@@ -2074,14 +2251,18 @@
         <f aca="false">IF(T39 = "", "", T39/S39)</f>
         <v>0</v>
       </c>
+      <c r="V39" s="0" t="str">
+        <f aca="true">IF(M39="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q39)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="5" t="str">
-        <f aca="true">IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40)</f>
-        <v/>
-      </c>
-      <c r="L40" s="6" t="str">
-        <f aca="false">IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40))</f>
+      <c r="I40" s="1" t="str">
+        <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
+        <v/>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
       <c r="N40" s="0" t="n">
@@ -2116,14 +2297,18 @@
         <f aca="false">IF(T40 = "", "", T40/S40)</f>
         <v>0</v>
       </c>
+      <c r="V40" s="0" t="str">
+        <f aca="true">IF(M40="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q40)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="5" t="str">
-        <f aca="true">IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41)</f>
-        <v/>
-      </c>
-      <c r="L41" s="6" t="str">
-        <f aca="false">IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41))</f>
+      <c r="I41" s="1" t="str">
+        <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
+        <v/>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
       <c r="N41" s="0" t="n">
@@ -2158,14 +2343,18 @@
         <f aca="false">IF(T41 = "", "", T41/S41)</f>
         <v>0</v>
       </c>
+      <c r="V41" s="0" t="str">
+        <f aca="true">IF(M41="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q41)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="5" t="str">
-        <f aca="true">IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42)</f>
-        <v/>
-      </c>
-      <c r="L42" s="6" t="str">
-        <f aca="false">IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42))</f>
+      <c r="I42" s="1" t="str">
+        <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
+        <v/>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
       <c r="N42" s="0" t="n">
@@ -2200,14 +2389,18 @@
         <f aca="false">IF(T42 = "", "", T42/S42)</f>
         <v>0</v>
       </c>
+      <c r="V42" s="0" t="str">
+        <f aca="true">IF(M42="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q42)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="5" t="str">
-        <f aca="true">IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43)</f>
-        <v/>
-      </c>
-      <c r="L43" s="6" t="str">
-        <f aca="false">IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43))</f>
+      <c r="I43" s="1" t="str">
+        <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
+        <v/>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
       <c r="N43" s="0" t="n">
@@ -2242,14 +2435,18 @@
         <f aca="false">IF(T43 = "", "", T43/S43)</f>
         <v>0</v>
       </c>
+      <c r="V43" s="0" t="str">
+        <f aca="true">IF(M43="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q43)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="5" t="str">
-        <f aca="true">IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44)</f>
-        <v/>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f aca="false">IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44))</f>
+      <c r="I44" s="1" t="str">
+        <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
+        <v/>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
       <c r="N44" s="0" t="n">
@@ -2284,14 +2481,18 @@
         <f aca="false">IF(T44 = "", "", T44/S44)</f>
         <v>0</v>
       </c>
+      <c r="V44" s="0" t="str">
+        <f aca="true">IF(M44="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q44)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="5" t="str">
-        <f aca="true">IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45)</f>
-        <v/>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f aca="false">IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45))</f>
+      <c r="I45" s="1" t="str">
+        <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
+        <v/>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
       <c r="N45" s="0" t="n">
@@ -2326,14 +2527,18 @@
         <f aca="false">IF(T45 = "", "", T45/S45)</f>
         <v>0</v>
       </c>
+      <c r="V45" s="0" t="str">
+        <f aca="true">IF(M45="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q45)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="5" t="str">
-        <f aca="true">IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46)</f>
-        <v/>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f aca="false">IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46))</f>
+      <c r="I46" s="1" t="str">
+        <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
+        <v/>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
       <c r="N46" s="0" t="n">
@@ -2368,14 +2573,18 @@
         <f aca="false">IF(T46 = "", "", T46/S46)</f>
         <v>0</v>
       </c>
+      <c r="V46" s="0" t="str">
+        <f aca="true">IF(M46="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q46)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="5" t="str">
-        <f aca="true">IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47)</f>
-        <v/>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f aca="false">IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47))</f>
+      <c r="I47" s="1" t="str">
+        <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
+        <v/>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
       <c r="N47" s="0" t="n">
@@ -2410,14 +2619,18 @@
         <f aca="false">IF(T47 = "", "", T47/S47)</f>
         <v>0</v>
       </c>
+      <c r="V47" s="0" t="str">
+        <f aca="true">IF(M47="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q47)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="5" t="str">
-        <f aca="true">IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48)</f>
-        <v/>
-      </c>
-      <c r="L48" s="6" t="str">
-        <f aca="false">IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48))</f>
+      <c r="I48" s="1" t="str">
+        <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
+        <v/>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
       <c r="N48" s="0" t="n">
@@ -2452,14 +2665,18 @@
         <f aca="false">IF(T48 = "", "", T48/S48)</f>
         <v>0</v>
       </c>
+      <c r="V48" s="0" t="str">
+        <f aca="true">IF(M48="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q48)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="5" t="str">
-        <f aca="true">IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49)</f>
-        <v/>
-      </c>
-      <c r="L49" s="6" t="str">
-        <f aca="false">IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49))</f>
+      <c r="I49" s="1" t="str">
+        <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
+        <v/>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
       <c r="N49" s="0" t="n">
@@ -2494,14 +2711,18 @@
         <f aca="false">IF(T49 = "", "", T49/S49)</f>
         <v>0</v>
       </c>
+      <c r="V49" s="0" t="str">
+        <f aca="true">IF(M49="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q49)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="5" t="str">
-        <f aca="true">IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50)</f>
-        <v/>
-      </c>
-      <c r="L50" s="6" t="str">
-        <f aca="false">IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50))</f>
+      <c r="I50" s="1" t="str">
+        <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
+        <v/>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
       <c r="N50" s="0" t="n">
@@ -2536,14 +2757,18 @@
         <f aca="false">IF(T50 = "", "", T50/S50)</f>
         <v>0</v>
       </c>
+      <c r="V50" s="0" t="str">
+        <f aca="true">IF(M50="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q50)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="5" t="str">
-        <f aca="true">IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51)</f>
-        <v/>
-      </c>
-      <c r="L51" s="6" t="str">
-        <f aca="false">IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51))</f>
+      <c r="I51" s="1" t="str">
+        <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
+        <v/>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
       <c r="N51" s="0" t="n">
@@ -2578,14 +2803,18 @@
         <f aca="false">IF(T51 = "", "", T51/S51)</f>
         <v>0</v>
       </c>
+      <c r="V51" s="0" t="str">
+        <f aca="true">IF(M51="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q51)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="5" t="str">
-        <f aca="true">IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52)</f>
-        <v/>
-      </c>
-      <c r="L52" s="6" t="str">
-        <f aca="false">IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52))</f>
+      <c r="I52" s="1" t="str">
+        <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
+        <v/>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
       <c r="N52" s="0" t="n">
@@ -2620,14 +2849,18 @@
         <f aca="false">IF(T52 = "", "", T52/S52)</f>
         <v>0</v>
       </c>
+      <c r="V52" s="0" t="str">
+        <f aca="true">IF(M52="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q52)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="5" t="str">
-        <f aca="true">IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53)</f>
-        <v/>
-      </c>
-      <c r="L53" s="6" t="str">
-        <f aca="false">IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53))</f>
+      <c r="I53" s="1" t="str">
+        <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
+        <v/>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
       <c r="N53" s="0" t="n">
@@ -2662,14 +2895,18 @@
         <f aca="false">IF(T53 = "", "", T53/S53)</f>
         <v>0</v>
       </c>
+      <c r="V53" s="0" t="str">
+        <f aca="true">IF(M53="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q53)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="5" t="str">
-        <f aca="true">IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54)</f>
-        <v/>
-      </c>
-      <c r="L54" s="6" t="str">
-        <f aca="false">IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54))</f>
+      <c r="I54" s="1" t="str">
+        <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
+        <v/>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
       <c r="N54" s="0" t="n">
@@ -2704,14 +2941,18 @@
         <f aca="false">IF(T54 = "", "", T54/S54)</f>
         <v>0</v>
       </c>
+      <c r="V54" s="0" t="str">
+        <f aca="true">IF(M54="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q54)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="5" t="str">
-        <f aca="true">IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55)</f>
-        <v/>
-      </c>
-      <c r="L55" s="6" t="str">
-        <f aca="false">IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55))</f>
+      <c r="I55" s="1" t="str">
+        <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
+        <v/>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
       <c r="N55" s="0" t="n">
@@ -2746,14 +2987,18 @@
         <f aca="false">IF(T55 = "", "", T55/S55)</f>
         <v>0</v>
       </c>
+      <c r="V55" s="0" t="str">
+        <f aca="true">IF(M55="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q55)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="5" t="str">
-        <f aca="true">IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56)</f>
-        <v/>
-      </c>
-      <c r="L56" s="6" t="str">
-        <f aca="false">IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56))</f>
+      <c r="I56" s="1" t="str">
+        <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
+        <v/>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
       <c r="N56" s="0" t="n">
@@ -2788,14 +3033,18 @@
         <f aca="false">IF(T56 = "", "", T56/S56)</f>
         <v>0</v>
       </c>
+      <c r="V56" s="0" t="str">
+        <f aca="true">IF(M56="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q56)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="5" t="str">
-        <f aca="true">IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57)</f>
-        <v/>
-      </c>
-      <c r="L57" s="6" t="str">
-        <f aca="false">IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57))</f>
+      <c r="I57" s="1" t="str">
+        <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
+        <v/>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
       <c r="N57" s="0" t="n">
@@ -2830,14 +3079,18 @@
         <f aca="false">IF(T57 = "", "", T57/S57)</f>
         <v>0</v>
       </c>
+      <c r="V57" s="0" t="str">
+        <f aca="true">IF(M57="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q57)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="5" t="str">
-        <f aca="true">IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58)</f>
-        <v/>
-      </c>
-      <c r="L58" s="6" t="str">
-        <f aca="false">IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58))</f>
+      <c r="I58" s="1" t="str">
+        <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
+        <v/>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
       <c r="N58" s="0" t="n">
@@ -2872,15 +3125,19 @@
         <f aca="false">IF(T58 = "", "", T58/S58)</f>
         <v>0</v>
       </c>
+      <c r="V58" s="0" t="str">
+        <f aca="true">IF(M58="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q58)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="5" t="str">
-        <f aca="true">IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="6" t="str">
-        <f aca="false">IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59))</f>
+      <c r="I59" s="1" t="str">
+        <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
+        <v/>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8" t="str">
+        <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
       <c r="N59" s="0" t="n">
@@ -2915,14 +3172,18 @@
         <f aca="false">IF(T59 = "", "", T59/S59)</f>
         <v>0</v>
       </c>
+      <c r="V59" s="0" t="str">
+        <f aca="true">IF(M59="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q59)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="5" t="str">
-        <f aca="true">IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60)</f>
-        <v/>
-      </c>
-      <c r="L60" s="6" t="str">
-        <f aca="false">IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60))</f>
+      <c r="I60" s="1" t="str">
+        <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
+        <v/>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
       <c r="N60" s="0" t="n">
@@ -2957,14 +3218,18 @@
         <f aca="false">IF(T60 = "", "", T60/S60)</f>
         <v>0</v>
       </c>
+      <c r="V60" s="0" t="str">
+        <f aca="true">IF(M60="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q60)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="5" t="str">
-        <f aca="true">IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61)</f>
-        <v/>
-      </c>
-      <c r="L61" s="6" t="str">
-        <f aca="false">IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61))</f>
+      <c r="I61" s="1" t="str">
+        <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
+        <v/>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
       <c r="N61" s="0" t="n">
@@ -2999,14 +3264,18 @@
         <f aca="false">IF(T61 = "", "", T61/S61)</f>
         <v>0</v>
       </c>
+      <c r="V61" s="0" t="str">
+        <f aca="true">IF(M61="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q61)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="5" t="str">
-        <f aca="true">IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62)</f>
-        <v/>
-      </c>
-      <c r="L62" s="6" t="str">
-        <f aca="false">IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62))</f>
+      <c r="I62" s="1" t="str">
+        <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
+        <v/>
+      </c>
+      <c r="L62" s="8" t="str">
+        <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
       <c r="N62" s="0" t="n">
@@ -3041,14 +3310,18 @@
         <f aca="false">IF(T62 = "", "", T62/S62)</f>
         <v>0</v>
       </c>
+      <c r="V62" s="0" t="str">
+        <f aca="true">IF(M62="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q62)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="5" t="str">
-        <f aca="true">IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63)</f>
-        <v/>
-      </c>
-      <c r="L63" s="6" t="str">
-        <f aca="false">IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63))</f>
+      <c r="I63" s="1" t="str">
+        <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
+        <v/>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
       <c r="N63" s="0" t="n">
@@ -3083,14 +3356,18 @@
         <f aca="false">IF(T63 = "", "", T63/S63)</f>
         <v>0</v>
       </c>
+      <c r="V63" s="0" t="str">
+        <f aca="true">IF(M63="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q63)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="5" t="str">
-        <f aca="true">IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64)</f>
-        <v/>
-      </c>
-      <c r="L64" s="6" t="str">
-        <f aca="false">IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64))</f>
+      <c r="I64" s="1" t="str">
+        <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
+        <v/>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
       <c r="N64" s="0" t="n">
@@ -3125,14 +3402,18 @@
         <f aca="false">IF(T64 = "", "", T64/S64)</f>
         <v>0</v>
       </c>
+      <c r="V64" s="0" t="str">
+        <f aca="true">IF(M64="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q64)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="5" t="str">
-        <f aca="true">IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65)</f>
-        <v/>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f aca="false">IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65))</f>
+      <c r="I65" s="1" t="str">
+        <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
+        <v/>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
       <c r="N65" s="0" t="n">
@@ -3167,14 +3448,18 @@
         <f aca="false">IF(T65 = "", "", T65/S65)</f>
         <v>0</v>
       </c>
+      <c r="V65" s="0" t="str">
+        <f aca="true">IF(M65="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q65)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="5" t="str">
-        <f aca="true">IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66)</f>
-        <v/>
-      </c>
-      <c r="L66" s="6" t="str">
-        <f aca="false">IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66))</f>
+      <c r="I66" s="1" t="str">
+        <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
+        <v/>
+      </c>
+      <c r="L66" s="8" t="str">
+        <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
       <c r="N66" s="0" t="n">
@@ -3209,14 +3494,18 @@
         <f aca="false">IF(T66 = "", "", T66/S66)</f>
         <v>0</v>
       </c>
+      <c r="V66" s="0" t="str">
+        <f aca="true">IF(M66="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q66)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="5" t="str">
-        <f aca="true">IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67)</f>
-        <v/>
-      </c>
-      <c r="L67" s="6" t="str">
-        <f aca="false">IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67))</f>
+      <c r="I67" s="1" t="str">
+        <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
+        <v/>
+      </c>
+      <c r="L67" s="8" t="str">
+        <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
       <c r="N67" s="0" t="n">
@@ -3251,14 +3540,18 @@
         <f aca="false">IF(T67 = "", "", T67/S67)</f>
         <v>0</v>
       </c>
+      <c r="V67" s="0" t="str">
+        <f aca="true">IF(M67="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q67)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="5" t="str">
-        <f aca="true">IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68)</f>
-        <v/>
-      </c>
-      <c r="L68" s="6" t="str">
-        <f aca="false">IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68))</f>
+      <c r="I68" s="1" t="str">
+        <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
+        <v/>
+      </c>
+      <c r="L68" s="8" t="str">
+        <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
       <c r="N68" s="0" t="n">
@@ -3293,14 +3586,18 @@
         <f aca="false">IF(T68 = "", "", T68/S68)</f>
         <v>0</v>
       </c>
+      <c r="V68" s="0" t="str">
+        <f aca="true">IF(M68="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q68)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="5" t="str">
-        <f aca="true">IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69)</f>
-        <v/>
-      </c>
-      <c r="L69" s="6" t="str">
-        <f aca="false">IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69))</f>
+      <c r="I69" s="1" t="str">
+        <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
+        <v/>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
       <c r="N69" s="0" t="n">
@@ -3335,14 +3632,18 @@
         <f aca="false">IF(T69 = "", "", T69/S69)</f>
         <v>0</v>
       </c>
+      <c r="V69" s="0" t="str">
+        <f aca="true">IF(M69="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q69)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="5" t="str">
-        <f aca="true">IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70)</f>
-        <v/>
-      </c>
-      <c r="L70" s="6" t="str">
-        <f aca="false">IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70))</f>
+      <c r="I70" s="1" t="str">
+        <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
+        <v/>
+      </c>
+      <c r="L70" s="8" t="str">
+        <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
       <c r="N70" s="0" t="n">
@@ -3377,14 +3678,18 @@
         <f aca="false">IF(T70 = "", "", T70/S70)</f>
         <v>0</v>
       </c>
+      <c r="V70" s="0" t="str">
+        <f aca="true">IF(M70="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q70)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="5" t="str">
-        <f aca="true">IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71)</f>
-        <v/>
-      </c>
-      <c r="L71" s="6" t="str">
-        <f aca="false">IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71))</f>
+      <c r="I71" s="1" t="str">
+        <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
+        <v/>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
       <c r="N71" s="0" t="n">
@@ -3419,14 +3724,18 @@
         <f aca="false">IF(T71 = "", "", T71/S71)</f>
         <v>0</v>
       </c>
+      <c r="V71" s="0" t="str">
+        <f aca="true">IF(M71="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q71)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="5" t="str">
-        <f aca="true">IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72)</f>
-        <v/>
-      </c>
-      <c r="L72" s="6" t="str">
-        <f aca="false">IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72))</f>
+      <c r="I72" s="1" t="str">
+        <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
+        <v/>
+      </c>
+      <c r="L72" s="8" t="str">
+        <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
       <c r="N72" s="0" t="n">
@@ -3461,14 +3770,18 @@
         <f aca="false">IF(T72 = "", "", T72/S72)</f>
         <v>0</v>
       </c>
+      <c r="V72" s="0" t="str">
+        <f aca="true">IF(M72="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q72)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="5" t="str">
-        <f aca="true">IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73)</f>
-        <v/>
-      </c>
-      <c r="L73" s="6" t="str">
-        <f aca="false">IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73))</f>
+      <c r="I73" s="1" t="str">
+        <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
+        <v/>
+      </c>
+      <c r="L73" s="8" t="str">
+        <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
       <c r="N73" s="0" t="n">
@@ -3503,14 +3816,18 @@
         <f aca="false">IF(T73 = "", "", T73/S73)</f>
         <v>0</v>
       </c>
+      <c r="V73" s="0" t="str">
+        <f aca="true">IF(M73="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q73)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="5" t="str">
-        <f aca="true">IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74)</f>
-        <v/>
-      </c>
-      <c r="L74" s="6" t="str">
-        <f aca="false">IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74))</f>
+      <c r="I74" s="1" t="str">
+        <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
+        <v/>
+      </c>
+      <c r="L74" s="8" t="str">
+        <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
       <c r="N74" s="0" t="n">
@@ -3545,14 +3862,18 @@
         <f aca="false">IF(T74 = "", "", T74/S74)</f>
         <v>0</v>
       </c>
+      <c r="V74" s="0" t="str">
+        <f aca="true">IF(M74="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q74)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="5" t="str">
-        <f aca="true">IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75)</f>
-        <v/>
-      </c>
-      <c r="L75" s="6" t="str">
-        <f aca="false">IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75))</f>
+      <c r="I75" s="1" t="str">
+        <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
+        <v/>
+      </c>
+      <c r="L75" s="8" t="str">
+        <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
       <c r="N75" s="0" t="n">
@@ -3587,14 +3908,18 @@
         <f aca="false">IF(T75 = "", "", T75/S75)</f>
         <v>0</v>
       </c>
+      <c r="V75" s="0" t="str">
+        <f aca="true">IF(M75="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q75)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="5" t="str">
-        <f aca="true">IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76)</f>
-        <v/>
-      </c>
-      <c r="L76" s="6" t="str">
-        <f aca="false">IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76))</f>
+      <c r="I76" s="1" t="str">
+        <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
+        <v/>
+      </c>
+      <c r="L76" s="8" t="str">
+        <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
       <c r="N76" s="0" t="n">
@@ -3629,14 +3954,18 @@
         <f aca="false">IF(T76 = "", "", T76/S76)</f>
         <v>0</v>
       </c>
+      <c r="V76" s="0" t="str">
+        <f aca="true">IF(M76="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q76)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="5" t="str">
-        <f aca="true">IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77)</f>
-        <v/>
-      </c>
-      <c r="L77" s="6" t="str">
-        <f aca="false">IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77))</f>
+      <c r="I77" s="1" t="str">
+        <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
+        <v/>
+      </c>
+      <c r="L77" s="8" t="str">
+        <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
       <c r="N77" s="0" t="n">
@@ -3671,14 +4000,18 @@
         <f aca="false">IF(T77 = "", "", T77/S77)</f>
         <v>0</v>
       </c>
+      <c r="V77" s="0" t="str">
+        <f aca="true">IF(M77="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q77)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="5" t="str">
-        <f aca="true">IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78)</f>
-        <v/>
-      </c>
-      <c r="L78" s="6" t="str">
-        <f aca="false">IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78))</f>
+      <c r="I78" s="1" t="str">
+        <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
+        <v/>
+      </c>
+      <c r="L78" s="8" t="str">
+        <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
       <c r="N78" s="0" t="n">
@@ -3713,14 +4046,18 @@
         <f aca="false">IF(T78 = "", "", T78/S78)</f>
         <v>0</v>
       </c>
+      <c r="V78" s="0" t="str">
+        <f aca="true">IF(M78="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q78)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="5" t="str">
-        <f aca="true">IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79)</f>
-        <v/>
-      </c>
-      <c r="L79" s="6" t="str">
-        <f aca="false">IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79))</f>
+      <c r="I79" s="1" t="str">
+        <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
+        <v/>
+      </c>
+      <c r="L79" s="8" t="str">
+        <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
       <c r="N79" s="0" t="n">
@@ -3755,14 +4092,18 @@
         <f aca="false">IF(T79 = "", "", T79/S79)</f>
         <v>0</v>
       </c>
+      <c r="V79" s="0" t="str">
+        <f aca="true">IF(M79="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q79)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="5" t="str">
-        <f aca="true">IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80)</f>
-        <v/>
-      </c>
-      <c r="L80" s="6" t="str">
-        <f aca="false">IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80))</f>
+      <c r="I80" s="1" t="str">
+        <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
+        <v/>
+      </c>
+      <c r="L80" s="8" t="str">
+        <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
       <c r="N80" s="0" t="n">
@@ -3797,14 +4138,18 @@
         <f aca="false">IF(T80 = "", "", T80/S80)</f>
         <v>0</v>
       </c>
+      <c r="V80" s="0" t="str">
+        <f aca="true">IF(M80="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q80)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="5" t="str">
-        <f aca="true">IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81)</f>
-        <v/>
-      </c>
-      <c r="L81" s="6" t="str">
-        <f aca="false">IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81))</f>
+      <c r="I81" s="1" t="str">
+        <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
+        <v/>
+      </c>
+      <c r="L81" s="8" t="str">
+        <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
       <c r="N81" s="0" t="n">
@@ -3839,14 +4184,18 @@
         <f aca="false">IF(T81 = "", "", T81/S81)</f>
         <v>0</v>
       </c>
+      <c r="V81" s="0" t="str">
+        <f aca="true">IF(M81="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q81)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="5" t="str">
-        <f aca="true">IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82)</f>
-        <v/>
-      </c>
-      <c r="L82" s="6" t="str">
-        <f aca="false">IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82))</f>
+      <c r="I82" s="1" t="str">
+        <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
+        <v/>
+      </c>
+      <c r="L82" s="8" t="str">
+        <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
       <c r="N82" s="0" t="n">
@@ -3881,14 +4230,18 @@
         <f aca="false">IF(T82 = "", "", T82/S82)</f>
         <v>0</v>
       </c>
+      <c r="V82" s="0" t="str">
+        <f aca="true">IF(M82="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q82)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="5" t="str">
-        <f aca="true">IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83)</f>
-        <v/>
-      </c>
-      <c r="L83" s="6" t="str">
-        <f aca="false">IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83))</f>
+      <c r="I83" s="1" t="str">
+        <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
+        <v/>
+      </c>
+      <c r="L83" s="8" t="str">
+        <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
       <c r="N83" s="0" t="n">
@@ -3923,14 +4276,18 @@
         <f aca="false">IF(T83 = "", "", T83/S83)</f>
         <v>0</v>
       </c>
+      <c r="V83" s="0" t="str">
+        <f aca="true">IF(M83="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q83)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="5" t="str">
-        <f aca="true">IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84)</f>
-        <v/>
-      </c>
-      <c r="L84" s="6" t="str">
-        <f aca="false">IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84))</f>
+      <c r="I84" s="1" t="str">
+        <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
+        <v/>
+      </c>
+      <c r="L84" s="8" t="str">
+        <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
       <c r="N84" s="0" t="n">
@@ -3965,14 +4322,18 @@
         <f aca="false">IF(T84 = "", "", T84/S84)</f>
         <v>0</v>
       </c>
+      <c r="V84" s="0" t="str">
+        <f aca="true">IF(M84="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q84)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="5" t="str">
-        <f aca="true">IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85)</f>
-        <v/>
-      </c>
-      <c r="L85" s="6" t="str">
-        <f aca="false">IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85))</f>
+      <c r="I85" s="1" t="str">
+        <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
+        <v/>
+      </c>
+      <c r="L85" s="8" t="str">
+        <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
       <c r="N85" s="0" t="n">
@@ -4007,14 +4368,18 @@
         <f aca="false">IF(T85 = "", "", T85/S85)</f>
         <v>0</v>
       </c>
+      <c r="V85" s="0" t="str">
+        <f aca="true">IF(M85="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q85)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="5" t="str">
-        <f aca="true">IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86)</f>
-        <v/>
-      </c>
-      <c r="L86" s="6" t="str">
-        <f aca="false">IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86))</f>
+      <c r="I86" s="1" t="str">
+        <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
+        <v/>
+      </c>
+      <c r="L86" s="8" t="str">
+        <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
       <c r="N86" s="0" t="n">
@@ -4049,14 +4414,18 @@
         <f aca="false">IF(T86 = "", "", T86/S86)</f>
         <v>0</v>
       </c>
+      <c r="V86" s="0" t="str">
+        <f aca="true">IF(M86="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q86)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="5" t="str">
-        <f aca="true">IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87)</f>
-        <v/>
-      </c>
-      <c r="L87" s="6" t="str">
-        <f aca="false">IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87))</f>
+      <c r="I87" s="1" t="str">
+        <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
+        <v/>
+      </c>
+      <c r="L87" s="8" t="str">
+        <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
       <c r="N87" s="0" t="n">
@@ -4091,14 +4460,18 @@
         <f aca="false">IF(T87 = "", "", T87/S87)</f>
         <v>0</v>
       </c>
+      <c r="V87" s="0" t="str">
+        <f aca="true">IF(M87="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q87)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="5" t="str">
-        <f aca="true">IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88)</f>
-        <v/>
-      </c>
-      <c r="L88" s="6" t="str">
-        <f aca="false">IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88))</f>
+      <c r="I88" s="1" t="str">
+        <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
+        <v/>
+      </c>
+      <c r="L88" s="8" t="str">
+        <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
       <c r="N88" s="0" t="n">
@@ -4133,14 +4506,18 @@
         <f aca="false">IF(T88 = "", "", T88/S88)</f>
         <v>0</v>
       </c>
+      <c r="V88" s="0" t="str">
+        <f aca="true">IF(M88="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q88)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="5" t="str">
-        <f aca="true">IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89)</f>
-        <v/>
-      </c>
-      <c r="L89" s="6" t="str">
-        <f aca="false">IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89))</f>
+      <c r="I89" s="1" t="str">
+        <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
+        <v/>
+      </c>
+      <c r="L89" s="8" t="str">
+        <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
       <c r="N89" s="0" t="n">
@@ -4175,14 +4552,18 @@
         <f aca="false">IF(T89 = "", "", T89/S89)</f>
         <v>0</v>
       </c>
+      <c r="V89" s="0" t="str">
+        <f aca="true">IF(M89="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q89)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="5" t="str">
-        <f aca="true">IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90)</f>
-        <v/>
-      </c>
-      <c r="L90" s="6" t="str">
-        <f aca="false">IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90))</f>
+      <c r="I90" s="1" t="str">
+        <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
+        <v/>
+      </c>
+      <c r="L90" s="8" t="str">
+        <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
       <c r="N90" s="0" t="n">
@@ -4217,14 +4598,18 @@
         <f aca="false">IF(T90 = "", "", T90/S90)</f>
         <v>0</v>
       </c>
+      <c r="V90" s="0" t="str">
+        <f aca="true">IF(M90="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q90)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="5" t="str">
-        <f aca="true">IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91)</f>
-        <v/>
-      </c>
-      <c r="L91" s="6" t="str">
-        <f aca="false">IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91))</f>
+      <c r="I91" s="1" t="str">
+        <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
+        <v/>
+      </c>
+      <c r="L91" s="8" t="str">
+        <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
       <c r="N91" s="0" t="n">
@@ -4259,14 +4644,18 @@
         <f aca="false">IF(T91 = "", "", T91/S91)</f>
         <v>0</v>
       </c>
+      <c r="V91" s="0" t="str">
+        <f aca="true">IF(M91="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q91)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="5" t="str">
-        <f aca="true">IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92)</f>
-        <v/>
-      </c>
-      <c r="L92" s="6" t="str">
-        <f aca="false">IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92))</f>
+      <c r="I92" s="1" t="str">
+        <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
+        <v/>
+      </c>
+      <c r="L92" s="8" t="str">
+        <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
       <c r="N92" s="0" t="n">
@@ -4301,14 +4690,18 @@
         <f aca="false">IF(T92 = "", "", T92/S92)</f>
         <v>0</v>
       </c>
+      <c r="V92" s="0" t="str">
+        <f aca="true">IF(M92="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q92)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="5" t="str">
-        <f aca="true">IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93)</f>
-        <v/>
-      </c>
-      <c r="L93" s="6" t="str">
-        <f aca="false">IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93))</f>
+      <c r="I93" s="1" t="str">
+        <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
+        <v/>
+      </c>
+      <c r="L93" s="8" t="str">
+        <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
       <c r="N93" s="0" t="n">
@@ -4343,14 +4736,18 @@
         <f aca="false">IF(T93 = "", "", T93/S93)</f>
         <v>0</v>
       </c>
+      <c r="V93" s="0" t="str">
+        <f aca="true">IF(M93="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q93)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="5" t="str">
-        <f aca="true">IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94)</f>
-        <v/>
-      </c>
-      <c r="L94" s="6" t="str">
-        <f aca="false">IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94))</f>
+      <c r="I94" s="1" t="str">
+        <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
+        <v/>
+      </c>
+      <c r="L94" s="8" t="str">
+        <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
       <c r="N94" s="0" t="n">
@@ -4385,14 +4782,18 @@
         <f aca="false">IF(T94 = "", "", T94/S94)</f>
         <v>0</v>
       </c>
+      <c r="V94" s="0" t="str">
+        <f aca="true">IF(M94="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q94)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="5" t="str">
-        <f aca="true">IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95)</f>
-        <v/>
-      </c>
-      <c r="L95" s="6" t="str">
-        <f aca="false">IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95))</f>
+      <c r="I95" s="1" t="str">
+        <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
+        <v/>
+      </c>
+      <c r="L95" s="8" t="str">
+        <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
       <c r="N95" s="0" t="n">
@@ -4427,14 +4828,18 @@
         <f aca="false">IF(T95 = "", "", T95/S95)</f>
         <v>0</v>
       </c>
+      <c r="V95" s="0" t="str">
+        <f aca="true">IF(M95="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q95)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="5" t="str">
-        <f aca="true">IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96)</f>
-        <v/>
-      </c>
-      <c r="L96" s="6" t="str">
-        <f aca="false">IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96))</f>
+      <c r="I96" s="1" t="str">
+        <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
+        <v/>
+      </c>
+      <c r="L96" s="8" t="str">
+        <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
       <c r="N96" s="0" t="n">
@@ -4469,14 +4874,18 @@
         <f aca="false">IF(T96 = "", "", T96/S96)</f>
         <v>0</v>
       </c>
+      <c r="V96" s="0" t="str">
+        <f aca="true">IF(M96="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q96)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="5" t="str">
-        <f aca="true">IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97)</f>
-        <v/>
-      </c>
-      <c r="L97" s="6" t="str">
-        <f aca="false">IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97))</f>
+      <c r="I97" s="1" t="str">
+        <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
+        <v/>
+      </c>
+      <c r="L97" s="8" t="str">
+        <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
       <c r="N97" s="0" t="n">
@@ -4511,14 +4920,18 @@
         <f aca="false">IF(T97 = "", "", T97/S97)</f>
         <v>0</v>
       </c>
+      <c r="V97" s="0" t="str">
+        <f aca="true">IF(M97="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q97)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="5" t="str">
-        <f aca="true">IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98)</f>
-        <v/>
-      </c>
-      <c r="L98" s="6" t="str">
-        <f aca="false">IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98))</f>
+      <c r="I98" s="1" t="str">
+        <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
+        <v/>
+      </c>
+      <c r="L98" s="8" t="str">
+        <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
       <c r="N98" s="0" t="n">
@@ -4553,14 +4966,18 @@
         <f aca="false">IF(T98 = "", "", T98/S98)</f>
         <v>0</v>
       </c>
+      <c r="V98" s="0" t="str">
+        <f aca="true">IF(M98="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q98)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="5" t="str">
-        <f aca="true">IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99)</f>
-        <v/>
-      </c>
-      <c r="L99" s="6" t="str">
-        <f aca="false">IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99))</f>
+      <c r="I99" s="1" t="str">
+        <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
+        <v/>
+      </c>
+      <c r="L99" s="8" t="str">
+        <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
       <c r="N99" s="0" t="n">
@@ -4595,14 +5012,18 @@
         <f aca="false">IF(T99 = "", "", T99/S99)</f>
         <v>0</v>
       </c>
+      <c r="V99" s="0" t="str">
+        <f aca="true">IF(M99="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q99)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="5" t="str">
-        <f aca="true">IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100)</f>
-        <v/>
-      </c>
-      <c r="L100" s="6" t="str">
-        <f aca="false">IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100))</f>
+      <c r="I100" s="1" t="str">
+        <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
+        <v/>
+      </c>
+      <c r="L100" s="8" t="str">
+        <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
       <c r="N100" s="0" t="n">
@@ -4637,14 +5058,18 @@
         <f aca="false">IF(T100 = "", "", T100/S100)</f>
         <v>0</v>
       </c>
+      <c r="V100" s="0" t="str">
+        <f aca="true">IF(M100="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q100)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="5" t="str">
-        <f aca="true">IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101)</f>
-        <v/>
-      </c>
-      <c r="L101" s="6" t="str">
-        <f aca="false">IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101))</f>
+      <c r="I101" s="1" t="str">
+        <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
+        <v/>
+      </c>
+      <c r="L101" s="8" t="str">
+        <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
       <c r="N101" s="0" t="n">
@@ -4679,14 +5104,18 @@
         <f aca="false">IF(T101 = "", "", T101/S101)</f>
         <v>0</v>
       </c>
+      <c r="V101" s="0" t="str">
+        <f aca="true">IF(M101="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q101)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="5" t="str">
-        <f aca="true">IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102)</f>
-        <v/>
-      </c>
-      <c r="L102" s="6" t="str">
-        <f aca="false">IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102))</f>
+      <c r="I102" s="1" t="str">
+        <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
+        <v/>
+      </c>
+      <c r="L102" s="8" t="str">
+        <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
       <c r="N102" s="0" t="n">
@@ -4721,14 +5150,18 @@
         <f aca="false">IF(T102 = "", "", T102/S102)</f>
         <v>0</v>
       </c>
+      <c r="V102" s="0" t="str">
+        <f aca="true">IF(M102="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q102)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="5" t="str">
-        <f aca="true">IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103)</f>
-        <v/>
-      </c>
-      <c r="L103" s="6" t="str">
-        <f aca="false">IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103))</f>
+      <c r="I103" s="1" t="str">
+        <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
+        <v/>
+      </c>
+      <c r="L103" s="8" t="str">
+        <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
       <c r="N103" s="0" t="n">
@@ -4763,14 +5196,18 @@
         <f aca="false">IF(T103 = "", "", T103/S103)</f>
         <v>0</v>
       </c>
+      <c r="V103" s="0" t="str">
+        <f aca="true">IF(M103="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q103)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="5" t="str">
-        <f aca="true">IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104)</f>
-        <v/>
-      </c>
-      <c r="L104" s="6" t="str">
-        <f aca="false">IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104))</f>
+      <c r="I104" s="1" t="str">
+        <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
+        <v/>
+      </c>
+      <c r="L104" s="8" t="str">
+        <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
       <c r="N104" s="0" t="n">
@@ -4805,14 +5242,18 @@
         <f aca="false">IF(T104 = "", "", T104/S104)</f>
         <v>0</v>
       </c>
+      <c r="V104" s="0" t="str">
+        <f aca="true">IF(M104="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q104)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="5" t="str">
-        <f aca="true">IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105)</f>
-        <v/>
-      </c>
-      <c r="L105" s="6" t="str">
-        <f aca="false">IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105))</f>
+      <c r="I105" s="1" t="str">
+        <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
+        <v/>
+      </c>
+      <c r="L105" s="8" t="str">
+        <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
       <c r="N105" s="0" t="n">
@@ -4847,14 +5288,18 @@
         <f aca="false">IF(T105 = "", "", T105/S105)</f>
         <v>0</v>
       </c>
+      <c r="V105" s="0" t="str">
+        <f aca="true">IF(M105="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q105)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="5" t="str">
-        <f aca="true">IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106)</f>
-        <v/>
-      </c>
-      <c r="L106" s="6" t="str">
-        <f aca="false">IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106))</f>
+      <c r="I106" s="1" t="str">
+        <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
+        <v/>
+      </c>
+      <c r="L106" s="8" t="str">
+        <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
       <c r="N106" s="0" t="n">
@@ -4889,14 +5334,18 @@
         <f aca="false">IF(T106 = "", "", T106/S106)</f>
         <v>0</v>
       </c>
+      <c r="V106" s="0" t="str">
+        <f aca="true">IF(M106="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q106)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="5" t="str">
-        <f aca="true">IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107)</f>
-        <v/>
-      </c>
-      <c r="L107" s="6" t="str">
-        <f aca="false">IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107))</f>
+      <c r="I107" s="1" t="str">
+        <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
+        <v/>
+      </c>
+      <c r="L107" s="8" t="str">
+        <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
       <c r="N107" s="0" t="n">
@@ -4931,14 +5380,18 @@
         <f aca="false">IF(T107 = "", "", T107/S107)</f>
         <v>0</v>
       </c>
+      <c r="V107" s="0" t="str">
+        <f aca="true">IF(M107="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q107)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="5" t="str">
-        <f aca="true">IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108)</f>
-        <v/>
-      </c>
-      <c r="L108" s="6" t="str">
-        <f aca="false">IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108))</f>
+      <c r="I108" s="1" t="str">
+        <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
+        <v/>
+      </c>
+      <c r="L108" s="8" t="str">
+        <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
       <c r="N108" s="0" t="n">
@@ -4973,14 +5426,18 @@
         <f aca="false">IF(T108 = "", "", T108/S108)</f>
         <v>0</v>
       </c>
+      <c r="V108" s="0" t="str">
+        <f aca="true">IF(M108="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q108)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="5" t="str">
-        <f aca="true">IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109)</f>
-        <v/>
-      </c>
-      <c r="L109" s="6" t="str">
-        <f aca="false">IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109))</f>
+      <c r="I109" s="1" t="str">
+        <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
+        <v/>
+      </c>
+      <c r="L109" s="8" t="str">
+        <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
       <c r="N109" s="0" t="n">
@@ -5015,14 +5472,18 @@
         <f aca="false">IF(T109 = "", "", T109/S109)</f>
         <v>0</v>
       </c>
+      <c r="V109" s="0" t="str">
+        <f aca="true">IF(M109="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q109)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="5" t="str">
-        <f aca="true">IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110)</f>
-        <v/>
-      </c>
-      <c r="L110" s="6" t="str">
-        <f aca="false">IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110))</f>
+      <c r="I110" s="1" t="str">
+        <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
+        <v/>
+      </c>
+      <c r="L110" s="8" t="str">
+        <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
       <c r="N110" s="0" t="n">
@@ -5057,14 +5518,18 @@
         <f aca="false">IF(T110 = "", "", T110/S110)</f>
         <v>0</v>
       </c>
+      <c r="V110" s="0" t="str">
+        <f aca="true">IF(M110="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q110)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="5" t="str">
-        <f aca="true">IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111)</f>
-        <v/>
-      </c>
-      <c r="L111" s="6" t="str">
-        <f aca="false">IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111))</f>
+      <c r="I111" s="1" t="str">
+        <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
+        <v/>
+      </c>
+      <c r="L111" s="8" t="str">
+        <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
       <c r="N111" s="0" t="n">
@@ -5099,14 +5564,18 @@
         <f aca="false">IF(T111 = "", "", T111/S111)</f>
         <v>0</v>
       </c>
+      <c r="V111" s="0" t="str">
+        <f aca="true">IF(M111="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q111)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="5" t="str">
-        <f aca="true">IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112)</f>
-        <v/>
-      </c>
-      <c r="L112" s="6" t="str">
-        <f aca="false">IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112))</f>
+      <c r="I112" s="1" t="str">
+        <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
+        <v/>
+      </c>
+      <c r="L112" s="8" t="str">
+        <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
       <c r="N112" s="0" t="n">
@@ -5141,14 +5610,18 @@
         <f aca="false">IF(T112 = "", "", T112/S112)</f>
         <v>0</v>
       </c>
+      <c r="V112" s="0" t="str">
+        <f aca="true">IF(M112="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q112)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="5" t="str">
-        <f aca="true">IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113)</f>
-        <v/>
-      </c>
-      <c r="L113" s="6" t="str">
-        <f aca="false">IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113))</f>
+      <c r="I113" s="1" t="str">
+        <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
+        <v/>
+      </c>
+      <c r="L113" s="8" t="str">
+        <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
       <c r="N113" s="0" t="n">
@@ -5183,14 +5656,18 @@
         <f aca="false">IF(T113 = "", "", T113/S113)</f>
         <v>0</v>
       </c>
+      <c r="V113" s="0" t="str">
+        <f aca="true">IF(M113="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q113)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="5" t="str">
-        <f aca="true">IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114)</f>
-        <v/>
-      </c>
-      <c r="L114" s="6" t="str">
-        <f aca="false">IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114))</f>
+      <c r="I114" s="1" t="str">
+        <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
+        <v/>
+      </c>
+      <c r="L114" s="8" t="str">
+        <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
       <c r="N114" s="0" t="n">
@@ -5225,14 +5702,18 @@
         <f aca="false">IF(T114 = "", "", T114/S114)</f>
         <v>0</v>
       </c>
+      <c r="V114" s="0" t="str">
+        <f aca="true">IF(M114="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q114)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="5" t="str">
-        <f aca="true">IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115)</f>
-        <v/>
-      </c>
-      <c r="L115" s="6" t="str">
-        <f aca="false">IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115))</f>
+      <c r="I115" s="1" t="str">
+        <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
+        <v/>
+      </c>
+      <c r="L115" s="8" t="str">
+        <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
       <c r="N115" s="0" t="n">
@@ -5267,14 +5748,18 @@
         <f aca="false">IF(T115 = "", "", T115/S115)</f>
         <v>0</v>
       </c>
+      <c r="V115" s="0" t="str">
+        <f aca="true">IF(M115="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q115)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="5" t="str">
-        <f aca="true">IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116)</f>
-        <v/>
-      </c>
-      <c r="L116" s="6" t="str">
-        <f aca="false">IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116))</f>
+      <c r="I116" s="1" t="str">
+        <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
+        <v/>
+      </c>
+      <c r="L116" s="8" t="str">
+        <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
       <c r="N116" s="0" t="n">
@@ -5309,14 +5794,18 @@
         <f aca="false">IF(T116 = "", "", T116/S116)</f>
         <v>0</v>
       </c>
+      <c r="V116" s="0" t="str">
+        <f aca="true">IF(M116="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q116)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="5" t="str">
-        <f aca="true">IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117)</f>
-        <v/>
-      </c>
-      <c r="L117" s="6" t="str">
-        <f aca="false">IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117))</f>
+      <c r="I117" s="1" t="str">
+        <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
+        <v/>
+      </c>
+      <c r="L117" s="8" t="str">
+        <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
       <c r="N117" s="0" t="n">
@@ -5351,14 +5840,18 @@
         <f aca="false">IF(T117 = "", "", T117/S117)</f>
         <v>0</v>
       </c>
+      <c r="V117" s="0" t="str">
+        <f aca="true">IF(M117="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q117)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="5" t="str">
-        <f aca="true">IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118)</f>
-        <v/>
-      </c>
-      <c r="L118" s="6" t="str">
-        <f aca="false">IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118))</f>
+      <c r="I118" s="1" t="str">
+        <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
+        <v/>
+      </c>
+      <c r="L118" s="8" t="str">
+        <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
       <c r="N118" s="0" t="n">
@@ -5393,14 +5886,18 @@
         <f aca="false">IF(T118 = "", "", T118/S118)</f>
         <v>0</v>
       </c>
+      <c r="V118" s="0" t="str">
+        <f aca="true">IF(M118="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q118)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="5" t="str">
-        <f aca="true">IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119)</f>
-        <v/>
-      </c>
-      <c r="L119" s="6" t="str">
-        <f aca="false">IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119))</f>
+      <c r="I119" s="1" t="str">
+        <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
+        <v/>
+      </c>
+      <c r="L119" s="8" t="str">
+        <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
       <c r="N119" s="0" t="n">
@@ -5435,14 +5932,18 @@
         <f aca="false">IF(T119 = "", "", T119/S119)</f>
         <v>0</v>
       </c>
+      <c r="V119" s="0" t="str">
+        <f aca="true">IF(M119="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q119)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="5" t="str">
-        <f aca="true">IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120)</f>
-        <v/>
-      </c>
-      <c r="L120" s="6" t="str">
-        <f aca="false">IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120))</f>
+      <c r="I120" s="1" t="str">
+        <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
+        <v/>
+      </c>
+      <c r="L120" s="8" t="str">
+        <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
       <c r="N120" s="0" t="n">
@@ -5477,14 +5978,18 @@
         <f aca="false">IF(T120 = "", "", T120/S120)</f>
         <v>0</v>
       </c>
+      <c r="V120" s="0" t="str">
+        <f aca="true">IF(M120="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q120)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="5" t="str">
-        <f aca="true">IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121)</f>
-        <v/>
-      </c>
-      <c r="L121" s="6" t="str">
-        <f aca="false">IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121))</f>
+      <c r="I121" s="1" t="str">
+        <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
+        <v/>
+      </c>
+      <c r="L121" s="8" t="str">
+        <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
       <c r="N121" s="0" t="n">
@@ -5519,14 +6024,18 @@
         <f aca="false">IF(T121 = "", "", T121/S121)</f>
         <v>0</v>
       </c>
+      <c r="V121" s="0" t="str">
+        <f aca="true">IF(M121="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q121)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="5" t="str">
-        <f aca="true">IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122)</f>
-        <v/>
-      </c>
-      <c r="L122" s="6" t="str">
-        <f aca="false">IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122))</f>
+      <c r="I122" s="1" t="str">
+        <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
+        <v/>
+      </c>
+      <c r="L122" s="8" t="str">
+        <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>
       <c r="N122" s="0" t="n">
@@ -5560,6 +6069,10 @@
       <c r="U122" s="0" t="n">
         <f aca="false">IF(T122 = "", "", T122/S122)</f>
         <v>0</v>
+      </c>
+      <c r="V122" s="0" t="str">
+        <f aca="true">IF(M122="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q122)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -5611,14 +6124,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U122"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" activeCellId="0" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5629,7 +6142,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
@@ -5640,79 +6154,83 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="19" min="19" style="0" width="6.61"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="20" min="20" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="21" min="21" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="22" min="22" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="3" t="s">
-        <v>11</v>
+      <c r="U1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="5" t="str">
-        <f aca="true">IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2)</f>
-        <v/>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="6" t="str">
-        <f aca="false">IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2))</f>
+      <c r="I2" s="1" t="str">
+        <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
+        <v/>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="str">
+        <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
       <c r="N2" s="0" t="n">
@@ -5747,14 +6265,18 @@
         <f aca="false">IF(T2 = "", "", T2/S2)</f>
         <v>0</v>
       </c>
+      <c r="V2" s="0" t="str">
+        <f aca="true">IF(M2="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q2)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="5" t="str">
-        <f aca="true">IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3)</f>
-        <v/>
-      </c>
-      <c r="L3" s="6" t="str">
-        <f aca="false">IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3))</f>
+      <c r="I3" s="1" t="str">
+        <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
+        <v/>
+      </c>
+      <c r="L3" s="8" t="str">
+        <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
       <c r="N3" s="0" t="n">
@@ -5789,14 +6311,18 @@
         <f aca="false">IF(T3 = "", "", T3/S3)</f>
         <v>0</v>
       </c>
+      <c r="V3" s="0" t="str">
+        <f aca="true">IF(M3="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q3)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="5" t="str">
-        <f aca="true">IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4)</f>
-        <v/>
-      </c>
-      <c r="L4" s="6" t="str">
-        <f aca="false">IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4))</f>
+      <c r="I4" s="1" t="str">
+        <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
+        <v/>
+      </c>
+      <c r="L4" s="8" t="str">
+        <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
       <c r="N4" s="0" t="n">
@@ -5831,14 +6357,18 @@
         <f aca="false">IF(T4 = "", "", T4/S4)</f>
         <v>0</v>
       </c>
+      <c r="V4" s="0" t="str">
+        <f aca="true">IF(M4="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q4)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="5" t="str">
-        <f aca="true">IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5)</f>
-        <v/>
-      </c>
-      <c r="L5" s="6" t="str">
-        <f aca="false">IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5))</f>
+      <c r="I5" s="1" t="str">
+        <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
+        <v/>
+      </c>
+      <c r="L5" s="8" t="str">
+        <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
       <c r="N5" s="0" t="n">
@@ -5873,14 +6403,18 @@
         <f aca="false">IF(T5 = "", "", T5/S5)</f>
         <v>0</v>
       </c>
+      <c r="V5" s="0" t="str">
+        <f aca="true">IF(M5="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q5)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="5" t="str">
-        <f aca="true">IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="6" t="str">
-        <f aca="false">IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6))</f>
+      <c r="I6" s="1" t="str">
+        <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
+        <v/>
+      </c>
+      <c r="L6" s="8" t="str">
+        <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
       <c r="N6" s="0" t="n">
@@ -5915,14 +6449,18 @@
         <f aca="false">IF(T6 = "", "", T6/S6)</f>
         <v>0</v>
       </c>
+      <c r="V6" s="0" t="str">
+        <f aca="true">IF(M6="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q6)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="5" t="str">
-        <f aca="true">IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7)</f>
-        <v/>
-      </c>
-      <c r="L7" s="6" t="str">
-        <f aca="false">IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7))</f>
+      <c r="I7" s="1" t="str">
+        <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
+        <v/>
+      </c>
+      <c r="L7" s="8" t="str">
+        <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
       <c r="N7" s="0" t="n">
@@ -5957,14 +6495,18 @@
         <f aca="false">IF(T7 = "", "", T7/S7)</f>
         <v>0</v>
       </c>
+      <c r="V7" s="0" t="str">
+        <f aca="true">IF(M7="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q7)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="5" t="str">
-        <f aca="true">IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8)</f>
-        <v/>
-      </c>
-      <c r="L8" s="6" t="str">
-        <f aca="false">IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8))</f>
+      <c r="I8" s="1" t="str">
+        <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
+        <v/>
+      </c>
+      <c r="L8" s="8" t="str">
+        <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
       <c r="N8" s="0" t="n">
@@ -5999,14 +6541,18 @@
         <f aca="false">IF(T8 = "", "", T8/S8)</f>
         <v>0</v>
       </c>
+      <c r="V8" s="0" t="str">
+        <f aca="true">IF(M8="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q8)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="5" t="str">
-        <f aca="true">IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9)</f>
-        <v/>
-      </c>
-      <c r="L9" s="6" t="str">
-        <f aca="false">IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9))</f>
+      <c r="I9" s="1" t="str">
+        <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
+        <v/>
+      </c>
+      <c r="L9" s="8" t="str">
+        <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
       <c r="N9" s="0" t="n">
@@ -6041,14 +6587,18 @@
         <f aca="false">IF(T9 = "", "", T9/S9)</f>
         <v>0</v>
       </c>
+      <c r="V9" s="0" t="str">
+        <f aca="true">IF(M9="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q9)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="5" t="str">
-        <f aca="true">IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10)</f>
-        <v/>
-      </c>
-      <c r="L10" s="6" t="str">
-        <f aca="false">IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10))</f>
+      <c r="I10" s="1" t="str">
+        <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
+        <v/>
+      </c>
+      <c r="L10" s="8" t="str">
+        <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
       <c r="N10" s="0" t="n">
@@ -6083,14 +6633,18 @@
         <f aca="false">IF(T10 = "", "", T10/S10)</f>
         <v>0</v>
       </c>
+      <c r="V10" s="0" t="str">
+        <f aca="true">IF(M10="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q10)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="5" t="str">
-        <f aca="true">IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11)</f>
-        <v/>
-      </c>
-      <c r="L11" s="6" t="str">
-        <f aca="false">IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11))</f>
+      <c r="I11" s="1" t="str">
+        <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
+        <v/>
+      </c>
+      <c r="L11" s="8" t="str">
+        <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
       <c r="N11" s="0" t="n">
@@ -6125,14 +6679,18 @@
         <f aca="false">IF(T11 = "", "", T11/S11)</f>
         <v>0</v>
       </c>
+      <c r="V11" s="0" t="str">
+        <f aca="true">IF(M11="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q11)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="5" t="str">
-        <f aca="true">IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12)</f>
-        <v/>
-      </c>
-      <c r="L12" s="6" t="str">
-        <f aca="false">IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12))</f>
+      <c r="I12" s="1" t="str">
+        <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
+        <v/>
+      </c>
+      <c r="L12" s="8" t="str">
+        <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
       <c r="N12" s="0" t="n">
@@ -6167,14 +6725,18 @@
         <f aca="false">IF(T12 = "", "", T12/S12)</f>
         <v>0</v>
       </c>
+      <c r="V12" s="0" t="str">
+        <f aca="true">IF(M12="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q12)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="5" t="str">
-        <f aca="true">IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13)</f>
-        <v/>
-      </c>
-      <c r="L13" s="6" t="str">
-        <f aca="false">IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13))</f>
+      <c r="I13" s="1" t="str">
+        <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
+        <v/>
+      </c>
+      <c r="L13" s="8" t="str">
+        <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
       <c r="N13" s="0" t="n">
@@ -6209,14 +6771,18 @@
         <f aca="false">IF(T13 = "", "", T13/S13)</f>
         <v>0</v>
       </c>
+      <c r="V13" s="0" t="str">
+        <f aca="true">IF(M13="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q13)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="5" t="str">
-        <f aca="true">IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14)</f>
-        <v/>
-      </c>
-      <c r="L14" s="6" t="str">
-        <f aca="false">IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14))</f>
+      <c r="I14" s="1" t="str">
+        <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
+        <v/>
+      </c>
+      <c r="L14" s="8" t="str">
+        <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
       <c r="N14" s="0" t="n">
@@ -6251,14 +6817,18 @@
         <f aca="false">IF(T14 = "", "", T14/S14)</f>
         <v>0</v>
       </c>
+      <c r="V14" s="0" t="str">
+        <f aca="true">IF(M14="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q14)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="5" t="str">
-        <f aca="true">IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15)</f>
-        <v/>
-      </c>
-      <c r="L15" s="6" t="str">
-        <f aca="false">IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15))</f>
+      <c r="I15" s="1" t="str">
+        <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
+        <v/>
+      </c>
+      <c r="L15" s="8" t="str">
+        <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
       <c r="N15" s="0" t="n">
@@ -6293,14 +6863,18 @@
         <f aca="false">IF(T15 = "", "", T15/S15)</f>
         <v>0</v>
       </c>
+      <c r="V15" s="0" t="str">
+        <f aca="true">IF(M15="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q15)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="5" t="str">
-        <f aca="true">IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16)</f>
-        <v/>
-      </c>
-      <c r="L16" s="6" t="str">
-        <f aca="false">IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16))</f>
+      <c r="I16" s="1" t="str">
+        <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
+        <v/>
+      </c>
+      <c r="L16" s="8" t="str">
+        <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
       <c r="N16" s="0" t="n">
@@ -6335,14 +6909,18 @@
         <f aca="false">IF(T16 = "", "", T16/S16)</f>
         <v>0</v>
       </c>
+      <c r="V16" s="0" t="str">
+        <f aca="true">IF(M16="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q16)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="5" t="str">
-        <f aca="true">IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17)</f>
-        <v/>
-      </c>
-      <c r="L17" s="6" t="str">
-        <f aca="false">IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17))</f>
+      <c r="I17" s="1" t="str">
+        <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
+        <v/>
+      </c>
+      <c r="L17" s="8" t="str">
+        <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
       <c r="N17" s="0" t="n">
@@ -6377,14 +6955,18 @@
         <f aca="false">IF(T17 = "", "", T17/S17)</f>
         <v>0</v>
       </c>
+      <c r="V17" s="0" t="str">
+        <f aca="true">IF(M17="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q17)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="5" t="str">
-        <f aca="true">IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18)</f>
-        <v/>
-      </c>
-      <c r="L18" s="6" t="str">
-        <f aca="false">IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18))</f>
+      <c r="I18" s="1" t="str">
+        <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
+        <v/>
+      </c>
+      <c r="L18" s="8" t="str">
+        <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
       <c r="N18" s="0" t="n">
@@ -6419,14 +7001,18 @@
         <f aca="false">IF(T18 = "", "", T18/S18)</f>
         <v>0</v>
       </c>
+      <c r="V18" s="0" t="str">
+        <f aca="true">IF(M18="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q18)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="5" t="str">
-        <f aca="true">IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19)</f>
-        <v/>
-      </c>
-      <c r="L19" s="6" t="str">
-        <f aca="false">IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19))</f>
+      <c r="I19" s="1" t="str">
+        <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
+        <v/>
+      </c>
+      <c r="L19" s="8" t="str">
+        <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
       <c r="N19" s="0" t="n">
@@ -6461,14 +7047,18 @@
         <f aca="false">IF(T19 = "", "", T19/S19)</f>
         <v>0</v>
       </c>
+      <c r="V19" s="0" t="str">
+        <f aca="true">IF(M19="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q19)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="5" t="str">
-        <f aca="true">IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20)</f>
-        <v/>
-      </c>
-      <c r="L20" s="6" t="str">
-        <f aca="false">IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20))</f>
+      <c r="I20" s="1" t="str">
+        <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
+        <v/>
+      </c>
+      <c r="L20" s="8" t="str">
+        <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
       <c r="N20" s="0" t="n">
@@ -6503,14 +7093,18 @@
         <f aca="false">IF(T20 = "", "", T20/S20)</f>
         <v>0</v>
       </c>
+      <c r="V20" s="0" t="str">
+        <f aca="true">IF(M20="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q20)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="5" t="str">
-        <f aca="true">IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21)</f>
-        <v/>
-      </c>
-      <c r="L21" s="6" t="str">
-        <f aca="false">IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21))</f>
+      <c r="I21" s="1" t="str">
+        <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
+        <v/>
+      </c>
+      <c r="L21" s="8" t="str">
+        <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
       <c r="N21" s="0" t="n">
@@ -6545,14 +7139,18 @@
         <f aca="false">IF(T21 = "", "", T21/S21)</f>
         <v>0</v>
       </c>
+      <c r="V21" s="0" t="str">
+        <f aca="true">IF(M21="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q21)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="5" t="str">
-        <f aca="true">IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22)</f>
-        <v/>
-      </c>
-      <c r="L22" s="6" t="str">
-        <f aca="false">IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22))</f>
+      <c r="I22" s="1" t="str">
+        <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
+        <v/>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
       <c r="N22" s="0" t="n">
@@ -6587,14 +7185,18 @@
         <f aca="false">IF(T22 = "", "", T22/S22)</f>
         <v>0</v>
       </c>
+      <c r="V22" s="0" t="str">
+        <f aca="true">IF(M22="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q22)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="5" t="str">
-        <f aca="true">IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23)</f>
-        <v/>
-      </c>
-      <c r="L23" s="6" t="str">
-        <f aca="false">IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23))</f>
+      <c r="I23" s="1" t="str">
+        <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
+        <v/>
+      </c>
+      <c r="L23" s="8" t="str">
+        <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
       <c r="N23" s="0" t="n">
@@ -6629,14 +7231,18 @@
         <f aca="false">IF(T23 = "", "", T23/S23)</f>
         <v>0</v>
       </c>
+      <c r="V23" s="0" t="str">
+        <f aca="true">IF(M23="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q23)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="5" t="str">
-        <f aca="true">IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24)</f>
-        <v/>
-      </c>
-      <c r="L24" s="6" t="str">
-        <f aca="false">IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24))</f>
+      <c r="I24" s="1" t="str">
+        <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
+        <v/>
+      </c>
+      <c r="L24" s="8" t="str">
+        <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
       <c r="N24" s="0" t="n">
@@ -6671,14 +7277,18 @@
         <f aca="false">IF(T24 = "", "", T24/S24)</f>
         <v>0</v>
       </c>
+      <c r="V24" s="0" t="str">
+        <f aca="true">IF(M24="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q24)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="5" t="str">
-        <f aca="true">IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25)</f>
-        <v/>
-      </c>
-      <c r="L25" s="6" t="str">
-        <f aca="false">IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25))</f>
+      <c r="I25" s="1" t="str">
+        <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
+        <v/>
+      </c>
+      <c r="L25" s="8" t="str">
+        <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
       <c r="N25" s="0" t="n">
@@ -6713,14 +7323,18 @@
         <f aca="false">IF(T25 = "", "", T25/S25)</f>
         <v>0</v>
       </c>
+      <c r="V25" s="0" t="str">
+        <f aca="true">IF(M25="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q25)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="5" t="str">
-        <f aca="true">IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26)</f>
-        <v/>
-      </c>
-      <c r="L26" s="6" t="str">
-        <f aca="false">IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26))</f>
+      <c r="I26" s="1" t="str">
+        <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
+        <v/>
+      </c>
+      <c r="L26" s="8" t="str">
+        <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
       <c r="N26" s="0" t="n">
@@ -6755,14 +7369,18 @@
         <f aca="false">IF(T26 = "", "", T26/S26)</f>
         <v>0</v>
       </c>
+      <c r="V26" s="0" t="str">
+        <f aca="true">IF(M26="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q26)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="5" t="str">
-        <f aca="true">IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27)</f>
-        <v/>
-      </c>
-      <c r="L27" s="6" t="str">
-        <f aca="false">IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27))</f>
+      <c r="I27" s="1" t="str">
+        <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
+        <v/>
+      </c>
+      <c r="L27" s="8" t="str">
+        <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
       <c r="N27" s="0" t="n">
@@ -6797,14 +7415,18 @@
         <f aca="false">IF(T27 = "", "", T27/S27)</f>
         <v>0</v>
       </c>
+      <c r="V27" s="0" t="str">
+        <f aca="true">IF(M27="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q27)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="5" t="str">
-        <f aca="true">IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28)</f>
-        <v/>
-      </c>
-      <c r="L28" s="6" t="str">
-        <f aca="false">IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28))</f>
+      <c r="I28" s="1" t="str">
+        <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
+        <v/>
+      </c>
+      <c r="L28" s="8" t="str">
+        <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
       <c r="N28" s="0" t="n">
@@ -6839,14 +7461,18 @@
         <f aca="false">IF(T28 = "", "", T28/S28)</f>
         <v>0</v>
       </c>
+      <c r="V28" s="0" t="str">
+        <f aca="true">IF(M28="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q28)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="5" t="str">
-        <f aca="true">IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29)</f>
-        <v/>
-      </c>
-      <c r="L29" s="6" t="str">
-        <f aca="false">IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29))</f>
+      <c r="I29" s="1" t="str">
+        <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
+        <v/>
+      </c>
+      <c r="L29" s="8" t="str">
+        <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
       <c r="N29" s="0" t="n">
@@ -6881,14 +7507,18 @@
         <f aca="false">IF(T29 = "", "", T29/S29)</f>
         <v>0</v>
       </c>
+      <c r="V29" s="0" t="str">
+        <f aca="true">IF(M29="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q29)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="5" t="str">
-        <f aca="true">IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30)</f>
-        <v/>
-      </c>
-      <c r="L30" s="6" t="str">
-        <f aca="false">IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30))</f>
+      <c r="I30" s="1" t="str">
+        <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
+        <v/>
+      </c>
+      <c r="L30" s="8" t="str">
+        <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
       <c r="N30" s="0" t="n">
@@ -6923,14 +7553,18 @@
         <f aca="false">IF(T30 = "", "", T30/S30)</f>
         <v>0</v>
       </c>
+      <c r="V30" s="0" t="str">
+        <f aca="true">IF(M30="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q30)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="5" t="str">
-        <f aca="true">IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31)</f>
-        <v/>
-      </c>
-      <c r="L31" s="6" t="str">
-        <f aca="false">IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31))</f>
+      <c r="I31" s="1" t="str">
+        <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
+        <v/>
+      </c>
+      <c r="L31" s="8" t="str">
+        <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
       <c r="N31" s="0" t="n">
@@ -6965,14 +7599,18 @@
         <f aca="false">IF(T31 = "", "", T31/S31)</f>
         <v>0</v>
       </c>
+      <c r="V31" s="0" t="str">
+        <f aca="true">IF(M31="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q31)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="5" t="str">
-        <f aca="true">IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32)</f>
-        <v/>
-      </c>
-      <c r="L32" s="6" t="str">
-        <f aca="false">IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32))</f>
+      <c r="I32" s="1" t="str">
+        <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
+        <v/>
+      </c>
+      <c r="L32" s="8" t="str">
+        <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
       <c r="N32" s="0" t="n">
@@ -7007,14 +7645,18 @@
         <f aca="false">IF(T32 = "", "", T32/S32)</f>
         <v>0</v>
       </c>
+      <c r="V32" s="0" t="str">
+        <f aca="true">IF(M32="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q32)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="5" t="str">
-        <f aca="true">IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33)</f>
-        <v/>
-      </c>
-      <c r="L33" s="6" t="str">
-        <f aca="false">IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33))</f>
+      <c r="I33" s="1" t="str">
+        <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
+        <v/>
+      </c>
+      <c r="L33" s="8" t="str">
+        <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
       <c r="N33" s="0" t="n">
@@ -7049,14 +7691,18 @@
         <f aca="false">IF(T33 = "", "", T33/S33)</f>
         <v>0</v>
       </c>
+      <c r="V33" s="0" t="str">
+        <f aca="true">IF(M33="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q33)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="5" t="str">
-        <f aca="true">IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34)</f>
-        <v/>
-      </c>
-      <c r="L34" s="6" t="str">
-        <f aca="false">IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34))</f>
+      <c r="I34" s="1" t="str">
+        <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
+        <v/>
+      </c>
+      <c r="L34" s="8" t="str">
+        <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
       <c r="N34" s="0" t="n">
@@ -7091,14 +7737,18 @@
         <f aca="false">IF(T34 = "", "", T34/S34)</f>
         <v>0</v>
       </c>
+      <c r="V34" s="0" t="str">
+        <f aca="true">IF(M34="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q34)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="5" t="str">
-        <f aca="true">IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35)</f>
-        <v/>
-      </c>
-      <c r="L35" s="6" t="str">
-        <f aca="false">IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35))</f>
+      <c r="I35" s="1" t="str">
+        <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
+        <v/>
+      </c>
+      <c r="L35" s="8" t="str">
+        <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
       <c r="N35" s="0" t="n">
@@ -7133,14 +7783,18 @@
         <f aca="false">IF(T35 = "", "", T35/S35)</f>
         <v>0</v>
       </c>
+      <c r="V35" s="0" t="str">
+        <f aca="true">IF(M35="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q35)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="5" t="str">
-        <f aca="true">IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36)</f>
-        <v/>
-      </c>
-      <c r="L36" s="6" t="str">
-        <f aca="false">IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36))</f>
+      <c r="I36" s="1" t="str">
+        <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
+        <v/>
+      </c>
+      <c r="L36" s="8" t="str">
+        <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
       <c r="N36" s="0" t="n">
@@ -7175,14 +7829,18 @@
         <f aca="false">IF(T36 = "", "", T36/S36)</f>
         <v>0</v>
       </c>
+      <c r="V36" s="0" t="str">
+        <f aca="true">IF(M36="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q36)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="5" t="str">
-        <f aca="true">IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37)</f>
-        <v/>
-      </c>
-      <c r="L37" s="6" t="str">
-        <f aca="false">IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37))</f>
+      <c r="I37" s="1" t="str">
+        <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
+        <v/>
+      </c>
+      <c r="L37" s="8" t="str">
+        <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
       <c r="N37" s="0" t="n">
@@ -7217,14 +7875,18 @@
         <f aca="false">IF(T37 = "", "", T37/S37)</f>
         <v>0</v>
       </c>
+      <c r="V37" s="0" t="str">
+        <f aca="true">IF(M37="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q37)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="5" t="str">
-        <f aca="true">IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38)</f>
-        <v/>
-      </c>
-      <c r="L38" s="6" t="str">
-        <f aca="false">IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38))</f>
+      <c r="I38" s="1" t="str">
+        <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
+        <v/>
+      </c>
+      <c r="L38" s="8" t="str">
+        <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
       <c r="N38" s="0" t="n">
@@ -7259,14 +7921,18 @@
         <f aca="false">IF(T38 = "", "", T38/S38)</f>
         <v>0</v>
       </c>
+      <c r="V38" s="0" t="str">
+        <f aca="true">IF(M38="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q38)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="5" t="str">
-        <f aca="true">IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39)</f>
-        <v/>
-      </c>
-      <c r="L39" s="6" t="str">
-        <f aca="false">IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39))</f>
+      <c r="I39" s="1" t="str">
+        <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
+        <v/>
+      </c>
+      <c r="L39" s="8" t="str">
+        <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
       <c r="N39" s="0" t="n">
@@ -7301,14 +7967,18 @@
         <f aca="false">IF(T39 = "", "", T39/S39)</f>
         <v>0</v>
       </c>
+      <c r="V39" s="0" t="str">
+        <f aca="true">IF(M39="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q39)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="5" t="str">
-        <f aca="true">IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40)</f>
-        <v/>
-      </c>
-      <c r="L40" s="6" t="str">
-        <f aca="false">IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40))</f>
+      <c r="I40" s="1" t="str">
+        <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
+        <v/>
+      </c>
+      <c r="L40" s="8" t="str">
+        <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
       <c r="N40" s="0" t="n">
@@ -7343,14 +8013,18 @@
         <f aca="false">IF(T40 = "", "", T40/S40)</f>
         <v>0</v>
       </c>
+      <c r="V40" s="0" t="str">
+        <f aca="true">IF(M40="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q40)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="5" t="str">
-        <f aca="true">IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41)</f>
-        <v/>
-      </c>
-      <c r="L41" s="6" t="str">
-        <f aca="false">IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41))</f>
+      <c r="I41" s="1" t="str">
+        <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
+        <v/>
+      </c>
+      <c r="L41" s="8" t="str">
+        <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
       <c r="N41" s="0" t="n">
@@ -7385,14 +8059,18 @@
         <f aca="false">IF(T41 = "", "", T41/S41)</f>
         <v>0</v>
       </c>
+      <c r="V41" s="0" t="str">
+        <f aca="true">IF(M41="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q41)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="5" t="str">
-        <f aca="true">IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42)</f>
-        <v/>
-      </c>
-      <c r="L42" s="6" t="str">
-        <f aca="false">IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42))</f>
+      <c r="I42" s="1" t="str">
+        <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
+        <v/>
+      </c>
+      <c r="L42" s="8" t="str">
+        <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
       <c r="N42" s="0" t="n">
@@ -7427,14 +8105,18 @@
         <f aca="false">IF(T42 = "", "", T42/S42)</f>
         <v>0</v>
       </c>
+      <c r="V42" s="0" t="str">
+        <f aca="true">IF(M42="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q42)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="5" t="str">
-        <f aca="true">IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43)</f>
-        <v/>
-      </c>
-      <c r="L43" s="6" t="str">
-        <f aca="false">IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43))</f>
+      <c r="I43" s="1" t="str">
+        <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
+        <v/>
+      </c>
+      <c r="L43" s="8" t="str">
+        <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
       <c r="N43" s="0" t="n">
@@ -7469,14 +8151,18 @@
         <f aca="false">IF(T43 = "", "", T43/S43)</f>
         <v>0</v>
       </c>
+      <c r="V43" s="0" t="str">
+        <f aca="true">IF(M43="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q43)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="5" t="str">
-        <f aca="true">IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44)</f>
-        <v/>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f aca="false">IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44))</f>
+      <c r="I44" s="1" t="str">
+        <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
+        <v/>
+      </c>
+      <c r="L44" s="8" t="str">
+        <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
       <c r="N44" s="0" t="n">
@@ -7511,14 +8197,18 @@
         <f aca="false">IF(T44 = "", "", T44/S44)</f>
         <v>0</v>
       </c>
+      <c r="V44" s="0" t="str">
+        <f aca="true">IF(M44="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q44)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="5" t="str">
-        <f aca="true">IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45)</f>
-        <v/>
-      </c>
-      <c r="L45" s="6" t="str">
-        <f aca="false">IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45))</f>
+      <c r="I45" s="1" t="str">
+        <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
+        <v/>
+      </c>
+      <c r="L45" s="8" t="str">
+        <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
       <c r="N45" s="0" t="n">
@@ -7553,14 +8243,18 @@
         <f aca="false">IF(T45 = "", "", T45/S45)</f>
         <v>0</v>
       </c>
+      <c r="V45" s="0" t="str">
+        <f aca="true">IF(M45="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q45)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="5" t="str">
-        <f aca="true">IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46)</f>
-        <v/>
-      </c>
-      <c r="L46" s="6" t="str">
-        <f aca="false">IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46))</f>
+      <c r="I46" s="1" t="str">
+        <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
+        <v/>
+      </c>
+      <c r="L46" s="8" t="str">
+        <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
       <c r="N46" s="0" t="n">
@@ -7595,14 +8289,18 @@
         <f aca="false">IF(T46 = "", "", T46/S46)</f>
         <v>0</v>
       </c>
+      <c r="V46" s="0" t="str">
+        <f aca="true">IF(M46="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q46)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="5" t="str">
-        <f aca="true">IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47)</f>
-        <v/>
-      </c>
-      <c r="L47" s="6" t="str">
-        <f aca="false">IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47))</f>
+      <c r="I47" s="1" t="str">
+        <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
+        <v/>
+      </c>
+      <c r="L47" s="8" t="str">
+        <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
       <c r="N47" s="0" t="n">
@@ -7637,14 +8335,18 @@
         <f aca="false">IF(T47 = "", "", T47/S47)</f>
         <v>0</v>
       </c>
+      <c r="V47" s="0" t="str">
+        <f aca="true">IF(M47="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q47)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="5" t="str">
-        <f aca="true">IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48)</f>
-        <v/>
-      </c>
-      <c r="L48" s="6" t="str">
-        <f aca="false">IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48))</f>
+      <c r="I48" s="1" t="str">
+        <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
+        <v/>
+      </c>
+      <c r="L48" s="8" t="str">
+        <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
       <c r="N48" s="0" t="n">
@@ -7679,14 +8381,18 @@
         <f aca="false">IF(T48 = "", "", T48/S48)</f>
         <v>0</v>
       </c>
+      <c r="V48" s="0" t="str">
+        <f aca="true">IF(M48="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q48)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="5" t="str">
-        <f aca="true">IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49)</f>
-        <v/>
-      </c>
-      <c r="L49" s="6" t="str">
-        <f aca="false">IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49))</f>
+      <c r="I49" s="1" t="str">
+        <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
+        <v/>
+      </c>
+      <c r="L49" s="8" t="str">
+        <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
       <c r="N49" s="0" t="n">
@@ -7721,14 +8427,18 @@
         <f aca="false">IF(T49 = "", "", T49/S49)</f>
         <v>0</v>
       </c>
+      <c r="V49" s="0" t="str">
+        <f aca="true">IF(M49="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q49)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="5" t="str">
-        <f aca="true">IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50)</f>
-        <v/>
-      </c>
-      <c r="L50" s="6" t="str">
-        <f aca="false">IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50))</f>
+      <c r="I50" s="1" t="str">
+        <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
+        <v/>
+      </c>
+      <c r="L50" s="8" t="str">
+        <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
       <c r="N50" s="0" t="n">
@@ -7763,14 +8473,18 @@
         <f aca="false">IF(T50 = "", "", T50/S50)</f>
         <v>0</v>
       </c>
+      <c r="V50" s="0" t="str">
+        <f aca="true">IF(M50="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q50)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="5" t="str">
-        <f aca="true">IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51)</f>
-        <v/>
-      </c>
-      <c r="L51" s="6" t="str">
-        <f aca="false">IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51))</f>
+      <c r="I51" s="1" t="str">
+        <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
+        <v/>
+      </c>
+      <c r="L51" s="8" t="str">
+        <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
       <c r="N51" s="0" t="n">
@@ -7805,14 +8519,18 @@
         <f aca="false">IF(T51 = "", "", T51/S51)</f>
         <v>0</v>
       </c>
+      <c r="V51" s="0" t="str">
+        <f aca="true">IF(M51="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q51)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="5" t="str">
-        <f aca="true">IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52)</f>
-        <v/>
-      </c>
-      <c r="L52" s="6" t="str">
-        <f aca="false">IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52))</f>
+      <c r="I52" s="1" t="str">
+        <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
+        <v/>
+      </c>
+      <c r="L52" s="8" t="str">
+        <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
       <c r="N52" s="0" t="n">
@@ -7847,14 +8565,18 @@
         <f aca="false">IF(T52 = "", "", T52/S52)</f>
         <v>0</v>
       </c>
+      <c r="V52" s="0" t="str">
+        <f aca="true">IF(M52="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q52)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="5" t="str">
-        <f aca="true">IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53)</f>
-        <v/>
-      </c>
-      <c r="L53" s="6" t="str">
-        <f aca="false">IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53))</f>
+      <c r="I53" s="1" t="str">
+        <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
+        <v/>
+      </c>
+      <c r="L53" s="8" t="str">
+        <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
       <c r="N53" s="0" t="n">
@@ -7889,14 +8611,18 @@
         <f aca="false">IF(T53 = "", "", T53/S53)</f>
         <v>0</v>
       </c>
+      <c r="V53" s="0" t="str">
+        <f aca="true">IF(M53="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q53)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="5" t="str">
-        <f aca="true">IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54)</f>
-        <v/>
-      </c>
-      <c r="L54" s="6" t="str">
-        <f aca="false">IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54))</f>
+      <c r="I54" s="1" t="str">
+        <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
+        <v/>
+      </c>
+      <c r="L54" s="8" t="str">
+        <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
       <c r="N54" s="0" t="n">
@@ -7931,14 +8657,18 @@
         <f aca="false">IF(T54 = "", "", T54/S54)</f>
         <v>0</v>
       </c>
+      <c r="V54" s="0" t="str">
+        <f aca="true">IF(M54="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q54)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="5" t="str">
-        <f aca="true">IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55)</f>
-        <v/>
-      </c>
-      <c r="L55" s="6" t="str">
-        <f aca="false">IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55))</f>
+      <c r="I55" s="1" t="str">
+        <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
+        <v/>
+      </c>
+      <c r="L55" s="8" t="str">
+        <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
       <c r="N55" s="0" t="n">
@@ -7973,14 +8703,18 @@
         <f aca="false">IF(T55 = "", "", T55/S55)</f>
         <v>0</v>
       </c>
+      <c r="V55" s="0" t="str">
+        <f aca="true">IF(M55="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q55)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="5" t="str">
-        <f aca="true">IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56)</f>
-        <v/>
-      </c>
-      <c r="L56" s="6" t="str">
-        <f aca="false">IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56))</f>
+      <c r="I56" s="1" t="str">
+        <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
+        <v/>
+      </c>
+      <c r="L56" s="8" t="str">
+        <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
       <c r="N56" s="0" t="n">
@@ -8015,14 +8749,18 @@
         <f aca="false">IF(T56 = "", "", T56/S56)</f>
         <v>0</v>
       </c>
+      <c r="V56" s="0" t="str">
+        <f aca="true">IF(M56="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q56)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="5" t="str">
-        <f aca="true">IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57)</f>
-        <v/>
-      </c>
-      <c r="L57" s="6" t="str">
-        <f aca="false">IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57))</f>
+      <c r="I57" s="1" t="str">
+        <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
+        <v/>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
       <c r="N57" s="0" t="n">
@@ -8057,14 +8795,18 @@
         <f aca="false">IF(T57 = "", "", T57/S57)</f>
         <v>0</v>
       </c>
+      <c r="V57" s="0" t="str">
+        <f aca="true">IF(M57="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q57)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="5" t="str">
-        <f aca="true">IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58)</f>
-        <v/>
-      </c>
-      <c r="L58" s="6" t="str">
-        <f aca="false">IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58))</f>
+      <c r="I58" s="1" t="str">
+        <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
+        <v/>
+      </c>
+      <c r="L58" s="8" t="str">
+        <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
       <c r="N58" s="0" t="n">
@@ -8099,15 +8841,19 @@
         <f aca="false">IF(T58 = "", "", T58/S58)</f>
         <v>0</v>
       </c>
+      <c r="V58" s="0" t="str">
+        <f aca="true">IF(M58="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q58)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="5" t="str">
-        <f aca="true">IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59)</f>
-        <v/>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="6" t="str">
-        <f aca="false">IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59))</f>
+      <c r="I59" s="1" t="str">
+        <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
+        <v/>
+      </c>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8" t="str">
+        <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
       <c r="N59" s="0" t="n">
@@ -8142,14 +8888,18 @@
         <f aca="false">IF(T59 = "", "", T59/S59)</f>
         <v>0</v>
       </c>
+      <c r="V59" s="0" t="str">
+        <f aca="true">IF(M59="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q59)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="5" t="str">
-        <f aca="true">IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60)</f>
-        <v/>
-      </c>
-      <c r="L60" s="6" t="str">
-        <f aca="false">IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60))</f>
+      <c r="I60" s="1" t="str">
+        <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
+        <v/>
+      </c>
+      <c r="L60" s="8" t="str">
+        <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
       <c r="N60" s="0" t="n">
@@ -8184,14 +8934,18 @@
         <f aca="false">IF(T60 = "", "", T60/S60)</f>
         <v>0</v>
       </c>
+      <c r="V60" s="0" t="str">
+        <f aca="true">IF(M60="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q60)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="5" t="str">
-        <f aca="true">IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61)</f>
-        <v/>
-      </c>
-      <c r="L61" s="6" t="str">
-        <f aca="false">IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61))</f>
+      <c r="I61" s="1" t="str">
+        <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
+        <v/>
+      </c>
+      <c r="L61" s="8" t="str">
+        <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
       <c r="N61" s="0" t="n">
@@ -8226,14 +8980,18 @@
         <f aca="false">IF(T61 = "", "", T61/S61)</f>
         <v>0</v>
       </c>
+      <c r="V61" s="0" t="str">
+        <f aca="true">IF(M61="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q61)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="5" t="str">
-        <f aca="true">IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62)</f>
-        <v/>
-      </c>
-      <c r="L62" s="6" t="str">
-        <f aca="false">IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62))</f>
+      <c r="I62" s="1" t="str">
+        <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
+        <v/>
+      </c>
+      <c r="L62" s="8" t="str">
+        <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
       <c r="N62" s="0" t="n">
@@ -8268,14 +9026,18 @@
         <f aca="false">IF(T62 = "", "", T62/S62)</f>
         <v>0</v>
       </c>
+      <c r="V62" s="0" t="str">
+        <f aca="true">IF(M62="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q62)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="5" t="str">
-        <f aca="true">IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63)</f>
-        <v/>
-      </c>
-      <c r="L63" s="6" t="str">
-        <f aca="false">IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63))</f>
+      <c r="I63" s="1" t="str">
+        <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
+        <v/>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
       <c r="N63" s="0" t="n">
@@ -8310,14 +9072,18 @@
         <f aca="false">IF(T63 = "", "", T63/S63)</f>
         <v>0</v>
       </c>
+      <c r="V63" s="0" t="str">
+        <f aca="true">IF(M63="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q63)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="5" t="str">
-        <f aca="true">IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64)</f>
-        <v/>
-      </c>
-      <c r="L64" s="6" t="str">
-        <f aca="false">IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64))</f>
+      <c r="I64" s="1" t="str">
+        <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
+        <v/>
+      </c>
+      <c r="L64" s="8" t="str">
+        <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
       <c r="N64" s="0" t="n">
@@ -8352,14 +9118,18 @@
         <f aca="false">IF(T64 = "", "", T64/S64)</f>
         <v>0</v>
       </c>
+      <c r="V64" s="0" t="str">
+        <f aca="true">IF(M64="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q64)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="5" t="str">
-        <f aca="true">IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65)</f>
-        <v/>
-      </c>
-      <c r="L65" s="6" t="str">
-        <f aca="false">IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65))</f>
+      <c r="I65" s="1" t="str">
+        <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
+        <v/>
+      </c>
+      <c r="L65" s="8" t="str">
+        <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
       <c r="N65" s="0" t="n">
@@ -8394,14 +9164,18 @@
         <f aca="false">IF(T65 = "", "", T65/S65)</f>
         <v>0</v>
       </c>
+      <c r="V65" s="0" t="str">
+        <f aca="true">IF(M65="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q65)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="5" t="str">
-        <f aca="true">IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66)</f>
-        <v/>
-      </c>
-      <c r="L66" s="6" t="str">
-        <f aca="false">IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66))</f>
+      <c r="I66" s="1" t="str">
+        <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
+        <v/>
+      </c>
+      <c r="L66" s="8" t="str">
+        <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
       <c r="N66" s="0" t="n">
@@ -8436,14 +9210,18 @@
         <f aca="false">IF(T66 = "", "", T66/S66)</f>
         <v>0</v>
       </c>
+      <c r="V66" s="0" t="str">
+        <f aca="true">IF(M66="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q66)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="5" t="str">
-        <f aca="true">IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67)</f>
-        <v/>
-      </c>
-      <c r="L67" s="6" t="str">
-        <f aca="false">IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67))</f>
+      <c r="I67" s="1" t="str">
+        <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
+        <v/>
+      </c>
+      <c r="L67" s="8" t="str">
+        <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
       <c r="N67" s="0" t="n">
@@ -8478,14 +9256,18 @@
         <f aca="false">IF(T67 = "", "", T67/S67)</f>
         <v>0</v>
       </c>
+      <c r="V67" s="0" t="str">
+        <f aca="true">IF(M67="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q67)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="5" t="str">
-        <f aca="true">IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68)</f>
-        <v/>
-      </c>
-      <c r="L68" s="6" t="str">
-        <f aca="false">IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68))</f>
+      <c r="I68" s="1" t="str">
+        <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
+        <v/>
+      </c>
+      <c r="L68" s="8" t="str">
+        <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
       <c r="N68" s="0" t="n">
@@ -8520,14 +9302,18 @@
         <f aca="false">IF(T68 = "", "", T68/S68)</f>
         <v>0</v>
       </c>
+      <c r="V68" s="0" t="str">
+        <f aca="true">IF(M68="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q68)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="5" t="str">
-        <f aca="true">IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69)</f>
-        <v/>
-      </c>
-      <c r="L69" s="6" t="str">
-        <f aca="false">IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69))</f>
+      <c r="I69" s="1" t="str">
+        <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
+        <v/>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
       <c r="N69" s="0" t="n">
@@ -8562,14 +9348,18 @@
         <f aca="false">IF(T69 = "", "", T69/S69)</f>
         <v>0</v>
       </c>
+      <c r="V69" s="0" t="str">
+        <f aca="true">IF(M69="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q69)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="5" t="str">
-        <f aca="true">IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70)</f>
-        <v/>
-      </c>
-      <c r="L70" s="6" t="str">
-        <f aca="false">IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70))</f>
+      <c r="I70" s="1" t="str">
+        <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
+        <v/>
+      </c>
+      <c r="L70" s="8" t="str">
+        <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
       <c r="N70" s="0" t="n">
@@ -8604,14 +9394,18 @@
         <f aca="false">IF(T70 = "", "", T70/S70)</f>
         <v>0</v>
       </c>
+      <c r="V70" s="0" t="str">
+        <f aca="true">IF(M70="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q70)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="5" t="str">
-        <f aca="true">IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71)</f>
-        <v/>
-      </c>
-      <c r="L71" s="6" t="str">
-        <f aca="false">IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71))</f>
+      <c r="I71" s="1" t="str">
+        <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
+        <v/>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
       <c r="N71" s="0" t="n">
@@ -8646,14 +9440,18 @@
         <f aca="false">IF(T71 = "", "", T71/S71)</f>
         <v>0</v>
       </c>
+      <c r="V71" s="0" t="str">
+        <f aca="true">IF(M71="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q71)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="5" t="str">
-        <f aca="true">IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72)</f>
-        <v/>
-      </c>
-      <c r="L72" s="6" t="str">
-        <f aca="false">IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72))</f>
+      <c r="I72" s="1" t="str">
+        <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
+        <v/>
+      </c>
+      <c r="L72" s="8" t="str">
+        <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
       <c r="N72" s="0" t="n">
@@ -8688,14 +9486,18 @@
         <f aca="false">IF(T72 = "", "", T72/S72)</f>
         <v>0</v>
       </c>
+      <c r="V72" s="0" t="str">
+        <f aca="true">IF(M72="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q72)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="5" t="str">
-        <f aca="true">IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73)</f>
-        <v/>
-      </c>
-      <c r="L73" s="6" t="str">
-        <f aca="false">IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73))</f>
+      <c r="I73" s="1" t="str">
+        <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
+        <v/>
+      </c>
+      <c r="L73" s="8" t="str">
+        <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
       <c r="N73" s="0" t="n">
@@ -8730,14 +9532,18 @@
         <f aca="false">IF(T73 = "", "", T73/S73)</f>
         <v>0</v>
       </c>
+      <c r="V73" s="0" t="str">
+        <f aca="true">IF(M73="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q73)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="5" t="str">
-        <f aca="true">IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74)</f>
-        <v/>
-      </c>
-      <c r="L74" s="6" t="str">
-        <f aca="false">IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74))</f>
+      <c r="I74" s="1" t="str">
+        <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
+        <v/>
+      </c>
+      <c r="L74" s="8" t="str">
+        <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
       <c r="N74" s="0" t="n">
@@ -8772,14 +9578,18 @@
         <f aca="false">IF(T74 = "", "", T74/S74)</f>
         <v>0</v>
       </c>
+      <c r="V74" s="0" t="str">
+        <f aca="true">IF(M74="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q74)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="5" t="str">
-        <f aca="true">IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75)</f>
-        <v/>
-      </c>
-      <c r="L75" s="6" t="str">
-        <f aca="false">IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75))</f>
+      <c r="I75" s="1" t="str">
+        <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
+        <v/>
+      </c>
+      <c r="L75" s="8" t="str">
+        <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
       <c r="N75" s="0" t="n">
@@ -8814,14 +9624,18 @@
         <f aca="false">IF(T75 = "", "", T75/S75)</f>
         <v>0</v>
       </c>
+      <c r="V75" s="0" t="str">
+        <f aca="true">IF(M75="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q75)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="5" t="str">
-        <f aca="true">IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76)</f>
-        <v/>
-      </c>
-      <c r="L76" s="6" t="str">
-        <f aca="false">IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76))</f>
+      <c r="I76" s="1" t="str">
+        <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
+        <v/>
+      </c>
+      <c r="L76" s="8" t="str">
+        <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
       <c r="N76" s="0" t="n">
@@ -8856,14 +9670,18 @@
         <f aca="false">IF(T76 = "", "", T76/S76)</f>
         <v>0</v>
       </c>
+      <c r="V76" s="0" t="str">
+        <f aca="true">IF(M76="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q76)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="5" t="str">
-        <f aca="true">IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77)</f>
-        <v/>
-      </c>
-      <c r="L77" s="6" t="str">
-        <f aca="false">IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77))</f>
+      <c r="I77" s="1" t="str">
+        <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
+        <v/>
+      </c>
+      <c r="L77" s="8" t="str">
+        <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
       <c r="N77" s="0" t="n">
@@ -8898,14 +9716,18 @@
         <f aca="false">IF(T77 = "", "", T77/S77)</f>
         <v>0</v>
       </c>
+      <c r="V77" s="0" t="str">
+        <f aca="true">IF(M77="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q77)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="5" t="str">
-        <f aca="true">IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78)</f>
-        <v/>
-      </c>
-      <c r="L78" s="6" t="str">
-        <f aca="false">IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78))</f>
+      <c r="I78" s="1" t="str">
+        <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
+        <v/>
+      </c>
+      <c r="L78" s="8" t="str">
+        <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
       <c r="N78" s="0" t="n">
@@ -8940,14 +9762,18 @@
         <f aca="false">IF(T78 = "", "", T78/S78)</f>
         <v>0</v>
       </c>
+      <c r="V78" s="0" t="str">
+        <f aca="true">IF(M78="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q78)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="5" t="str">
-        <f aca="true">IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79)</f>
-        <v/>
-      </c>
-      <c r="L79" s="6" t="str">
-        <f aca="false">IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79))</f>
+      <c r="I79" s="1" t="str">
+        <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
+        <v/>
+      </c>
+      <c r="L79" s="8" t="str">
+        <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
       <c r="N79" s="0" t="n">
@@ -8982,14 +9808,18 @@
         <f aca="false">IF(T79 = "", "", T79/S79)</f>
         <v>0</v>
       </c>
+      <c r="V79" s="0" t="str">
+        <f aca="true">IF(M79="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q79)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="5" t="str">
-        <f aca="true">IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80)</f>
-        <v/>
-      </c>
-      <c r="L80" s="6" t="str">
-        <f aca="false">IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80))</f>
+      <c r="I80" s="1" t="str">
+        <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
+        <v/>
+      </c>
+      <c r="L80" s="8" t="str">
+        <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
       <c r="N80" s="0" t="n">
@@ -9024,14 +9854,18 @@
         <f aca="false">IF(T80 = "", "", T80/S80)</f>
         <v>0</v>
       </c>
+      <c r="V80" s="0" t="str">
+        <f aca="true">IF(M80="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q80)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="5" t="str">
-        <f aca="true">IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81)</f>
-        <v/>
-      </c>
-      <c r="L81" s="6" t="str">
-        <f aca="false">IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81))</f>
+      <c r="I81" s="1" t="str">
+        <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
+        <v/>
+      </c>
+      <c r="L81" s="8" t="str">
+        <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
       <c r="N81" s="0" t="n">
@@ -9066,14 +9900,18 @@
         <f aca="false">IF(T81 = "", "", T81/S81)</f>
         <v>0</v>
       </c>
+      <c r="V81" s="0" t="str">
+        <f aca="true">IF(M81="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q81)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="5" t="str">
-        <f aca="true">IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82)</f>
-        <v/>
-      </c>
-      <c r="L82" s="6" t="str">
-        <f aca="false">IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82))</f>
+      <c r="I82" s="1" t="str">
+        <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
+        <v/>
+      </c>
+      <c r="L82" s="8" t="str">
+        <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
       <c r="N82" s="0" t="n">
@@ -9108,14 +9946,18 @@
         <f aca="false">IF(T82 = "", "", T82/S82)</f>
         <v>0</v>
       </c>
+      <c r="V82" s="0" t="str">
+        <f aca="true">IF(M82="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q82)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="5" t="str">
-        <f aca="true">IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83)</f>
-        <v/>
-      </c>
-      <c r="L83" s="6" t="str">
-        <f aca="false">IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83))</f>
+      <c r="I83" s="1" t="str">
+        <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
+        <v/>
+      </c>
+      <c r="L83" s="8" t="str">
+        <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
       <c r="N83" s="0" t="n">
@@ -9150,14 +9992,18 @@
         <f aca="false">IF(T83 = "", "", T83/S83)</f>
         <v>0</v>
       </c>
+      <c r="V83" s="0" t="str">
+        <f aca="true">IF(M83="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q83)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="5" t="str">
-        <f aca="true">IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84)</f>
-        <v/>
-      </c>
-      <c r="L84" s="6" t="str">
-        <f aca="false">IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84))</f>
+      <c r="I84" s="1" t="str">
+        <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
+        <v/>
+      </c>
+      <c r="L84" s="8" t="str">
+        <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
       <c r="N84" s="0" t="n">
@@ -9192,14 +10038,18 @@
         <f aca="false">IF(T84 = "", "", T84/S84)</f>
         <v>0</v>
       </c>
+      <c r="V84" s="0" t="str">
+        <f aca="true">IF(M84="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q84)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="5" t="str">
-        <f aca="true">IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85)</f>
-        <v/>
-      </c>
-      <c r="L85" s="6" t="str">
-        <f aca="false">IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85))</f>
+      <c r="I85" s="1" t="str">
+        <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
+        <v/>
+      </c>
+      <c r="L85" s="8" t="str">
+        <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
       <c r="N85" s="0" t="n">
@@ -9234,14 +10084,18 @@
         <f aca="false">IF(T85 = "", "", T85/S85)</f>
         <v>0</v>
       </c>
+      <c r="V85" s="0" t="str">
+        <f aca="true">IF(M85="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q85)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="5" t="str">
-        <f aca="true">IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86)</f>
-        <v/>
-      </c>
-      <c r="L86" s="6" t="str">
-        <f aca="false">IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86))</f>
+      <c r="I86" s="1" t="str">
+        <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
+        <v/>
+      </c>
+      <c r="L86" s="8" t="str">
+        <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
       <c r="N86" s="0" t="n">
@@ -9276,14 +10130,18 @@
         <f aca="false">IF(T86 = "", "", T86/S86)</f>
         <v>0</v>
       </c>
+      <c r="V86" s="0" t="str">
+        <f aca="true">IF(M86="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q86)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="5" t="str">
-        <f aca="true">IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87)</f>
-        <v/>
-      </c>
-      <c r="L87" s="6" t="str">
-        <f aca="false">IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87))</f>
+      <c r="I87" s="1" t="str">
+        <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
+        <v/>
+      </c>
+      <c r="L87" s="8" t="str">
+        <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
       <c r="N87" s="0" t="n">
@@ -9318,14 +10176,18 @@
         <f aca="false">IF(T87 = "", "", T87/S87)</f>
         <v>0</v>
       </c>
+      <c r="V87" s="0" t="str">
+        <f aca="true">IF(M87="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q87)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="5" t="str">
-        <f aca="true">IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88)</f>
-        <v/>
-      </c>
-      <c r="L88" s="6" t="str">
-        <f aca="false">IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88))</f>
+      <c r="I88" s="1" t="str">
+        <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
+        <v/>
+      </c>
+      <c r="L88" s="8" t="str">
+        <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
       <c r="N88" s="0" t="n">
@@ -9360,14 +10222,18 @@
         <f aca="false">IF(T88 = "", "", T88/S88)</f>
         <v>0</v>
       </c>
+      <c r="V88" s="0" t="str">
+        <f aca="true">IF(M88="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q88)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="5" t="str">
-        <f aca="true">IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89)</f>
-        <v/>
-      </c>
-      <c r="L89" s="6" t="str">
-        <f aca="false">IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89))</f>
+      <c r="I89" s="1" t="str">
+        <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
+        <v/>
+      </c>
+      <c r="L89" s="8" t="str">
+        <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
       <c r="N89" s="0" t="n">
@@ -9402,14 +10268,18 @@
         <f aca="false">IF(T89 = "", "", T89/S89)</f>
         <v>0</v>
       </c>
+      <c r="V89" s="0" t="str">
+        <f aca="true">IF(M89="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q89)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="5" t="str">
-        <f aca="true">IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90)</f>
-        <v/>
-      </c>
-      <c r="L90" s="6" t="str">
-        <f aca="false">IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90))</f>
+      <c r="I90" s="1" t="str">
+        <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
+        <v/>
+      </c>
+      <c r="L90" s="8" t="str">
+        <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
       <c r="N90" s="0" t="n">
@@ -9444,14 +10314,18 @@
         <f aca="false">IF(T90 = "", "", T90/S90)</f>
         <v>0</v>
       </c>
+      <c r="V90" s="0" t="str">
+        <f aca="true">IF(M90="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q90)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="5" t="str">
-        <f aca="true">IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91)</f>
-        <v/>
-      </c>
-      <c r="L91" s="6" t="str">
-        <f aca="false">IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91))</f>
+      <c r="I91" s="1" t="str">
+        <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
+        <v/>
+      </c>
+      <c r="L91" s="8" t="str">
+        <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
       <c r="N91" s="0" t="n">
@@ -9486,14 +10360,18 @@
         <f aca="false">IF(T91 = "", "", T91/S91)</f>
         <v>0</v>
       </c>
+      <c r="V91" s="0" t="str">
+        <f aca="true">IF(M91="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q91)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="5" t="str">
-        <f aca="true">IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92)</f>
-        <v/>
-      </c>
-      <c r="L92" s="6" t="str">
-        <f aca="false">IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92))</f>
+      <c r="I92" s="1" t="str">
+        <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
+        <v/>
+      </c>
+      <c r="L92" s="8" t="str">
+        <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
       <c r="N92" s="0" t="n">
@@ -9528,14 +10406,18 @@
         <f aca="false">IF(T92 = "", "", T92/S92)</f>
         <v>0</v>
       </c>
+      <c r="V92" s="0" t="str">
+        <f aca="true">IF(M92="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q92)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="5" t="str">
-        <f aca="true">IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93)</f>
-        <v/>
-      </c>
-      <c r="L93" s="6" t="str">
-        <f aca="false">IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93))</f>
+      <c r="I93" s="1" t="str">
+        <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
+        <v/>
+      </c>
+      <c r="L93" s="8" t="str">
+        <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
       <c r="N93" s="0" t="n">
@@ -9570,14 +10452,18 @@
         <f aca="false">IF(T93 = "", "", T93/S93)</f>
         <v>0</v>
       </c>
+      <c r="V93" s="0" t="str">
+        <f aca="true">IF(M93="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q93)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="5" t="str">
-        <f aca="true">IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94)</f>
-        <v/>
-      </c>
-      <c r="L94" s="6" t="str">
-        <f aca="false">IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94))</f>
+      <c r="I94" s="1" t="str">
+        <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
+        <v/>
+      </c>
+      <c r="L94" s="8" t="str">
+        <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
       <c r="N94" s="0" t="n">
@@ -9612,14 +10498,18 @@
         <f aca="false">IF(T94 = "", "", T94/S94)</f>
         <v>0</v>
       </c>
+      <c r="V94" s="0" t="str">
+        <f aca="true">IF(M94="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q94)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="5" t="str">
-        <f aca="true">IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95)</f>
-        <v/>
-      </c>
-      <c r="L95" s="6" t="str">
-        <f aca="false">IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95))</f>
+      <c r="I95" s="1" t="str">
+        <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
+        <v/>
+      </c>
+      <c r="L95" s="8" t="str">
+        <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
       <c r="N95" s="0" t="n">
@@ -9654,14 +10544,18 @@
         <f aca="false">IF(T95 = "", "", T95/S95)</f>
         <v>0</v>
       </c>
+      <c r="V95" s="0" t="str">
+        <f aca="true">IF(M95="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q95)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="5" t="str">
-        <f aca="true">IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96)</f>
-        <v/>
-      </c>
-      <c r="L96" s="6" t="str">
-        <f aca="false">IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96))</f>
+      <c r="I96" s="1" t="str">
+        <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
+        <v/>
+      </c>
+      <c r="L96" s="8" t="str">
+        <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
       <c r="N96" s="0" t="n">
@@ -9696,14 +10590,18 @@
         <f aca="false">IF(T96 = "", "", T96/S96)</f>
         <v>0</v>
       </c>
+      <c r="V96" s="0" t="str">
+        <f aca="true">IF(M96="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q96)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="5" t="str">
-        <f aca="true">IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97)</f>
-        <v/>
-      </c>
-      <c r="L97" s="6" t="str">
-        <f aca="false">IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97))</f>
+      <c r="I97" s="1" t="str">
+        <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
+        <v/>
+      </c>
+      <c r="L97" s="8" t="str">
+        <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
       <c r="N97" s="0" t="n">
@@ -9738,14 +10636,18 @@
         <f aca="false">IF(T97 = "", "", T97/S97)</f>
         <v>0</v>
       </c>
+      <c r="V97" s="0" t="str">
+        <f aca="true">IF(M97="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q97)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="5" t="str">
-        <f aca="true">IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98)</f>
-        <v/>
-      </c>
-      <c r="L98" s="6" t="str">
-        <f aca="false">IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98))</f>
+      <c r="I98" s="1" t="str">
+        <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
+        <v/>
+      </c>
+      <c r="L98" s="8" t="str">
+        <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
       <c r="N98" s="0" t="n">
@@ -9780,14 +10682,18 @@
         <f aca="false">IF(T98 = "", "", T98/S98)</f>
         <v>0</v>
       </c>
+      <c r="V98" s="0" t="str">
+        <f aca="true">IF(M98="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q98)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="5" t="str">
-        <f aca="true">IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99)</f>
-        <v/>
-      </c>
-      <c r="L99" s="6" t="str">
-        <f aca="false">IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99))</f>
+      <c r="I99" s="1" t="str">
+        <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
+        <v/>
+      </c>
+      <c r="L99" s="8" t="str">
+        <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
       <c r="N99" s="0" t="n">
@@ -9822,14 +10728,18 @@
         <f aca="false">IF(T99 = "", "", T99/S99)</f>
         <v>0</v>
       </c>
+      <c r="V99" s="0" t="str">
+        <f aca="true">IF(M99="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q99)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="5" t="str">
-        <f aca="true">IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100)</f>
-        <v/>
-      </c>
-      <c r="L100" s="6" t="str">
-        <f aca="false">IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100))</f>
+      <c r="I100" s="1" t="str">
+        <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
+        <v/>
+      </c>
+      <c r="L100" s="8" t="str">
+        <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
       <c r="N100" s="0" t="n">
@@ -9864,14 +10774,18 @@
         <f aca="false">IF(T100 = "", "", T100/S100)</f>
         <v>0</v>
       </c>
+      <c r="V100" s="0" t="str">
+        <f aca="true">IF(M100="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q100)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="5" t="str">
-        <f aca="true">IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101)</f>
-        <v/>
-      </c>
-      <c r="L101" s="6" t="str">
-        <f aca="false">IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101))</f>
+      <c r="I101" s="1" t="str">
+        <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
+        <v/>
+      </c>
+      <c r="L101" s="8" t="str">
+        <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
       <c r="N101" s="0" t="n">
@@ -9906,14 +10820,18 @@
         <f aca="false">IF(T101 = "", "", T101/S101)</f>
         <v>0</v>
       </c>
+      <c r="V101" s="0" t="str">
+        <f aca="true">IF(M101="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q101)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="5" t="str">
-        <f aca="true">IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102)</f>
-        <v/>
-      </c>
-      <c r="L102" s="6" t="str">
-        <f aca="false">IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102))</f>
+      <c r="I102" s="1" t="str">
+        <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
+        <v/>
+      </c>
+      <c r="L102" s="8" t="str">
+        <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
       <c r="N102" s="0" t="n">
@@ -9948,14 +10866,18 @@
         <f aca="false">IF(T102 = "", "", T102/S102)</f>
         <v>0</v>
       </c>
+      <c r="V102" s="0" t="str">
+        <f aca="true">IF(M102="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q102)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="5" t="str">
-        <f aca="true">IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103)</f>
-        <v/>
-      </c>
-      <c r="L103" s="6" t="str">
-        <f aca="false">IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103))</f>
+      <c r="I103" s="1" t="str">
+        <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
+        <v/>
+      </c>
+      <c r="L103" s="8" t="str">
+        <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
       <c r="N103" s="0" t="n">
@@ -9990,14 +10912,18 @@
         <f aca="false">IF(T103 = "", "", T103/S103)</f>
         <v>0</v>
       </c>
+      <c r="V103" s="0" t="str">
+        <f aca="true">IF(M103="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q103)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="5" t="str">
-        <f aca="true">IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104)</f>
-        <v/>
-      </c>
-      <c r="L104" s="6" t="str">
-        <f aca="false">IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104))</f>
+      <c r="I104" s="1" t="str">
+        <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
+        <v/>
+      </c>
+      <c r="L104" s="8" t="str">
+        <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
       <c r="N104" s="0" t="n">
@@ -10032,14 +10958,18 @@
         <f aca="false">IF(T104 = "", "", T104/S104)</f>
         <v>0</v>
       </c>
+      <c r="V104" s="0" t="str">
+        <f aca="true">IF(M104="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q104)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="5" t="str">
-        <f aca="true">IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105)</f>
-        <v/>
-      </c>
-      <c r="L105" s="6" t="str">
-        <f aca="false">IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105))</f>
+      <c r="I105" s="1" t="str">
+        <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
+        <v/>
+      </c>
+      <c r="L105" s="8" t="str">
+        <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
       <c r="N105" s="0" t="n">
@@ -10074,14 +11004,18 @@
         <f aca="false">IF(T105 = "", "", T105/S105)</f>
         <v>0</v>
       </c>
+      <c r="V105" s="0" t="str">
+        <f aca="true">IF(M105="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q105)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="5" t="str">
-        <f aca="true">IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106)</f>
-        <v/>
-      </c>
-      <c r="L106" s="6" t="str">
-        <f aca="false">IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106))</f>
+      <c r="I106" s="1" t="str">
+        <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
+        <v/>
+      </c>
+      <c r="L106" s="8" t="str">
+        <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
       <c r="N106" s="0" t="n">
@@ -10116,14 +11050,18 @@
         <f aca="false">IF(T106 = "", "", T106/S106)</f>
         <v>0</v>
       </c>
+      <c r="V106" s="0" t="str">
+        <f aca="true">IF(M106="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q106)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="5" t="str">
-        <f aca="true">IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107)</f>
-        <v/>
-      </c>
-      <c r="L107" s="6" t="str">
-        <f aca="false">IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107))</f>
+      <c r="I107" s="1" t="str">
+        <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
+        <v/>
+      </c>
+      <c r="L107" s="8" t="str">
+        <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
       <c r="N107" s="0" t="n">
@@ -10158,14 +11096,18 @@
         <f aca="false">IF(T107 = "", "", T107/S107)</f>
         <v>0</v>
       </c>
+      <c r="V107" s="0" t="str">
+        <f aca="true">IF(M107="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q107)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="5" t="str">
-        <f aca="true">IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108)</f>
-        <v/>
-      </c>
-      <c r="L108" s="6" t="str">
-        <f aca="false">IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108))</f>
+      <c r="I108" s="1" t="str">
+        <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
+        <v/>
+      </c>
+      <c r="L108" s="8" t="str">
+        <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
       <c r="N108" s="0" t="n">
@@ -10200,14 +11142,18 @@
         <f aca="false">IF(T108 = "", "", T108/S108)</f>
         <v>0</v>
       </c>
+      <c r="V108" s="0" t="str">
+        <f aca="true">IF(M108="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q108)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="5" t="str">
-        <f aca="true">IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109)</f>
-        <v/>
-      </c>
-      <c r="L109" s="6" t="str">
-        <f aca="false">IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109))</f>
+      <c r="I109" s="1" t="str">
+        <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
+        <v/>
+      </c>
+      <c r="L109" s="8" t="str">
+        <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
       <c r="N109" s="0" t="n">
@@ -10242,14 +11188,18 @@
         <f aca="false">IF(T109 = "", "", T109/S109)</f>
         <v>0</v>
       </c>
+      <c r="V109" s="0" t="str">
+        <f aca="true">IF(M109="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q109)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="5" t="str">
-        <f aca="true">IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110)</f>
-        <v/>
-      </c>
-      <c r="L110" s="6" t="str">
-        <f aca="false">IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110))</f>
+      <c r="I110" s="1" t="str">
+        <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
+        <v/>
+      </c>
+      <c r="L110" s="8" t="str">
+        <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
       <c r="N110" s="0" t="n">
@@ -10284,14 +11234,18 @@
         <f aca="false">IF(T110 = "", "", T110/S110)</f>
         <v>0</v>
       </c>
+      <c r="V110" s="0" t="str">
+        <f aca="true">IF(M110="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q110)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="5" t="str">
-        <f aca="true">IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111)</f>
-        <v/>
-      </c>
-      <c r="L111" s="6" t="str">
-        <f aca="false">IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111))</f>
+      <c r="I111" s="1" t="str">
+        <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
+        <v/>
+      </c>
+      <c r="L111" s="8" t="str">
+        <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
       <c r="N111" s="0" t="n">
@@ -10326,14 +11280,18 @@
         <f aca="false">IF(T111 = "", "", T111/S111)</f>
         <v>0</v>
       </c>
+      <c r="V111" s="0" t="str">
+        <f aca="true">IF(M111="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q111)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="5" t="str">
-        <f aca="true">IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112)</f>
-        <v/>
-      </c>
-      <c r="L112" s="6" t="str">
-        <f aca="false">IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112))</f>
+      <c r="I112" s="1" t="str">
+        <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
+        <v/>
+      </c>
+      <c r="L112" s="8" t="str">
+        <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
       <c r="N112" s="0" t="n">
@@ -10368,14 +11326,18 @@
         <f aca="false">IF(T112 = "", "", T112/S112)</f>
         <v>0</v>
       </c>
+      <c r="V112" s="0" t="str">
+        <f aca="true">IF(M112="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q112)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="5" t="str">
-        <f aca="true">IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113)</f>
-        <v/>
-      </c>
-      <c r="L113" s="6" t="str">
-        <f aca="false">IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113))</f>
+      <c r="I113" s="1" t="str">
+        <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
+        <v/>
+      </c>
+      <c r="L113" s="8" t="str">
+        <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
       <c r="N113" s="0" t="n">
@@ -10410,14 +11372,18 @@
         <f aca="false">IF(T113 = "", "", T113/S113)</f>
         <v>0</v>
       </c>
+      <c r="V113" s="0" t="str">
+        <f aca="true">IF(M113="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q113)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="5" t="str">
-        <f aca="true">IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114)</f>
-        <v/>
-      </c>
-      <c r="L114" s="6" t="str">
-        <f aca="false">IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114))</f>
+      <c r="I114" s="1" t="str">
+        <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
+        <v/>
+      </c>
+      <c r="L114" s="8" t="str">
+        <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
       <c r="N114" s="0" t="n">
@@ -10452,14 +11418,18 @@
         <f aca="false">IF(T114 = "", "", T114/S114)</f>
         <v>0</v>
       </c>
+      <c r="V114" s="0" t="str">
+        <f aca="true">IF(M114="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q114)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="5" t="str">
-        <f aca="true">IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115)</f>
-        <v/>
-      </c>
-      <c r="L115" s="6" t="str">
-        <f aca="false">IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115))</f>
+      <c r="I115" s="1" t="str">
+        <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
+        <v/>
+      </c>
+      <c r="L115" s="8" t="str">
+        <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
       <c r="N115" s="0" t="n">
@@ -10494,14 +11464,18 @@
         <f aca="false">IF(T115 = "", "", T115/S115)</f>
         <v>0</v>
       </c>
+      <c r="V115" s="0" t="str">
+        <f aca="true">IF(M115="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q115)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="5" t="str">
-        <f aca="true">IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116)</f>
-        <v/>
-      </c>
-      <c r="L116" s="6" t="str">
-        <f aca="false">IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116))</f>
+      <c r="I116" s="1" t="str">
+        <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
+        <v/>
+      </c>
+      <c r="L116" s="8" t="str">
+        <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
       <c r="N116" s="0" t="n">
@@ -10536,14 +11510,18 @@
         <f aca="false">IF(T116 = "", "", T116/S116)</f>
         <v>0</v>
       </c>
+      <c r="V116" s="0" t="str">
+        <f aca="true">IF(M116="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q116)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="5" t="str">
-        <f aca="true">IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117)</f>
-        <v/>
-      </c>
-      <c r="L117" s="6" t="str">
-        <f aca="false">IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117))</f>
+      <c r="I117" s="1" t="str">
+        <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
+        <v/>
+      </c>
+      <c r="L117" s="8" t="str">
+        <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
       <c r="N117" s="0" t="n">
@@ -10578,14 +11556,18 @@
         <f aca="false">IF(T117 = "", "", T117/S117)</f>
         <v>0</v>
       </c>
+      <c r="V117" s="0" t="str">
+        <f aca="true">IF(M117="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q117)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="5" t="str">
-        <f aca="true">IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118)</f>
-        <v/>
-      </c>
-      <c r="L118" s="6" t="str">
-        <f aca="false">IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118))</f>
+      <c r="I118" s="1" t="str">
+        <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
+        <v/>
+      </c>
+      <c r="L118" s="8" t="str">
+        <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
       <c r="N118" s="0" t="n">
@@ -10620,14 +11602,18 @@
         <f aca="false">IF(T118 = "", "", T118/S118)</f>
         <v>0</v>
       </c>
+      <c r="V118" s="0" t="str">
+        <f aca="true">IF(M118="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q118)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="5" t="str">
-        <f aca="true">IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119)</f>
-        <v/>
-      </c>
-      <c r="L119" s="6" t="str">
-        <f aca="false">IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119))</f>
+      <c r="I119" s="1" t="str">
+        <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
+        <v/>
+      </c>
+      <c r="L119" s="8" t="str">
+        <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
       <c r="N119" s="0" t="n">
@@ -10662,14 +11648,18 @@
         <f aca="false">IF(T119 = "", "", T119/S119)</f>
         <v>0</v>
       </c>
+      <c r="V119" s="0" t="str">
+        <f aca="true">IF(M119="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q119)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="5" t="str">
-        <f aca="true">IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120)</f>
-        <v/>
-      </c>
-      <c r="L120" s="6" t="str">
-        <f aca="false">IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120))</f>
+      <c r="I120" s="1" t="str">
+        <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
+        <v/>
+      </c>
+      <c r="L120" s="8" t="str">
+        <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
       <c r="N120" s="0" t="n">
@@ -10704,14 +11694,18 @@
         <f aca="false">IF(T120 = "", "", T120/S120)</f>
         <v>0</v>
       </c>
+      <c r="V120" s="0" t="str">
+        <f aca="true">IF(M120="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q120)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="5" t="str">
-        <f aca="true">IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121)</f>
-        <v/>
-      </c>
-      <c r="L121" s="6" t="str">
-        <f aca="false">IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121))</f>
+      <c r="I121" s="1" t="str">
+        <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
+        <v/>
+      </c>
+      <c r="L121" s="8" t="str">
+        <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
       <c r="N121" s="0" t="n">
@@ -10746,14 +11740,18 @@
         <f aca="false">IF(T121 = "", "", T121/S121)</f>
         <v>0</v>
       </c>
+      <c r="V121" s="0" t="str">
+        <f aca="true">IF(M121="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q121)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="5" t="str">
-        <f aca="true">IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122)</f>
-        <v/>
-      </c>
-      <c r="L122" s="6" t="str">
-        <f aca="false">IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122))</f>
+      <c r="I122" s="1" t="str">
+        <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
+        <v/>
+      </c>
+      <c r="L122" s="8" t="str">
+        <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>
       <c r="N122" s="0" t="n">
@@ -10787,6 +11785,10 @@
       <c r="U122" s="0" t="n">
         <f aca="false">IF(T122 = "", "", T122/S122)</f>
         <v>0</v>
+      </c>
+      <c r="V122" s="0" t="str">
+        <f aca="true">IF(M122="", "", MAX(ROUND(-(INDIRECT("Q" &amp; ROW() - 1) - Q122)/$B$2, 0), 1) * $B$2)</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -97,8 +97,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -199,12 +200,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,12 +217,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -232,12 +233,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -414,7 +419,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -427,7 +432,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="5.46"/>
@@ -441,53 +446,53 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="22" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -508,12 +513,12 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7"/>
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="8" t="str">
         <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
         <v/>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="str">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="str">
         <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
@@ -555,11 +560,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="8" t="str">
         <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
         <v/>
       </c>
-      <c r="L3" s="8" t="str">
+      <c r="L3" s="9" t="str">
         <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
@@ -601,11 +606,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="8" t="str">
         <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
         <v/>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="9" t="str">
         <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
@@ -647,11 +652,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="8" t="str">
         <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
         <v/>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="9" t="str">
         <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
@@ -693,11 +698,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="8" t="str">
         <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
         <v/>
       </c>
-      <c r="L6" s="8" t="str">
+      <c r="L6" s="9" t="str">
         <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
@@ -739,11 +744,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="8" t="str">
         <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="9" t="str">
         <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
@@ -785,11 +790,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="8" t="str">
         <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="9" t="str">
         <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
@@ -831,11 +836,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="8" t="str">
         <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="9" t="str">
         <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
@@ -877,11 +882,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="8" t="str">
         <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="9" t="str">
         <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
@@ -923,11 +928,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="8" t="str">
         <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="9" t="str">
         <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
@@ -969,11 +974,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="8" t="str">
         <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="9" t="str">
         <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
@@ -1015,11 +1020,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="1" t="str">
+      <c r="I13" s="8" t="str">
         <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="9" t="str">
         <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
@@ -1061,11 +1066,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="8" t="str">
         <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="9" t="str">
         <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
@@ -1107,11 +1112,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="8" t="str">
         <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="9" t="str">
         <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
@@ -1153,11 +1158,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="1" t="str">
+      <c r="I16" s="8" t="str">
         <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="9" t="str">
         <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
@@ -1199,11 +1204,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="1" t="str">
+      <c r="I17" s="8" t="str">
         <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="9" t="str">
         <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
@@ -1245,11 +1250,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="1" t="str">
+      <c r="I18" s="8" t="str">
         <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="9" t="str">
         <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
@@ -1291,11 +1296,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="1" t="str">
+      <c r="I19" s="8" t="str">
         <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="9" t="str">
         <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
@@ -1337,11 +1342,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="1" t="str">
+      <c r="I20" s="8" t="str">
         <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="9" t="str">
         <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
@@ -1383,11 +1388,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="1" t="str">
+      <c r="I21" s="8" t="str">
         <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="9" t="str">
         <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
@@ -1429,11 +1434,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="1" t="str">
+      <c r="I22" s="8" t="str">
         <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="9" t="str">
         <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
@@ -1475,11 +1480,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="1" t="str">
+      <c r="I23" s="8" t="str">
         <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="9" t="str">
         <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
@@ -1521,11 +1526,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="1" t="str">
+      <c r="I24" s="8" t="str">
         <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="9" t="str">
         <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
@@ -1567,11 +1572,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="1" t="str">
+      <c r="I25" s="8" t="str">
         <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="9" t="str">
         <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
@@ -1613,11 +1618,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="1" t="str">
+      <c r="I26" s="8" t="str">
         <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="9" t="str">
         <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
@@ -1659,11 +1664,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="1" t="str">
+      <c r="I27" s="8" t="str">
         <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="9" t="str">
         <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
@@ -1705,11 +1710,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="1" t="str">
+      <c r="I28" s="8" t="str">
         <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="9" t="str">
         <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
@@ -1751,11 +1756,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="1" t="str">
+      <c r="I29" s="8" t="str">
         <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="9" t="str">
         <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
@@ -1797,11 +1802,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="1" t="str">
+      <c r="I30" s="8" t="str">
         <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="9" t="str">
         <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
@@ -1843,11 +1848,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="1" t="str">
+      <c r="I31" s="8" t="str">
         <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
         <v/>
       </c>
-      <c r="L31" s="8" t="str">
+      <c r="L31" s="9" t="str">
         <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
@@ -1889,11 +1894,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="1" t="str">
+      <c r="I32" s="8" t="str">
         <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
         <v/>
       </c>
-      <c r="L32" s="8" t="str">
+      <c r="L32" s="9" t="str">
         <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
@@ -1935,11 +1940,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="1" t="str">
+      <c r="I33" s="8" t="str">
         <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
         <v/>
       </c>
-      <c r="L33" s="8" t="str">
+      <c r="L33" s="9" t="str">
         <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
@@ -1981,11 +1986,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="1" t="str">
+      <c r="I34" s="8" t="str">
         <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
         <v/>
       </c>
-      <c r="L34" s="8" t="str">
+      <c r="L34" s="9" t="str">
         <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
@@ -2027,11 +2032,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="1" t="str">
+      <c r="I35" s="8" t="str">
         <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
         <v/>
       </c>
-      <c r="L35" s="8" t="str">
+      <c r="L35" s="9" t="str">
         <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
@@ -2073,11 +2078,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="1" t="str">
+      <c r="I36" s="8" t="str">
         <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
         <v/>
       </c>
-      <c r="L36" s="8" t="str">
+      <c r="L36" s="9" t="str">
         <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
@@ -2119,11 +2124,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="1" t="str">
+      <c r="I37" s="8" t="str">
         <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
         <v/>
       </c>
-      <c r="L37" s="8" t="str">
+      <c r="L37" s="9" t="str">
         <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
@@ -2165,11 +2170,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="1" t="str">
+      <c r="I38" s="8" t="str">
         <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
         <v/>
       </c>
-      <c r="L38" s="8" t="str">
+      <c r="L38" s="9" t="str">
         <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
@@ -2211,11 +2216,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="1" t="str">
+      <c r="I39" s="8" t="str">
         <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
         <v/>
       </c>
-      <c r="L39" s="8" t="str">
+      <c r="L39" s="9" t="str">
         <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
@@ -2257,11 +2262,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="1" t="str">
+      <c r="I40" s="8" t="str">
         <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
         <v/>
       </c>
-      <c r="L40" s="8" t="str">
+      <c r="L40" s="9" t="str">
         <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
@@ -2303,11 +2308,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="1" t="str">
+      <c r="I41" s="8" t="str">
         <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
         <v/>
       </c>
-      <c r="L41" s="8" t="str">
+      <c r="L41" s="9" t="str">
         <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
@@ -2349,11 +2354,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="1" t="str">
+      <c r="I42" s="8" t="str">
         <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
         <v/>
       </c>
-      <c r="L42" s="8" t="str">
+      <c r="L42" s="9" t="str">
         <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
@@ -2395,11 +2400,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="1" t="str">
+      <c r="I43" s="8" t="str">
         <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
         <v/>
       </c>
-      <c r="L43" s="8" t="str">
+      <c r="L43" s="9" t="str">
         <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
@@ -2441,11 +2446,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="1" t="str">
+      <c r="I44" s="8" t="str">
         <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
         <v/>
       </c>
-      <c r="L44" s="8" t="str">
+      <c r="L44" s="9" t="str">
         <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
@@ -2487,11 +2492,11 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="1" t="str">
+      <c r="I45" s="8" t="str">
         <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
         <v/>
       </c>
-      <c r="L45" s="8" t="str">
+      <c r="L45" s="9" t="str">
         <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
@@ -2533,11 +2538,11 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="1" t="str">
+      <c r="I46" s="8" t="str">
         <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
         <v/>
       </c>
-      <c r="L46" s="8" t="str">
+      <c r="L46" s="9" t="str">
         <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
@@ -2579,11 +2584,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="1" t="str">
+      <c r="I47" s="8" t="str">
         <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
         <v/>
       </c>
-      <c r="L47" s="8" t="str">
+      <c r="L47" s="9" t="str">
         <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
@@ -2625,11 +2630,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="1" t="str">
+      <c r="I48" s="8" t="str">
         <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
         <v/>
       </c>
-      <c r="L48" s="8" t="str">
+      <c r="L48" s="9" t="str">
         <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
@@ -2671,11 +2676,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="1" t="str">
+      <c r="I49" s="8" t="str">
         <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
         <v/>
       </c>
-      <c r="L49" s="8" t="str">
+      <c r="L49" s="9" t="str">
         <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
@@ -2717,11 +2722,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="1" t="str">
+      <c r="I50" s="8" t="str">
         <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
         <v/>
       </c>
-      <c r="L50" s="8" t="str">
+      <c r="L50" s="9" t="str">
         <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
@@ -2763,11 +2768,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="1" t="str">
+      <c r="I51" s="8" t="str">
         <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
         <v/>
       </c>
-      <c r="L51" s="8" t="str">
+      <c r="L51" s="9" t="str">
         <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
@@ -2809,11 +2814,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="1" t="str">
+      <c r="I52" s="8" t="str">
         <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
         <v/>
       </c>
-      <c r="L52" s="8" t="str">
+      <c r="L52" s="9" t="str">
         <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
@@ -2855,11 +2860,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="1" t="str">
+      <c r="I53" s="8" t="str">
         <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
         <v/>
       </c>
-      <c r="L53" s="8" t="str">
+      <c r="L53" s="9" t="str">
         <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
@@ -2901,11 +2906,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="1" t="str">
+      <c r="I54" s="8" t="str">
         <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
         <v/>
       </c>
-      <c r="L54" s="8" t="str">
+      <c r="L54" s="9" t="str">
         <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
@@ -2947,11 +2952,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="1" t="str">
+      <c r="I55" s="8" t="str">
         <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
         <v/>
       </c>
-      <c r="L55" s="8" t="str">
+      <c r="L55" s="9" t="str">
         <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
@@ -2993,11 +2998,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="1" t="str">
+      <c r="I56" s="8" t="str">
         <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
         <v/>
       </c>
-      <c r="L56" s="8" t="str">
+      <c r="L56" s="9" t="str">
         <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
@@ -3039,11 +3044,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="1" t="str">
+      <c r="I57" s="8" t="str">
         <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
         <v/>
       </c>
-      <c r="L57" s="8" t="str">
+      <c r="L57" s="9" t="str">
         <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
@@ -3085,11 +3090,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="1" t="str">
+      <c r="I58" s="8" t="str">
         <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
         <v/>
       </c>
-      <c r="L58" s="8" t="str">
+      <c r="L58" s="9" t="str">
         <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
@@ -3131,12 +3136,12 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="1" t="str">
+      <c r="I59" s="8" t="str">
         <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
         <v/>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8" t="str">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9" t="str">
         <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
@@ -3178,11 +3183,11 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="1" t="str">
+      <c r="I60" s="8" t="str">
         <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
         <v/>
       </c>
-      <c r="L60" s="8" t="str">
+      <c r="L60" s="9" t="str">
         <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
@@ -3224,11 +3229,11 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="1" t="str">
+      <c r="I61" s="8" t="str">
         <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
         <v/>
       </c>
-      <c r="L61" s="8" t="str">
+      <c r="L61" s="9" t="str">
         <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
@@ -3270,11 +3275,11 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="1" t="str">
+      <c r="I62" s="8" t="str">
         <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
         <v/>
       </c>
-      <c r="L62" s="8" t="str">
+      <c r="L62" s="9" t="str">
         <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
@@ -3316,11 +3321,11 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="1" t="str">
+      <c r="I63" s="8" t="str">
         <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
         <v/>
       </c>
-      <c r="L63" s="8" t="str">
+      <c r="L63" s="9" t="str">
         <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
@@ -3362,11 +3367,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="1" t="str">
+      <c r="I64" s="8" t="str">
         <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
         <v/>
       </c>
-      <c r="L64" s="8" t="str">
+      <c r="L64" s="9" t="str">
         <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
@@ -3408,11 +3413,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="1" t="str">
+      <c r="I65" s="8" t="str">
         <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
         <v/>
       </c>
-      <c r="L65" s="8" t="str">
+      <c r="L65" s="9" t="str">
         <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
@@ -3454,11 +3459,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="1" t="str">
+      <c r="I66" s="8" t="str">
         <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
         <v/>
       </c>
-      <c r="L66" s="8" t="str">
+      <c r="L66" s="9" t="str">
         <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
@@ -3500,11 +3505,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="1" t="str">
+      <c r="I67" s="8" t="str">
         <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
         <v/>
       </c>
-      <c r="L67" s="8" t="str">
+      <c r="L67" s="9" t="str">
         <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
@@ -3546,11 +3551,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="1" t="str">
+      <c r="I68" s="8" t="str">
         <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
         <v/>
       </c>
-      <c r="L68" s="8" t="str">
+      <c r="L68" s="9" t="str">
         <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
@@ -3592,11 +3597,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="1" t="str">
+      <c r="I69" s="8" t="str">
         <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
         <v/>
       </c>
-      <c r="L69" s="8" t="str">
+      <c r="L69" s="9" t="str">
         <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
@@ -3638,11 +3643,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="1" t="str">
+      <c r="I70" s="8" t="str">
         <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
         <v/>
       </c>
-      <c r="L70" s="8" t="str">
+      <c r="L70" s="9" t="str">
         <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
@@ -3684,11 +3689,11 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="1" t="str">
+      <c r="I71" s="8" t="str">
         <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
         <v/>
       </c>
-      <c r="L71" s="8" t="str">
+      <c r="L71" s="9" t="str">
         <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
@@ -3730,11 +3735,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="1" t="str">
+      <c r="I72" s="8" t="str">
         <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
         <v/>
       </c>
-      <c r="L72" s="8" t="str">
+      <c r="L72" s="9" t="str">
         <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
@@ -3776,11 +3781,11 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="1" t="str">
+      <c r="I73" s="8" t="str">
         <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
         <v/>
       </c>
-      <c r="L73" s="8" t="str">
+      <c r="L73" s="9" t="str">
         <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
@@ -3822,11 +3827,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="1" t="str">
+      <c r="I74" s="8" t="str">
         <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
         <v/>
       </c>
-      <c r="L74" s="8" t="str">
+      <c r="L74" s="9" t="str">
         <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
@@ -3868,11 +3873,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="1" t="str">
+      <c r="I75" s="8" t="str">
         <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
         <v/>
       </c>
-      <c r="L75" s="8" t="str">
+      <c r="L75" s="9" t="str">
         <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
@@ -3914,11 +3919,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="1" t="str">
+      <c r="I76" s="8" t="str">
         <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
         <v/>
       </c>
-      <c r="L76" s="8" t="str">
+      <c r="L76" s="9" t="str">
         <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
@@ -3960,11 +3965,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="1" t="str">
+      <c r="I77" s="8" t="str">
         <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
         <v/>
       </c>
-      <c r="L77" s="8" t="str">
+      <c r="L77" s="9" t="str">
         <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
@@ -4006,11 +4011,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="1" t="str">
+      <c r="I78" s="8" t="str">
         <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
         <v/>
       </c>
-      <c r="L78" s="8" t="str">
+      <c r="L78" s="9" t="str">
         <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
@@ -4052,11 +4057,11 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="1" t="str">
+      <c r="I79" s="8" t="str">
         <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
         <v/>
       </c>
-      <c r="L79" s="8" t="str">
+      <c r="L79" s="9" t="str">
         <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
@@ -4098,11 +4103,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="1" t="str">
+      <c r="I80" s="8" t="str">
         <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
         <v/>
       </c>
-      <c r="L80" s="8" t="str">
+      <c r="L80" s="9" t="str">
         <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
@@ -4144,11 +4149,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="1" t="str">
+      <c r="I81" s="8" t="str">
         <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
         <v/>
       </c>
-      <c r="L81" s="8" t="str">
+      <c r="L81" s="9" t="str">
         <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
@@ -4190,11 +4195,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="1" t="str">
+      <c r="I82" s="8" t="str">
         <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
         <v/>
       </c>
-      <c r="L82" s="8" t="str">
+      <c r="L82" s="9" t="str">
         <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
@@ -4236,11 +4241,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="1" t="str">
+      <c r="I83" s="8" t="str">
         <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
         <v/>
       </c>
-      <c r="L83" s="8" t="str">
+      <c r="L83" s="9" t="str">
         <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
@@ -4282,11 +4287,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="1" t="str">
+      <c r="I84" s="8" t="str">
         <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
         <v/>
       </c>
-      <c r="L84" s="8" t="str">
+      <c r="L84" s="9" t="str">
         <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
@@ -4328,11 +4333,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="1" t="str">
+      <c r="I85" s="8" t="str">
         <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
         <v/>
       </c>
-      <c r="L85" s="8" t="str">
+      <c r="L85" s="9" t="str">
         <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
@@ -4374,11 +4379,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="1" t="str">
+      <c r="I86" s="8" t="str">
         <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
         <v/>
       </c>
-      <c r="L86" s="8" t="str">
+      <c r="L86" s="9" t="str">
         <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
@@ -4420,11 +4425,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="1" t="str">
+      <c r="I87" s="8" t="str">
         <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
         <v/>
       </c>
-      <c r="L87" s="8" t="str">
+      <c r="L87" s="9" t="str">
         <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
@@ -4466,11 +4471,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="1" t="str">
+      <c r="I88" s="8" t="str">
         <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
         <v/>
       </c>
-      <c r="L88" s="8" t="str">
+      <c r="L88" s="9" t="str">
         <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
@@ -4512,11 +4517,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="1" t="str">
+      <c r="I89" s="8" t="str">
         <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
         <v/>
       </c>
-      <c r="L89" s="8" t="str">
+      <c r="L89" s="9" t="str">
         <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
@@ -4558,11 +4563,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="1" t="str">
+      <c r="I90" s="8" t="str">
         <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
         <v/>
       </c>
-      <c r="L90" s="8" t="str">
+      <c r="L90" s="9" t="str">
         <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
@@ -4604,11 +4609,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="1" t="str">
+      <c r="I91" s="8" t="str">
         <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
         <v/>
       </c>
-      <c r="L91" s="8" t="str">
+      <c r="L91" s="9" t="str">
         <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
@@ -4650,11 +4655,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="1" t="str">
+      <c r="I92" s="8" t="str">
         <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
         <v/>
       </c>
-      <c r="L92" s="8" t="str">
+      <c r="L92" s="9" t="str">
         <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
@@ -4696,11 +4701,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="1" t="str">
+      <c r="I93" s="8" t="str">
         <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
         <v/>
       </c>
-      <c r="L93" s="8" t="str">
+      <c r="L93" s="9" t="str">
         <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
@@ -4742,11 +4747,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="1" t="str">
+      <c r="I94" s="8" t="str">
         <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
         <v/>
       </c>
-      <c r="L94" s="8" t="str">
+      <c r="L94" s="9" t="str">
         <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
@@ -4788,11 +4793,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="1" t="str">
+      <c r="I95" s="8" t="str">
         <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
         <v/>
       </c>
-      <c r="L95" s="8" t="str">
+      <c r="L95" s="9" t="str">
         <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
@@ -4834,11 +4839,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="1" t="str">
+      <c r="I96" s="8" t="str">
         <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
         <v/>
       </c>
-      <c r="L96" s="8" t="str">
+      <c r="L96" s="9" t="str">
         <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
@@ -4880,11 +4885,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="1" t="str">
+      <c r="I97" s="8" t="str">
         <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
         <v/>
       </c>
-      <c r="L97" s="8" t="str">
+      <c r="L97" s="9" t="str">
         <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
@@ -4926,11 +4931,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="1" t="str">
+      <c r="I98" s="8" t="str">
         <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
         <v/>
       </c>
-      <c r="L98" s="8" t="str">
+      <c r="L98" s="9" t="str">
         <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
@@ -4972,11 +4977,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="1" t="str">
+      <c r="I99" s="8" t="str">
         <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
         <v/>
       </c>
-      <c r="L99" s="8" t="str">
+      <c r="L99" s="9" t="str">
         <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
@@ -5018,11 +5023,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="1" t="str">
+      <c r="I100" s="8" t="str">
         <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
         <v/>
       </c>
-      <c r="L100" s="8" t="str">
+      <c r="L100" s="9" t="str">
         <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
@@ -5064,11 +5069,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="1" t="str">
+      <c r="I101" s="8" t="str">
         <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
         <v/>
       </c>
-      <c r="L101" s="8" t="str">
+      <c r="L101" s="9" t="str">
         <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
@@ -5110,11 +5115,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="1" t="str">
+      <c r="I102" s="8" t="str">
         <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
         <v/>
       </c>
-      <c r="L102" s="8" t="str">
+      <c r="L102" s="9" t="str">
         <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
@@ -5156,11 +5161,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="1" t="str">
+      <c r="I103" s="8" t="str">
         <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
         <v/>
       </c>
-      <c r="L103" s="8" t="str">
+      <c r="L103" s="9" t="str">
         <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
@@ -5202,11 +5207,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="1" t="str">
+      <c r="I104" s="8" t="str">
         <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
         <v/>
       </c>
-      <c r="L104" s="8" t="str">
+      <c r="L104" s="9" t="str">
         <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
@@ -5248,11 +5253,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="1" t="str">
+      <c r="I105" s="8" t="str">
         <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
         <v/>
       </c>
-      <c r="L105" s="8" t="str">
+      <c r="L105" s="9" t="str">
         <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
@@ -5294,11 +5299,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="1" t="str">
+      <c r="I106" s="8" t="str">
         <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
         <v/>
       </c>
-      <c r="L106" s="8" t="str">
+      <c r="L106" s="9" t="str">
         <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
@@ -5340,11 +5345,11 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="1" t="str">
+      <c r="I107" s="8" t="str">
         <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
         <v/>
       </c>
-      <c r="L107" s="8" t="str">
+      <c r="L107" s="9" t="str">
         <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
@@ -5386,11 +5391,11 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="1" t="str">
+      <c r="I108" s="8" t="str">
         <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
         <v/>
       </c>
-      <c r="L108" s="8" t="str">
+      <c r="L108" s="9" t="str">
         <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
@@ -5432,11 +5437,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="1" t="str">
+      <c r="I109" s="8" t="str">
         <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
         <v/>
       </c>
-      <c r="L109" s="8" t="str">
+      <c r="L109" s="9" t="str">
         <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
@@ -5478,11 +5483,11 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="1" t="str">
+      <c r="I110" s="8" t="str">
         <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
         <v/>
       </c>
-      <c r="L110" s="8" t="str">
+      <c r="L110" s="9" t="str">
         <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
@@ -5524,11 +5529,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="1" t="str">
+      <c r="I111" s="8" t="str">
         <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
         <v/>
       </c>
-      <c r="L111" s="8" t="str">
+      <c r="L111" s="9" t="str">
         <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
@@ -5570,11 +5575,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="1" t="str">
+      <c r="I112" s="8" t="str">
         <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
         <v/>
       </c>
-      <c r="L112" s="8" t="str">
+      <c r="L112" s="9" t="str">
         <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
@@ -5616,11 +5621,11 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="1" t="str">
+      <c r="I113" s="8" t="str">
         <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
         <v/>
       </c>
-      <c r="L113" s="8" t="str">
+      <c r="L113" s="9" t="str">
         <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
@@ -5662,11 +5667,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="1" t="str">
+      <c r="I114" s="8" t="str">
         <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
         <v/>
       </c>
-      <c r="L114" s="8" t="str">
+      <c r="L114" s="9" t="str">
         <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
@@ -5708,11 +5713,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="1" t="str">
+      <c r="I115" s="8" t="str">
         <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
         <v/>
       </c>
-      <c r="L115" s="8" t="str">
+      <c r="L115" s="9" t="str">
         <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
@@ -5754,11 +5759,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="1" t="str">
+      <c r="I116" s="8" t="str">
         <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
         <v/>
       </c>
-      <c r="L116" s="8" t="str">
+      <c r="L116" s="9" t="str">
         <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
@@ -5800,11 +5805,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="1" t="str">
+      <c r="I117" s="8" t="str">
         <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
         <v/>
       </c>
-      <c r="L117" s="8" t="str">
+      <c r="L117" s="9" t="str">
         <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
@@ -5846,11 +5851,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="1" t="str">
+      <c r="I118" s="8" t="str">
         <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
         <v/>
       </c>
-      <c r="L118" s="8" t="str">
+      <c r="L118" s="9" t="str">
         <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
@@ -5892,11 +5897,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="1" t="str">
+      <c r="I119" s="8" t="str">
         <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
         <v/>
       </c>
-      <c r="L119" s="8" t="str">
+      <c r="L119" s="9" t="str">
         <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
@@ -5938,11 +5943,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="1" t="str">
+      <c r="I120" s="8" t="str">
         <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
         <v/>
       </c>
-      <c r="L120" s="8" t="str">
+      <c r="L120" s="9" t="str">
         <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
@@ -5984,11 +5989,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="1" t="str">
+      <c r="I121" s="8" t="str">
         <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
         <v/>
       </c>
-      <c r="L121" s="8" t="str">
+      <c r="L121" s="9" t="str">
         <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
@@ -6030,11 +6035,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="1" t="str">
+      <c r="I122" s="8" t="str">
         <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
         <v/>
       </c>
-      <c r="L122" s="8" t="str">
+      <c r="L122" s="9" t="str">
         <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>
@@ -6131,7 +6136,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6144,7 +6149,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="5.46"/>
@@ -6158,53 +6163,53 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="23" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="2" t="n">
+      <c r="Q1" s="3" t="n">
         <v>0</v>
       </c>
       <c r="R1" s="5" t="s">
@@ -6224,12 +6229,12 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="1" t="str">
+      <c r="I2" s="8" t="str">
         <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
         <v/>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8" t="str">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="str">
         <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
@@ -6271,11 +6276,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="1" t="str">
+      <c r="I3" s="8" t="str">
         <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
         <v/>
       </c>
-      <c r="L3" s="8" t="str">
+      <c r="L3" s="9" t="str">
         <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
@@ -6317,11 +6322,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="1" t="str">
+      <c r="I4" s="8" t="str">
         <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
         <v/>
       </c>
-      <c r="L4" s="8" t="str">
+      <c r="L4" s="9" t="str">
         <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
@@ -6363,11 +6368,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="8" t="str">
         <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
         <v/>
       </c>
-      <c r="L5" s="8" t="str">
+      <c r="L5" s="9" t="str">
         <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
@@ -6409,11 +6414,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="8" t="str">
         <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
         <v/>
       </c>
-      <c r="L6" s="8" t="str">
+      <c r="L6" s="9" t="str">
         <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
@@ -6455,11 +6460,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="1" t="str">
+      <c r="I7" s="8" t="str">
         <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
         <v/>
       </c>
-      <c r="L7" s="8" t="str">
+      <c r="L7" s="9" t="str">
         <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
@@ -6501,11 +6506,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="1" t="str">
+      <c r="I8" s="8" t="str">
         <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
         <v/>
       </c>
-      <c r="L8" s="8" t="str">
+      <c r="L8" s="9" t="str">
         <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
@@ -6547,11 +6552,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="1" t="str">
+      <c r="I9" s="8" t="str">
         <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
         <v/>
       </c>
-      <c r="L9" s="8" t="str">
+      <c r="L9" s="9" t="str">
         <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
@@ -6593,11 +6598,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="1" t="str">
+      <c r="I10" s="8" t="str">
         <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
         <v/>
       </c>
-      <c r="L10" s="8" t="str">
+      <c r="L10" s="9" t="str">
         <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
@@ -6639,11 +6644,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="1" t="str">
+      <c r="I11" s="8" t="str">
         <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
         <v/>
       </c>
-      <c r="L11" s="8" t="str">
+      <c r="L11" s="9" t="str">
         <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
@@ -6685,11 +6690,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="1" t="str">
+      <c r="I12" s="8" t="str">
         <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
         <v/>
       </c>
-      <c r="L12" s="8" t="str">
+      <c r="L12" s="9" t="str">
         <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
@@ -6731,11 +6736,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="1" t="str">
+      <c r="I13" s="8" t="str">
         <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
         <v/>
       </c>
-      <c r="L13" s="8" t="str">
+      <c r="L13" s="9" t="str">
         <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
@@ -6777,11 +6782,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="1" t="str">
+      <c r="I14" s="8" t="str">
         <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
         <v/>
       </c>
-      <c r="L14" s="8" t="str">
+      <c r="L14" s="9" t="str">
         <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
@@ -6823,11 +6828,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="1" t="str">
+      <c r="I15" s="8" t="str">
         <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
         <v/>
       </c>
-      <c r="L15" s="8" t="str">
+      <c r="L15" s="9" t="str">
         <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
@@ -6869,11 +6874,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="1" t="str">
+      <c r="I16" s="8" t="str">
         <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
         <v/>
       </c>
-      <c r="L16" s="8" t="str">
+      <c r="L16" s="9" t="str">
         <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
@@ -6915,11 +6920,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="1" t="str">
+      <c r="I17" s="8" t="str">
         <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
         <v/>
       </c>
-      <c r="L17" s="8" t="str">
+      <c r="L17" s="9" t="str">
         <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
@@ -6961,11 +6966,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="1" t="str">
+      <c r="I18" s="8" t="str">
         <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
         <v/>
       </c>
-      <c r="L18" s="8" t="str">
+      <c r="L18" s="9" t="str">
         <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
@@ -7007,11 +7012,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="1" t="str">
+      <c r="I19" s="8" t="str">
         <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
         <v/>
       </c>
-      <c r="L19" s="8" t="str">
+      <c r="L19" s="9" t="str">
         <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
@@ -7053,11 +7058,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="1" t="str">
+      <c r="I20" s="8" t="str">
         <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
         <v/>
       </c>
-      <c r="L20" s="8" t="str">
+      <c r="L20" s="9" t="str">
         <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
@@ -7099,11 +7104,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="1" t="str">
+      <c r="I21" s="8" t="str">
         <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
         <v/>
       </c>
-      <c r="L21" s="8" t="str">
+      <c r="L21" s="9" t="str">
         <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
@@ -7145,11 +7150,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="1" t="str">
+      <c r="I22" s="8" t="str">
         <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
         <v/>
       </c>
-      <c r="L22" s="8" t="str">
+      <c r="L22" s="9" t="str">
         <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
@@ -7191,11 +7196,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="1" t="str">
+      <c r="I23" s="8" t="str">
         <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
         <v/>
       </c>
-      <c r="L23" s="8" t="str">
+      <c r="L23" s="9" t="str">
         <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
@@ -7237,11 +7242,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="1" t="str">
+      <c r="I24" s="8" t="str">
         <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
         <v/>
       </c>
-      <c r="L24" s="8" t="str">
+      <c r="L24" s="9" t="str">
         <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
@@ -7283,11 +7288,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="1" t="str">
+      <c r="I25" s="8" t="str">
         <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
         <v/>
       </c>
-      <c r="L25" s="8" t="str">
+      <c r="L25" s="9" t="str">
         <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
@@ -7329,11 +7334,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="1" t="str">
+      <c r="I26" s="8" t="str">
         <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
         <v/>
       </c>
-      <c r="L26" s="8" t="str">
+      <c r="L26" s="9" t="str">
         <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
@@ -7375,11 +7380,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="1" t="str">
+      <c r="I27" s="8" t="str">
         <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
         <v/>
       </c>
-      <c r="L27" s="8" t="str">
+      <c r="L27" s="9" t="str">
         <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
@@ -7421,11 +7426,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="1" t="str">
+      <c r="I28" s="8" t="str">
         <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
         <v/>
       </c>
-      <c r="L28" s="8" t="str">
+      <c r="L28" s="9" t="str">
         <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
@@ -7467,11 +7472,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="1" t="str">
+      <c r="I29" s="8" t="str">
         <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
         <v/>
       </c>
-      <c r="L29" s="8" t="str">
+      <c r="L29" s="9" t="str">
         <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
@@ -7513,11 +7518,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="1" t="str">
+      <c r="I30" s="8" t="str">
         <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
         <v/>
       </c>
-      <c r="L30" s="8" t="str">
+      <c r="L30" s="9" t="str">
         <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
@@ -7559,11 +7564,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="1" t="str">
+      <c r="I31" s="8" t="str">
         <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
         <v/>
       </c>
-      <c r="L31" s="8" t="str">
+      <c r="L31" s="9" t="str">
         <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
@@ -7605,11 +7610,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="1" t="str">
+      <c r="I32" s="8" t="str">
         <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
         <v/>
       </c>
-      <c r="L32" s="8" t="str">
+      <c r="L32" s="9" t="str">
         <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
@@ -7651,11 +7656,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="1" t="str">
+      <c r="I33" s="8" t="str">
         <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
         <v/>
       </c>
-      <c r="L33" s="8" t="str">
+      <c r="L33" s="9" t="str">
         <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
@@ -7697,11 +7702,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="1" t="str">
+      <c r="I34" s="8" t="str">
         <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
         <v/>
       </c>
-      <c r="L34" s="8" t="str">
+      <c r="L34" s="9" t="str">
         <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
@@ -7743,11 +7748,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="1" t="str">
+      <c r="I35" s="8" t="str">
         <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
         <v/>
       </c>
-      <c r="L35" s="8" t="str">
+      <c r="L35" s="9" t="str">
         <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
@@ -7789,11 +7794,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="1" t="str">
+      <c r="I36" s="8" t="str">
         <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
         <v/>
       </c>
-      <c r="L36" s="8" t="str">
+      <c r="L36" s="9" t="str">
         <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
@@ -7835,11 +7840,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="1" t="str">
+      <c r="I37" s="8" t="str">
         <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
         <v/>
       </c>
-      <c r="L37" s="8" t="str">
+      <c r="L37" s="9" t="str">
         <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
@@ -7881,11 +7886,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="1" t="str">
+      <c r="I38" s="8" t="str">
         <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
         <v/>
       </c>
-      <c r="L38" s="8" t="str">
+      <c r="L38" s="9" t="str">
         <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
@@ -7927,11 +7932,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="1" t="str">
+      <c r="I39" s="8" t="str">
         <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
         <v/>
       </c>
-      <c r="L39" s="8" t="str">
+      <c r="L39" s="9" t="str">
         <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
@@ -7973,11 +7978,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="1" t="str">
+      <c r="I40" s="8" t="str">
         <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
         <v/>
       </c>
-      <c r="L40" s="8" t="str">
+      <c r="L40" s="9" t="str">
         <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
@@ -8019,11 +8024,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="1" t="str">
+      <c r="I41" s="8" t="str">
         <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
         <v/>
       </c>
-      <c r="L41" s="8" t="str">
+      <c r="L41" s="9" t="str">
         <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
@@ -8065,11 +8070,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="1" t="str">
+      <c r="I42" s="8" t="str">
         <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
         <v/>
       </c>
-      <c r="L42" s="8" t="str">
+      <c r="L42" s="9" t="str">
         <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
@@ -8111,11 +8116,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="1" t="str">
+      <c r="I43" s="8" t="str">
         <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
         <v/>
       </c>
-      <c r="L43" s="8" t="str">
+      <c r="L43" s="9" t="str">
         <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
@@ -8157,11 +8162,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="1" t="str">
+      <c r="I44" s="8" t="str">
         <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
         <v/>
       </c>
-      <c r="L44" s="8" t="str">
+      <c r="L44" s="9" t="str">
         <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
@@ -8203,11 +8208,11 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="1" t="str">
+      <c r="I45" s="8" t="str">
         <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
         <v/>
       </c>
-      <c r="L45" s="8" t="str">
+      <c r="L45" s="9" t="str">
         <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
@@ -8249,11 +8254,11 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="1" t="str">
+      <c r="I46" s="8" t="str">
         <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
         <v/>
       </c>
-      <c r="L46" s="8" t="str">
+      <c r="L46" s="9" t="str">
         <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
@@ -8295,11 +8300,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="1" t="str">
+      <c r="I47" s="8" t="str">
         <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
         <v/>
       </c>
-      <c r="L47" s="8" t="str">
+      <c r="L47" s="9" t="str">
         <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
@@ -8341,11 +8346,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="1" t="str">
+      <c r="I48" s="8" t="str">
         <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
         <v/>
       </c>
-      <c r="L48" s="8" t="str">
+      <c r="L48" s="9" t="str">
         <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
@@ -8387,11 +8392,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="1" t="str">
+      <c r="I49" s="8" t="str">
         <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
         <v/>
       </c>
-      <c r="L49" s="8" t="str">
+      <c r="L49" s="9" t="str">
         <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
@@ -8433,11 +8438,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="1" t="str">
+      <c r="I50" s="8" t="str">
         <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
         <v/>
       </c>
-      <c r="L50" s="8" t="str">
+      <c r="L50" s="9" t="str">
         <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
@@ -8479,11 +8484,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="1" t="str">
+      <c r="I51" s="8" t="str">
         <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
         <v/>
       </c>
-      <c r="L51" s="8" t="str">
+      <c r="L51" s="9" t="str">
         <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
@@ -8525,11 +8530,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="1" t="str">
+      <c r="I52" s="8" t="str">
         <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
         <v/>
       </c>
-      <c r="L52" s="8" t="str">
+      <c r="L52" s="9" t="str">
         <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
@@ -8571,11 +8576,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="1" t="str">
+      <c r="I53" s="8" t="str">
         <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
         <v/>
       </c>
-      <c r="L53" s="8" t="str">
+      <c r="L53" s="9" t="str">
         <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
@@ -8617,11 +8622,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="1" t="str">
+      <c r="I54" s="8" t="str">
         <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
         <v/>
       </c>
-      <c r="L54" s="8" t="str">
+      <c r="L54" s="9" t="str">
         <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
@@ -8663,11 +8668,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="1" t="str">
+      <c r="I55" s="8" t="str">
         <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
         <v/>
       </c>
-      <c r="L55" s="8" t="str">
+      <c r="L55" s="9" t="str">
         <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
@@ -8709,11 +8714,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="1" t="str">
+      <c r="I56" s="8" t="str">
         <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
         <v/>
       </c>
-      <c r="L56" s="8" t="str">
+      <c r="L56" s="9" t="str">
         <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
@@ -8755,11 +8760,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="1" t="str">
+      <c r="I57" s="8" t="str">
         <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
         <v/>
       </c>
-      <c r="L57" s="8" t="str">
+      <c r="L57" s="9" t="str">
         <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
@@ -8801,11 +8806,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="1" t="str">
+      <c r="I58" s="8" t="str">
         <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
         <v/>
       </c>
-      <c r="L58" s="8" t="str">
+      <c r="L58" s="9" t="str">
         <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
@@ -8847,12 +8852,12 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="1" t="str">
+      <c r="I59" s="8" t="str">
         <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
         <v/>
       </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8" t="str">
+      <c r="K59" s="9"/>
+      <c r="L59" s="9" t="str">
         <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
@@ -8894,11 +8899,11 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="1" t="str">
+      <c r="I60" s="8" t="str">
         <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
         <v/>
       </c>
-      <c r="L60" s="8" t="str">
+      <c r="L60" s="9" t="str">
         <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
@@ -8940,11 +8945,11 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="1" t="str">
+      <c r="I61" s="8" t="str">
         <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
         <v/>
       </c>
-      <c r="L61" s="8" t="str">
+      <c r="L61" s="9" t="str">
         <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
@@ -8986,11 +8991,11 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="1" t="str">
+      <c r="I62" s="8" t="str">
         <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
         <v/>
       </c>
-      <c r="L62" s="8" t="str">
+      <c r="L62" s="9" t="str">
         <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
@@ -9032,11 +9037,11 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="1" t="str">
+      <c r="I63" s="8" t="str">
         <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
         <v/>
       </c>
-      <c r="L63" s="8" t="str">
+      <c r="L63" s="9" t="str">
         <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
@@ -9078,11 +9083,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="1" t="str">
+      <c r="I64" s="8" t="str">
         <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
         <v/>
       </c>
-      <c r="L64" s="8" t="str">
+      <c r="L64" s="9" t="str">
         <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
@@ -9124,11 +9129,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="1" t="str">
+      <c r="I65" s="8" t="str">
         <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
         <v/>
       </c>
-      <c r="L65" s="8" t="str">
+      <c r="L65" s="9" t="str">
         <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
@@ -9170,11 +9175,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="1" t="str">
+      <c r="I66" s="8" t="str">
         <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
         <v/>
       </c>
-      <c r="L66" s="8" t="str">
+      <c r="L66" s="9" t="str">
         <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
@@ -9216,11 +9221,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="1" t="str">
+      <c r="I67" s="8" t="str">
         <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
         <v/>
       </c>
-      <c r="L67" s="8" t="str">
+      <c r="L67" s="9" t="str">
         <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
@@ -9262,11 +9267,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="1" t="str">
+      <c r="I68" s="8" t="str">
         <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
         <v/>
       </c>
-      <c r="L68" s="8" t="str">
+      <c r="L68" s="9" t="str">
         <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
@@ -9308,11 +9313,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="1" t="str">
+      <c r="I69" s="8" t="str">
         <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
         <v/>
       </c>
-      <c r="L69" s="8" t="str">
+      <c r="L69" s="9" t="str">
         <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
@@ -9354,11 +9359,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="1" t="str">
+      <c r="I70" s="8" t="str">
         <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
         <v/>
       </c>
-      <c r="L70" s="8" t="str">
+      <c r="L70" s="9" t="str">
         <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
@@ -9400,11 +9405,11 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="1" t="str">
+      <c r="I71" s="8" t="str">
         <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
         <v/>
       </c>
-      <c r="L71" s="8" t="str">
+      <c r="L71" s="9" t="str">
         <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
@@ -9446,11 +9451,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="1" t="str">
+      <c r="I72" s="8" t="str">
         <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
         <v/>
       </c>
-      <c r="L72" s="8" t="str">
+      <c r="L72" s="9" t="str">
         <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
@@ -9492,11 +9497,11 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="1" t="str">
+      <c r="I73" s="8" t="str">
         <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
         <v/>
       </c>
-      <c r="L73" s="8" t="str">
+      <c r="L73" s="9" t="str">
         <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
@@ -9538,11 +9543,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="1" t="str">
+      <c r="I74" s="8" t="str">
         <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
         <v/>
       </c>
-      <c r="L74" s="8" t="str">
+      <c r="L74" s="9" t="str">
         <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
@@ -9584,11 +9589,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="1" t="str">
+      <c r="I75" s="8" t="str">
         <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
         <v/>
       </c>
-      <c r="L75" s="8" t="str">
+      <c r="L75" s="9" t="str">
         <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
@@ -9630,11 +9635,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="1" t="str">
+      <c r="I76" s="8" t="str">
         <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
         <v/>
       </c>
-      <c r="L76" s="8" t="str">
+      <c r="L76" s="9" t="str">
         <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
@@ -9676,11 +9681,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="1" t="str">
+      <c r="I77" s="8" t="str">
         <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
         <v/>
       </c>
-      <c r="L77" s="8" t="str">
+      <c r="L77" s="9" t="str">
         <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
@@ -9722,11 +9727,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="1" t="str">
+      <c r="I78" s="8" t="str">
         <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
         <v/>
       </c>
-      <c r="L78" s="8" t="str">
+      <c r="L78" s="9" t="str">
         <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
@@ -9768,11 +9773,11 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="1" t="str">
+      <c r="I79" s="8" t="str">
         <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
         <v/>
       </c>
-      <c r="L79" s="8" t="str">
+      <c r="L79" s="9" t="str">
         <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
@@ -9814,11 +9819,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="1" t="str">
+      <c r="I80" s="8" t="str">
         <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
         <v/>
       </c>
-      <c r="L80" s="8" t="str">
+      <c r="L80" s="9" t="str">
         <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
@@ -9860,11 +9865,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="1" t="str">
+      <c r="I81" s="8" t="str">
         <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
         <v/>
       </c>
-      <c r="L81" s="8" t="str">
+      <c r="L81" s="9" t="str">
         <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
@@ -9906,11 +9911,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="1" t="str">
+      <c r="I82" s="8" t="str">
         <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
         <v/>
       </c>
-      <c r="L82" s="8" t="str">
+      <c r="L82" s="9" t="str">
         <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
@@ -9952,11 +9957,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="1" t="str">
+      <c r="I83" s="8" t="str">
         <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
         <v/>
       </c>
-      <c r="L83" s="8" t="str">
+      <c r="L83" s="9" t="str">
         <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
@@ -9998,11 +10003,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="1" t="str">
+      <c r="I84" s="8" t="str">
         <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
         <v/>
       </c>
-      <c r="L84" s="8" t="str">
+      <c r="L84" s="9" t="str">
         <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
@@ -10044,11 +10049,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="1" t="str">
+      <c r="I85" s="8" t="str">
         <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
         <v/>
       </c>
-      <c r="L85" s="8" t="str">
+      <c r="L85" s="9" t="str">
         <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
@@ -10090,11 +10095,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="1" t="str">
+      <c r="I86" s="8" t="str">
         <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
         <v/>
       </c>
-      <c r="L86" s="8" t="str">
+      <c r="L86" s="9" t="str">
         <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
@@ -10136,11 +10141,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="1" t="str">
+      <c r="I87" s="8" t="str">
         <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
         <v/>
       </c>
-      <c r="L87" s="8" t="str">
+      <c r="L87" s="9" t="str">
         <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
@@ -10182,11 +10187,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="1" t="str">
+      <c r="I88" s="8" t="str">
         <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
         <v/>
       </c>
-      <c r="L88" s="8" t="str">
+      <c r="L88" s="9" t="str">
         <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
@@ -10228,11 +10233,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="1" t="str">
+      <c r="I89" s="8" t="str">
         <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
         <v/>
       </c>
-      <c r="L89" s="8" t="str">
+      <c r="L89" s="9" t="str">
         <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
@@ -10274,11 +10279,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="1" t="str">
+      <c r="I90" s="8" t="str">
         <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
         <v/>
       </c>
-      <c r="L90" s="8" t="str">
+      <c r="L90" s="9" t="str">
         <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
@@ -10320,11 +10325,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="1" t="str">
+      <c r="I91" s="8" t="str">
         <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
         <v/>
       </c>
-      <c r="L91" s="8" t="str">
+      <c r="L91" s="9" t="str">
         <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
@@ -10366,11 +10371,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="1" t="str">
+      <c r="I92" s="8" t="str">
         <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
         <v/>
       </c>
-      <c r="L92" s="8" t="str">
+      <c r="L92" s="9" t="str">
         <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
@@ -10412,11 +10417,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="1" t="str">
+      <c r="I93" s="8" t="str">
         <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
         <v/>
       </c>
-      <c r="L93" s="8" t="str">
+      <c r="L93" s="9" t="str">
         <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
@@ -10458,11 +10463,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="1" t="str">
+      <c r="I94" s="8" t="str">
         <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
         <v/>
       </c>
-      <c r="L94" s="8" t="str">
+      <c r="L94" s="9" t="str">
         <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
@@ -10504,11 +10509,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="1" t="str">
+      <c r="I95" s="8" t="str">
         <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
         <v/>
       </c>
-      <c r="L95" s="8" t="str">
+      <c r="L95" s="9" t="str">
         <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
@@ -10550,11 +10555,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="1" t="str">
+      <c r="I96" s="8" t="str">
         <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
         <v/>
       </c>
-      <c r="L96" s="8" t="str">
+      <c r="L96" s="9" t="str">
         <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
@@ -10596,11 +10601,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="1" t="str">
+      <c r="I97" s="8" t="str">
         <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
         <v/>
       </c>
-      <c r="L97" s="8" t="str">
+      <c r="L97" s="9" t="str">
         <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
@@ -10642,11 +10647,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="1" t="str">
+      <c r="I98" s="8" t="str">
         <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
         <v/>
       </c>
-      <c r="L98" s="8" t="str">
+      <c r="L98" s="9" t="str">
         <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
@@ -10688,11 +10693,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="1" t="str">
+      <c r="I99" s="8" t="str">
         <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
         <v/>
       </c>
-      <c r="L99" s="8" t="str">
+      <c r="L99" s="9" t="str">
         <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
@@ -10734,11 +10739,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="1" t="str">
+      <c r="I100" s="8" t="str">
         <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
         <v/>
       </c>
-      <c r="L100" s="8" t="str">
+      <c r="L100" s="9" t="str">
         <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
@@ -10780,11 +10785,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="1" t="str">
+      <c r="I101" s="8" t="str">
         <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
         <v/>
       </c>
-      <c r="L101" s="8" t="str">
+      <c r="L101" s="9" t="str">
         <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
@@ -10826,11 +10831,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="1" t="str">
+      <c r="I102" s="8" t="str">
         <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
         <v/>
       </c>
-      <c r="L102" s="8" t="str">
+      <c r="L102" s="9" t="str">
         <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
@@ -10872,11 +10877,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="1" t="str">
+      <c r="I103" s="8" t="str">
         <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
         <v/>
       </c>
-      <c r="L103" s="8" t="str">
+      <c r="L103" s="9" t="str">
         <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
@@ -10918,11 +10923,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="1" t="str">
+      <c r="I104" s="8" t="str">
         <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
         <v/>
       </c>
-      <c r="L104" s="8" t="str">
+      <c r="L104" s="9" t="str">
         <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
@@ -10964,11 +10969,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="1" t="str">
+      <c r="I105" s="8" t="str">
         <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
         <v/>
       </c>
-      <c r="L105" s="8" t="str">
+      <c r="L105" s="9" t="str">
         <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
@@ -11010,11 +11015,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="1" t="str">
+      <c r="I106" s="8" t="str">
         <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
         <v/>
       </c>
-      <c r="L106" s="8" t="str">
+      <c r="L106" s="9" t="str">
         <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
@@ -11056,11 +11061,11 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="1" t="str">
+      <c r="I107" s="8" t="str">
         <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
         <v/>
       </c>
-      <c r="L107" s="8" t="str">
+      <c r="L107" s="9" t="str">
         <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
@@ -11102,11 +11107,11 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="1" t="str">
+      <c r="I108" s="8" t="str">
         <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
         <v/>
       </c>
-      <c r="L108" s="8" t="str">
+      <c r="L108" s="9" t="str">
         <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
@@ -11148,11 +11153,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="1" t="str">
+      <c r="I109" s="8" t="str">
         <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
         <v/>
       </c>
-      <c r="L109" s="8" t="str">
+      <c r="L109" s="9" t="str">
         <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
@@ -11194,11 +11199,11 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="1" t="str">
+      <c r="I110" s="8" t="str">
         <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
         <v/>
       </c>
-      <c r="L110" s="8" t="str">
+      <c r="L110" s="9" t="str">
         <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
@@ -11240,11 +11245,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="1" t="str">
+      <c r="I111" s="8" t="str">
         <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
         <v/>
       </c>
-      <c r="L111" s="8" t="str">
+      <c r="L111" s="9" t="str">
         <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
@@ -11286,11 +11291,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="1" t="str">
+      <c r="I112" s="8" t="str">
         <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
         <v/>
       </c>
-      <c r="L112" s="8" t="str">
+      <c r="L112" s="9" t="str">
         <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
@@ -11332,11 +11337,11 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="1" t="str">
+      <c r="I113" s="8" t="str">
         <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
         <v/>
       </c>
-      <c r="L113" s="8" t="str">
+      <c r="L113" s="9" t="str">
         <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
@@ -11378,11 +11383,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="1" t="str">
+      <c r="I114" s="8" t="str">
         <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
         <v/>
       </c>
-      <c r="L114" s="8" t="str">
+      <c r="L114" s="9" t="str">
         <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
@@ -11424,11 +11429,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="1" t="str">
+      <c r="I115" s="8" t="str">
         <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
         <v/>
       </c>
-      <c r="L115" s="8" t="str">
+      <c r="L115" s="9" t="str">
         <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
@@ -11470,11 +11475,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="1" t="str">
+      <c r="I116" s="8" t="str">
         <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
         <v/>
       </c>
-      <c r="L116" s="8" t="str">
+      <c r="L116" s="9" t="str">
         <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
@@ -11516,11 +11521,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="1" t="str">
+      <c r="I117" s="8" t="str">
         <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
         <v/>
       </c>
-      <c r="L117" s="8" t="str">
+      <c r="L117" s="9" t="str">
         <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
@@ -11562,11 +11567,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="1" t="str">
+      <c r="I118" s="8" t="str">
         <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
         <v/>
       </c>
-      <c r="L118" s="8" t="str">
+      <c r="L118" s="9" t="str">
         <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
@@ -11608,11 +11613,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="1" t="str">
+      <c r="I119" s="8" t="str">
         <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
         <v/>
       </c>
-      <c r="L119" s="8" t="str">
+      <c r="L119" s="9" t="str">
         <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
@@ -11654,11 +11659,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="1" t="str">
+      <c r="I120" s="8" t="str">
         <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
         <v/>
       </c>
-      <c r="L120" s="8" t="str">
+      <c r="L120" s="9" t="str">
         <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
@@ -11700,11 +11705,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="1" t="str">
+      <c r="I121" s="8" t="str">
         <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
         <v/>
       </c>
-      <c r="L121" s="8" t="str">
+      <c r="L121" s="9" t="str">
         <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
@@ -11746,11 +11751,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="1" t="str">
+      <c r="I122" s="8" t="str">
         <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
         <v/>
       </c>
-      <c r="L122" s="8" t="str">
+      <c r="L122" s="9" t="str">
         <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,18 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t xml:space="preserve">Тип варки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форм фактор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бренд</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номенклатура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Факт.остатки, заявка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нормативные остатки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">План производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дополнительная фасовка</t>
   </si>
   <si>
     <t xml:space="preserve">Объем варки</t>
   </si>
   <si>
-    <t xml:space="preserve">Группа</t>
+    <t xml:space="preserve">Расчет</t>
   </si>
   <si>
-    <t xml:space="preserve">Форм фактор</t>
+    <t xml:space="preserve">План</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Объемы варок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фактические остатки на складах - Заявлено, кг:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа</t>
   </si>
   <si>
     <t xml:space="preserve">Форм фактор плавления</t>
@@ -101,7 +131,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -123,6 +153,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="7"/>
@@ -158,15 +195,27 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF00B050"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -174,8 +223,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -199,13 +263,33 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -213,62 +297,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Untitled1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Untitled2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Untitled3" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Untitled4" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -291,12 +365,99 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00A65D"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00A65D"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="0"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="false" diagonalDown="false">
+        <left style="hair"/>
+        <right style="hair"/>
+        <top style="hair"/>
+        <bottom style="hair"/>
+        <diagonal/>
+      </border>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -307,7 +468,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF00B050"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -343,7 +504,7 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF00B050"/>
+      <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -362,8 +523,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H56" activeCellId="0" sqref="H56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -386,17 +547,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="62.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="9.14"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -414,12 +626,12 @@
   </sheetPr>
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="1" topLeftCell="R99" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="R1" activeCellId="0" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
+      <selection pane="bottomRight" activeCell="H123" activeCellId="0" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,8 +643,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="5.46"/>
@@ -447,78 +659,78 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="I2" s="8" t="str">
+      <c r="A2" s="9"/>
+      <c r="I2" s="10" t="str">
         <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
         <v/>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="str">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="str">
         <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
@@ -560,11 +772,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="10" t="str">
         <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
         <v/>
       </c>
-      <c r="L3" s="9" t="str">
+      <c r="L3" s="11" t="str">
         <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
@@ -606,11 +818,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="10" t="str">
         <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
         <v/>
       </c>
-      <c r="L4" s="9" t="str">
+      <c r="L4" s="11" t="str">
         <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
@@ -652,11 +864,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="10" t="str">
         <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
         <v/>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="11" t="str">
         <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
@@ -698,11 +910,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="10" t="str">
         <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
         <v/>
       </c>
-      <c r="L6" s="9" t="str">
+      <c r="L6" s="11" t="str">
         <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
@@ -744,11 +956,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="10" t="str">
         <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
         <v/>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L7" s="11" t="str">
         <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
@@ -790,11 +1002,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="10" t="str">
         <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
         <v/>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="11" t="str">
         <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
@@ -836,11 +1048,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="10" t="str">
         <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
         <v/>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="11" t="str">
         <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
@@ -882,11 +1094,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="10" t="str">
         <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
         <v/>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L10" s="11" t="str">
         <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
@@ -928,11 +1140,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="10" t="str">
         <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
         <v/>
       </c>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="11" t="str">
         <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
@@ -974,11 +1186,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="10" t="str">
         <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
         <v/>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L12" s="11" t="str">
         <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
@@ -1020,11 +1232,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="10" t="str">
         <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
         <v/>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="11" t="str">
         <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
@@ -1066,11 +1278,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="10" t="str">
         <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
         <v/>
       </c>
-      <c r="L14" s="9" t="str">
+      <c r="L14" s="11" t="str">
         <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
@@ -1112,11 +1324,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="10" t="str">
         <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
         <v/>
       </c>
-      <c r="L15" s="9" t="str">
+      <c r="L15" s="11" t="str">
         <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
@@ -1158,11 +1370,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="10" t="str">
         <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
         <v/>
       </c>
-      <c r="L16" s="9" t="str">
+      <c r="L16" s="11" t="str">
         <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
@@ -1204,11 +1416,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="10" t="str">
         <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
         <v/>
       </c>
-      <c r="L17" s="9" t="str">
+      <c r="L17" s="11" t="str">
         <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
@@ -1250,11 +1462,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="10" t="str">
         <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
         <v/>
       </c>
-      <c r="L18" s="9" t="str">
+      <c r="L18" s="11" t="str">
         <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
@@ -1296,11 +1508,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="10" t="str">
         <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
         <v/>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="11" t="str">
         <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
@@ -1342,11 +1554,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="10" t="str">
         <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
         <v/>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="11" t="str">
         <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
@@ -1388,11 +1600,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="10" t="str">
         <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
         <v/>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="11" t="str">
         <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
@@ -1434,11 +1646,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="10" t="str">
         <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
         <v/>
       </c>
-      <c r="L22" s="9" t="str">
+      <c r="L22" s="11" t="str">
         <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
@@ -1480,11 +1692,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="10" t="str">
         <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
         <v/>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="11" t="str">
         <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
@@ -1526,11 +1738,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="10" t="str">
         <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
         <v/>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="11" t="str">
         <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
@@ -1572,11 +1784,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="10" t="str">
         <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
         <v/>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="11" t="str">
         <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
@@ -1618,11 +1830,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="10" t="str">
         <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
         <v/>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="11" t="str">
         <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
@@ -1664,11 +1876,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="10" t="str">
         <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
         <v/>
       </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="11" t="str">
         <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
@@ -1710,11 +1922,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="10" t="str">
         <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
         <v/>
       </c>
-      <c r="L28" s="9" t="str">
+      <c r="L28" s="11" t="str">
         <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
@@ -1756,11 +1968,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="10" t="str">
         <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
         <v/>
       </c>
-      <c r="L29" s="9" t="str">
+      <c r="L29" s="11" t="str">
         <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
@@ -1802,11 +2014,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="10" t="str">
         <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
         <v/>
       </c>
-      <c r="L30" s="9" t="str">
+      <c r="L30" s="11" t="str">
         <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
@@ -1848,11 +2060,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="10" t="str">
         <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
         <v/>
       </c>
-      <c r="L31" s="9" t="str">
+      <c r="L31" s="11" t="str">
         <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
@@ -1894,11 +2106,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="8" t="str">
+      <c r="I32" s="10" t="str">
         <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
         <v/>
       </c>
-      <c r="L32" s="9" t="str">
+      <c r="L32" s="11" t="str">
         <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
@@ -1940,11 +2152,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="8" t="str">
+      <c r="I33" s="10" t="str">
         <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
         <v/>
       </c>
-      <c r="L33" s="9" t="str">
+      <c r="L33" s="11" t="str">
         <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
@@ -1986,11 +2198,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="8" t="str">
+      <c r="I34" s="10" t="str">
         <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
         <v/>
       </c>
-      <c r="L34" s="9" t="str">
+      <c r="L34" s="11" t="str">
         <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
@@ -2032,11 +2244,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="10" t="str">
         <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
         <v/>
       </c>
-      <c r="L35" s="9" t="str">
+      <c r="L35" s="11" t="str">
         <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
@@ -2078,11 +2290,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="8" t="str">
+      <c r="I36" s="10" t="str">
         <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
         <v/>
       </c>
-      <c r="L36" s="9" t="str">
+      <c r="L36" s="11" t="str">
         <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
@@ -2124,11 +2336,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="8" t="str">
+      <c r="I37" s="10" t="str">
         <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
         <v/>
       </c>
-      <c r="L37" s="9" t="str">
+      <c r="L37" s="11" t="str">
         <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
@@ -2170,11 +2382,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="8" t="str">
+      <c r="I38" s="10" t="str">
         <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
         <v/>
       </c>
-      <c r="L38" s="9" t="str">
+      <c r="L38" s="11" t="str">
         <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
@@ -2216,11 +2428,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="8" t="str">
+      <c r="I39" s="10" t="str">
         <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
         <v/>
       </c>
-      <c r="L39" s="9" t="str">
+      <c r="L39" s="11" t="str">
         <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
@@ -2262,11 +2474,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="8" t="str">
+      <c r="I40" s="10" t="str">
         <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
         <v/>
       </c>
-      <c r="L40" s="9" t="str">
+      <c r="L40" s="11" t="str">
         <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
@@ -2308,11 +2520,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="8" t="str">
+      <c r="I41" s="10" t="str">
         <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
         <v/>
       </c>
-      <c r="L41" s="9" t="str">
+      <c r="L41" s="11" t="str">
         <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
@@ -2354,11 +2566,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="8" t="str">
+      <c r="I42" s="10" t="str">
         <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
         <v/>
       </c>
-      <c r="L42" s="9" t="str">
+      <c r="L42" s="11" t="str">
         <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
@@ -2400,11 +2612,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="8" t="str">
+      <c r="I43" s="10" t="str">
         <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
         <v/>
       </c>
-      <c r="L43" s="9" t="str">
+      <c r="L43" s="11" t="str">
         <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
@@ -2446,11 +2658,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="8" t="str">
+      <c r="I44" s="10" t="str">
         <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
         <v/>
       </c>
-      <c r="L44" s="9" t="str">
+      <c r="L44" s="11" t="str">
         <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
@@ -2492,11 +2704,11 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="8" t="str">
+      <c r="I45" s="10" t="str">
         <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
         <v/>
       </c>
-      <c r="L45" s="9" t="str">
+      <c r="L45" s="11" t="str">
         <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
@@ -2538,11 +2750,11 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="8" t="str">
+      <c r="I46" s="10" t="str">
         <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
         <v/>
       </c>
-      <c r="L46" s="9" t="str">
+      <c r="L46" s="11" t="str">
         <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
@@ -2584,11 +2796,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="8" t="str">
+      <c r="I47" s="10" t="str">
         <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
         <v/>
       </c>
-      <c r="L47" s="9" t="str">
+      <c r="L47" s="11" t="str">
         <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
@@ -2630,11 +2842,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="8" t="str">
+      <c r="I48" s="10" t="str">
         <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
         <v/>
       </c>
-      <c r="L48" s="9" t="str">
+      <c r="L48" s="11" t="str">
         <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
@@ -2676,11 +2888,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="8" t="str">
+      <c r="I49" s="10" t="str">
         <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
         <v/>
       </c>
-      <c r="L49" s="9" t="str">
+      <c r="L49" s="11" t="str">
         <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
@@ -2722,11 +2934,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="8" t="str">
+      <c r="I50" s="10" t="str">
         <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
         <v/>
       </c>
-      <c r="L50" s="9" t="str">
+      <c r="L50" s="11" t="str">
         <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
@@ -2768,11 +2980,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="8" t="str">
+      <c r="I51" s="10" t="str">
         <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
         <v/>
       </c>
-      <c r="L51" s="9" t="str">
+      <c r="L51" s="11" t="str">
         <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
@@ -2814,11 +3026,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="8" t="str">
+      <c r="I52" s="10" t="str">
         <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
         <v/>
       </c>
-      <c r="L52" s="9" t="str">
+      <c r="L52" s="11" t="str">
         <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
@@ -2860,11 +3072,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="8" t="str">
+      <c r="I53" s="10" t="str">
         <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
         <v/>
       </c>
-      <c r="L53" s="9" t="str">
+      <c r="L53" s="11" t="str">
         <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
@@ -2906,11 +3118,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="8" t="str">
+      <c r="I54" s="10" t="str">
         <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
         <v/>
       </c>
-      <c r="L54" s="9" t="str">
+      <c r="L54" s="11" t="str">
         <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
@@ -2952,11 +3164,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="8" t="str">
+      <c r="I55" s="10" t="str">
         <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
         <v/>
       </c>
-      <c r="L55" s="9" t="str">
+      <c r="L55" s="11" t="str">
         <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
@@ -2998,11 +3210,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="8" t="str">
+      <c r="I56" s="10" t="str">
         <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
         <v/>
       </c>
-      <c r="L56" s="9" t="str">
+      <c r="L56" s="11" t="str">
         <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
@@ -3044,11 +3256,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="8" t="str">
+      <c r="I57" s="10" t="str">
         <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
         <v/>
       </c>
-      <c r="L57" s="9" t="str">
+      <c r="L57" s="11" t="str">
         <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
@@ -3090,11 +3302,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="8" t="str">
+      <c r="I58" s="10" t="str">
         <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
         <v/>
       </c>
-      <c r="L58" s="9" t="str">
+      <c r="L58" s="11" t="str">
         <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
@@ -3136,12 +3348,12 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="8" t="str">
+      <c r="I59" s="10" t="str">
         <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
         <v/>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9" t="str">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11" t="str">
         <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
@@ -3183,11 +3395,11 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="8" t="str">
+      <c r="I60" s="10" t="str">
         <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
         <v/>
       </c>
-      <c r="L60" s="9" t="str">
+      <c r="L60" s="11" t="str">
         <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
@@ -3229,11 +3441,11 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="8" t="str">
+      <c r="I61" s="10" t="str">
         <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
         <v/>
       </c>
-      <c r="L61" s="9" t="str">
+      <c r="L61" s="11" t="str">
         <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
@@ -3275,11 +3487,11 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="8" t="str">
+      <c r="I62" s="10" t="str">
         <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
         <v/>
       </c>
-      <c r="L62" s="9" t="str">
+      <c r="L62" s="11" t="str">
         <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
@@ -3321,11 +3533,11 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="8" t="str">
+      <c r="I63" s="10" t="str">
         <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
         <v/>
       </c>
-      <c r="L63" s="9" t="str">
+      <c r="L63" s="11" t="str">
         <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
@@ -3367,11 +3579,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="8" t="str">
+      <c r="I64" s="10" t="str">
         <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
         <v/>
       </c>
-      <c r="L64" s="9" t="str">
+      <c r="L64" s="11" t="str">
         <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
@@ -3413,11 +3625,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="8" t="str">
+      <c r="I65" s="10" t="str">
         <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
         <v/>
       </c>
-      <c r="L65" s="9" t="str">
+      <c r="L65" s="11" t="str">
         <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
@@ -3459,11 +3671,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="8" t="str">
+      <c r="I66" s="10" t="str">
         <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
         <v/>
       </c>
-      <c r="L66" s="9" t="str">
+      <c r="L66" s="11" t="str">
         <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
@@ -3505,11 +3717,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="8" t="str">
+      <c r="I67" s="10" t="str">
         <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
         <v/>
       </c>
-      <c r="L67" s="9" t="str">
+      <c r="L67" s="11" t="str">
         <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
@@ -3551,11 +3763,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="8" t="str">
+      <c r="I68" s="10" t="str">
         <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
         <v/>
       </c>
-      <c r="L68" s="9" t="str">
+      <c r="L68" s="11" t="str">
         <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
@@ -3597,11 +3809,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="8" t="str">
+      <c r="I69" s="10" t="str">
         <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
         <v/>
       </c>
-      <c r="L69" s="9" t="str">
+      <c r="L69" s="11" t="str">
         <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
@@ -3643,11 +3855,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="8" t="str">
+      <c r="I70" s="10" t="str">
         <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
         <v/>
       </c>
-      <c r="L70" s="9" t="str">
+      <c r="L70" s="11" t="str">
         <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
@@ -3689,11 +3901,11 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="8" t="str">
+      <c r="I71" s="10" t="str">
         <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
         <v/>
       </c>
-      <c r="L71" s="9" t="str">
+      <c r="L71" s="11" t="str">
         <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
@@ -3735,11 +3947,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="8" t="str">
+      <c r="I72" s="10" t="str">
         <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
         <v/>
       </c>
-      <c r="L72" s="9" t="str">
+      <c r="L72" s="11" t="str">
         <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
@@ -3781,11 +3993,11 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="8" t="str">
+      <c r="I73" s="10" t="str">
         <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
         <v/>
       </c>
-      <c r="L73" s="9" t="str">
+      <c r="L73" s="11" t="str">
         <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
@@ -3827,11 +4039,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="8" t="str">
+      <c r="I74" s="10" t="str">
         <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
         <v/>
       </c>
-      <c r="L74" s="9" t="str">
+      <c r="L74" s="11" t="str">
         <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
@@ -3873,11 +4085,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="8" t="str">
+      <c r="I75" s="10" t="str">
         <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
         <v/>
       </c>
-      <c r="L75" s="9" t="str">
+      <c r="L75" s="11" t="str">
         <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
@@ -3919,11 +4131,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="8" t="str">
+      <c r="I76" s="10" t="str">
         <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
         <v/>
       </c>
-      <c r="L76" s="9" t="str">
+      <c r="L76" s="11" t="str">
         <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
@@ -3965,11 +4177,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="8" t="str">
+      <c r="I77" s="10" t="str">
         <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
         <v/>
       </c>
-      <c r="L77" s="9" t="str">
+      <c r="L77" s="11" t="str">
         <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
@@ -4011,11 +4223,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="8" t="str">
+      <c r="I78" s="10" t="str">
         <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
         <v/>
       </c>
-      <c r="L78" s="9" t="str">
+      <c r="L78" s="11" t="str">
         <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
@@ -4057,11 +4269,11 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="8" t="str">
+      <c r="I79" s="10" t="str">
         <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
         <v/>
       </c>
-      <c r="L79" s="9" t="str">
+      <c r="L79" s="11" t="str">
         <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
@@ -4103,11 +4315,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="8" t="str">
+      <c r="I80" s="10" t="str">
         <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
         <v/>
       </c>
-      <c r="L80" s="9" t="str">
+      <c r="L80" s="11" t="str">
         <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
@@ -4149,11 +4361,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="8" t="str">
+      <c r="I81" s="10" t="str">
         <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
         <v/>
       </c>
-      <c r="L81" s="9" t="str">
+      <c r="L81" s="11" t="str">
         <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
@@ -4195,11 +4407,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="8" t="str">
+      <c r="I82" s="10" t="str">
         <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
         <v/>
       </c>
-      <c r="L82" s="9" t="str">
+      <c r="L82" s="11" t="str">
         <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
@@ -4241,11 +4453,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="8" t="str">
+      <c r="I83" s="10" t="str">
         <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
         <v/>
       </c>
-      <c r="L83" s="9" t="str">
+      <c r="L83" s="11" t="str">
         <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
@@ -4287,11 +4499,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="8" t="str">
+      <c r="I84" s="10" t="str">
         <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
         <v/>
       </c>
-      <c r="L84" s="9" t="str">
+      <c r="L84" s="11" t="str">
         <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
@@ -4333,11 +4545,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="8" t="str">
+      <c r="I85" s="10" t="str">
         <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
         <v/>
       </c>
-      <c r="L85" s="9" t="str">
+      <c r="L85" s="11" t="str">
         <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
@@ -4379,11 +4591,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="8" t="str">
+      <c r="I86" s="10" t="str">
         <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
         <v/>
       </c>
-      <c r="L86" s="9" t="str">
+      <c r="L86" s="11" t="str">
         <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
@@ -4425,11 +4637,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="8" t="str">
+      <c r="I87" s="10" t="str">
         <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
         <v/>
       </c>
-      <c r="L87" s="9" t="str">
+      <c r="L87" s="11" t="str">
         <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
@@ -4471,11 +4683,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="8" t="str">
+      <c r="I88" s="10" t="str">
         <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
         <v/>
       </c>
-      <c r="L88" s="9" t="str">
+      <c r="L88" s="11" t="str">
         <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
@@ -4517,11 +4729,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="8" t="str">
+      <c r="I89" s="10" t="str">
         <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
         <v/>
       </c>
-      <c r="L89" s="9" t="str">
+      <c r="L89" s="11" t="str">
         <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
@@ -4563,11 +4775,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="8" t="str">
+      <c r="I90" s="10" t="str">
         <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
         <v/>
       </c>
-      <c r="L90" s="9" t="str">
+      <c r="L90" s="11" t="str">
         <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
@@ -4609,11 +4821,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="8" t="str">
+      <c r="I91" s="10" t="str">
         <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
         <v/>
       </c>
-      <c r="L91" s="9" t="str">
+      <c r="L91" s="11" t="str">
         <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
@@ -4655,11 +4867,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="8" t="str">
+      <c r="I92" s="10" t="str">
         <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
         <v/>
       </c>
-      <c r="L92" s="9" t="str">
+      <c r="L92" s="11" t="str">
         <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
@@ -4701,11 +4913,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="8" t="str">
+      <c r="I93" s="10" t="str">
         <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
         <v/>
       </c>
-      <c r="L93" s="9" t="str">
+      <c r="L93" s="11" t="str">
         <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
@@ -4747,11 +4959,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="8" t="str">
+      <c r="I94" s="10" t="str">
         <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
         <v/>
       </c>
-      <c r="L94" s="9" t="str">
+      <c r="L94" s="11" t="str">
         <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
@@ -4793,11 +5005,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="8" t="str">
+      <c r="I95" s="10" t="str">
         <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
         <v/>
       </c>
-      <c r="L95" s="9" t="str">
+      <c r="L95" s="11" t="str">
         <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
@@ -4839,11 +5051,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="8" t="str">
+      <c r="I96" s="10" t="str">
         <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
         <v/>
       </c>
-      <c r="L96" s="9" t="str">
+      <c r="L96" s="11" t="str">
         <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
@@ -4885,11 +5097,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="8" t="str">
+      <c r="I97" s="10" t="str">
         <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
         <v/>
       </c>
-      <c r="L97" s="9" t="str">
+      <c r="L97" s="11" t="str">
         <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
@@ -4931,11 +5143,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="8" t="str">
+      <c r="I98" s="10" t="str">
         <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
         <v/>
       </c>
-      <c r="L98" s="9" t="str">
+      <c r="L98" s="11" t="str">
         <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
@@ -4977,11 +5189,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="8" t="str">
+      <c r="I99" s="10" t="str">
         <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
         <v/>
       </c>
-      <c r="L99" s="9" t="str">
+      <c r="L99" s="11" t="str">
         <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
@@ -5023,11 +5235,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="8" t="str">
+      <c r="I100" s="10" t="str">
         <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
         <v/>
       </c>
-      <c r="L100" s="9" t="str">
+      <c r="L100" s="11" t="str">
         <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
@@ -5069,11 +5281,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="8" t="str">
+      <c r="I101" s="10" t="str">
         <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
         <v/>
       </c>
-      <c r="L101" s="9" t="str">
+      <c r="L101" s="11" t="str">
         <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
@@ -5115,11 +5327,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="8" t="str">
+      <c r="I102" s="10" t="str">
         <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
         <v/>
       </c>
-      <c r="L102" s="9" t="str">
+      <c r="L102" s="11" t="str">
         <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
@@ -5161,11 +5373,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="8" t="str">
+      <c r="I103" s="10" t="str">
         <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
         <v/>
       </c>
-      <c r="L103" s="9" t="str">
+      <c r="L103" s="11" t="str">
         <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
@@ -5207,11 +5419,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="8" t="str">
+      <c r="I104" s="10" t="str">
         <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
         <v/>
       </c>
-      <c r="L104" s="9" t="str">
+      <c r="L104" s="11" t="str">
         <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
@@ -5253,11 +5465,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="8" t="str">
+      <c r="I105" s="10" t="str">
         <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
         <v/>
       </c>
-      <c r="L105" s="9" t="str">
+      <c r="L105" s="11" t="str">
         <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
@@ -5299,11 +5511,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="8" t="str">
+      <c r="I106" s="10" t="str">
         <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
         <v/>
       </c>
-      <c r="L106" s="9" t="str">
+      <c r="L106" s="11" t="str">
         <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
@@ -5345,11 +5557,11 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="8" t="str">
+      <c r="I107" s="10" t="str">
         <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
         <v/>
       </c>
-      <c r="L107" s="9" t="str">
+      <c r="L107" s="11" t="str">
         <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
@@ -5391,11 +5603,11 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="8" t="str">
+      <c r="I108" s="10" t="str">
         <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
         <v/>
       </c>
-      <c r="L108" s="9" t="str">
+      <c r="L108" s="11" t="str">
         <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
@@ -5437,11 +5649,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="8" t="str">
+      <c r="I109" s="10" t="str">
         <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
         <v/>
       </c>
-      <c r="L109" s="9" t="str">
+      <c r="L109" s="11" t="str">
         <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
@@ -5483,11 +5695,11 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="8" t="str">
+      <c r="I110" s="10" t="str">
         <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
         <v/>
       </c>
-      <c r="L110" s="9" t="str">
+      <c r="L110" s="11" t="str">
         <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
@@ -5529,11 +5741,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="8" t="str">
+      <c r="I111" s="10" t="str">
         <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
         <v/>
       </c>
-      <c r="L111" s="9" t="str">
+      <c r="L111" s="11" t="str">
         <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
@@ -5575,11 +5787,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="8" t="str">
+      <c r="I112" s="10" t="str">
         <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
         <v/>
       </c>
-      <c r="L112" s="9" t="str">
+      <c r="L112" s="11" t="str">
         <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
@@ -5621,11 +5833,11 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="8" t="str">
+      <c r="I113" s="10" t="str">
         <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
         <v/>
       </c>
-      <c r="L113" s="9" t="str">
+      <c r="L113" s="11" t="str">
         <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
@@ -5667,11 +5879,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="8" t="str">
+      <c r="I114" s="10" t="str">
         <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
         <v/>
       </c>
-      <c r="L114" s="9" t="str">
+      <c r="L114" s="11" t="str">
         <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
@@ -5713,11 +5925,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="8" t="str">
+      <c r="I115" s="10" t="str">
         <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
         <v/>
       </c>
-      <c r="L115" s="9" t="str">
+      <c r="L115" s="11" t="str">
         <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
@@ -5759,11 +5971,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="8" t="str">
+      <c r="I116" s="10" t="str">
         <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
         <v/>
       </c>
-      <c r="L116" s="9" t="str">
+      <c r="L116" s="11" t="str">
         <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
@@ -5805,11 +6017,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="8" t="str">
+      <c r="I117" s="10" t="str">
         <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
         <v/>
       </c>
-      <c r="L117" s="9" t="str">
+      <c r="L117" s="11" t="str">
         <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
@@ -5851,11 +6063,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="8" t="str">
+      <c r="I118" s="10" t="str">
         <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
         <v/>
       </c>
-      <c r="L118" s="9" t="str">
+      <c r="L118" s="11" t="str">
         <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
@@ -5897,11 +6109,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="8" t="str">
+      <c r="I119" s="10" t="str">
         <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
         <v/>
       </c>
-      <c r="L119" s="9" t="str">
+      <c r="L119" s="11" t="str">
         <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
@@ -5943,11 +6155,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="8" t="str">
+      <c r="I120" s="10" t="str">
         <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
         <v/>
       </c>
-      <c r="L120" s="9" t="str">
+      <c r="L120" s="11" t="str">
         <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
@@ -5989,11 +6201,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="8" t="str">
+      <c r="I121" s="10" t="str">
         <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
         <v/>
       </c>
-      <c r="L121" s="9" t="str">
+      <c r="L121" s="11" t="str">
         <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
@@ -6035,11 +6247,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="8" t="str">
+      <c r="I122" s="10" t="str">
         <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
         <v/>
       </c>
-      <c r="L122" s="9" t="str">
+      <c r="L122" s="11" t="str">
         <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>
@@ -6081,27 +6293,27 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" priority="2" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-      <formula>100000</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>-10000</formula>
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A122">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>$A2&lt;&gt;$R2</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>$A2&lt;&gt;$R2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I122">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>1</formula>
+      <formula>100000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="6" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>-10000</formula>
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -6131,12 +6343,12 @@
   </sheetPr>
   <dimension ref="A1:V122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="14" ySplit="1" topLeftCell="O161" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="A161" activeCellId="0" sqref="A161"/>
+      <selection pane="bottomRight" activeCell="K31" activeCellId="0" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6148,8 +6360,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="4" width="12.34"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="1.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="0" width="5.54"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="15" min="15" style="0" width="5.46"/>
@@ -6164,77 +6376,77 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="10" t="str">
         <f aca="true">IF(K2="", IF(M2="","",V2+(INDIRECT("Q" &amp; ROW() - 1) - Q2)),IF(M2="", "", INDIRECT("Q" &amp; ROW() - 1) - Q2))</f>
         <v/>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="str">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11" t="str">
         <f aca="false">IF(K2="", IF(V2=0, "", V2), IF(T2 = "", "", IF(T2/S2 = 0, "", T2/S2)))</f>
         <v/>
       </c>
@@ -6276,11 +6488,11 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="10" t="str">
         <f aca="true">IF(K3="", IF(M3="","",V3+(INDIRECT("Q" &amp; ROW() - 1) - Q3)),IF(M3="", "", INDIRECT("Q" &amp; ROW() - 1) - Q3))</f>
         <v/>
       </c>
-      <c r="L3" s="9" t="str">
+      <c r="L3" s="11" t="str">
         <f aca="false">IF(K3="", IF(V3=0, "", V3), IF(T3 = "", "", IF(T3/S3 = 0, "", T3/S3)))</f>
         <v/>
       </c>
@@ -6322,11 +6534,11 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="10" t="str">
         <f aca="true">IF(K4="", IF(M4="","",V4+(INDIRECT("Q" &amp; ROW() - 1) - Q4)),IF(M4="", "", INDIRECT("Q" &amp; ROW() - 1) - Q4))</f>
         <v/>
       </c>
-      <c r="L4" s="9" t="str">
+      <c r="L4" s="11" t="str">
         <f aca="false">IF(K4="", IF(V4=0, "", V4), IF(T4 = "", "", IF(T4/S4 = 0, "", T4/S4)))</f>
         <v/>
       </c>
@@ -6368,11 +6580,11 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="10" t="str">
         <f aca="true">IF(K5="", IF(M5="","",V5+(INDIRECT("Q" &amp; ROW() - 1) - Q5)),IF(M5="", "", INDIRECT("Q" &amp; ROW() - 1) - Q5))</f>
         <v/>
       </c>
-      <c r="L5" s="9" t="str">
+      <c r="L5" s="11" t="str">
         <f aca="false">IF(K5="", IF(V5=0, "", V5), IF(T5 = "", "", IF(T5/S5 = 0, "", T5/S5)))</f>
         <v/>
       </c>
@@ -6414,11 +6626,11 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="10" t="str">
         <f aca="true">IF(K6="", IF(M6="","",V6+(INDIRECT("Q" &amp; ROW() - 1) - Q6)),IF(M6="", "", INDIRECT("Q" &amp; ROW() - 1) - Q6))</f>
         <v/>
       </c>
-      <c r="L6" s="9" t="str">
+      <c r="L6" s="11" t="str">
         <f aca="false">IF(K6="", IF(V6=0, "", V6), IF(T6 = "", "", IF(T6/S6 = 0, "", T6/S6)))</f>
         <v/>
       </c>
@@ -6460,11 +6672,11 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="10" t="str">
         <f aca="true">IF(K7="", IF(M7="","",V7+(INDIRECT("Q" &amp; ROW() - 1) - Q7)),IF(M7="", "", INDIRECT("Q" &amp; ROW() - 1) - Q7))</f>
         <v/>
       </c>
-      <c r="L7" s="9" t="str">
+      <c r="L7" s="11" t="str">
         <f aca="false">IF(K7="", IF(V7=0, "", V7), IF(T7 = "", "", IF(T7/S7 = 0, "", T7/S7)))</f>
         <v/>
       </c>
@@ -6506,11 +6718,11 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="10" t="str">
         <f aca="true">IF(K8="", IF(M8="","",V8+(INDIRECT("Q" &amp; ROW() - 1) - Q8)),IF(M8="", "", INDIRECT("Q" &amp; ROW() - 1) - Q8))</f>
         <v/>
       </c>
-      <c r="L8" s="9" t="str">
+      <c r="L8" s="11" t="str">
         <f aca="false">IF(K8="", IF(V8=0, "", V8), IF(T8 = "", "", IF(T8/S8 = 0, "", T8/S8)))</f>
         <v/>
       </c>
@@ -6552,11 +6764,11 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="10" t="str">
         <f aca="true">IF(K9="", IF(M9="","",V9+(INDIRECT("Q" &amp; ROW() - 1) - Q9)),IF(M9="", "", INDIRECT("Q" &amp; ROW() - 1) - Q9))</f>
         <v/>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="11" t="str">
         <f aca="false">IF(K9="", IF(V9=0, "", V9), IF(T9 = "", "", IF(T9/S9 = 0, "", T9/S9)))</f>
         <v/>
       </c>
@@ -6598,11 +6810,11 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="10" t="str">
         <f aca="true">IF(K10="", IF(M10="","",V10+(INDIRECT("Q" &amp; ROW() - 1) - Q10)),IF(M10="", "", INDIRECT("Q" &amp; ROW() - 1) - Q10))</f>
         <v/>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L10" s="11" t="str">
         <f aca="false">IF(K10="", IF(V10=0, "", V10), IF(T10 = "", "", IF(T10/S10 = 0, "", T10/S10)))</f>
         <v/>
       </c>
@@ -6644,11 +6856,11 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="10" t="str">
         <f aca="true">IF(K11="", IF(M11="","",V11+(INDIRECT("Q" &amp; ROW() - 1) - Q11)),IF(M11="", "", INDIRECT("Q" &amp; ROW() - 1) - Q11))</f>
         <v/>
       </c>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="11" t="str">
         <f aca="false">IF(K11="", IF(V11=0, "", V11), IF(T11 = "", "", IF(T11/S11 = 0, "", T11/S11)))</f>
         <v/>
       </c>
@@ -6690,11 +6902,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="10" t="str">
         <f aca="true">IF(K12="", IF(M12="","",V12+(INDIRECT("Q" &amp; ROW() - 1) - Q12)),IF(M12="", "", INDIRECT("Q" &amp; ROW() - 1) - Q12))</f>
         <v/>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L12" s="11" t="str">
         <f aca="false">IF(K12="", IF(V12=0, "", V12), IF(T12 = "", "", IF(T12/S12 = 0, "", T12/S12)))</f>
         <v/>
       </c>
@@ -6736,11 +6948,11 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="10" t="str">
         <f aca="true">IF(K13="", IF(M13="","",V13+(INDIRECT("Q" &amp; ROW() - 1) - Q13)),IF(M13="", "", INDIRECT("Q" &amp; ROW() - 1) - Q13))</f>
         <v/>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="11" t="str">
         <f aca="false">IF(K13="", IF(V13=0, "", V13), IF(T13 = "", "", IF(T13/S13 = 0, "", T13/S13)))</f>
         <v/>
       </c>
@@ -6782,11 +6994,11 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="10" t="str">
         <f aca="true">IF(K14="", IF(M14="","",V14+(INDIRECT("Q" &amp; ROW() - 1) - Q14)),IF(M14="", "", INDIRECT("Q" &amp; ROW() - 1) - Q14))</f>
         <v/>
       </c>
-      <c r="L14" s="9" t="str">
+      <c r="L14" s="11" t="str">
         <f aca="false">IF(K14="", IF(V14=0, "", V14), IF(T14 = "", "", IF(T14/S14 = 0, "", T14/S14)))</f>
         <v/>
       </c>
@@ -6828,11 +7040,11 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="10" t="str">
         <f aca="true">IF(K15="", IF(M15="","",V15+(INDIRECT("Q" &amp; ROW() - 1) - Q15)),IF(M15="", "", INDIRECT("Q" &amp; ROW() - 1) - Q15))</f>
         <v/>
       </c>
-      <c r="L15" s="9" t="str">
+      <c r="L15" s="11" t="str">
         <f aca="false">IF(K15="", IF(V15=0, "", V15), IF(T15 = "", "", IF(T15/S15 = 0, "", T15/S15)))</f>
         <v/>
       </c>
@@ -6874,11 +7086,11 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="10" t="str">
         <f aca="true">IF(K16="", IF(M16="","",V16+(INDIRECT("Q" &amp; ROW() - 1) - Q16)),IF(M16="", "", INDIRECT("Q" &amp; ROW() - 1) - Q16))</f>
         <v/>
       </c>
-      <c r="L16" s="9" t="str">
+      <c r="L16" s="11" t="str">
         <f aca="false">IF(K16="", IF(V16=0, "", V16), IF(T16 = "", "", IF(T16/S16 = 0, "", T16/S16)))</f>
         <v/>
       </c>
@@ -6920,11 +7132,11 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="10" t="str">
         <f aca="true">IF(K17="", IF(M17="","",V17+(INDIRECT("Q" &amp; ROW() - 1) - Q17)),IF(M17="", "", INDIRECT("Q" &amp; ROW() - 1) - Q17))</f>
         <v/>
       </c>
-      <c r="L17" s="9" t="str">
+      <c r="L17" s="11" t="str">
         <f aca="false">IF(K17="", IF(V17=0, "", V17), IF(T17 = "", "", IF(T17/S17 = 0, "", T17/S17)))</f>
         <v/>
       </c>
@@ -6966,11 +7178,11 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="10" t="str">
         <f aca="true">IF(K18="", IF(M18="","",V18+(INDIRECT("Q" &amp; ROW() - 1) - Q18)),IF(M18="", "", INDIRECT("Q" &amp; ROW() - 1) - Q18))</f>
         <v/>
       </c>
-      <c r="L18" s="9" t="str">
+      <c r="L18" s="11" t="str">
         <f aca="false">IF(K18="", IF(V18=0, "", V18), IF(T18 = "", "", IF(T18/S18 = 0, "", T18/S18)))</f>
         <v/>
       </c>
@@ -7012,11 +7224,11 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="10" t="str">
         <f aca="true">IF(K19="", IF(M19="","",V19+(INDIRECT("Q" &amp; ROW() - 1) - Q19)),IF(M19="", "", INDIRECT("Q" &amp; ROW() - 1) - Q19))</f>
         <v/>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="11" t="str">
         <f aca="false">IF(K19="", IF(V19=0, "", V19), IF(T19 = "", "", IF(T19/S19 = 0, "", T19/S19)))</f>
         <v/>
       </c>
@@ -7058,11 +7270,11 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="10" t="str">
         <f aca="true">IF(K20="", IF(M20="","",V20+(INDIRECT("Q" &amp; ROW() - 1) - Q20)),IF(M20="", "", INDIRECT("Q" &amp; ROW() - 1) - Q20))</f>
         <v/>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="11" t="str">
         <f aca="false">IF(K20="", IF(V20=0, "", V20), IF(T20 = "", "", IF(T20/S20 = 0, "", T20/S20)))</f>
         <v/>
       </c>
@@ -7104,11 +7316,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="10" t="str">
         <f aca="true">IF(K21="", IF(M21="","",V21+(INDIRECT("Q" &amp; ROW() - 1) - Q21)),IF(M21="", "", INDIRECT("Q" &amp; ROW() - 1) - Q21))</f>
         <v/>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="11" t="str">
         <f aca="false">IF(K21="", IF(V21=0, "", V21), IF(T21 = "", "", IF(T21/S21 = 0, "", T21/S21)))</f>
         <v/>
       </c>
@@ -7150,11 +7362,11 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="10" t="str">
         <f aca="true">IF(K22="", IF(M22="","",V22+(INDIRECT("Q" &amp; ROW() - 1) - Q22)),IF(M22="", "", INDIRECT("Q" &amp; ROW() - 1) - Q22))</f>
         <v/>
       </c>
-      <c r="L22" s="9" t="str">
+      <c r="L22" s="11" t="str">
         <f aca="false">IF(K22="", IF(V22=0, "", V22), IF(T22 = "", "", IF(T22/S22 = 0, "", T22/S22)))</f>
         <v/>
       </c>
@@ -7196,11 +7408,11 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="8" t="str">
+      <c r="I23" s="10" t="str">
         <f aca="true">IF(K23="", IF(M23="","",V23+(INDIRECT("Q" &amp; ROW() - 1) - Q23)),IF(M23="", "", INDIRECT("Q" &amp; ROW() - 1) - Q23))</f>
         <v/>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="11" t="str">
         <f aca="false">IF(K23="", IF(V23=0, "", V23), IF(T23 = "", "", IF(T23/S23 = 0, "", T23/S23)))</f>
         <v/>
       </c>
@@ -7242,11 +7454,11 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I24" s="8" t="str">
+      <c r="I24" s="10" t="str">
         <f aca="true">IF(K24="", IF(M24="","",V24+(INDIRECT("Q" &amp; ROW() - 1) - Q24)),IF(M24="", "", INDIRECT("Q" &amp; ROW() - 1) - Q24))</f>
         <v/>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="11" t="str">
         <f aca="false">IF(K24="", IF(V24=0, "", V24), IF(T24 = "", "", IF(T24/S24 = 0, "", T24/S24)))</f>
         <v/>
       </c>
@@ -7288,11 +7500,11 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="8" t="str">
+      <c r="I25" s="10" t="str">
         <f aca="true">IF(K25="", IF(M25="","",V25+(INDIRECT("Q" &amp; ROW() - 1) - Q25)),IF(M25="", "", INDIRECT("Q" &amp; ROW() - 1) - Q25))</f>
         <v/>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="11" t="str">
         <f aca="false">IF(K25="", IF(V25=0, "", V25), IF(T25 = "", "", IF(T25/S25 = 0, "", T25/S25)))</f>
         <v/>
       </c>
@@ -7334,11 +7546,11 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="8" t="str">
+      <c r="I26" s="10" t="str">
         <f aca="true">IF(K26="", IF(M26="","",V26+(INDIRECT("Q" &amp; ROW() - 1) - Q26)),IF(M26="", "", INDIRECT("Q" &amp; ROW() - 1) - Q26))</f>
         <v/>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="11" t="str">
         <f aca="false">IF(K26="", IF(V26=0, "", V26), IF(T26 = "", "", IF(T26/S26 = 0, "", T26/S26)))</f>
         <v/>
       </c>
@@ -7380,11 +7592,11 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="10" t="str">
         <f aca="true">IF(K27="", IF(M27="","",V27+(INDIRECT("Q" &amp; ROW() - 1) - Q27)),IF(M27="", "", INDIRECT("Q" &amp; ROW() - 1) - Q27))</f>
         <v/>
       </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="11" t="str">
         <f aca="false">IF(K27="", IF(V27=0, "", V27), IF(T27 = "", "", IF(T27/S27 = 0, "", T27/S27)))</f>
         <v/>
       </c>
@@ -7426,11 +7638,11 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="10" t="str">
         <f aca="true">IF(K28="", IF(M28="","",V28+(INDIRECT("Q" &amp; ROW() - 1) - Q28)),IF(M28="", "", INDIRECT("Q" &amp; ROW() - 1) - Q28))</f>
         <v/>
       </c>
-      <c r="L28" s="9" t="str">
+      <c r="L28" s="11" t="str">
         <f aca="false">IF(K28="", IF(V28=0, "", V28), IF(T28 = "", "", IF(T28/S28 = 0, "", T28/S28)))</f>
         <v/>
       </c>
@@ -7472,11 +7684,11 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="10" t="str">
         <f aca="true">IF(K29="", IF(M29="","",V29+(INDIRECT("Q" &amp; ROW() - 1) - Q29)),IF(M29="", "", INDIRECT("Q" &amp; ROW() - 1) - Q29))</f>
         <v/>
       </c>
-      <c r="L29" s="9" t="str">
+      <c r="L29" s="11" t="str">
         <f aca="false">IF(K29="", IF(V29=0, "", V29), IF(T29 = "", "", IF(T29/S29 = 0, "", T29/S29)))</f>
         <v/>
       </c>
@@ -7518,11 +7730,11 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="8" t="str">
+      <c r="I30" s="10" t="str">
         <f aca="true">IF(K30="", IF(M30="","",V30+(INDIRECT("Q" &amp; ROW() - 1) - Q30)),IF(M30="", "", INDIRECT("Q" &amp; ROW() - 1) - Q30))</f>
         <v/>
       </c>
-      <c r="L30" s="9" t="str">
+      <c r="L30" s="11" t="str">
         <f aca="false">IF(K30="", IF(V30=0, "", V30), IF(T30 = "", "", IF(T30/S30 = 0, "", T30/S30)))</f>
         <v/>
       </c>
@@ -7564,11 +7776,11 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I31" s="8" t="str">
+      <c r="I31" s="10" t="str">
         <f aca="true">IF(K31="", IF(M31="","",V31+(INDIRECT("Q" &amp; ROW() - 1) - Q31)),IF(M31="", "", INDIRECT("Q" &amp; ROW() - 1) - Q31))</f>
         <v/>
       </c>
-      <c r="L31" s="9" t="str">
+      <c r="L31" s="11" t="str">
         <f aca="false">IF(K31="", IF(V31=0, "", V31), IF(T31 = "", "", IF(T31/S31 = 0, "", T31/S31)))</f>
         <v/>
       </c>
@@ -7610,11 +7822,11 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I32" s="8" t="str">
+      <c r="I32" s="10" t="str">
         <f aca="true">IF(K32="", IF(M32="","",V32+(INDIRECT("Q" &amp; ROW() - 1) - Q32)),IF(M32="", "", INDIRECT("Q" &amp; ROW() - 1) - Q32))</f>
         <v/>
       </c>
-      <c r="L32" s="9" t="str">
+      <c r="L32" s="11" t="str">
         <f aca="false">IF(K32="", IF(V32=0, "", V32), IF(T32 = "", "", IF(T32/S32 = 0, "", T32/S32)))</f>
         <v/>
       </c>
@@ -7656,11 +7868,11 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I33" s="8" t="str">
+      <c r="I33" s="10" t="str">
         <f aca="true">IF(K33="", IF(M33="","",V33+(INDIRECT("Q" &amp; ROW() - 1) - Q33)),IF(M33="", "", INDIRECT("Q" &amp; ROW() - 1) - Q33))</f>
         <v/>
       </c>
-      <c r="L33" s="9" t="str">
+      <c r="L33" s="11" t="str">
         <f aca="false">IF(K33="", IF(V33=0, "", V33), IF(T33 = "", "", IF(T33/S33 = 0, "", T33/S33)))</f>
         <v/>
       </c>
@@ -7702,11 +7914,11 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I34" s="8" t="str">
+      <c r="I34" s="10" t="str">
         <f aca="true">IF(K34="", IF(M34="","",V34+(INDIRECT("Q" &amp; ROW() - 1) - Q34)),IF(M34="", "", INDIRECT("Q" &amp; ROW() - 1) - Q34))</f>
         <v/>
       </c>
-      <c r="L34" s="9" t="str">
+      <c r="L34" s="11" t="str">
         <f aca="false">IF(K34="", IF(V34=0, "", V34), IF(T34 = "", "", IF(T34/S34 = 0, "", T34/S34)))</f>
         <v/>
       </c>
@@ -7748,11 +7960,11 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I35" s="8" t="str">
+      <c r="I35" s="10" t="str">
         <f aca="true">IF(K35="", IF(M35="","",V35+(INDIRECT("Q" &amp; ROW() - 1) - Q35)),IF(M35="", "", INDIRECT("Q" &amp; ROW() - 1) - Q35))</f>
         <v/>
       </c>
-      <c r="L35" s="9" t="str">
+      <c r="L35" s="11" t="str">
         <f aca="false">IF(K35="", IF(V35=0, "", V35), IF(T35 = "", "", IF(T35/S35 = 0, "", T35/S35)))</f>
         <v/>
       </c>
@@ -7794,11 +8006,11 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="8" t="str">
+      <c r="I36" s="10" t="str">
         <f aca="true">IF(K36="", IF(M36="","",V36+(INDIRECT("Q" &amp; ROW() - 1) - Q36)),IF(M36="", "", INDIRECT("Q" &amp; ROW() - 1) - Q36))</f>
         <v/>
       </c>
-      <c r="L36" s="9" t="str">
+      <c r="L36" s="11" t="str">
         <f aca="false">IF(K36="", IF(V36=0, "", V36), IF(T36 = "", "", IF(T36/S36 = 0, "", T36/S36)))</f>
         <v/>
       </c>
@@ -7840,11 +8052,11 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I37" s="8" t="str">
+      <c r="I37" s="10" t="str">
         <f aca="true">IF(K37="", IF(M37="","",V37+(INDIRECT("Q" &amp; ROW() - 1) - Q37)),IF(M37="", "", INDIRECT("Q" &amp; ROW() - 1) - Q37))</f>
         <v/>
       </c>
-      <c r="L37" s="9" t="str">
+      <c r="L37" s="11" t="str">
         <f aca="false">IF(K37="", IF(V37=0, "", V37), IF(T37 = "", "", IF(T37/S37 = 0, "", T37/S37)))</f>
         <v/>
       </c>
@@ -7886,11 +8098,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I38" s="8" t="str">
+      <c r="I38" s="10" t="str">
         <f aca="true">IF(K38="", IF(M38="","",V38+(INDIRECT("Q" &amp; ROW() - 1) - Q38)),IF(M38="", "", INDIRECT("Q" &amp; ROW() - 1) - Q38))</f>
         <v/>
       </c>
-      <c r="L38" s="9" t="str">
+      <c r="L38" s="11" t="str">
         <f aca="false">IF(K38="", IF(V38=0, "", V38), IF(T38 = "", "", IF(T38/S38 = 0, "", T38/S38)))</f>
         <v/>
       </c>
@@ -7932,11 +8144,11 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I39" s="8" t="str">
+      <c r="I39" s="10" t="str">
         <f aca="true">IF(K39="", IF(M39="","",V39+(INDIRECT("Q" &amp; ROW() - 1) - Q39)),IF(M39="", "", INDIRECT("Q" &amp; ROW() - 1) - Q39))</f>
         <v/>
       </c>
-      <c r="L39" s="9" t="str">
+      <c r="L39" s="11" t="str">
         <f aca="false">IF(K39="", IF(V39=0, "", V39), IF(T39 = "", "", IF(T39/S39 = 0, "", T39/S39)))</f>
         <v/>
       </c>
@@ -7978,11 +8190,11 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I40" s="8" t="str">
+      <c r="I40" s="10" t="str">
         <f aca="true">IF(K40="", IF(M40="","",V40+(INDIRECT("Q" &amp; ROW() - 1) - Q40)),IF(M40="", "", INDIRECT("Q" &amp; ROW() - 1) - Q40))</f>
         <v/>
       </c>
-      <c r="L40" s="9" t="str">
+      <c r="L40" s="11" t="str">
         <f aca="false">IF(K40="", IF(V40=0, "", V40), IF(T40 = "", "", IF(T40/S40 = 0, "", T40/S40)))</f>
         <v/>
       </c>
@@ -8024,11 +8236,11 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I41" s="8" t="str">
+      <c r="I41" s="10" t="str">
         <f aca="true">IF(K41="", IF(M41="","",V41+(INDIRECT("Q" &amp; ROW() - 1) - Q41)),IF(M41="", "", INDIRECT("Q" &amp; ROW() - 1) - Q41))</f>
         <v/>
       </c>
-      <c r="L41" s="9" t="str">
+      <c r="L41" s="11" t="str">
         <f aca="false">IF(K41="", IF(V41=0, "", V41), IF(T41 = "", "", IF(T41/S41 = 0, "", T41/S41)))</f>
         <v/>
       </c>
@@ -8070,11 +8282,11 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I42" s="8" t="str">
+      <c r="I42" s="10" t="str">
         <f aca="true">IF(K42="", IF(M42="","",V42+(INDIRECT("Q" &amp; ROW() - 1) - Q42)),IF(M42="", "", INDIRECT("Q" &amp; ROW() - 1) - Q42))</f>
         <v/>
       </c>
-      <c r="L42" s="9" t="str">
+      <c r="L42" s="11" t="str">
         <f aca="false">IF(K42="", IF(V42=0, "", V42), IF(T42 = "", "", IF(T42/S42 = 0, "", T42/S42)))</f>
         <v/>
       </c>
@@ -8116,11 +8328,11 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="8" t="str">
+      <c r="I43" s="10" t="str">
         <f aca="true">IF(K43="", IF(M43="","",V43+(INDIRECT("Q" &amp; ROW() - 1) - Q43)),IF(M43="", "", INDIRECT("Q" &amp; ROW() - 1) - Q43))</f>
         <v/>
       </c>
-      <c r="L43" s="9" t="str">
+      <c r="L43" s="11" t="str">
         <f aca="false">IF(K43="", IF(V43=0, "", V43), IF(T43 = "", "", IF(T43/S43 = 0, "", T43/S43)))</f>
         <v/>
       </c>
@@ -8162,11 +8374,11 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="8" t="str">
+      <c r="I44" s="10" t="str">
         <f aca="true">IF(K44="", IF(M44="","",V44+(INDIRECT("Q" &amp; ROW() - 1) - Q44)),IF(M44="", "", INDIRECT("Q" &amp; ROW() - 1) - Q44))</f>
         <v/>
       </c>
-      <c r="L44" s="9" t="str">
+      <c r="L44" s="11" t="str">
         <f aca="false">IF(K44="", IF(V44=0, "", V44), IF(T44 = "", "", IF(T44/S44 = 0, "", T44/S44)))</f>
         <v/>
       </c>
@@ -8208,11 +8420,11 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="8" t="str">
+      <c r="I45" s="10" t="str">
         <f aca="true">IF(K45="", IF(M45="","",V45+(INDIRECT("Q" &amp; ROW() - 1) - Q45)),IF(M45="", "", INDIRECT("Q" &amp; ROW() - 1) - Q45))</f>
         <v/>
       </c>
-      <c r="L45" s="9" t="str">
+      <c r="L45" s="11" t="str">
         <f aca="false">IF(K45="", IF(V45=0, "", V45), IF(T45 = "", "", IF(T45/S45 = 0, "", T45/S45)))</f>
         <v/>
       </c>
@@ -8254,11 +8466,11 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="8" t="str">
+      <c r="I46" s="10" t="str">
         <f aca="true">IF(K46="", IF(M46="","",V46+(INDIRECT("Q" &amp; ROW() - 1) - Q46)),IF(M46="", "", INDIRECT("Q" &amp; ROW() - 1) - Q46))</f>
         <v/>
       </c>
-      <c r="L46" s="9" t="str">
+      <c r="L46" s="11" t="str">
         <f aca="false">IF(K46="", IF(V46=0, "", V46), IF(T46 = "", "", IF(T46/S46 = 0, "", T46/S46)))</f>
         <v/>
       </c>
@@ -8300,11 +8512,11 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="8" t="str">
+      <c r="I47" s="10" t="str">
         <f aca="true">IF(K47="", IF(M47="","",V47+(INDIRECT("Q" &amp; ROW() - 1) - Q47)),IF(M47="", "", INDIRECT("Q" &amp; ROW() - 1) - Q47))</f>
         <v/>
       </c>
-      <c r="L47" s="9" t="str">
+      <c r="L47" s="11" t="str">
         <f aca="false">IF(K47="", IF(V47=0, "", V47), IF(T47 = "", "", IF(T47/S47 = 0, "", T47/S47)))</f>
         <v/>
       </c>
@@ -8346,11 +8558,11 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="8" t="str">
+      <c r="I48" s="10" t="str">
         <f aca="true">IF(K48="", IF(M48="","",V48+(INDIRECT("Q" &amp; ROW() - 1) - Q48)),IF(M48="", "", INDIRECT("Q" &amp; ROW() - 1) - Q48))</f>
         <v/>
       </c>
-      <c r="L48" s="9" t="str">
+      <c r="L48" s="11" t="str">
         <f aca="false">IF(K48="", IF(V48=0, "", V48), IF(T48 = "", "", IF(T48/S48 = 0, "", T48/S48)))</f>
         <v/>
       </c>
@@ -8392,11 +8604,11 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I49" s="8" t="str">
+      <c r="I49" s="10" t="str">
         <f aca="true">IF(K49="", IF(M49="","",V49+(INDIRECT("Q" &amp; ROW() - 1) - Q49)),IF(M49="", "", INDIRECT("Q" &amp; ROW() - 1) - Q49))</f>
         <v/>
       </c>
-      <c r="L49" s="9" t="str">
+      <c r="L49" s="11" t="str">
         <f aca="false">IF(K49="", IF(V49=0, "", V49), IF(T49 = "", "", IF(T49/S49 = 0, "", T49/S49)))</f>
         <v/>
       </c>
@@ -8438,11 +8650,11 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I50" s="8" t="str">
+      <c r="I50" s="10" t="str">
         <f aca="true">IF(K50="", IF(M50="","",V50+(INDIRECT("Q" &amp; ROW() - 1) - Q50)),IF(M50="", "", INDIRECT("Q" &amp; ROW() - 1) - Q50))</f>
         <v/>
       </c>
-      <c r="L50" s="9" t="str">
+      <c r="L50" s="11" t="str">
         <f aca="false">IF(K50="", IF(V50=0, "", V50), IF(T50 = "", "", IF(T50/S50 = 0, "", T50/S50)))</f>
         <v/>
       </c>
@@ -8484,11 +8696,11 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I51" s="8" t="str">
+      <c r="I51" s="10" t="str">
         <f aca="true">IF(K51="", IF(M51="","",V51+(INDIRECT("Q" &amp; ROW() - 1) - Q51)),IF(M51="", "", INDIRECT("Q" &amp; ROW() - 1) - Q51))</f>
         <v/>
       </c>
-      <c r="L51" s="9" t="str">
+      <c r="L51" s="11" t="str">
         <f aca="false">IF(K51="", IF(V51=0, "", V51), IF(T51 = "", "", IF(T51/S51 = 0, "", T51/S51)))</f>
         <v/>
       </c>
@@ -8530,11 +8742,11 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I52" s="8" t="str">
+      <c r="I52" s="10" t="str">
         <f aca="true">IF(K52="", IF(M52="","",V52+(INDIRECT("Q" &amp; ROW() - 1) - Q52)),IF(M52="", "", INDIRECT("Q" &amp; ROW() - 1) - Q52))</f>
         <v/>
       </c>
-      <c r="L52" s="9" t="str">
+      <c r="L52" s="11" t="str">
         <f aca="false">IF(K52="", IF(V52=0, "", V52), IF(T52 = "", "", IF(T52/S52 = 0, "", T52/S52)))</f>
         <v/>
       </c>
@@ -8576,11 +8788,11 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I53" s="8" t="str">
+      <c r="I53" s="10" t="str">
         <f aca="true">IF(K53="", IF(M53="","",V53+(INDIRECT("Q" &amp; ROW() - 1) - Q53)),IF(M53="", "", INDIRECT("Q" &amp; ROW() - 1) - Q53))</f>
         <v/>
       </c>
-      <c r="L53" s="9" t="str">
+      <c r="L53" s="11" t="str">
         <f aca="false">IF(K53="", IF(V53=0, "", V53), IF(T53 = "", "", IF(T53/S53 = 0, "", T53/S53)))</f>
         <v/>
       </c>
@@ -8622,11 +8834,11 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I54" s="8" t="str">
+      <c r="I54" s="10" t="str">
         <f aca="true">IF(K54="", IF(M54="","",V54+(INDIRECT("Q" &amp; ROW() - 1) - Q54)),IF(M54="", "", INDIRECT("Q" &amp; ROW() - 1) - Q54))</f>
         <v/>
       </c>
-      <c r="L54" s="9" t="str">
+      <c r="L54" s="11" t="str">
         <f aca="false">IF(K54="", IF(V54=0, "", V54), IF(T54 = "", "", IF(T54/S54 = 0, "", T54/S54)))</f>
         <v/>
       </c>
@@ -8668,11 +8880,11 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I55" s="8" t="str">
+      <c r="I55" s="10" t="str">
         <f aca="true">IF(K55="", IF(M55="","",V55+(INDIRECT("Q" &amp; ROW() - 1) - Q55)),IF(M55="", "", INDIRECT("Q" &amp; ROW() - 1) - Q55))</f>
         <v/>
       </c>
-      <c r="L55" s="9" t="str">
+      <c r="L55" s="11" t="str">
         <f aca="false">IF(K55="", IF(V55=0, "", V55), IF(T55 = "", "", IF(T55/S55 = 0, "", T55/S55)))</f>
         <v/>
       </c>
@@ -8714,11 +8926,11 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I56" s="8" t="str">
+      <c r="I56" s="10" t="str">
         <f aca="true">IF(K56="", IF(M56="","",V56+(INDIRECT("Q" &amp; ROW() - 1) - Q56)),IF(M56="", "", INDIRECT("Q" &amp; ROW() - 1) - Q56))</f>
         <v/>
       </c>
-      <c r="L56" s="9" t="str">
+      <c r="L56" s="11" t="str">
         <f aca="false">IF(K56="", IF(V56=0, "", V56), IF(T56 = "", "", IF(T56/S56 = 0, "", T56/S56)))</f>
         <v/>
       </c>
@@ -8760,11 +8972,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I57" s="8" t="str">
+      <c r="I57" s="10" t="str">
         <f aca="true">IF(K57="", IF(M57="","",V57+(INDIRECT("Q" &amp; ROW() - 1) - Q57)),IF(M57="", "", INDIRECT("Q" &amp; ROW() - 1) - Q57))</f>
         <v/>
       </c>
-      <c r="L57" s="9" t="str">
+      <c r="L57" s="11" t="str">
         <f aca="false">IF(K57="", IF(V57=0, "", V57), IF(T57 = "", "", IF(T57/S57 = 0, "", T57/S57)))</f>
         <v/>
       </c>
@@ -8806,11 +9018,11 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I58" s="8" t="str">
+      <c r="I58" s="10" t="str">
         <f aca="true">IF(K58="", IF(M58="","",V58+(INDIRECT("Q" &amp; ROW() - 1) - Q58)),IF(M58="", "", INDIRECT("Q" &amp; ROW() - 1) - Q58))</f>
         <v/>
       </c>
-      <c r="L58" s="9" t="str">
+      <c r="L58" s="11" t="str">
         <f aca="false">IF(K58="", IF(V58=0, "", V58), IF(T58 = "", "", IF(T58/S58 = 0, "", T58/S58)))</f>
         <v/>
       </c>
@@ -8852,12 +9064,12 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I59" s="8" t="str">
+      <c r="I59" s="10" t="str">
         <f aca="true">IF(K59="", IF(M59="","",V59+(INDIRECT("Q" &amp; ROW() - 1) - Q59)),IF(M59="", "", INDIRECT("Q" &amp; ROW() - 1) - Q59))</f>
         <v/>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9" t="str">
+      <c r="K59" s="11"/>
+      <c r="L59" s="11" t="str">
         <f aca="false">IF(K59="", IF(V59=0, "", V59), IF(T59 = "", "", IF(T59/S59 = 0, "", T59/S59)))</f>
         <v/>
       </c>
@@ -8899,11 +9111,11 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I60" s="8" t="str">
+      <c r="I60" s="10" t="str">
         <f aca="true">IF(K60="", IF(M60="","",V60+(INDIRECT("Q" &amp; ROW() - 1) - Q60)),IF(M60="", "", INDIRECT("Q" &amp; ROW() - 1) - Q60))</f>
         <v/>
       </c>
-      <c r="L60" s="9" t="str">
+      <c r="L60" s="11" t="str">
         <f aca="false">IF(K60="", IF(V60=0, "", V60), IF(T60 = "", "", IF(T60/S60 = 0, "", T60/S60)))</f>
         <v/>
       </c>
@@ -8945,11 +9157,11 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I61" s="8" t="str">
+      <c r="I61" s="10" t="str">
         <f aca="true">IF(K61="", IF(M61="","",V61+(INDIRECT("Q" &amp; ROW() - 1) - Q61)),IF(M61="", "", INDIRECT("Q" &amp; ROW() - 1) - Q61))</f>
         <v/>
       </c>
-      <c r="L61" s="9" t="str">
+      <c r="L61" s="11" t="str">
         <f aca="false">IF(K61="", IF(V61=0, "", V61), IF(T61 = "", "", IF(T61/S61 = 0, "", T61/S61)))</f>
         <v/>
       </c>
@@ -8991,11 +9203,11 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I62" s="8" t="str">
+      <c r="I62" s="10" t="str">
         <f aca="true">IF(K62="", IF(M62="","",V62+(INDIRECT("Q" &amp; ROW() - 1) - Q62)),IF(M62="", "", INDIRECT("Q" &amp; ROW() - 1) - Q62))</f>
         <v/>
       </c>
-      <c r="L62" s="9" t="str">
+      <c r="L62" s="11" t="str">
         <f aca="false">IF(K62="", IF(V62=0, "", V62), IF(T62 = "", "", IF(T62/S62 = 0, "", T62/S62)))</f>
         <v/>
       </c>
@@ -9037,11 +9249,11 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I63" s="8" t="str">
+      <c r="I63" s="10" t="str">
         <f aca="true">IF(K63="", IF(M63="","",V63+(INDIRECT("Q" &amp; ROW() - 1) - Q63)),IF(M63="", "", INDIRECT("Q" &amp; ROW() - 1) - Q63))</f>
         <v/>
       </c>
-      <c r="L63" s="9" t="str">
+      <c r="L63" s="11" t="str">
         <f aca="false">IF(K63="", IF(V63=0, "", V63), IF(T63 = "", "", IF(T63/S63 = 0, "", T63/S63)))</f>
         <v/>
       </c>
@@ -9083,11 +9295,11 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I64" s="8" t="str">
+      <c r="I64" s="10" t="str">
         <f aca="true">IF(K64="", IF(M64="","",V64+(INDIRECT("Q" &amp; ROW() - 1) - Q64)),IF(M64="", "", INDIRECT("Q" &amp; ROW() - 1) - Q64))</f>
         <v/>
       </c>
-      <c r="L64" s="9" t="str">
+      <c r="L64" s="11" t="str">
         <f aca="false">IF(K64="", IF(V64=0, "", V64), IF(T64 = "", "", IF(T64/S64 = 0, "", T64/S64)))</f>
         <v/>
       </c>
@@ -9129,11 +9341,11 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I65" s="8" t="str">
+      <c r="I65" s="10" t="str">
         <f aca="true">IF(K65="", IF(M65="","",V65+(INDIRECT("Q" &amp; ROW() - 1) - Q65)),IF(M65="", "", INDIRECT("Q" &amp; ROW() - 1) - Q65))</f>
         <v/>
       </c>
-      <c r="L65" s="9" t="str">
+      <c r="L65" s="11" t="str">
         <f aca="false">IF(K65="", IF(V65=0, "", V65), IF(T65 = "", "", IF(T65/S65 = 0, "", T65/S65)))</f>
         <v/>
       </c>
@@ -9175,11 +9387,11 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I66" s="8" t="str">
+      <c r="I66" s="10" t="str">
         <f aca="true">IF(K66="", IF(M66="","",V66+(INDIRECT("Q" &amp; ROW() - 1) - Q66)),IF(M66="", "", INDIRECT("Q" &amp; ROW() - 1) - Q66))</f>
         <v/>
       </c>
-      <c r="L66" s="9" t="str">
+      <c r="L66" s="11" t="str">
         <f aca="false">IF(K66="", IF(V66=0, "", V66), IF(T66 = "", "", IF(T66/S66 = 0, "", T66/S66)))</f>
         <v/>
       </c>
@@ -9221,11 +9433,11 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I67" s="8" t="str">
+      <c r="I67" s="10" t="str">
         <f aca="true">IF(K67="", IF(M67="","",V67+(INDIRECT("Q" &amp; ROW() - 1) - Q67)),IF(M67="", "", INDIRECT("Q" &amp; ROW() - 1) - Q67))</f>
         <v/>
       </c>
-      <c r="L67" s="9" t="str">
+      <c r="L67" s="11" t="str">
         <f aca="false">IF(K67="", IF(V67=0, "", V67), IF(T67 = "", "", IF(T67/S67 = 0, "", T67/S67)))</f>
         <v/>
       </c>
@@ -9267,11 +9479,11 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I68" s="8" t="str">
+      <c r="I68" s="10" t="str">
         <f aca="true">IF(K68="", IF(M68="","",V68+(INDIRECT("Q" &amp; ROW() - 1) - Q68)),IF(M68="", "", INDIRECT("Q" &amp; ROW() - 1) - Q68))</f>
         <v/>
       </c>
-      <c r="L68" s="9" t="str">
+      <c r="L68" s="11" t="str">
         <f aca="false">IF(K68="", IF(V68=0, "", V68), IF(T68 = "", "", IF(T68/S68 = 0, "", T68/S68)))</f>
         <v/>
       </c>
@@ -9313,11 +9525,11 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I69" s="8" t="str">
+      <c r="I69" s="10" t="str">
         <f aca="true">IF(K69="", IF(M69="","",V69+(INDIRECT("Q" &amp; ROW() - 1) - Q69)),IF(M69="", "", INDIRECT("Q" &amp; ROW() - 1) - Q69))</f>
         <v/>
       </c>
-      <c r="L69" s="9" t="str">
+      <c r="L69" s="11" t="str">
         <f aca="false">IF(K69="", IF(V69=0, "", V69), IF(T69 = "", "", IF(T69/S69 = 0, "", T69/S69)))</f>
         <v/>
       </c>
@@ -9359,11 +9571,11 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I70" s="8" t="str">
+      <c r="I70" s="10" t="str">
         <f aca="true">IF(K70="", IF(M70="","",V70+(INDIRECT("Q" &amp; ROW() - 1) - Q70)),IF(M70="", "", INDIRECT("Q" &amp; ROW() - 1) - Q70))</f>
         <v/>
       </c>
-      <c r="L70" s="9" t="str">
+      <c r="L70" s="11" t="str">
         <f aca="false">IF(K70="", IF(V70=0, "", V70), IF(T70 = "", "", IF(T70/S70 = 0, "", T70/S70)))</f>
         <v/>
       </c>
@@ -9405,11 +9617,11 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I71" s="8" t="str">
+      <c r="I71" s="10" t="str">
         <f aca="true">IF(K71="", IF(M71="","",V71+(INDIRECT("Q" &amp; ROW() - 1) - Q71)),IF(M71="", "", INDIRECT("Q" &amp; ROW() - 1) - Q71))</f>
         <v/>
       </c>
-      <c r="L71" s="9" t="str">
+      <c r="L71" s="11" t="str">
         <f aca="false">IF(K71="", IF(V71=0, "", V71), IF(T71 = "", "", IF(T71/S71 = 0, "", T71/S71)))</f>
         <v/>
       </c>
@@ -9451,11 +9663,11 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I72" s="8" t="str">
+      <c r="I72" s="10" t="str">
         <f aca="true">IF(K72="", IF(M72="","",V72+(INDIRECT("Q" &amp; ROW() - 1) - Q72)),IF(M72="", "", INDIRECT("Q" &amp; ROW() - 1) - Q72))</f>
         <v/>
       </c>
-      <c r="L72" s="9" t="str">
+      <c r="L72" s="11" t="str">
         <f aca="false">IF(K72="", IF(V72=0, "", V72), IF(T72 = "", "", IF(T72/S72 = 0, "", T72/S72)))</f>
         <v/>
       </c>
@@ -9497,11 +9709,11 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I73" s="8" t="str">
+      <c r="I73" s="10" t="str">
         <f aca="true">IF(K73="", IF(M73="","",V73+(INDIRECT("Q" &amp; ROW() - 1) - Q73)),IF(M73="", "", INDIRECT("Q" &amp; ROW() - 1) - Q73))</f>
         <v/>
       </c>
-      <c r="L73" s="9" t="str">
+      <c r="L73" s="11" t="str">
         <f aca="false">IF(K73="", IF(V73=0, "", V73), IF(T73 = "", "", IF(T73/S73 = 0, "", T73/S73)))</f>
         <v/>
       </c>
@@ -9543,11 +9755,11 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="8" t="str">
+      <c r="I74" s="10" t="str">
         <f aca="true">IF(K74="", IF(M74="","",V74+(INDIRECT("Q" &amp; ROW() - 1) - Q74)),IF(M74="", "", INDIRECT("Q" &amp; ROW() - 1) - Q74))</f>
         <v/>
       </c>
-      <c r="L74" s="9" t="str">
+      <c r="L74" s="11" t="str">
         <f aca="false">IF(K74="", IF(V74=0, "", V74), IF(T74 = "", "", IF(T74/S74 = 0, "", T74/S74)))</f>
         <v/>
       </c>
@@ -9589,11 +9801,11 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="8" t="str">
+      <c r="I75" s="10" t="str">
         <f aca="true">IF(K75="", IF(M75="","",V75+(INDIRECT("Q" &amp; ROW() - 1) - Q75)),IF(M75="", "", INDIRECT("Q" &amp; ROW() - 1) - Q75))</f>
         <v/>
       </c>
-      <c r="L75" s="9" t="str">
+      <c r="L75" s="11" t="str">
         <f aca="false">IF(K75="", IF(V75=0, "", V75), IF(T75 = "", "", IF(T75/S75 = 0, "", T75/S75)))</f>
         <v/>
       </c>
@@ -9635,11 +9847,11 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="8" t="str">
+      <c r="I76" s="10" t="str">
         <f aca="true">IF(K76="", IF(M76="","",V76+(INDIRECT("Q" &amp; ROW() - 1) - Q76)),IF(M76="", "", INDIRECT("Q" &amp; ROW() - 1) - Q76))</f>
         <v/>
       </c>
-      <c r="L76" s="9" t="str">
+      <c r="L76" s="11" t="str">
         <f aca="false">IF(K76="", IF(V76=0, "", V76), IF(T76 = "", "", IF(T76/S76 = 0, "", T76/S76)))</f>
         <v/>
       </c>
@@ -9681,11 +9893,11 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="8" t="str">
+      <c r="I77" s="10" t="str">
         <f aca="true">IF(K77="", IF(M77="","",V77+(INDIRECT("Q" &amp; ROW() - 1) - Q77)),IF(M77="", "", INDIRECT("Q" &amp; ROW() - 1) - Q77))</f>
         <v/>
       </c>
-      <c r="L77" s="9" t="str">
+      <c r="L77" s="11" t="str">
         <f aca="false">IF(K77="", IF(V77=0, "", V77), IF(T77 = "", "", IF(T77/S77 = 0, "", T77/S77)))</f>
         <v/>
       </c>
@@ -9727,11 +9939,11 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="8" t="str">
+      <c r="I78" s="10" t="str">
         <f aca="true">IF(K78="", IF(M78="","",V78+(INDIRECT("Q" &amp; ROW() - 1) - Q78)),IF(M78="", "", INDIRECT("Q" &amp; ROW() - 1) - Q78))</f>
         <v/>
       </c>
-      <c r="L78" s="9" t="str">
+      <c r="L78" s="11" t="str">
         <f aca="false">IF(K78="", IF(V78=0, "", V78), IF(T78 = "", "", IF(T78/S78 = 0, "", T78/S78)))</f>
         <v/>
       </c>
@@ -9773,11 +9985,11 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="8" t="str">
+      <c r="I79" s="10" t="str">
         <f aca="true">IF(K79="", IF(M79="","",V79+(INDIRECT("Q" &amp; ROW() - 1) - Q79)),IF(M79="", "", INDIRECT("Q" &amp; ROW() - 1) - Q79))</f>
         <v/>
       </c>
-      <c r="L79" s="9" t="str">
+      <c r="L79" s="11" t="str">
         <f aca="false">IF(K79="", IF(V79=0, "", V79), IF(T79 = "", "", IF(T79/S79 = 0, "", T79/S79)))</f>
         <v/>
       </c>
@@ -9819,11 +10031,11 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="8" t="str">
+      <c r="I80" s="10" t="str">
         <f aca="true">IF(K80="", IF(M80="","",V80+(INDIRECT("Q" &amp; ROW() - 1) - Q80)),IF(M80="", "", INDIRECT("Q" &amp; ROW() - 1) - Q80))</f>
         <v/>
       </c>
-      <c r="L80" s="9" t="str">
+      <c r="L80" s="11" t="str">
         <f aca="false">IF(K80="", IF(V80=0, "", V80), IF(T80 = "", "", IF(T80/S80 = 0, "", T80/S80)))</f>
         <v/>
       </c>
@@ -9865,11 +10077,11 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="8" t="str">
+      <c r="I81" s="10" t="str">
         <f aca="true">IF(K81="", IF(M81="","",V81+(INDIRECT("Q" &amp; ROW() - 1) - Q81)),IF(M81="", "", INDIRECT("Q" &amp; ROW() - 1) - Q81))</f>
         <v/>
       </c>
-      <c r="L81" s="9" t="str">
+      <c r="L81" s="11" t="str">
         <f aca="false">IF(K81="", IF(V81=0, "", V81), IF(T81 = "", "", IF(T81/S81 = 0, "", T81/S81)))</f>
         <v/>
       </c>
@@ -9911,11 +10123,11 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="8" t="str">
+      <c r="I82" s="10" t="str">
         <f aca="true">IF(K82="", IF(M82="","",V82+(INDIRECT("Q" &amp; ROW() - 1) - Q82)),IF(M82="", "", INDIRECT("Q" &amp; ROW() - 1) - Q82))</f>
         <v/>
       </c>
-      <c r="L82" s="9" t="str">
+      <c r="L82" s="11" t="str">
         <f aca="false">IF(K82="", IF(V82=0, "", V82), IF(T82 = "", "", IF(T82/S82 = 0, "", T82/S82)))</f>
         <v/>
       </c>
@@ -9957,11 +10169,11 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="8" t="str">
+      <c r="I83" s="10" t="str">
         <f aca="true">IF(K83="", IF(M83="","",V83+(INDIRECT("Q" &amp; ROW() - 1) - Q83)),IF(M83="", "", INDIRECT("Q" &amp; ROW() - 1) - Q83))</f>
         <v/>
       </c>
-      <c r="L83" s="9" t="str">
+      <c r="L83" s="11" t="str">
         <f aca="false">IF(K83="", IF(V83=0, "", V83), IF(T83 = "", "", IF(T83/S83 = 0, "", T83/S83)))</f>
         <v/>
       </c>
@@ -10003,11 +10215,11 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="8" t="str">
+      <c r="I84" s="10" t="str">
         <f aca="true">IF(K84="", IF(M84="","",V84+(INDIRECT("Q" &amp; ROW() - 1) - Q84)),IF(M84="", "", INDIRECT("Q" &amp; ROW() - 1) - Q84))</f>
         <v/>
       </c>
-      <c r="L84" s="9" t="str">
+      <c r="L84" s="11" t="str">
         <f aca="false">IF(K84="", IF(V84=0, "", V84), IF(T84 = "", "", IF(T84/S84 = 0, "", T84/S84)))</f>
         <v/>
       </c>
@@ -10049,11 +10261,11 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="8" t="str">
+      <c r="I85" s="10" t="str">
         <f aca="true">IF(K85="", IF(M85="","",V85+(INDIRECT("Q" &amp; ROW() - 1) - Q85)),IF(M85="", "", INDIRECT("Q" &amp; ROW() - 1) - Q85))</f>
         <v/>
       </c>
-      <c r="L85" s="9" t="str">
+      <c r="L85" s="11" t="str">
         <f aca="false">IF(K85="", IF(V85=0, "", V85), IF(T85 = "", "", IF(T85/S85 = 0, "", T85/S85)))</f>
         <v/>
       </c>
@@ -10095,11 +10307,11 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="8" t="str">
+      <c r="I86" s="10" t="str">
         <f aca="true">IF(K86="", IF(M86="","",V86+(INDIRECT("Q" &amp; ROW() - 1) - Q86)),IF(M86="", "", INDIRECT("Q" &amp; ROW() - 1) - Q86))</f>
         <v/>
       </c>
-      <c r="L86" s="9" t="str">
+      <c r="L86" s="11" t="str">
         <f aca="false">IF(K86="", IF(V86=0, "", V86), IF(T86 = "", "", IF(T86/S86 = 0, "", T86/S86)))</f>
         <v/>
       </c>
@@ -10141,11 +10353,11 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="8" t="str">
+      <c r="I87" s="10" t="str">
         <f aca="true">IF(K87="", IF(M87="","",V87+(INDIRECT("Q" &amp; ROW() - 1) - Q87)),IF(M87="", "", INDIRECT("Q" &amp; ROW() - 1) - Q87))</f>
         <v/>
       </c>
-      <c r="L87" s="9" t="str">
+      <c r="L87" s="11" t="str">
         <f aca="false">IF(K87="", IF(V87=0, "", V87), IF(T87 = "", "", IF(T87/S87 = 0, "", T87/S87)))</f>
         <v/>
       </c>
@@ -10187,11 +10399,11 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="8" t="str">
+      <c r="I88" s="10" t="str">
         <f aca="true">IF(K88="", IF(M88="","",V88+(INDIRECT("Q" &amp; ROW() - 1) - Q88)),IF(M88="", "", INDIRECT("Q" &amp; ROW() - 1) - Q88))</f>
         <v/>
       </c>
-      <c r="L88" s="9" t="str">
+      <c r="L88" s="11" t="str">
         <f aca="false">IF(K88="", IF(V88=0, "", V88), IF(T88 = "", "", IF(T88/S88 = 0, "", T88/S88)))</f>
         <v/>
       </c>
@@ -10233,11 +10445,11 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="8" t="str">
+      <c r="I89" s="10" t="str">
         <f aca="true">IF(K89="", IF(M89="","",V89+(INDIRECT("Q" &amp; ROW() - 1) - Q89)),IF(M89="", "", INDIRECT("Q" &amp; ROW() - 1) - Q89))</f>
         <v/>
       </c>
-      <c r="L89" s="9" t="str">
+      <c r="L89" s="11" t="str">
         <f aca="false">IF(K89="", IF(V89=0, "", V89), IF(T89 = "", "", IF(T89/S89 = 0, "", T89/S89)))</f>
         <v/>
       </c>
@@ -10279,11 +10491,11 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="8" t="str">
+      <c r="I90" s="10" t="str">
         <f aca="true">IF(K90="", IF(M90="","",V90+(INDIRECT("Q" &amp; ROW() - 1) - Q90)),IF(M90="", "", INDIRECT("Q" &amp; ROW() - 1) - Q90))</f>
         <v/>
       </c>
-      <c r="L90" s="9" t="str">
+      <c r="L90" s="11" t="str">
         <f aca="false">IF(K90="", IF(V90=0, "", V90), IF(T90 = "", "", IF(T90/S90 = 0, "", T90/S90)))</f>
         <v/>
       </c>
@@ -10325,11 +10537,11 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="8" t="str">
+      <c r="I91" s="10" t="str">
         <f aca="true">IF(K91="", IF(M91="","",V91+(INDIRECT("Q" &amp; ROW() - 1) - Q91)),IF(M91="", "", INDIRECT("Q" &amp; ROW() - 1) - Q91))</f>
         <v/>
       </c>
-      <c r="L91" s="9" t="str">
+      <c r="L91" s="11" t="str">
         <f aca="false">IF(K91="", IF(V91=0, "", V91), IF(T91 = "", "", IF(T91/S91 = 0, "", T91/S91)))</f>
         <v/>
       </c>
@@ -10371,11 +10583,11 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="8" t="str">
+      <c r="I92" s="10" t="str">
         <f aca="true">IF(K92="", IF(M92="","",V92+(INDIRECT("Q" &amp; ROW() - 1) - Q92)),IF(M92="", "", INDIRECT("Q" &amp; ROW() - 1) - Q92))</f>
         <v/>
       </c>
-      <c r="L92" s="9" t="str">
+      <c r="L92" s="11" t="str">
         <f aca="false">IF(K92="", IF(V92=0, "", V92), IF(T92 = "", "", IF(T92/S92 = 0, "", T92/S92)))</f>
         <v/>
       </c>
@@ -10417,11 +10629,11 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="8" t="str">
+      <c r="I93" s="10" t="str">
         <f aca="true">IF(K93="", IF(M93="","",V93+(INDIRECT("Q" &amp; ROW() - 1) - Q93)),IF(M93="", "", INDIRECT("Q" &amp; ROW() - 1) - Q93))</f>
         <v/>
       </c>
-      <c r="L93" s="9" t="str">
+      <c r="L93" s="11" t="str">
         <f aca="false">IF(K93="", IF(V93=0, "", V93), IF(T93 = "", "", IF(T93/S93 = 0, "", T93/S93)))</f>
         <v/>
       </c>
@@ -10463,11 +10675,11 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="8" t="str">
+      <c r="I94" s="10" t="str">
         <f aca="true">IF(K94="", IF(M94="","",V94+(INDIRECT("Q" &amp; ROW() - 1) - Q94)),IF(M94="", "", INDIRECT("Q" &amp; ROW() - 1) - Q94))</f>
         <v/>
       </c>
-      <c r="L94" s="9" t="str">
+      <c r="L94" s="11" t="str">
         <f aca="false">IF(K94="", IF(V94=0, "", V94), IF(T94 = "", "", IF(T94/S94 = 0, "", T94/S94)))</f>
         <v/>
       </c>
@@ -10509,11 +10721,11 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="8" t="str">
+      <c r="I95" s="10" t="str">
         <f aca="true">IF(K95="", IF(M95="","",V95+(INDIRECT("Q" &amp; ROW() - 1) - Q95)),IF(M95="", "", INDIRECT("Q" &amp; ROW() - 1) - Q95))</f>
         <v/>
       </c>
-      <c r="L95" s="9" t="str">
+      <c r="L95" s="11" t="str">
         <f aca="false">IF(K95="", IF(V95=0, "", V95), IF(T95 = "", "", IF(T95/S95 = 0, "", T95/S95)))</f>
         <v/>
       </c>
@@ -10555,11 +10767,11 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="8" t="str">
+      <c r="I96" s="10" t="str">
         <f aca="true">IF(K96="", IF(M96="","",V96+(INDIRECT("Q" &amp; ROW() - 1) - Q96)),IF(M96="", "", INDIRECT("Q" &amp; ROW() - 1) - Q96))</f>
         <v/>
       </c>
-      <c r="L96" s="9" t="str">
+      <c r="L96" s="11" t="str">
         <f aca="false">IF(K96="", IF(V96=0, "", V96), IF(T96 = "", "", IF(T96/S96 = 0, "", T96/S96)))</f>
         <v/>
       </c>
@@ -10601,11 +10813,11 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="8" t="str">
+      <c r="I97" s="10" t="str">
         <f aca="true">IF(K97="", IF(M97="","",V97+(INDIRECT("Q" &amp; ROW() - 1) - Q97)),IF(M97="", "", INDIRECT("Q" &amp; ROW() - 1) - Q97))</f>
         <v/>
       </c>
-      <c r="L97" s="9" t="str">
+      <c r="L97" s="11" t="str">
         <f aca="false">IF(K97="", IF(V97=0, "", V97), IF(T97 = "", "", IF(T97/S97 = 0, "", T97/S97)))</f>
         <v/>
       </c>
@@ -10647,11 +10859,11 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="8" t="str">
+      <c r="I98" s="10" t="str">
         <f aca="true">IF(K98="", IF(M98="","",V98+(INDIRECT("Q" &amp; ROW() - 1) - Q98)),IF(M98="", "", INDIRECT("Q" &amp; ROW() - 1) - Q98))</f>
         <v/>
       </c>
-      <c r="L98" s="9" t="str">
+      <c r="L98" s="11" t="str">
         <f aca="false">IF(K98="", IF(V98=0, "", V98), IF(T98 = "", "", IF(T98/S98 = 0, "", T98/S98)))</f>
         <v/>
       </c>
@@ -10693,11 +10905,11 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="8" t="str">
+      <c r="I99" s="10" t="str">
         <f aca="true">IF(K99="", IF(M99="","",V99+(INDIRECT("Q" &amp; ROW() - 1) - Q99)),IF(M99="", "", INDIRECT("Q" &amp; ROW() - 1) - Q99))</f>
         <v/>
       </c>
-      <c r="L99" s="9" t="str">
+      <c r="L99" s="11" t="str">
         <f aca="false">IF(K99="", IF(V99=0, "", V99), IF(T99 = "", "", IF(T99/S99 = 0, "", T99/S99)))</f>
         <v/>
       </c>
@@ -10739,11 +10951,11 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I100" s="8" t="str">
+      <c r="I100" s="10" t="str">
         <f aca="true">IF(K100="", IF(M100="","",V100+(INDIRECT("Q" &amp; ROW() - 1) - Q100)),IF(M100="", "", INDIRECT("Q" &amp; ROW() - 1) - Q100))</f>
         <v/>
       </c>
-      <c r="L100" s="9" t="str">
+      <c r="L100" s="11" t="str">
         <f aca="false">IF(K100="", IF(V100=0, "", V100), IF(T100 = "", "", IF(T100/S100 = 0, "", T100/S100)))</f>
         <v/>
       </c>
@@ -10785,11 +10997,11 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I101" s="8" t="str">
+      <c r="I101" s="10" t="str">
         <f aca="true">IF(K101="", IF(M101="","",V101+(INDIRECT("Q" &amp; ROW() - 1) - Q101)),IF(M101="", "", INDIRECT("Q" &amp; ROW() - 1) - Q101))</f>
         <v/>
       </c>
-      <c r="L101" s="9" t="str">
+      <c r="L101" s="11" t="str">
         <f aca="false">IF(K101="", IF(V101=0, "", V101), IF(T101 = "", "", IF(T101/S101 = 0, "", T101/S101)))</f>
         <v/>
       </c>
@@ -10831,11 +11043,11 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I102" s="8" t="str">
+      <c r="I102" s="10" t="str">
         <f aca="true">IF(K102="", IF(M102="","",V102+(INDIRECT("Q" &amp; ROW() - 1) - Q102)),IF(M102="", "", INDIRECT("Q" &amp; ROW() - 1) - Q102))</f>
         <v/>
       </c>
-      <c r="L102" s="9" t="str">
+      <c r="L102" s="11" t="str">
         <f aca="false">IF(K102="", IF(V102=0, "", V102), IF(T102 = "", "", IF(T102/S102 = 0, "", T102/S102)))</f>
         <v/>
       </c>
@@ -10877,11 +11089,11 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I103" s="8" t="str">
+      <c r="I103" s="10" t="str">
         <f aca="true">IF(K103="", IF(M103="","",V103+(INDIRECT("Q" &amp; ROW() - 1) - Q103)),IF(M103="", "", INDIRECT("Q" &amp; ROW() - 1) - Q103))</f>
         <v/>
       </c>
-      <c r="L103" s="9" t="str">
+      <c r="L103" s="11" t="str">
         <f aca="false">IF(K103="", IF(V103=0, "", V103), IF(T103 = "", "", IF(T103/S103 = 0, "", T103/S103)))</f>
         <v/>
       </c>
@@ -10923,11 +11135,11 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I104" s="8" t="str">
+      <c r="I104" s="10" t="str">
         <f aca="true">IF(K104="", IF(M104="","",V104+(INDIRECT("Q" &amp; ROW() - 1) - Q104)),IF(M104="", "", INDIRECT("Q" &amp; ROW() - 1) - Q104))</f>
         <v/>
       </c>
-      <c r="L104" s="9" t="str">
+      <c r="L104" s="11" t="str">
         <f aca="false">IF(K104="", IF(V104=0, "", V104), IF(T104 = "", "", IF(T104/S104 = 0, "", T104/S104)))</f>
         <v/>
       </c>
@@ -10969,11 +11181,11 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I105" s="8" t="str">
+      <c r="I105" s="10" t="str">
         <f aca="true">IF(K105="", IF(M105="","",V105+(INDIRECT("Q" &amp; ROW() - 1) - Q105)),IF(M105="", "", INDIRECT("Q" &amp; ROW() - 1) - Q105))</f>
         <v/>
       </c>
-      <c r="L105" s="9" t="str">
+      <c r="L105" s="11" t="str">
         <f aca="false">IF(K105="", IF(V105=0, "", V105), IF(T105 = "", "", IF(T105/S105 = 0, "", T105/S105)))</f>
         <v/>
       </c>
@@ -11015,11 +11227,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I106" s="8" t="str">
+      <c r="I106" s="10" t="str">
         <f aca="true">IF(K106="", IF(M106="","",V106+(INDIRECT("Q" &amp; ROW() - 1) - Q106)),IF(M106="", "", INDIRECT("Q" &amp; ROW() - 1) - Q106))</f>
         <v/>
       </c>
-      <c r="L106" s="9" t="str">
+      <c r="L106" s="11" t="str">
         <f aca="false">IF(K106="", IF(V106=0, "", V106), IF(T106 = "", "", IF(T106/S106 = 0, "", T106/S106)))</f>
         <v/>
       </c>
@@ -11061,11 +11273,11 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I107" s="8" t="str">
+      <c r="I107" s="10" t="str">
         <f aca="true">IF(K107="", IF(M107="","",V107+(INDIRECT("Q" &amp; ROW() - 1) - Q107)),IF(M107="", "", INDIRECT("Q" &amp; ROW() - 1) - Q107))</f>
         <v/>
       </c>
-      <c r="L107" s="9" t="str">
+      <c r="L107" s="11" t="str">
         <f aca="false">IF(K107="", IF(V107=0, "", V107), IF(T107 = "", "", IF(T107/S107 = 0, "", T107/S107)))</f>
         <v/>
       </c>
@@ -11107,11 +11319,11 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I108" s="8" t="str">
+      <c r="I108" s="10" t="str">
         <f aca="true">IF(K108="", IF(M108="","",V108+(INDIRECT("Q" &amp; ROW() - 1) - Q108)),IF(M108="", "", INDIRECT("Q" &amp; ROW() - 1) - Q108))</f>
         <v/>
       </c>
-      <c r="L108" s="9" t="str">
+      <c r="L108" s="11" t="str">
         <f aca="false">IF(K108="", IF(V108=0, "", V108), IF(T108 = "", "", IF(T108/S108 = 0, "", T108/S108)))</f>
         <v/>
       </c>
@@ -11153,11 +11365,11 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I109" s="8" t="str">
+      <c r="I109" s="10" t="str">
         <f aca="true">IF(K109="", IF(M109="","",V109+(INDIRECT("Q" &amp; ROW() - 1) - Q109)),IF(M109="", "", INDIRECT("Q" &amp; ROW() - 1) - Q109))</f>
         <v/>
       </c>
-      <c r="L109" s="9" t="str">
+      <c r="L109" s="11" t="str">
         <f aca="false">IF(K109="", IF(V109=0, "", V109), IF(T109 = "", "", IF(T109/S109 = 0, "", T109/S109)))</f>
         <v/>
       </c>
@@ -11199,11 +11411,11 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I110" s="8" t="str">
+      <c r="I110" s="10" t="str">
         <f aca="true">IF(K110="", IF(M110="","",V110+(INDIRECT("Q" &amp; ROW() - 1) - Q110)),IF(M110="", "", INDIRECT("Q" &amp; ROW() - 1) - Q110))</f>
         <v/>
       </c>
-      <c r="L110" s="9" t="str">
+      <c r="L110" s="11" t="str">
         <f aca="false">IF(K110="", IF(V110=0, "", V110), IF(T110 = "", "", IF(T110/S110 = 0, "", T110/S110)))</f>
         <v/>
       </c>
@@ -11245,11 +11457,11 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I111" s="8" t="str">
+      <c r="I111" s="10" t="str">
         <f aca="true">IF(K111="", IF(M111="","",V111+(INDIRECT("Q" &amp; ROW() - 1) - Q111)),IF(M111="", "", INDIRECT("Q" &amp; ROW() - 1) - Q111))</f>
         <v/>
       </c>
-      <c r="L111" s="9" t="str">
+      <c r="L111" s="11" t="str">
         <f aca="false">IF(K111="", IF(V111=0, "", V111), IF(T111 = "", "", IF(T111/S111 = 0, "", T111/S111)))</f>
         <v/>
       </c>
@@ -11291,11 +11503,11 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I112" s="8" t="str">
+      <c r="I112" s="10" t="str">
         <f aca="true">IF(K112="", IF(M112="","",V112+(INDIRECT("Q" &amp; ROW() - 1) - Q112)),IF(M112="", "", INDIRECT("Q" &amp; ROW() - 1) - Q112))</f>
         <v/>
       </c>
-      <c r="L112" s="9" t="str">
+      <c r="L112" s="11" t="str">
         <f aca="false">IF(K112="", IF(V112=0, "", V112), IF(T112 = "", "", IF(T112/S112 = 0, "", T112/S112)))</f>
         <v/>
       </c>
@@ -11337,11 +11549,11 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I113" s="8" t="str">
+      <c r="I113" s="10" t="str">
         <f aca="true">IF(K113="", IF(M113="","",V113+(INDIRECT("Q" &amp; ROW() - 1) - Q113)),IF(M113="", "", INDIRECT("Q" &amp; ROW() - 1) - Q113))</f>
         <v/>
       </c>
-      <c r="L113" s="9" t="str">
+      <c r="L113" s="11" t="str">
         <f aca="false">IF(K113="", IF(V113=0, "", V113), IF(T113 = "", "", IF(T113/S113 = 0, "", T113/S113)))</f>
         <v/>
       </c>
@@ -11383,11 +11595,11 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I114" s="8" t="str">
+      <c r="I114" s="10" t="str">
         <f aca="true">IF(K114="", IF(M114="","",V114+(INDIRECT("Q" &amp; ROW() - 1) - Q114)),IF(M114="", "", INDIRECT("Q" &amp; ROW() - 1) - Q114))</f>
         <v/>
       </c>
-      <c r="L114" s="9" t="str">
+      <c r="L114" s="11" t="str">
         <f aca="false">IF(K114="", IF(V114=0, "", V114), IF(T114 = "", "", IF(T114/S114 = 0, "", T114/S114)))</f>
         <v/>
       </c>
@@ -11429,11 +11641,11 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I115" s="8" t="str">
+      <c r="I115" s="10" t="str">
         <f aca="true">IF(K115="", IF(M115="","",V115+(INDIRECT("Q" &amp; ROW() - 1) - Q115)),IF(M115="", "", INDIRECT("Q" &amp; ROW() - 1) - Q115))</f>
         <v/>
       </c>
-      <c r="L115" s="9" t="str">
+      <c r="L115" s="11" t="str">
         <f aca="false">IF(K115="", IF(V115=0, "", V115), IF(T115 = "", "", IF(T115/S115 = 0, "", T115/S115)))</f>
         <v/>
       </c>
@@ -11475,11 +11687,11 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I116" s="8" t="str">
+      <c r="I116" s="10" t="str">
         <f aca="true">IF(K116="", IF(M116="","",V116+(INDIRECT("Q" &amp; ROW() - 1) - Q116)),IF(M116="", "", INDIRECT("Q" &amp; ROW() - 1) - Q116))</f>
         <v/>
       </c>
-      <c r="L116" s="9" t="str">
+      <c r="L116" s="11" t="str">
         <f aca="false">IF(K116="", IF(V116=0, "", V116), IF(T116 = "", "", IF(T116/S116 = 0, "", T116/S116)))</f>
         <v/>
       </c>
@@ -11521,11 +11733,11 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I117" s="8" t="str">
+      <c r="I117" s="10" t="str">
         <f aca="true">IF(K117="", IF(M117="","",V117+(INDIRECT("Q" &amp; ROW() - 1) - Q117)),IF(M117="", "", INDIRECT("Q" &amp; ROW() - 1) - Q117))</f>
         <v/>
       </c>
-      <c r="L117" s="9" t="str">
+      <c r="L117" s="11" t="str">
         <f aca="false">IF(K117="", IF(V117=0, "", V117), IF(T117 = "", "", IF(T117/S117 = 0, "", T117/S117)))</f>
         <v/>
       </c>
@@ -11567,11 +11779,11 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I118" s="8" t="str">
+      <c r="I118" s="10" t="str">
         <f aca="true">IF(K118="", IF(M118="","",V118+(INDIRECT("Q" &amp; ROW() - 1) - Q118)),IF(M118="", "", INDIRECT("Q" &amp; ROW() - 1) - Q118))</f>
         <v/>
       </c>
-      <c r="L118" s="9" t="str">
+      <c r="L118" s="11" t="str">
         <f aca="false">IF(K118="", IF(V118=0, "", V118), IF(T118 = "", "", IF(T118/S118 = 0, "", T118/S118)))</f>
         <v/>
       </c>
@@ -11613,11 +11825,11 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I119" s="8" t="str">
+      <c r="I119" s="10" t="str">
         <f aca="true">IF(K119="", IF(M119="","",V119+(INDIRECT("Q" &amp; ROW() - 1) - Q119)),IF(M119="", "", INDIRECT("Q" &amp; ROW() - 1) - Q119))</f>
         <v/>
       </c>
-      <c r="L119" s="9" t="str">
+      <c r="L119" s="11" t="str">
         <f aca="false">IF(K119="", IF(V119=0, "", V119), IF(T119 = "", "", IF(T119/S119 = 0, "", T119/S119)))</f>
         <v/>
       </c>
@@ -11659,11 +11871,11 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I120" s="8" t="str">
+      <c r="I120" s="10" t="str">
         <f aca="true">IF(K120="", IF(M120="","",V120+(INDIRECT("Q" &amp; ROW() - 1) - Q120)),IF(M120="", "", INDIRECT("Q" &amp; ROW() - 1) - Q120))</f>
         <v/>
       </c>
-      <c r="L120" s="9" t="str">
+      <c r="L120" s="11" t="str">
         <f aca="false">IF(K120="", IF(V120=0, "", V120), IF(T120 = "", "", IF(T120/S120 = 0, "", T120/S120)))</f>
         <v/>
       </c>
@@ -11705,11 +11917,11 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I121" s="8" t="str">
+      <c r="I121" s="10" t="str">
         <f aca="true">IF(K121="", IF(M121="","",V121+(INDIRECT("Q" &amp; ROW() - 1) - Q121)),IF(M121="", "", INDIRECT("Q" &amp; ROW() - 1) - Q121))</f>
         <v/>
       </c>
-      <c r="L121" s="9" t="str">
+      <c r="L121" s="11" t="str">
         <f aca="false">IF(K121="", IF(V121=0, "", V121), IF(T121 = "", "", IF(T121/S121 = 0, "", T121/S121)))</f>
         <v/>
       </c>
@@ -11751,11 +11963,11 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I122" s="8" t="str">
+      <c r="I122" s="10" t="str">
         <f aca="true">IF(K122="", IF(M122="","",V122+(INDIRECT("Q" &amp; ROW() - 1) - Q122)),IF(M122="", "", INDIRECT("Q" &amp; ROW() - 1) - Q122))</f>
         <v/>
       </c>
-      <c r="L122" s="9" t="str">
+      <c r="L122" s="11" t="str">
         <f aca="false">IF(K122="", IF(V122=0, "", V122), IF(T122 = "", "", IF(T122/S122 = 0, "", T122/S122)))</f>
         <v/>
       </c>
@@ -11802,19 +12014,19 @@
       <formula>$A2&lt;&gt;$R2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>0</formula>
-      <formula>100000</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>-10000</formula>
+  <conditionalFormatting sqref="I2:I122">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I122">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>0</formula>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>1</formula>
+      <formula>100000</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>-10000</formula>
+      <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -12,11 +12,12 @@
     <sheet name="планирование суточное" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Вода" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Соль" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Дополнительная фасовка" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Вода SKU" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Соль SKU" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Типы варок" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Расписание" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Расписание" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Форм фактор плавления" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Дополнительная фасовка" sheetId="7" state="hidden" r:id="rId8"/>
+    <sheet name="Вода SKU" sheetId="8" state="hidden" r:id="rId9"/>
+    <sheet name="Соль SKU" sheetId="9" state="hidden" r:id="rId10"/>
+    <sheet name="Типы варок" sheetId="10" state="hidden" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'Вода SKU'!$A$1:$A$100</definedName>
@@ -302,7 +303,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -317,6 +318,27 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEBF1DE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -422,6 +444,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -511,12 +560,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.36"/>
@@ -6195,13 +6244,17 @@
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H59" type="list">
       <formula1>'Вода SKU'!$A$1:$A$137</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6227,12 +6280,12 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2"/>
+      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.36"/>
@@ -6323,7 +6376,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="10" t="str">
         <f aca="true">IF(L2="", IF(N2="","",W2+(INDIRECT("R" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("R" &amp; ROW() - 1) - R2))</f>
         <v/>
@@ -6370,7 +6423,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="10" t="str">
         <f aca="true">IF(L3="", IF(N3="","",W3+(INDIRECT("R" &amp; ROW() - 1) - R3)),IF(N3="", "", INDIRECT("R" &amp; ROW() - 1) - R3))</f>
         <v/>
@@ -6416,7 +6469,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="10" t="str">
         <f aca="true">IF(L4="", IF(N4="","",W4+(INDIRECT("R" &amp; ROW() - 1) - R4)),IF(N4="", "", INDIRECT("R" &amp; ROW() - 1) - R4))</f>
         <v/>
@@ -6462,7 +6515,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="10" t="str">
         <f aca="true">IF(L5="", IF(N5="","",W5+(INDIRECT("R" &amp; ROW() - 1) - R5)),IF(N5="", "", INDIRECT("R" &amp; ROW() - 1) - R5))</f>
         <v/>
@@ -6508,7 +6561,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="10" t="str">
         <f aca="true">IF(L6="", IF(N6="","",W6+(INDIRECT("R" &amp; ROW() - 1) - R6)),IF(N6="", "", INDIRECT("R" &amp; ROW() - 1) - R6))</f>
         <v/>
@@ -6554,7 +6607,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="10" t="str">
         <f aca="true">IF(L7="", IF(N7="","",W7+(INDIRECT("R" &amp; ROW() - 1) - R7)),IF(N7="", "", INDIRECT("R" &amp; ROW() - 1) - R7))</f>
         <v/>
@@ -6600,7 +6653,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="10" t="str">
         <f aca="true">IF(L8="", IF(N8="","",W8+(INDIRECT("R" &amp; ROW() - 1) - R8)),IF(N8="", "", INDIRECT("R" &amp; ROW() - 1) - R8))</f>
         <v/>
@@ -6646,7 +6699,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="10" t="str">
         <f aca="true">IF(L9="", IF(N9="","",W9+(INDIRECT("R" &amp; ROW() - 1) - R9)),IF(N9="", "", INDIRECT("R" &amp; ROW() - 1) - R9))</f>
         <v/>
@@ -6692,7 +6745,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="10" t="str">
         <f aca="true">IF(L10="", IF(N10="","",W10+(INDIRECT("R" &amp; ROW() - 1) - R10)),IF(N10="", "", INDIRECT("R" &amp; ROW() - 1) - R10))</f>
         <v/>
@@ -6738,7 +6791,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="10" t="str">
         <f aca="true">IF(L11="", IF(N11="","",W11+(INDIRECT("R" &amp; ROW() - 1) - R11)),IF(N11="", "", INDIRECT("R" &amp; ROW() - 1) - R11))</f>
         <v/>
@@ -6784,7 +6837,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="10" t="str">
         <f aca="true">IF(L12="", IF(N12="","",W12+(INDIRECT("R" &amp; ROW() - 1) - R12)),IF(N12="", "", INDIRECT("R" &amp; ROW() - 1) - R12))</f>
         <v/>
@@ -6830,7 +6883,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="10" t="str">
         <f aca="true">IF(L13="", IF(N13="","",W13+(INDIRECT("R" &amp; ROW() - 1) - R13)),IF(N13="", "", INDIRECT("R" &amp; ROW() - 1) - R13))</f>
         <v/>
@@ -6876,7 +6929,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="10" t="str">
         <f aca="true">IF(L14="", IF(N14="","",W14+(INDIRECT("R" &amp; ROW() - 1) - R14)),IF(N14="", "", INDIRECT("R" &amp; ROW() - 1) - R14))</f>
         <v/>
@@ -6922,7 +6975,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="10" t="str">
         <f aca="true">IF(L15="", IF(N15="","",W15+(INDIRECT("R" &amp; ROW() - 1) - R15)),IF(N15="", "", INDIRECT("R" &amp; ROW() - 1) - R15))</f>
         <v/>
@@ -6968,7 +7021,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="10" t="str">
         <f aca="true">IF(L16="", IF(N16="","",W16+(INDIRECT("R" &amp; ROW() - 1) - R16)),IF(N16="", "", INDIRECT("R" &amp; ROW() - 1) - R16))</f>
         <v/>
@@ -7014,7 +7067,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="10" t="str">
         <f aca="true">IF(L17="", IF(N17="","",W17+(INDIRECT("R" &amp; ROW() - 1) - R17)),IF(N17="", "", INDIRECT("R" &amp; ROW() - 1) - R17))</f>
         <v/>
@@ -7060,7 +7113,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="10" t="str">
         <f aca="true">IF(L18="", IF(N18="","",W18+(INDIRECT("R" &amp; ROW() - 1) - R18)),IF(N18="", "", INDIRECT("R" &amp; ROW() - 1) - R18))</f>
         <v/>
@@ -7106,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="10" t="str">
         <f aca="true">IF(L19="", IF(N19="","",W19+(INDIRECT("R" &amp; ROW() - 1) - R19)),IF(N19="", "", INDIRECT("R" &amp; ROW() - 1) - R19))</f>
         <v/>
@@ -7152,7 +7205,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="10" t="str">
         <f aca="true">IF(L20="", IF(N20="","",W20+(INDIRECT("R" &amp; ROW() - 1) - R20)),IF(N20="", "", INDIRECT("R" &amp; ROW() - 1) - R20))</f>
         <v/>
@@ -7198,7 +7251,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="10" t="str">
         <f aca="true">IF(L21="", IF(N21="","",W21+(INDIRECT("R" &amp; ROW() - 1) - R21)),IF(N21="", "", INDIRECT("R" &amp; ROW() - 1) - R21))</f>
         <v/>
@@ -7244,7 +7297,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="10" t="str">
         <f aca="true">IF(L22="", IF(N22="","",W22+(INDIRECT("R" &amp; ROW() - 1) - R22)),IF(N22="", "", INDIRECT("R" &amp; ROW() - 1) - R22))</f>
         <v/>
@@ -7290,7 +7343,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="10" t="str">
         <f aca="true">IF(L23="", IF(N23="","",W23+(INDIRECT("R" &amp; ROW() - 1) - R23)),IF(N23="", "", INDIRECT("R" &amp; ROW() - 1) - R23))</f>
         <v/>
@@ -7336,7 +7389,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="10" t="str">
         <f aca="true">IF(L24="", IF(N24="","",W24+(INDIRECT("R" &amp; ROW() - 1) - R24)),IF(N24="", "", INDIRECT("R" &amp; ROW() - 1) - R24))</f>
         <v/>
@@ -7382,7 +7435,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="10" t="str">
         <f aca="true">IF(L25="", IF(N25="","",W25+(INDIRECT("R" &amp; ROW() - 1) - R25)),IF(N25="", "", INDIRECT("R" &amp; ROW() - 1) - R25))</f>
         <v/>
@@ -7428,7 +7481,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="10" t="str">
         <f aca="true">IF(L26="", IF(N26="","",W26+(INDIRECT("R" &amp; ROW() - 1) - R26)),IF(N26="", "", INDIRECT("R" &amp; ROW() - 1) - R26))</f>
         <v/>
@@ -7474,7 +7527,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="10" t="str">
         <f aca="true">IF(L27="", IF(N27="","",W27+(INDIRECT("R" &amp; ROW() - 1) - R27)),IF(N27="", "", INDIRECT("R" &amp; ROW() - 1) - R27))</f>
         <v/>
@@ -7520,7 +7573,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="10" t="str">
         <f aca="true">IF(L28="", IF(N28="","",W28+(INDIRECT("R" &amp; ROW() - 1) - R28)),IF(N28="", "", INDIRECT("R" &amp; ROW() - 1) - R28))</f>
         <v/>
@@ -7566,7 +7619,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="10" t="str">
         <f aca="true">IF(L29="", IF(N29="","",W29+(INDIRECT("R" &amp; ROW() - 1) - R29)),IF(N29="", "", INDIRECT("R" &amp; ROW() - 1) - R29))</f>
         <v/>
@@ -7612,7 +7665,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="10" t="str">
         <f aca="true">IF(L30="", IF(N30="","",W30+(INDIRECT("R" &amp; ROW() - 1) - R30)),IF(N30="", "", INDIRECT("R" &amp; ROW() - 1) - R30))</f>
         <v/>
@@ -7658,7 +7711,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="10" t="str">
         <f aca="true">IF(L31="", IF(N31="","",W31+(INDIRECT("R" &amp; ROW() - 1) - R31)),IF(N31="", "", INDIRECT("R" &amp; ROW() - 1) - R31))</f>
         <v/>
@@ -7704,7 +7757,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="10" t="str">
         <f aca="true">IF(L32="", IF(N32="","",W32+(INDIRECT("R" &amp; ROW() - 1) - R32)),IF(N32="", "", INDIRECT("R" &amp; ROW() - 1) - R32))</f>
         <v/>
@@ -7750,7 +7803,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="10" t="str">
         <f aca="true">IF(L33="", IF(N33="","",W33+(INDIRECT("R" &amp; ROW() - 1) - R33)),IF(N33="", "", INDIRECT("R" &amp; ROW() - 1) - R33))</f>
         <v/>
@@ -7796,7 +7849,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="10" t="str">
         <f aca="true">IF(L34="", IF(N34="","",W34+(INDIRECT("R" &amp; ROW() - 1) - R34)),IF(N34="", "", INDIRECT("R" &amp; ROW() - 1) - R34))</f>
         <v/>
@@ -7842,7 +7895,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="10" t="str">
         <f aca="true">IF(L35="", IF(N35="","",W35+(INDIRECT("R" &amp; ROW() - 1) - R35)),IF(N35="", "", INDIRECT("R" &amp; ROW() - 1) - R35))</f>
         <v/>
@@ -7888,7 +7941,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="10" t="str">
         <f aca="true">IF(L36="", IF(N36="","",W36+(INDIRECT("R" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("R" &amp; ROW() - 1) - R36))</f>
         <v/>
@@ -7934,7 +7987,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="10" t="str">
         <f aca="true">IF(L37="", IF(N37="","",W37+(INDIRECT("R" &amp; ROW() - 1) - R37)),IF(N37="", "", INDIRECT("R" &amp; ROW() - 1) - R37))</f>
         <v/>
@@ -7980,7 +8033,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="10" t="str">
         <f aca="true">IF(L38="", IF(N38="","",W38+(INDIRECT("R" &amp; ROW() - 1) - R38)),IF(N38="", "", INDIRECT("R" &amp; ROW() - 1) - R38))</f>
         <v/>
@@ -8026,7 +8079,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="10" t="str">
         <f aca="true">IF(L39="", IF(N39="","",W39+(INDIRECT("R" &amp; ROW() - 1) - R39)),IF(N39="", "", INDIRECT("R" &amp; ROW() - 1) - R39))</f>
         <v/>
@@ -8072,7 +8125,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="10" t="str">
         <f aca="true">IF(L40="", IF(N40="","",W40+(INDIRECT("R" &amp; ROW() - 1) - R40)),IF(N40="", "", INDIRECT("R" &amp; ROW() - 1) - R40))</f>
         <v/>
@@ -8118,7 +8171,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="10" t="str">
         <f aca="true">IF(L41="", IF(N41="","",W41+(INDIRECT("R" &amp; ROW() - 1) - R41)),IF(N41="", "", INDIRECT("R" &amp; ROW() - 1) - R41))</f>
         <v/>
@@ -8164,7 +8217,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="10" t="str">
         <f aca="true">IF(L42="", IF(N42="","",W42+(INDIRECT("R" &amp; ROW() - 1) - R42)),IF(N42="", "", INDIRECT("R" &amp; ROW() - 1) - R42))</f>
         <v/>
@@ -8210,7 +8263,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="10" t="str">
         <f aca="true">IF(L43="", IF(N43="","",W43+(INDIRECT("R" &amp; ROW() - 1) - R43)),IF(N43="", "", INDIRECT("R" &amp; ROW() - 1) - R43))</f>
         <v/>
@@ -8256,7 +8309,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="10" t="str">
         <f aca="true">IF(L44="", IF(N44="","",W44+(INDIRECT("R" &amp; ROW() - 1) - R44)),IF(N44="", "", INDIRECT("R" &amp; ROW() - 1) - R44))</f>
         <v/>
@@ -8302,7 +8355,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="str">
         <f aca="true">IF(L45="", IF(N45="","",W45+(INDIRECT("R" &amp; ROW() - 1) - R45)),IF(N45="", "", INDIRECT("R" &amp; ROW() - 1) - R45))</f>
         <v/>
@@ -8348,7 +8401,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="10" t="str">
         <f aca="true">IF(L46="", IF(N46="","",W46+(INDIRECT("R" &amp; ROW() - 1) - R46)),IF(N46="", "", INDIRECT("R" &amp; ROW() - 1) - R46))</f>
         <v/>
@@ -8394,7 +8447,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="10" t="str">
         <f aca="true">IF(L47="", IF(N47="","",W47+(INDIRECT("R" &amp; ROW() - 1) - R47)),IF(N47="", "", INDIRECT("R" &amp; ROW() - 1) - R47))</f>
         <v/>
@@ -8440,7 +8493,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="10" t="str">
         <f aca="true">IF(L48="", IF(N48="","",W48+(INDIRECT("R" &amp; ROW() - 1) - R48)),IF(N48="", "", INDIRECT("R" &amp; ROW() - 1) - R48))</f>
         <v/>
@@ -8486,7 +8539,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="10" t="str">
         <f aca="true">IF(L49="", IF(N49="","",W49+(INDIRECT("R" &amp; ROW() - 1) - R49)),IF(N49="", "", INDIRECT("R" &amp; ROW() - 1) - R49))</f>
         <v/>
@@ -8532,7 +8585,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="10" t="str">
         <f aca="true">IF(L50="", IF(N50="","",W50+(INDIRECT("R" &amp; ROW() - 1) - R50)),IF(N50="", "", INDIRECT("R" &amp; ROW() - 1) - R50))</f>
         <v/>
@@ -8578,7 +8631,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="10" t="str">
         <f aca="true">IF(L51="", IF(N51="","",W51+(INDIRECT("R" &amp; ROW() - 1) - R51)),IF(N51="", "", INDIRECT("R" &amp; ROW() - 1) - R51))</f>
         <v/>
@@ -8624,7 +8677,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="10" t="str">
         <f aca="true">IF(L52="", IF(N52="","",W52+(INDIRECT("R" &amp; ROW() - 1) - R52)),IF(N52="", "", INDIRECT("R" &amp; ROW() - 1) - R52))</f>
         <v/>
@@ -8670,7 +8723,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="10" t="str">
         <f aca="true">IF(L53="", IF(N53="","",W53+(INDIRECT("R" &amp; ROW() - 1) - R53)),IF(N53="", "", INDIRECT("R" &amp; ROW() - 1) - R53))</f>
         <v/>
@@ -8716,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="10" t="str">
         <f aca="true">IF(L54="", IF(N54="","",W54+(INDIRECT("R" &amp; ROW() - 1) - R54)),IF(N54="", "", INDIRECT("R" &amp; ROW() - 1) - R54))</f>
         <v/>
@@ -8762,7 +8815,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="10" t="str">
         <f aca="true">IF(L55="", IF(N55="","",W55+(INDIRECT("R" &amp; ROW() - 1) - R55)),IF(N55="", "", INDIRECT("R" &amp; ROW() - 1) - R55))</f>
         <v/>
@@ -8808,7 +8861,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="10" t="str">
         <f aca="true">IF(L56="", IF(N56="","",W56+(INDIRECT("R" &amp; ROW() - 1) - R56)),IF(N56="", "", INDIRECT("R" &amp; ROW() - 1) - R56))</f>
         <v/>
@@ -8854,7 +8907,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="10" t="str">
         <f aca="true">IF(L57="", IF(N57="","",W57+(INDIRECT("R" &amp; ROW() - 1) - R57)),IF(N57="", "", INDIRECT("R" &amp; ROW() - 1) - R57))</f>
         <v/>
@@ -8900,7 +8953,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="10" t="str">
         <f aca="true">IF(L58="", IF(N58="","",W58+(INDIRECT("R" &amp; ROW() - 1) - R58)),IF(N58="", "", INDIRECT("R" &amp; ROW() - 1) - R58))</f>
         <v/>
@@ -8946,7 +8999,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="10" t="str">
         <f aca="true">IF(L59="", IF(N59="","",W59+(INDIRECT("R" &amp; ROW() - 1) - R59)),IF(N59="", "", INDIRECT("R" &amp; ROW() - 1) - R59))</f>
         <v/>
@@ -8993,7 +9046,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="10" t="str">
         <f aca="true">IF(L60="", IF(N60="","",W60+(INDIRECT("R" &amp; ROW() - 1) - R60)),IF(N60="", "", INDIRECT("R" &amp; ROW() - 1) - R60))</f>
         <v/>
@@ -9039,7 +9092,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="10" t="str">
         <f aca="true">IF(L61="", IF(N61="","",W61+(INDIRECT("R" &amp; ROW() - 1) - R61)),IF(N61="", "", INDIRECT("R" &amp; ROW() - 1) - R61))</f>
         <v/>
@@ -9085,7 +9138,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="10" t="str">
         <f aca="true">IF(L62="", IF(N62="","",W62+(INDIRECT("R" &amp; ROW() - 1) - R62)),IF(N62="", "", INDIRECT("R" &amp; ROW() - 1) - R62))</f>
         <v/>
@@ -9131,7 +9184,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="10" t="str">
         <f aca="true">IF(L63="", IF(N63="","",W63+(INDIRECT("R" &amp; ROW() - 1) - R63)),IF(N63="", "", INDIRECT("R" &amp; ROW() - 1) - R63))</f>
         <v/>
@@ -9177,7 +9230,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="10" t="str">
         <f aca="true">IF(L64="", IF(N64="","",W64+(INDIRECT("R" &amp; ROW() - 1) - R64)),IF(N64="", "", INDIRECT("R" &amp; ROW() - 1) - R64))</f>
         <v/>
@@ -9223,7 +9276,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="10" t="str">
         <f aca="true">IF(L65="", IF(N65="","",W65+(INDIRECT("R" &amp; ROW() - 1) - R65)),IF(N65="", "", INDIRECT("R" &amp; ROW() - 1) - R65))</f>
         <v/>
@@ -9269,7 +9322,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="10" t="str">
         <f aca="true">IF(L66="", IF(N66="","",W66+(INDIRECT("R" &amp; ROW() - 1) - R66)),IF(N66="", "", INDIRECT("R" &amp; ROW() - 1) - R66))</f>
         <v/>
@@ -9315,7 +9368,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="10" t="str">
         <f aca="true">IF(L67="", IF(N67="","",W67+(INDIRECT("R" &amp; ROW() - 1) - R67)),IF(N67="", "", INDIRECT("R" &amp; ROW() - 1) - R67))</f>
         <v/>
@@ -9361,7 +9414,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="10" t="str">
         <f aca="true">IF(L68="", IF(N68="","",W68+(INDIRECT("R" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("R" &amp; ROW() - 1) - R68))</f>
         <v/>
@@ -9407,7 +9460,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="10" t="str">
         <f aca="true">IF(L69="", IF(N69="","",W69+(INDIRECT("R" &amp; ROW() - 1) - R69)),IF(N69="", "", INDIRECT("R" &amp; ROW() - 1) - R69))</f>
         <v/>
@@ -9453,7 +9506,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="10" t="str">
         <f aca="true">IF(L70="", IF(N70="","",W70+(INDIRECT("R" &amp; ROW() - 1) - R70)),IF(N70="", "", INDIRECT("R" &amp; ROW() - 1) - R70))</f>
         <v/>
@@ -9499,7 +9552,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="10" t="str">
         <f aca="true">IF(L71="", IF(N71="","",W71+(INDIRECT("R" &amp; ROW() - 1) - R71)),IF(N71="", "", INDIRECT("R" &amp; ROW() - 1) - R71))</f>
         <v/>
@@ -9545,7 +9598,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="10" t="str">
         <f aca="true">IF(L72="", IF(N72="","",W72+(INDIRECT("R" &amp; ROW() - 1) - R72)),IF(N72="", "", INDIRECT("R" &amp; ROW() - 1) - R72))</f>
         <v/>
@@ -9591,7 +9644,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="10" t="str">
         <f aca="true">IF(L73="", IF(N73="","",W73+(INDIRECT("R" &amp; ROW() - 1) - R73)),IF(N73="", "", INDIRECT("R" &amp; ROW() - 1) - R73))</f>
         <v/>
@@ -9637,7 +9690,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="10" t="str">
         <f aca="true">IF(L74="", IF(N74="","",W74+(INDIRECT("R" &amp; ROW() - 1) - R74)),IF(N74="", "", INDIRECT("R" &amp; ROW() - 1) - R74))</f>
         <v/>
@@ -9683,7 +9736,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="10" t="str">
         <f aca="true">IF(L75="", IF(N75="","",W75+(INDIRECT("R" &amp; ROW() - 1) - R75)),IF(N75="", "", INDIRECT("R" &amp; ROW() - 1) - R75))</f>
         <v/>
@@ -9729,7 +9782,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="10" t="str">
         <f aca="true">IF(L76="", IF(N76="","",W76+(INDIRECT("R" &amp; ROW() - 1) - R76)),IF(N76="", "", INDIRECT("R" &amp; ROW() - 1) - R76))</f>
         <v/>
@@ -9775,7 +9828,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="10" t="str">
         <f aca="true">IF(L77="", IF(N77="","",W77+(INDIRECT("R" &amp; ROW() - 1) - R77)),IF(N77="", "", INDIRECT("R" &amp; ROW() - 1) - R77))</f>
         <v/>
@@ -9821,7 +9874,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="10" t="str">
         <f aca="true">IF(L78="", IF(N78="","",W78+(INDIRECT("R" &amp; ROW() - 1) - R78)),IF(N78="", "", INDIRECT("R" &amp; ROW() - 1) - R78))</f>
         <v/>
@@ -9867,7 +9920,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="10" t="str">
         <f aca="true">IF(L79="", IF(N79="","",W79+(INDIRECT("R" &amp; ROW() - 1) - R79)),IF(N79="", "", INDIRECT("R" &amp; ROW() - 1) - R79))</f>
         <v/>
@@ -9913,7 +9966,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="10" t="str">
         <f aca="true">IF(L80="", IF(N80="","",W80+(INDIRECT("R" &amp; ROW() - 1) - R80)),IF(N80="", "", INDIRECT("R" &amp; ROW() - 1) - R80))</f>
         <v/>
@@ -9959,7 +10012,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="10" t="str">
         <f aca="true">IF(L81="", IF(N81="","",W81+(INDIRECT("R" &amp; ROW() - 1) - R81)),IF(N81="", "", INDIRECT("R" &amp; ROW() - 1) - R81))</f>
         <v/>
@@ -10005,7 +10058,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="10" t="str">
         <f aca="true">IF(L82="", IF(N82="","",W82+(INDIRECT("R" &amp; ROW() - 1) - R82)),IF(N82="", "", INDIRECT("R" &amp; ROW() - 1) - R82))</f>
         <v/>
@@ -10051,7 +10104,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="10" t="str">
         <f aca="true">IF(L83="", IF(N83="","",W83+(INDIRECT("R" &amp; ROW() - 1) - R83)),IF(N83="", "", INDIRECT("R" &amp; ROW() - 1) - R83))</f>
         <v/>
@@ -10097,7 +10150,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="10" t="str">
         <f aca="true">IF(L84="", IF(N84="","",W84+(INDIRECT("R" &amp; ROW() - 1) - R84)),IF(N84="", "", INDIRECT("R" &amp; ROW() - 1) - R84))</f>
         <v/>
@@ -10143,7 +10196,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="10" t="str">
         <f aca="true">IF(L85="", IF(N85="","",W85+(INDIRECT("R" &amp; ROW() - 1) - R85)),IF(N85="", "", INDIRECT("R" &amp; ROW() - 1) - R85))</f>
         <v/>
@@ -10189,7 +10242,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="10" t="str">
         <f aca="true">IF(L86="", IF(N86="","",W86+(INDIRECT("R" &amp; ROW() - 1) - R86)),IF(N86="", "", INDIRECT("R" &amp; ROW() - 1) - R86))</f>
         <v/>
@@ -10235,7 +10288,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="10" t="str">
         <f aca="true">IF(L87="", IF(N87="","",W87+(INDIRECT("R" &amp; ROW() - 1) - R87)),IF(N87="", "", INDIRECT("R" &amp; ROW() - 1) - R87))</f>
         <v/>
@@ -10281,7 +10334,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="10" t="str">
         <f aca="true">IF(L88="", IF(N88="","",W88+(INDIRECT("R" &amp; ROW() - 1) - R88)),IF(N88="", "", INDIRECT("R" &amp; ROW() - 1) - R88))</f>
         <v/>
@@ -10327,7 +10380,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="10" t="str">
         <f aca="true">IF(L89="", IF(N89="","",W89+(INDIRECT("R" &amp; ROW() - 1) - R89)),IF(N89="", "", INDIRECT("R" &amp; ROW() - 1) - R89))</f>
         <v/>
@@ -10373,7 +10426,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="10" t="str">
         <f aca="true">IF(L90="", IF(N90="","",W90+(INDIRECT("R" &amp; ROW() - 1) - R90)),IF(N90="", "", INDIRECT("R" &amp; ROW() - 1) - R90))</f>
         <v/>
@@ -10419,7 +10472,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="10" t="str">
         <f aca="true">IF(L91="", IF(N91="","",W91+(INDIRECT("R" &amp; ROW() - 1) - R91)),IF(N91="", "", INDIRECT("R" &amp; ROW() - 1) - R91))</f>
         <v/>
@@ -10465,7 +10518,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="10" t="str">
         <f aca="true">IF(L92="", IF(N92="","",W92+(INDIRECT("R" &amp; ROW() - 1) - R92)),IF(N92="", "", INDIRECT("R" &amp; ROW() - 1) - R92))</f>
         <v/>
@@ -10511,7 +10564,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="10" t="str">
         <f aca="true">IF(L93="", IF(N93="","",W93+(INDIRECT("R" &amp; ROW() - 1) - R93)),IF(N93="", "", INDIRECT("R" &amp; ROW() - 1) - R93))</f>
         <v/>
@@ -10557,7 +10610,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="10" t="str">
         <f aca="true">IF(L94="", IF(N94="","",W94+(INDIRECT("R" &amp; ROW() - 1) - R94)),IF(N94="", "", INDIRECT("R" &amp; ROW() - 1) - R94))</f>
         <v/>
@@ -10603,7 +10656,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="10" t="str">
         <f aca="true">IF(L95="", IF(N95="","",W95+(INDIRECT("R" &amp; ROW() - 1) - R95)),IF(N95="", "", INDIRECT("R" &amp; ROW() - 1) - R95))</f>
         <v/>
@@ -10649,7 +10702,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="10" t="str">
         <f aca="true">IF(L96="", IF(N96="","",W96+(INDIRECT("R" &amp; ROW() - 1) - R96)),IF(N96="", "", INDIRECT("R" &amp; ROW() - 1) - R96))</f>
         <v/>
@@ -10695,7 +10748,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="10" t="str">
         <f aca="true">IF(L97="", IF(N97="","",W97+(INDIRECT("R" &amp; ROW() - 1) - R97)),IF(N97="", "", INDIRECT("R" &amp; ROW() - 1) - R97))</f>
         <v/>
@@ -10741,7 +10794,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="10" t="str">
         <f aca="true">IF(L98="", IF(N98="","",W98+(INDIRECT("R" &amp; ROW() - 1) - R98)),IF(N98="", "", INDIRECT("R" &amp; ROW() - 1) - R98))</f>
         <v/>
@@ -10787,7 +10840,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="10" t="str">
         <f aca="true">IF(L99="", IF(N99="","",W99+(INDIRECT("R" &amp; ROW() - 1) - R99)),IF(N99="", "", INDIRECT("R" &amp; ROW() - 1) - R99))</f>
         <v/>
@@ -10833,7 +10886,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="10" t="str">
         <f aca="true">IF(L100="", IF(N100="","",W100+(INDIRECT("R" &amp; ROW() - 1) - R100)),IF(N100="", "", INDIRECT("R" &amp; ROW() - 1) - R100))</f>
         <v/>
@@ -10879,7 +10932,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="10" t="str">
         <f aca="true">IF(L101="", IF(N101="","",W101+(INDIRECT("R" &amp; ROW() - 1) - R101)),IF(N101="", "", INDIRECT("R" &amp; ROW() - 1) - R101))</f>
         <v/>
@@ -10925,7 +10978,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="10" t="str">
         <f aca="true">IF(L102="", IF(N102="","",W102+(INDIRECT("R" &amp; ROW() - 1) - R102)),IF(N102="", "", INDIRECT("R" &amp; ROW() - 1) - R102))</f>
         <v/>
@@ -10971,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="10" t="str">
         <f aca="true">IF(L103="", IF(N103="","",W103+(INDIRECT("R" &amp; ROW() - 1) - R103)),IF(N103="", "", INDIRECT("R" &amp; ROW() - 1) - R103))</f>
         <v/>
@@ -11017,7 +11070,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="10" t="str">
         <f aca="true">IF(L104="", IF(N104="","",W104+(INDIRECT("R" &amp; ROW() - 1) - R104)),IF(N104="", "", INDIRECT("R" &amp; ROW() - 1) - R104))</f>
         <v/>
@@ -11063,7 +11116,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="10" t="str">
         <f aca="true">IF(L105="", IF(N105="","",W105+(INDIRECT("R" &amp; ROW() - 1) - R105)),IF(N105="", "", INDIRECT("R" &amp; ROW() - 1) - R105))</f>
         <v/>
@@ -11109,7 +11162,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="10" t="str">
         <f aca="true">IF(L106="", IF(N106="","",W106+(INDIRECT("R" &amp; ROW() - 1) - R106)),IF(N106="", "", INDIRECT("R" &amp; ROW() - 1) - R106))</f>
         <v/>
@@ -11155,7 +11208,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="10" t="str">
         <f aca="true">IF(L107="", IF(N107="","",W107+(INDIRECT("R" &amp; ROW() - 1) - R107)),IF(N107="", "", INDIRECT("R" &amp; ROW() - 1) - R107))</f>
         <v/>
@@ -11201,7 +11254,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="10" t="str">
         <f aca="true">IF(L108="", IF(N108="","",W108+(INDIRECT("R" &amp; ROW() - 1) - R108)),IF(N108="", "", INDIRECT("R" &amp; ROW() - 1) - R108))</f>
         <v/>
@@ -11247,7 +11300,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="10" t="str">
         <f aca="true">IF(L109="", IF(N109="","",W109+(INDIRECT("R" &amp; ROW() - 1) - R109)),IF(N109="", "", INDIRECT("R" &amp; ROW() - 1) - R109))</f>
         <v/>
@@ -11293,7 +11346,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="10" t="str">
         <f aca="true">IF(L110="", IF(N110="","",W110+(INDIRECT("R" &amp; ROW() - 1) - R110)),IF(N110="", "", INDIRECT("R" &amp; ROW() - 1) - R110))</f>
         <v/>
@@ -11339,7 +11392,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="10" t="str">
         <f aca="true">IF(L111="", IF(N111="","",W111+(INDIRECT("R" &amp; ROW() - 1) - R111)),IF(N111="", "", INDIRECT("R" &amp; ROW() - 1) - R111))</f>
         <v/>
@@ -11385,7 +11438,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="10" t="str">
         <f aca="true">IF(L112="", IF(N112="","",W112+(INDIRECT("R" &amp; ROW() - 1) - R112)),IF(N112="", "", INDIRECT("R" &amp; ROW() - 1) - R112))</f>
         <v/>
@@ -11431,7 +11484,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="10" t="str">
         <f aca="true">IF(L113="", IF(N113="","",W113+(INDIRECT("R" &amp; ROW() - 1) - R113)),IF(N113="", "", INDIRECT("R" &amp; ROW() - 1) - R113))</f>
         <v/>
@@ -11477,7 +11530,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="10" t="str">
         <f aca="true">IF(L114="", IF(N114="","",W114+(INDIRECT("R" &amp; ROW() - 1) - R114)),IF(N114="", "", INDIRECT("R" &amp; ROW() - 1) - R114))</f>
         <v/>
@@ -11523,7 +11576,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="10" t="str">
         <f aca="true">IF(L115="", IF(N115="","",W115+(INDIRECT("R" &amp; ROW() - 1) - R115)),IF(N115="", "", INDIRECT("R" &amp; ROW() - 1) - R115))</f>
         <v/>
@@ -11569,7 +11622,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="10" t="str">
         <f aca="true">IF(L116="", IF(N116="","",W116+(INDIRECT("R" &amp; ROW() - 1) - R116)),IF(N116="", "", INDIRECT("R" &amp; ROW() - 1) - R116))</f>
         <v/>
@@ -11615,7 +11668,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="10" t="str">
         <f aca="true">IF(L117="", IF(N117="","",W117+(INDIRECT("R" &amp; ROW() - 1) - R117)),IF(N117="", "", INDIRECT("R" &amp; ROW() - 1) - R117))</f>
         <v/>
@@ -11661,7 +11714,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="10" t="str">
         <f aca="true">IF(L118="", IF(N118="","",W118+(INDIRECT("R" &amp; ROW() - 1) - R118)),IF(N118="", "", INDIRECT("R" &amp; ROW() - 1) - R118))</f>
         <v/>
@@ -11707,7 +11760,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="10" t="str">
         <f aca="true">IF(L119="", IF(N119="","",W119+(INDIRECT("R" &amp; ROW() - 1) - R119)),IF(N119="", "", INDIRECT("R" &amp; ROW() - 1) - R119))</f>
         <v/>
@@ -11753,7 +11806,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="10" t="str">
         <f aca="true">IF(L120="", IF(N120="","",W120+(INDIRECT("R" &amp; ROW() - 1) - R120)),IF(N120="", "", INDIRECT("R" &amp; ROW() - 1) - R120))</f>
         <v/>
@@ -11799,7 +11852,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="10" t="str">
         <f aca="true">IF(L121="", IF(N121="","",W121+(INDIRECT("R" &amp; ROW() - 1) - R121)),IF(N121="", "", INDIRECT("R" &amp; ROW() - 1) - R121))</f>
         <v/>
@@ -11845,7 +11898,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="10" t="str">
         <f aca="true">IF(L122="", IF(N122="","",W122+(INDIRECT("R" &amp; ROW() - 1) - R122)),IF(N122="", "", INDIRECT("R" &amp; ROW() - 1) - R122))</f>
         <v/>
@@ -11898,22 +11951,26 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>1</formula>
       <formula>1000000</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>-100000</formula>
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B2:B122" type="list">
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H122" type="list">
       <formula1>'Соль SKU'!$A$1:$A$137</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11935,6 +11992,58 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -11954,7 +12063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11981,7 +12090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12006,57 +12115,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="69.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.54"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M39" activeCellId="0" sqref="M39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -303,7 +303,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -318,27 +318,6 @@
         <family val="0"/>
         <color rgb="FF000000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEBF1DE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -426,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="1" sqref="J:J L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -452,7 +431,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="J:J A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -481,7 +460,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="I18" activeCellId="1" sqref="J:J I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,12 +534,12 @@
   </sheetPr>
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6275,15 +6254,15 @@
   </sheetPr>
   <dimension ref="A1:W122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J:J"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
@@ -6376,7 +6355,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J2" s="10" t="str">
         <f aca="true">IF(L2="", IF(N2="","",W2+(INDIRECT("R" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("R" &amp; ROW() - 1) - R2))</f>
         <v/>
@@ -6423,7 +6402,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="10" t="str">
         <f aca="true">IF(L3="", IF(N3="","",W3+(INDIRECT("R" &amp; ROW() - 1) - R3)),IF(N3="", "", INDIRECT("R" &amp; ROW() - 1) - R3))</f>
         <v/>
@@ -6469,7 +6448,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="10" t="str">
         <f aca="true">IF(L4="", IF(N4="","",W4+(INDIRECT("R" &amp; ROW() - 1) - R4)),IF(N4="", "", INDIRECT("R" &amp; ROW() - 1) - R4))</f>
         <v/>
@@ -6515,7 +6494,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="10" t="str">
         <f aca="true">IF(L5="", IF(N5="","",W5+(INDIRECT("R" &amp; ROW() - 1) - R5)),IF(N5="", "", INDIRECT("R" &amp; ROW() - 1) - R5))</f>
         <v/>
@@ -6561,7 +6540,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="10" t="str">
         <f aca="true">IF(L6="", IF(N6="","",W6+(INDIRECT("R" &amp; ROW() - 1) - R6)),IF(N6="", "", INDIRECT("R" &amp; ROW() - 1) - R6))</f>
         <v/>
@@ -6607,7 +6586,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="10" t="str">
         <f aca="true">IF(L7="", IF(N7="","",W7+(INDIRECT("R" &amp; ROW() - 1) - R7)),IF(N7="", "", INDIRECT("R" &amp; ROW() - 1) - R7))</f>
         <v/>
@@ -6653,7 +6632,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="10" t="str">
         <f aca="true">IF(L8="", IF(N8="","",W8+(INDIRECT("R" &amp; ROW() - 1) - R8)),IF(N8="", "", INDIRECT("R" &amp; ROW() - 1) - R8))</f>
         <v/>
@@ -6699,7 +6678,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="10" t="str">
         <f aca="true">IF(L9="", IF(N9="","",W9+(INDIRECT("R" &amp; ROW() - 1) - R9)),IF(N9="", "", INDIRECT("R" &amp; ROW() - 1) - R9))</f>
         <v/>
@@ -6745,7 +6724,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="10" t="str">
         <f aca="true">IF(L10="", IF(N10="","",W10+(INDIRECT("R" &amp; ROW() - 1) - R10)),IF(N10="", "", INDIRECT("R" &amp; ROW() - 1) - R10))</f>
         <v/>
@@ -6791,7 +6770,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="10" t="str">
         <f aca="true">IF(L11="", IF(N11="","",W11+(INDIRECT("R" &amp; ROW() - 1) - R11)),IF(N11="", "", INDIRECT("R" &amp; ROW() - 1) - R11))</f>
         <v/>
@@ -6837,7 +6816,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="10" t="str">
         <f aca="true">IF(L12="", IF(N12="","",W12+(INDIRECT("R" &amp; ROW() - 1) - R12)),IF(N12="", "", INDIRECT("R" &amp; ROW() - 1) - R12))</f>
         <v/>
@@ -6883,7 +6862,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="10" t="str">
         <f aca="true">IF(L13="", IF(N13="","",W13+(INDIRECT("R" &amp; ROW() - 1) - R13)),IF(N13="", "", INDIRECT("R" &amp; ROW() - 1) - R13))</f>
         <v/>
@@ -6929,7 +6908,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="10" t="str">
         <f aca="true">IF(L14="", IF(N14="","",W14+(INDIRECT("R" &amp; ROW() - 1) - R14)),IF(N14="", "", INDIRECT("R" &amp; ROW() - 1) - R14))</f>
         <v/>
@@ -6975,7 +6954,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="10" t="str">
         <f aca="true">IF(L15="", IF(N15="","",W15+(INDIRECT("R" &amp; ROW() - 1) - R15)),IF(N15="", "", INDIRECT("R" &amp; ROW() - 1) - R15))</f>
         <v/>
@@ -7021,7 +7000,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="10" t="str">
         <f aca="true">IF(L16="", IF(N16="","",W16+(INDIRECT("R" &amp; ROW() - 1) - R16)),IF(N16="", "", INDIRECT("R" &amp; ROW() - 1) - R16))</f>
         <v/>
@@ -7067,7 +7046,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="10" t="str">
         <f aca="true">IF(L17="", IF(N17="","",W17+(INDIRECT("R" &amp; ROW() - 1) - R17)),IF(N17="", "", INDIRECT("R" &amp; ROW() - 1) - R17))</f>
         <v/>
@@ -7113,7 +7092,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="10" t="str">
         <f aca="true">IF(L18="", IF(N18="","",W18+(INDIRECT("R" &amp; ROW() - 1) - R18)),IF(N18="", "", INDIRECT("R" &amp; ROW() - 1) - R18))</f>
         <v/>
@@ -7159,7 +7138,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="10" t="str">
         <f aca="true">IF(L19="", IF(N19="","",W19+(INDIRECT("R" &amp; ROW() - 1) - R19)),IF(N19="", "", INDIRECT("R" &amp; ROW() - 1) - R19))</f>
         <v/>
@@ -7205,7 +7184,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="10" t="str">
         <f aca="true">IF(L20="", IF(N20="","",W20+(INDIRECT("R" &amp; ROW() - 1) - R20)),IF(N20="", "", INDIRECT("R" &amp; ROW() - 1) - R20))</f>
         <v/>
@@ -7251,7 +7230,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="10" t="str">
         <f aca="true">IF(L21="", IF(N21="","",W21+(INDIRECT("R" &amp; ROW() - 1) - R21)),IF(N21="", "", INDIRECT("R" &amp; ROW() - 1) - R21))</f>
         <v/>
@@ -7297,7 +7276,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="10" t="str">
         <f aca="true">IF(L22="", IF(N22="","",W22+(INDIRECT("R" &amp; ROW() - 1) - R22)),IF(N22="", "", INDIRECT("R" &amp; ROW() - 1) - R22))</f>
         <v/>
@@ -7343,7 +7322,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="10" t="str">
         <f aca="true">IF(L23="", IF(N23="","",W23+(INDIRECT("R" &amp; ROW() - 1) - R23)),IF(N23="", "", INDIRECT("R" &amp; ROW() - 1) - R23))</f>
         <v/>
@@ -7389,7 +7368,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="10" t="str">
         <f aca="true">IF(L24="", IF(N24="","",W24+(INDIRECT("R" &amp; ROW() - 1) - R24)),IF(N24="", "", INDIRECT("R" &amp; ROW() - 1) - R24))</f>
         <v/>
@@ -7435,7 +7414,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="10" t="str">
         <f aca="true">IF(L25="", IF(N25="","",W25+(INDIRECT("R" &amp; ROW() - 1) - R25)),IF(N25="", "", INDIRECT("R" &amp; ROW() - 1) - R25))</f>
         <v/>
@@ -7481,7 +7460,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="10" t="str">
         <f aca="true">IF(L26="", IF(N26="","",W26+(INDIRECT("R" &amp; ROW() - 1) - R26)),IF(N26="", "", INDIRECT("R" &amp; ROW() - 1) - R26))</f>
         <v/>
@@ -7527,7 +7506,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="10" t="str">
         <f aca="true">IF(L27="", IF(N27="","",W27+(INDIRECT("R" &amp; ROW() - 1) - R27)),IF(N27="", "", INDIRECT("R" &amp; ROW() - 1) - R27))</f>
         <v/>
@@ -7573,7 +7552,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="10" t="str">
         <f aca="true">IF(L28="", IF(N28="","",W28+(INDIRECT("R" &amp; ROW() - 1) - R28)),IF(N28="", "", INDIRECT("R" &amp; ROW() - 1) - R28))</f>
         <v/>
@@ -7619,7 +7598,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="10" t="str">
         <f aca="true">IF(L29="", IF(N29="","",W29+(INDIRECT("R" &amp; ROW() - 1) - R29)),IF(N29="", "", INDIRECT("R" &amp; ROW() - 1) - R29))</f>
         <v/>
@@ -7665,7 +7644,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="10" t="str">
         <f aca="true">IF(L30="", IF(N30="","",W30+(INDIRECT("R" &amp; ROW() - 1) - R30)),IF(N30="", "", INDIRECT("R" &amp; ROW() - 1) - R30))</f>
         <v/>
@@ -7711,7 +7690,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="10" t="str">
         <f aca="true">IF(L31="", IF(N31="","",W31+(INDIRECT("R" &amp; ROW() - 1) - R31)),IF(N31="", "", INDIRECT("R" &amp; ROW() - 1) - R31))</f>
         <v/>
@@ -7757,7 +7736,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="10" t="str">
         <f aca="true">IF(L32="", IF(N32="","",W32+(INDIRECT("R" &amp; ROW() - 1) - R32)),IF(N32="", "", INDIRECT("R" &amp; ROW() - 1) - R32))</f>
         <v/>
@@ -7803,7 +7782,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="10" t="str">
         <f aca="true">IF(L33="", IF(N33="","",W33+(INDIRECT("R" &amp; ROW() - 1) - R33)),IF(N33="", "", INDIRECT("R" &amp; ROW() - 1) - R33))</f>
         <v/>
@@ -7849,7 +7828,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="10" t="str">
         <f aca="true">IF(L34="", IF(N34="","",W34+(INDIRECT("R" &amp; ROW() - 1) - R34)),IF(N34="", "", INDIRECT("R" &amp; ROW() - 1) - R34))</f>
         <v/>
@@ -7895,7 +7874,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="10" t="str">
         <f aca="true">IF(L35="", IF(N35="","",W35+(INDIRECT("R" &amp; ROW() - 1) - R35)),IF(N35="", "", INDIRECT("R" &amp; ROW() - 1) - R35))</f>
         <v/>
@@ -7941,7 +7920,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="10" t="str">
         <f aca="true">IF(L36="", IF(N36="","",W36+(INDIRECT("R" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("R" &amp; ROW() - 1) - R36))</f>
         <v/>
@@ -7987,7 +7966,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="10" t="str">
         <f aca="true">IF(L37="", IF(N37="","",W37+(INDIRECT("R" &amp; ROW() - 1) - R37)),IF(N37="", "", INDIRECT("R" &amp; ROW() - 1) - R37))</f>
         <v/>
@@ -8033,7 +8012,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="10" t="str">
         <f aca="true">IF(L38="", IF(N38="","",W38+(INDIRECT("R" &amp; ROW() - 1) - R38)),IF(N38="", "", INDIRECT("R" &amp; ROW() - 1) - R38))</f>
         <v/>
@@ -8079,7 +8058,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="10" t="str">
         <f aca="true">IF(L39="", IF(N39="","",W39+(INDIRECT("R" &amp; ROW() - 1) - R39)),IF(N39="", "", INDIRECT("R" &amp; ROW() - 1) - R39))</f>
         <v/>
@@ -8125,7 +8104,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="10" t="str">
         <f aca="true">IF(L40="", IF(N40="","",W40+(INDIRECT("R" &amp; ROW() - 1) - R40)),IF(N40="", "", INDIRECT("R" &amp; ROW() - 1) - R40))</f>
         <v/>
@@ -8171,7 +8150,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="10" t="str">
         <f aca="true">IF(L41="", IF(N41="","",W41+(INDIRECT("R" &amp; ROW() - 1) - R41)),IF(N41="", "", INDIRECT("R" &amp; ROW() - 1) - R41))</f>
         <v/>
@@ -8217,7 +8196,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="10" t="str">
         <f aca="true">IF(L42="", IF(N42="","",W42+(INDIRECT("R" &amp; ROW() - 1) - R42)),IF(N42="", "", INDIRECT("R" &amp; ROW() - 1) - R42))</f>
         <v/>
@@ -8263,7 +8242,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="10" t="str">
         <f aca="true">IF(L43="", IF(N43="","",W43+(INDIRECT("R" &amp; ROW() - 1) - R43)),IF(N43="", "", INDIRECT("R" &amp; ROW() - 1) - R43))</f>
         <v/>
@@ -8309,7 +8288,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="10" t="str">
         <f aca="true">IF(L44="", IF(N44="","",W44+(INDIRECT("R" &amp; ROW() - 1) - R44)),IF(N44="", "", INDIRECT("R" &amp; ROW() - 1) - R44))</f>
         <v/>
@@ -8355,7 +8334,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="str">
         <f aca="true">IF(L45="", IF(N45="","",W45+(INDIRECT("R" &amp; ROW() - 1) - R45)),IF(N45="", "", INDIRECT("R" &amp; ROW() - 1) - R45))</f>
         <v/>
@@ -8401,7 +8380,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="10" t="str">
         <f aca="true">IF(L46="", IF(N46="","",W46+(INDIRECT("R" &amp; ROW() - 1) - R46)),IF(N46="", "", INDIRECT("R" &amp; ROW() - 1) - R46))</f>
         <v/>
@@ -8447,7 +8426,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="10" t="str">
         <f aca="true">IF(L47="", IF(N47="","",W47+(INDIRECT("R" &amp; ROW() - 1) - R47)),IF(N47="", "", INDIRECT("R" &amp; ROW() - 1) - R47))</f>
         <v/>
@@ -8493,7 +8472,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="10" t="str">
         <f aca="true">IF(L48="", IF(N48="","",W48+(INDIRECT("R" &amp; ROW() - 1) - R48)),IF(N48="", "", INDIRECT("R" &amp; ROW() - 1) - R48))</f>
         <v/>
@@ -8539,7 +8518,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="10" t="str">
         <f aca="true">IF(L49="", IF(N49="","",W49+(INDIRECT("R" &amp; ROW() - 1) - R49)),IF(N49="", "", INDIRECT("R" &amp; ROW() - 1) - R49))</f>
         <v/>
@@ -8585,7 +8564,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="10" t="str">
         <f aca="true">IF(L50="", IF(N50="","",W50+(INDIRECT("R" &amp; ROW() - 1) - R50)),IF(N50="", "", INDIRECT("R" &amp; ROW() - 1) - R50))</f>
         <v/>
@@ -8631,7 +8610,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="10" t="str">
         <f aca="true">IF(L51="", IF(N51="","",W51+(INDIRECT("R" &amp; ROW() - 1) - R51)),IF(N51="", "", INDIRECT("R" &amp; ROW() - 1) - R51))</f>
         <v/>
@@ -8677,7 +8656,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="10" t="str">
         <f aca="true">IF(L52="", IF(N52="","",W52+(INDIRECT("R" &amp; ROW() - 1) - R52)),IF(N52="", "", INDIRECT("R" &amp; ROW() - 1) - R52))</f>
         <v/>
@@ -8723,7 +8702,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="10" t="str">
         <f aca="true">IF(L53="", IF(N53="","",W53+(INDIRECT("R" &amp; ROW() - 1) - R53)),IF(N53="", "", INDIRECT("R" &amp; ROW() - 1) - R53))</f>
         <v/>
@@ -8769,7 +8748,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="10" t="str">
         <f aca="true">IF(L54="", IF(N54="","",W54+(INDIRECT("R" &amp; ROW() - 1) - R54)),IF(N54="", "", INDIRECT("R" &amp; ROW() - 1) - R54))</f>
         <v/>
@@ -8815,7 +8794,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="10" t="str">
         <f aca="true">IF(L55="", IF(N55="","",W55+(INDIRECT("R" &amp; ROW() - 1) - R55)),IF(N55="", "", INDIRECT("R" &amp; ROW() - 1) - R55))</f>
         <v/>
@@ -8861,7 +8840,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="10" t="str">
         <f aca="true">IF(L56="", IF(N56="","",W56+(INDIRECT("R" &amp; ROW() - 1) - R56)),IF(N56="", "", INDIRECT("R" &amp; ROW() - 1) - R56))</f>
         <v/>
@@ -8907,7 +8886,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="10" t="str">
         <f aca="true">IF(L57="", IF(N57="","",W57+(INDIRECT("R" &amp; ROW() - 1) - R57)),IF(N57="", "", INDIRECT("R" &amp; ROW() - 1) - R57))</f>
         <v/>
@@ -8953,7 +8932,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="10" t="str">
         <f aca="true">IF(L58="", IF(N58="","",W58+(INDIRECT("R" &amp; ROW() - 1) - R58)),IF(N58="", "", INDIRECT("R" &amp; ROW() - 1) - R58))</f>
         <v/>
@@ -8999,7 +8978,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="10" t="str">
         <f aca="true">IF(L59="", IF(N59="","",W59+(INDIRECT("R" &amp; ROW() - 1) - R59)),IF(N59="", "", INDIRECT("R" &amp; ROW() - 1) - R59))</f>
         <v/>
@@ -9046,7 +9025,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="10" t="str">
         <f aca="true">IF(L60="", IF(N60="","",W60+(INDIRECT("R" &amp; ROW() - 1) - R60)),IF(N60="", "", INDIRECT("R" &amp; ROW() - 1) - R60))</f>
         <v/>
@@ -9092,7 +9071,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="10" t="str">
         <f aca="true">IF(L61="", IF(N61="","",W61+(INDIRECT("R" &amp; ROW() - 1) - R61)),IF(N61="", "", INDIRECT("R" &amp; ROW() - 1) - R61))</f>
         <v/>
@@ -9138,7 +9117,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="10" t="str">
         <f aca="true">IF(L62="", IF(N62="","",W62+(INDIRECT("R" &amp; ROW() - 1) - R62)),IF(N62="", "", INDIRECT("R" &amp; ROW() - 1) - R62))</f>
         <v/>
@@ -9184,7 +9163,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="10" t="str">
         <f aca="true">IF(L63="", IF(N63="","",W63+(INDIRECT("R" &amp; ROW() - 1) - R63)),IF(N63="", "", INDIRECT("R" &amp; ROW() - 1) - R63))</f>
         <v/>
@@ -9230,7 +9209,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="10" t="str">
         <f aca="true">IF(L64="", IF(N64="","",W64+(INDIRECT("R" &amp; ROW() - 1) - R64)),IF(N64="", "", INDIRECT("R" &amp; ROW() - 1) - R64))</f>
         <v/>
@@ -9276,7 +9255,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="10" t="str">
         <f aca="true">IF(L65="", IF(N65="","",W65+(INDIRECT("R" &amp; ROW() - 1) - R65)),IF(N65="", "", INDIRECT("R" &amp; ROW() - 1) - R65))</f>
         <v/>
@@ -9322,7 +9301,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="10" t="str">
         <f aca="true">IF(L66="", IF(N66="","",W66+(INDIRECT("R" &amp; ROW() - 1) - R66)),IF(N66="", "", INDIRECT("R" &amp; ROW() - 1) - R66))</f>
         <v/>
@@ -9368,7 +9347,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="10" t="str">
         <f aca="true">IF(L67="", IF(N67="","",W67+(INDIRECT("R" &amp; ROW() - 1) - R67)),IF(N67="", "", INDIRECT("R" &amp; ROW() - 1) - R67))</f>
         <v/>
@@ -9414,7 +9393,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="10" t="str">
         <f aca="true">IF(L68="", IF(N68="","",W68+(INDIRECT("R" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("R" &amp; ROW() - 1) - R68))</f>
         <v/>
@@ -9460,7 +9439,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="10" t="str">
         <f aca="true">IF(L69="", IF(N69="","",W69+(INDIRECT("R" &amp; ROW() - 1) - R69)),IF(N69="", "", INDIRECT("R" &amp; ROW() - 1) - R69))</f>
         <v/>
@@ -9506,7 +9485,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="10" t="str">
         <f aca="true">IF(L70="", IF(N70="","",W70+(INDIRECT("R" &amp; ROW() - 1) - R70)),IF(N70="", "", INDIRECT("R" &amp; ROW() - 1) - R70))</f>
         <v/>
@@ -9552,7 +9531,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="10" t="str">
         <f aca="true">IF(L71="", IF(N71="","",W71+(INDIRECT("R" &amp; ROW() - 1) - R71)),IF(N71="", "", INDIRECT("R" &amp; ROW() - 1) - R71))</f>
         <v/>
@@ -9598,7 +9577,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="10" t="str">
         <f aca="true">IF(L72="", IF(N72="","",W72+(INDIRECT("R" &amp; ROW() - 1) - R72)),IF(N72="", "", INDIRECT("R" &amp; ROW() - 1) - R72))</f>
         <v/>
@@ -9644,7 +9623,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="10" t="str">
         <f aca="true">IF(L73="", IF(N73="","",W73+(INDIRECT("R" &amp; ROW() - 1) - R73)),IF(N73="", "", INDIRECT("R" &amp; ROW() - 1) - R73))</f>
         <v/>
@@ -9690,7 +9669,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="10" t="str">
         <f aca="true">IF(L74="", IF(N74="","",W74+(INDIRECT("R" &amp; ROW() - 1) - R74)),IF(N74="", "", INDIRECT("R" &amp; ROW() - 1) - R74))</f>
         <v/>
@@ -9736,7 +9715,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="10" t="str">
         <f aca="true">IF(L75="", IF(N75="","",W75+(INDIRECT("R" &amp; ROW() - 1) - R75)),IF(N75="", "", INDIRECT("R" &amp; ROW() - 1) - R75))</f>
         <v/>
@@ -9782,7 +9761,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="10" t="str">
         <f aca="true">IF(L76="", IF(N76="","",W76+(INDIRECT("R" &amp; ROW() - 1) - R76)),IF(N76="", "", INDIRECT("R" &amp; ROW() - 1) - R76))</f>
         <v/>
@@ -9828,7 +9807,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="10" t="str">
         <f aca="true">IF(L77="", IF(N77="","",W77+(INDIRECT("R" &amp; ROW() - 1) - R77)),IF(N77="", "", INDIRECT("R" &amp; ROW() - 1) - R77))</f>
         <v/>
@@ -9874,7 +9853,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="10" t="str">
         <f aca="true">IF(L78="", IF(N78="","",W78+(INDIRECT("R" &amp; ROW() - 1) - R78)),IF(N78="", "", INDIRECT("R" &amp; ROW() - 1) - R78))</f>
         <v/>
@@ -9920,7 +9899,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="10" t="str">
         <f aca="true">IF(L79="", IF(N79="","",W79+(INDIRECT("R" &amp; ROW() - 1) - R79)),IF(N79="", "", INDIRECT("R" &amp; ROW() - 1) - R79))</f>
         <v/>
@@ -9966,7 +9945,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="10" t="str">
         <f aca="true">IF(L80="", IF(N80="","",W80+(INDIRECT("R" &amp; ROW() - 1) - R80)),IF(N80="", "", INDIRECT("R" &amp; ROW() - 1) - R80))</f>
         <v/>
@@ -10012,7 +9991,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="10" t="str">
         <f aca="true">IF(L81="", IF(N81="","",W81+(INDIRECT("R" &amp; ROW() - 1) - R81)),IF(N81="", "", INDIRECT("R" &amp; ROW() - 1) - R81))</f>
         <v/>
@@ -10058,7 +10037,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="10" t="str">
         <f aca="true">IF(L82="", IF(N82="","",W82+(INDIRECT("R" &amp; ROW() - 1) - R82)),IF(N82="", "", INDIRECT("R" &amp; ROW() - 1) - R82))</f>
         <v/>
@@ -10104,7 +10083,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="10" t="str">
         <f aca="true">IF(L83="", IF(N83="","",W83+(INDIRECT("R" &amp; ROW() - 1) - R83)),IF(N83="", "", INDIRECT("R" &amp; ROW() - 1) - R83))</f>
         <v/>
@@ -10150,7 +10129,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="10" t="str">
         <f aca="true">IF(L84="", IF(N84="","",W84+(INDIRECT("R" &amp; ROW() - 1) - R84)),IF(N84="", "", INDIRECT("R" &amp; ROW() - 1) - R84))</f>
         <v/>
@@ -10196,7 +10175,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="10" t="str">
         <f aca="true">IF(L85="", IF(N85="","",W85+(INDIRECT("R" &amp; ROW() - 1) - R85)),IF(N85="", "", INDIRECT("R" &amp; ROW() - 1) - R85))</f>
         <v/>
@@ -10242,7 +10221,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="10" t="str">
         <f aca="true">IF(L86="", IF(N86="","",W86+(INDIRECT("R" &amp; ROW() - 1) - R86)),IF(N86="", "", INDIRECT("R" &amp; ROW() - 1) - R86))</f>
         <v/>
@@ -10288,7 +10267,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="10" t="str">
         <f aca="true">IF(L87="", IF(N87="","",W87+(INDIRECT("R" &amp; ROW() - 1) - R87)),IF(N87="", "", INDIRECT("R" &amp; ROW() - 1) - R87))</f>
         <v/>
@@ -10334,7 +10313,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="10" t="str">
         <f aca="true">IF(L88="", IF(N88="","",W88+(INDIRECT("R" &amp; ROW() - 1) - R88)),IF(N88="", "", INDIRECT("R" &amp; ROW() - 1) - R88))</f>
         <v/>
@@ -10380,7 +10359,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="10" t="str">
         <f aca="true">IF(L89="", IF(N89="","",W89+(INDIRECT("R" &amp; ROW() - 1) - R89)),IF(N89="", "", INDIRECT("R" &amp; ROW() - 1) - R89))</f>
         <v/>
@@ -10426,7 +10405,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="10" t="str">
         <f aca="true">IF(L90="", IF(N90="","",W90+(INDIRECT("R" &amp; ROW() - 1) - R90)),IF(N90="", "", INDIRECT("R" &amp; ROW() - 1) - R90))</f>
         <v/>
@@ -10472,7 +10451,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="10" t="str">
         <f aca="true">IF(L91="", IF(N91="","",W91+(INDIRECT("R" &amp; ROW() - 1) - R91)),IF(N91="", "", INDIRECT("R" &amp; ROW() - 1) - R91))</f>
         <v/>
@@ -10518,7 +10497,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="10" t="str">
         <f aca="true">IF(L92="", IF(N92="","",W92+(INDIRECT("R" &amp; ROW() - 1) - R92)),IF(N92="", "", INDIRECT("R" &amp; ROW() - 1) - R92))</f>
         <v/>
@@ -10564,7 +10543,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="10" t="str">
         <f aca="true">IF(L93="", IF(N93="","",W93+(INDIRECT("R" &amp; ROW() - 1) - R93)),IF(N93="", "", INDIRECT("R" &amp; ROW() - 1) - R93))</f>
         <v/>
@@ -10610,7 +10589,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="10" t="str">
         <f aca="true">IF(L94="", IF(N94="","",W94+(INDIRECT("R" &amp; ROW() - 1) - R94)),IF(N94="", "", INDIRECT("R" &amp; ROW() - 1) - R94))</f>
         <v/>
@@ -10656,7 +10635,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="10" t="str">
         <f aca="true">IF(L95="", IF(N95="","",W95+(INDIRECT("R" &amp; ROW() - 1) - R95)),IF(N95="", "", INDIRECT("R" &amp; ROW() - 1) - R95))</f>
         <v/>
@@ -10702,7 +10681,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="10" t="str">
         <f aca="true">IF(L96="", IF(N96="","",W96+(INDIRECT("R" &amp; ROW() - 1) - R96)),IF(N96="", "", INDIRECT("R" &amp; ROW() - 1) - R96))</f>
         <v/>
@@ -10748,7 +10727,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="10" t="str">
         <f aca="true">IF(L97="", IF(N97="","",W97+(INDIRECT("R" &amp; ROW() - 1) - R97)),IF(N97="", "", INDIRECT("R" &amp; ROW() - 1) - R97))</f>
         <v/>
@@ -10794,7 +10773,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="10" t="str">
         <f aca="true">IF(L98="", IF(N98="","",W98+(INDIRECT("R" &amp; ROW() - 1) - R98)),IF(N98="", "", INDIRECT("R" &amp; ROW() - 1) - R98))</f>
         <v/>
@@ -10840,7 +10819,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="10" t="str">
         <f aca="true">IF(L99="", IF(N99="","",W99+(INDIRECT("R" &amp; ROW() - 1) - R99)),IF(N99="", "", INDIRECT("R" &amp; ROW() - 1) - R99))</f>
         <v/>
@@ -10886,7 +10865,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="10" t="str">
         <f aca="true">IF(L100="", IF(N100="","",W100+(INDIRECT("R" &amp; ROW() - 1) - R100)),IF(N100="", "", INDIRECT("R" &amp; ROW() - 1) - R100))</f>
         <v/>
@@ -10932,7 +10911,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="10" t="str">
         <f aca="true">IF(L101="", IF(N101="","",W101+(INDIRECT("R" &amp; ROW() - 1) - R101)),IF(N101="", "", INDIRECT("R" &amp; ROW() - 1) - R101))</f>
         <v/>
@@ -10978,7 +10957,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="10" t="str">
         <f aca="true">IF(L102="", IF(N102="","",W102+(INDIRECT("R" &amp; ROW() - 1) - R102)),IF(N102="", "", INDIRECT("R" &amp; ROW() - 1) - R102))</f>
         <v/>
@@ -11024,7 +11003,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="10" t="str">
         <f aca="true">IF(L103="", IF(N103="","",W103+(INDIRECT("R" &amp; ROW() - 1) - R103)),IF(N103="", "", INDIRECT("R" &amp; ROW() - 1) - R103))</f>
         <v/>
@@ -11070,7 +11049,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="10" t="str">
         <f aca="true">IF(L104="", IF(N104="","",W104+(INDIRECT("R" &amp; ROW() - 1) - R104)),IF(N104="", "", INDIRECT("R" &amp; ROW() - 1) - R104))</f>
         <v/>
@@ -11116,7 +11095,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="10" t="str">
         <f aca="true">IF(L105="", IF(N105="","",W105+(INDIRECT("R" &amp; ROW() - 1) - R105)),IF(N105="", "", INDIRECT("R" &amp; ROW() - 1) - R105))</f>
         <v/>
@@ -11162,7 +11141,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="10" t="str">
         <f aca="true">IF(L106="", IF(N106="","",W106+(INDIRECT("R" &amp; ROW() - 1) - R106)),IF(N106="", "", INDIRECT("R" &amp; ROW() - 1) - R106))</f>
         <v/>
@@ -11208,7 +11187,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="10" t="str">
         <f aca="true">IF(L107="", IF(N107="","",W107+(INDIRECT("R" &amp; ROW() - 1) - R107)),IF(N107="", "", INDIRECT("R" &amp; ROW() - 1) - R107))</f>
         <v/>
@@ -11254,7 +11233,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="10" t="str">
         <f aca="true">IF(L108="", IF(N108="","",W108+(INDIRECT("R" &amp; ROW() - 1) - R108)),IF(N108="", "", INDIRECT("R" &amp; ROW() - 1) - R108))</f>
         <v/>
@@ -11300,7 +11279,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="10" t="str">
         <f aca="true">IF(L109="", IF(N109="","",W109+(INDIRECT("R" &amp; ROW() - 1) - R109)),IF(N109="", "", INDIRECT("R" &amp; ROW() - 1) - R109))</f>
         <v/>
@@ -11346,7 +11325,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="10" t="str">
         <f aca="true">IF(L110="", IF(N110="","",W110+(INDIRECT("R" &amp; ROW() - 1) - R110)),IF(N110="", "", INDIRECT("R" &amp; ROW() - 1) - R110))</f>
         <v/>
@@ -11392,7 +11371,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="10" t="str">
         <f aca="true">IF(L111="", IF(N111="","",W111+(INDIRECT("R" &amp; ROW() - 1) - R111)),IF(N111="", "", INDIRECT("R" &amp; ROW() - 1) - R111))</f>
         <v/>
@@ -11438,7 +11417,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="10" t="str">
         <f aca="true">IF(L112="", IF(N112="","",W112+(INDIRECT("R" &amp; ROW() - 1) - R112)),IF(N112="", "", INDIRECT("R" &amp; ROW() - 1) - R112))</f>
         <v/>
@@ -11484,7 +11463,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="10" t="str">
         <f aca="true">IF(L113="", IF(N113="","",W113+(INDIRECT("R" &amp; ROW() - 1) - R113)),IF(N113="", "", INDIRECT("R" &amp; ROW() - 1) - R113))</f>
         <v/>
@@ -11530,7 +11509,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="10" t="str">
         <f aca="true">IF(L114="", IF(N114="","",W114+(INDIRECT("R" &amp; ROW() - 1) - R114)),IF(N114="", "", INDIRECT("R" &amp; ROW() - 1) - R114))</f>
         <v/>
@@ -11576,7 +11555,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="10" t="str">
         <f aca="true">IF(L115="", IF(N115="","",W115+(INDIRECT("R" &amp; ROW() - 1) - R115)),IF(N115="", "", INDIRECT("R" &amp; ROW() - 1) - R115))</f>
         <v/>
@@ -11622,7 +11601,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="10" t="str">
         <f aca="true">IF(L116="", IF(N116="","",W116+(INDIRECT("R" &amp; ROW() - 1) - R116)),IF(N116="", "", INDIRECT("R" &amp; ROW() - 1) - R116))</f>
         <v/>
@@ -11668,7 +11647,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="10" t="str">
         <f aca="true">IF(L117="", IF(N117="","",W117+(INDIRECT("R" &amp; ROW() - 1) - R117)),IF(N117="", "", INDIRECT("R" &amp; ROW() - 1) - R117))</f>
         <v/>
@@ -11714,7 +11693,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="10" t="str">
         <f aca="true">IF(L118="", IF(N118="","",W118+(INDIRECT("R" &amp; ROW() - 1) - R118)),IF(N118="", "", INDIRECT("R" &amp; ROW() - 1) - R118))</f>
         <v/>
@@ -11760,7 +11739,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="10" t="str">
         <f aca="true">IF(L119="", IF(N119="","",W119+(INDIRECT("R" &amp; ROW() - 1) - R119)),IF(N119="", "", INDIRECT("R" &amp; ROW() - 1) - R119))</f>
         <v/>
@@ -11806,7 +11785,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="10" t="str">
         <f aca="true">IF(L120="", IF(N120="","",W120+(INDIRECT("R" &amp; ROW() - 1) - R120)),IF(N120="", "", INDIRECT("R" &amp; ROW() - 1) - R120))</f>
         <v/>
@@ -11852,7 +11831,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="10" t="str">
         <f aca="true">IF(L121="", IF(N121="","",W121+(INDIRECT("R" &amp; ROW() - 1) - R121)),IF(N121="", "", INDIRECT("R" &amp; ROW() - 1) - R121))</f>
         <v/>
@@ -11898,7 +11877,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="10" t="str">
         <f aca="true">IF(L122="", IF(N122="","",W122+(INDIRECT("R" &amp; ROW() - 1) - R122)),IF(N122="", "", INDIRECT("R" &amp; ROW() - 1) - R122))</f>
         <v/>
@@ -11951,11 +11930,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="3" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>1</formula>
       <formula>1000000</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="4" operator="between" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>-100000</formula>
       <formula>-1</formula>
     </cfRule>
@@ -11965,12 +11944,12 @@
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H122" type="list">
       <formula1>'Соль SKU'!$A$1:$A$137</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
-      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -11992,7 +11971,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="J:J G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12018,7 +11997,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J:J A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12044,7 +12023,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="J:J E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12071,7 +12050,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="J:J F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12098,7 +12077,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="J:J A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -405,7 +405,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L24" activeCellId="1" sqref="J:J L24"/>
+      <selection pane="topLeft" activeCell="L24" activeCellId="0" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -431,7 +431,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="1" sqref="J:J A10"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -460,7 +460,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I18" activeCellId="1" sqref="J:J I18"/>
+      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -532,14 +532,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W122"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="15" ySplit="1" topLeftCell="X113" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J:J"/>
+      <selection pane="topRight" activeCell="X1" activeCellId="0" sqref="X1"/>
+      <selection pane="bottomLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+      <selection pane="bottomRight" activeCell="J144" activeCellId="0" sqref="J144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -635,7 +635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="9"/>
       <c r="J2" s="10" t="str">
         <f aca="true">IF(L2="", IF(N2="","",W2+(INDIRECT("R" &amp; ROW() - 1) - R2)),IF(N2="", "", INDIRECT("R" &amp; ROW() - 1) - R2))</f>
@@ -667,8 +667,8 @@
         <v/>
       </c>
       <c r="T2" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U2" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
@@ -679,11 +679,11 @@
         <v>0</v>
       </c>
       <c r="W2" s="0" t="str">
-        <f aca="true">IF(N2="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N2="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R2)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J3" s="10" t="str">
         <f aca="true">IF(L3="", IF(N3="","",W3+(INDIRECT("R" &amp; ROW() - 1) - R3)),IF(N3="", "", INDIRECT("R" &amp; ROW() - 1) - R3))</f>
         <v/>
@@ -713,8 +713,8 @@
         <v/>
       </c>
       <c r="T3" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U3" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 0 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),0 *LEN($L3)+1,LEN($L3))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 1 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),1 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 2 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),2 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 3 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),3 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 4 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),4 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 5 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),5 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 6 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),6 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 7 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),7 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 8 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),8 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 9 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),9 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 10 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),10 *LEN($L3)+1,LEN($L3)))))</f>
@@ -725,11 +725,11 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="str">
-        <f aca="true">IF(N3="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R3)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N3="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R3)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J4" s="10" t="str">
         <f aca="true">IF(L4="", IF(N4="","",W4+(INDIRECT("R" &amp; ROW() - 1) - R4)),IF(N4="", "", INDIRECT("R" &amp; ROW() - 1) - R4))</f>
         <v/>
@@ -759,8 +759,8 @@
         <v/>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U4" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 0 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),0 *LEN($L4)+1,LEN($L4))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 1 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),1 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 2 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),2 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 3 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),3 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 4 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),4 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 5 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),5 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 6 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),6 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 7 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),7 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 8 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),8 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 9 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),9 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 10 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),10 *LEN($L4)+1,LEN($L4)))))</f>
@@ -771,11 +771,11 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="str">
-        <f aca="true">IF(N4="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R4)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N4="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R4)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J5" s="10" t="str">
         <f aca="true">IF(L5="", IF(N5="","",W5+(INDIRECT("R" &amp; ROW() - 1) - R5)),IF(N5="", "", INDIRECT("R" &amp; ROW() - 1) - R5))</f>
         <v/>
@@ -805,8 +805,8 @@
         <v/>
       </c>
       <c r="T5" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U5" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 0 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),0 *LEN($L5)+1,LEN($L5))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 1 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),1 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 2 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),2 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 3 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),3 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 4 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),4 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 5 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),5 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 6 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),6 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 7 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),7 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 8 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),8 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 9 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),9 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 10 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),10 *LEN($L5)+1,LEN($L5)))))</f>
@@ -817,11 +817,11 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="str">
-        <f aca="true">IF(N5="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R5)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N5="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R5)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J6" s="10" t="str">
         <f aca="true">IF(L6="", IF(N6="","",W6+(INDIRECT("R" &amp; ROW() - 1) - R6)),IF(N6="", "", INDIRECT("R" &amp; ROW() - 1) - R6))</f>
         <v/>
@@ -851,8 +851,8 @@
         <v/>
       </c>
       <c r="T6" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U6" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 0 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),0 *LEN($L6)+1,LEN($L6))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 1 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),1 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 2 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),2 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 3 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),3 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 4 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),4 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 5 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),5 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 6 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),6 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 7 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),7 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 8 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),8 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 9 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),9 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 10 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),10 *LEN($L6)+1,LEN($L6)))))</f>
@@ -863,11 +863,11 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="str">
-        <f aca="true">IF(N6="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R6)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N6="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R6)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J7" s="10" t="str">
         <f aca="true">IF(L7="", IF(N7="","",W7+(INDIRECT("R" &amp; ROW() - 1) - R7)),IF(N7="", "", INDIRECT("R" &amp; ROW() - 1) - R7))</f>
         <v/>
@@ -897,8 +897,8 @@
         <v/>
       </c>
       <c r="T7" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U7" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 0 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),0 *LEN($L7)+1,LEN($L7))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 1 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),1 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 2 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),2 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 3 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),3 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 4 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),4 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 5 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),5 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 6 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),6 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 7 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),7 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 8 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),8 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 9 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),9 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 10 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),10 *LEN($L7)+1,LEN($L7)))))</f>
@@ -909,11 +909,11 @@
         <v>0</v>
       </c>
       <c r="W7" s="0" t="str">
-        <f aca="true">IF(N7="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R7)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N7="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R7)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J8" s="10" t="str">
         <f aca="true">IF(L8="", IF(N8="","",W8+(INDIRECT("R" &amp; ROW() - 1) - R8)),IF(N8="", "", INDIRECT("R" &amp; ROW() - 1) - R8))</f>
         <v/>
@@ -943,8 +943,8 @@
         <v/>
       </c>
       <c r="T8" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U8" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 0 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),0 *LEN($L8)+1,LEN($L8))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 1 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),1 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 2 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),2 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 3 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),3 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 4 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),4 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 5 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),5 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 6 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),6 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 7 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),7 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 8 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),8 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 9 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),9 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 10 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),10 *LEN($L8)+1,LEN($L8)))))</f>
@@ -955,11 +955,11 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="str">
-        <f aca="true">IF(N8="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R8)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N8="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R8)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J9" s="10" t="str">
         <f aca="true">IF(L9="", IF(N9="","",W9+(INDIRECT("R" &amp; ROW() - 1) - R9)),IF(N9="", "", INDIRECT("R" &amp; ROW() - 1) - R9))</f>
         <v/>
@@ -989,8 +989,8 @@
         <v/>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 0 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),0 *LEN($L9)+1,LEN($L9))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 1 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),1 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 2 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),2 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 3 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),3 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 4 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),4 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 5 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),5 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 6 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),6 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 7 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),7 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 8 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),8 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 9 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),9 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 10 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),10 *LEN($L9)+1,LEN($L9)))))</f>
@@ -1001,11 +1001,11 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="str">
-        <f aca="true">IF(N9="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R9)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N9="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R9)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J10" s="10" t="str">
         <f aca="true">IF(L10="", IF(N10="","",W10+(INDIRECT("R" &amp; ROW() - 1) - R10)),IF(N10="", "", INDIRECT("R" &amp; ROW() - 1) - R10))</f>
         <v/>
@@ -1035,8 +1035,8 @@
         <v/>
       </c>
       <c r="T10" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 0 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),0 *LEN($L10)+1,LEN($L10))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 1 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),1 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 2 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),2 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 3 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),3 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 4 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),4 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 5 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),5 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 6 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),6 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 7 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),7 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 8 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),8 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 9 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),9 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 10 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),10 *LEN($L10)+1,LEN($L10)))))</f>
@@ -1047,11 +1047,11 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="str">
-        <f aca="true">IF(N10="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R10)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N10="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R10)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J11" s="10" t="str">
         <f aca="true">IF(L11="", IF(N11="","",W11+(INDIRECT("R" &amp; ROW() - 1) - R11)),IF(N11="", "", INDIRECT("R" &amp; ROW() - 1) - R11))</f>
         <v/>
@@ -1081,8 +1081,8 @@
         <v/>
       </c>
       <c r="T11" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U11" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 0 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),0 *LEN($L11)+1,LEN($L11))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 1 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),1 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 2 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),2 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 3 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),3 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 4 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),4 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 5 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),5 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 6 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),6 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 7 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),7 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 8 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),8 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 9 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),9 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 10 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),10 *LEN($L11)+1,LEN($L11)))))</f>
@@ -1093,11 +1093,11 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="str">
-        <f aca="true">IF(N11="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R11)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N11="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R11)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J12" s="10" t="str">
         <f aca="true">IF(L12="", IF(N12="","",W12+(INDIRECT("R" &amp; ROW() - 1) - R12)),IF(N12="", "", INDIRECT("R" &amp; ROW() - 1) - R12))</f>
         <v/>
@@ -1127,8 +1127,8 @@
         <v/>
       </c>
       <c r="T12" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 0 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),0 *LEN($L12)+1,LEN($L12))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 1 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),1 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 2 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),2 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 3 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),3 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 4 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),4 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 5 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),5 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 6 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),6 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 7 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),7 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 8 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),8 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 9 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),9 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 10 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),10 *LEN($L12)+1,LEN($L12)))))</f>
@@ -1139,11 +1139,11 @@
         <v>0</v>
       </c>
       <c r="W12" s="0" t="str">
-        <f aca="true">IF(N12="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R12)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N12="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R12)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J13" s="10" t="str">
         <f aca="true">IF(L13="", IF(N13="","",W13+(INDIRECT("R" &amp; ROW() - 1) - R13)),IF(N13="", "", INDIRECT("R" &amp; ROW() - 1) - R13))</f>
         <v/>
@@ -1173,8 +1173,8 @@
         <v/>
       </c>
       <c r="T13" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 0 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),0 *LEN($L13)+1,LEN($L13))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 1 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),1 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 2 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),2 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 3 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),3 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 4 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),4 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 5 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),5 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 6 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),6 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 7 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),7 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 8 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),8 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 9 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),9 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 10 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),10 *LEN($L13)+1,LEN($L13)))))</f>
@@ -1185,11 +1185,11 @@
         <v>0</v>
       </c>
       <c r="W13" s="0" t="str">
-        <f aca="true">IF(N13="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R13)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N13="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R13)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J14" s="10" t="str">
         <f aca="true">IF(L14="", IF(N14="","",W14+(INDIRECT("R" &amp; ROW() - 1) - R14)),IF(N14="", "", INDIRECT("R" &amp; ROW() - 1) - R14))</f>
         <v/>
@@ -1219,8 +1219,8 @@
         <v/>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 0 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),0 *LEN($L14)+1,LEN($L14))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 1 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),1 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 2 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),2 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 3 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),3 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 4 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),4 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 5 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),5 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 6 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),6 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 7 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),7 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 8 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),8 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 9 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),9 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 10 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),10 *LEN($L14)+1,LEN($L14)))))</f>
@@ -1231,11 +1231,11 @@
         <v>0</v>
       </c>
       <c r="W14" s="0" t="str">
-        <f aca="true">IF(N14="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R14)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N14="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R14)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J15" s="10" t="str">
         <f aca="true">IF(L15="", IF(N15="","",W15+(INDIRECT("R" &amp; ROW() - 1) - R15)),IF(N15="", "", INDIRECT("R" &amp; ROW() - 1) - R15))</f>
         <v/>
@@ -1265,8 +1265,8 @@
         <v/>
       </c>
       <c r="T15" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U15" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 0 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),0 *LEN($L15)+1,LEN($L15))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 1 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),1 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 2 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),2 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 3 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),3 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 4 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),4 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 5 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),5 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 6 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),6 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 7 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),7 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 8 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),8 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 9 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),9 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 10 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),10 *LEN($L15)+1,LEN($L15)))))</f>
@@ -1277,11 +1277,11 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="str">
-        <f aca="true">IF(N15="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R15)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N15="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R15)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J16" s="10" t="str">
         <f aca="true">IF(L16="", IF(N16="","",W16+(INDIRECT("R" &amp; ROW() - 1) - R16)),IF(N16="", "", INDIRECT("R" &amp; ROW() - 1) - R16))</f>
         <v/>
@@ -1311,8 +1311,8 @@
         <v/>
       </c>
       <c r="T16" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U16" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 0 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),0 *LEN($L16)+1,LEN($L16))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 1 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),1 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 2 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),2 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 3 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),3 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 4 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),4 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 5 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),5 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 6 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),6 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 7 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),7 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 8 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),8 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 9 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),9 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 10 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),10 *LEN($L16)+1,LEN($L16)))))</f>
@@ -1323,11 +1323,11 @@
         <v>0</v>
       </c>
       <c r="W16" s="0" t="str">
-        <f aca="true">IF(N16="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R16)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N16="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R16)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J17" s="10" t="str">
         <f aca="true">IF(L17="", IF(N17="","",W17+(INDIRECT("R" &amp; ROW() - 1) - R17)),IF(N17="", "", INDIRECT("R" &amp; ROW() - 1) - R17))</f>
         <v/>
@@ -1357,8 +1357,8 @@
         <v/>
       </c>
       <c r="T17" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U17" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 0 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),0 *LEN($L17)+1,LEN($L17))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 1 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),1 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 2 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),2 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 3 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),3 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 4 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),4 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 5 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),5 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 6 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),6 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 7 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),7 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 8 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),8 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 9 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),9 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 10 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),10 *LEN($L17)+1,LEN($L17)))))</f>
@@ -1369,11 +1369,11 @@
         <v>0</v>
       </c>
       <c r="W17" s="0" t="str">
-        <f aca="true">IF(N17="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R17)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N17="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R17)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J18" s="10" t="str">
         <f aca="true">IF(L18="", IF(N18="","",W18+(INDIRECT("R" &amp; ROW() - 1) - R18)),IF(N18="", "", INDIRECT("R" &amp; ROW() - 1) - R18))</f>
         <v/>
@@ -1403,8 +1403,8 @@
         <v/>
       </c>
       <c r="T18" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U18" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 0 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),0 *LEN($L18)+1,LEN($L18))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 1 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),1 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 2 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),2 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 3 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),3 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 4 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),4 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 5 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),5 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 6 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),6 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 7 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),7 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 8 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),8 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 9 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),9 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 10 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),10 *LEN($L18)+1,LEN($L18)))))</f>
@@ -1415,11 +1415,11 @@
         <v>0</v>
       </c>
       <c r="W18" s="0" t="str">
-        <f aca="true">IF(N18="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R18)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N18="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R18)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J19" s="10" t="str">
         <f aca="true">IF(L19="", IF(N19="","",W19+(INDIRECT("R" &amp; ROW() - 1) - R19)),IF(N19="", "", INDIRECT("R" &amp; ROW() - 1) - R19))</f>
         <v/>
@@ -1449,8 +1449,8 @@
         <v/>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U19" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 0 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),0 *LEN($L19)+1,LEN($L19))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 1 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),1 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 2 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),2 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 3 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),3 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 4 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),4 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 5 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),5 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 6 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),6 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 7 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),7 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 8 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),8 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 9 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),9 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 10 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),10 *LEN($L19)+1,LEN($L19)))))</f>
@@ -1461,11 +1461,11 @@
         <v>0</v>
       </c>
       <c r="W19" s="0" t="str">
-        <f aca="true">IF(N19="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R19)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N19="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R19)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J20" s="10" t="str">
         <f aca="true">IF(L20="", IF(N20="","",W20+(INDIRECT("R" &amp; ROW() - 1) - R20)),IF(N20="", "", INDIRECT("R" &amp; ROW() - 1) - R20))</f>
         <v/>
@@ -1495,8 +1495,8 @@
         <v/>
       </c>
       <c r="T20" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U20" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 0 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),0 *LEN($L20)+1,LEN($L20))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 1 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),1 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 2 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),2 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 3 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),3 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 4 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),4 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 5 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),5 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 6 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),6 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 7 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),7 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 8 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),8 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 9 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),9 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 10 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),10 *LEN($L20)+1,LEN($L20)))))</f>
@@ -1507,11 +1507,11 @@
         <v>0</v>
       </c>
       <c r="W20" s="0" t="str">
-        <f aca="true">IF(N20="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R20)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N20="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R20)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J21" s="10" t="str">
         <f aca="true">IF(L21="", IF(N21="","",W21+(INDIRECT("R" &amp; ROW() - 1) - R21)),IF(N21="", "", INDIRECT("R" &amp; ROW() - 1) - R21))</f>
         <v/>
@@ -1541,8 +1541,8 @@
         <v/>
       </c>
       <c r="T21" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U21" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 0 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),0 *LEN($L21)+1,LEN($L21))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 1 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),1 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 2 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),2 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 3 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),3 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 4 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),4 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 5 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),5 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 6 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),6 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 7 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),7 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 8 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),8 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 9 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),9 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 10 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),10 *LEN($L21)+1,LEN($L21)))))</f>
@@ -1553,11 +1553,11 @@
         <v>0</v>
       </c>
       <c r="W21" s="0" t="str">
-        <f aca="true">IF(N21="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R21)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N21="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R21)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J22" s="10" t="str">
         <f aca="true">IF(L22="", IF(N22="","",W22+(INDIRECT("R" &amp; ROW() - 1) - R22)),IF(N22="", "", INDIRECT("R" &amp; ROW() - 1) - R22))</f>
         <v/>
@@ -1587,8 +1587,8 @@
         <v/>
       </c>
       <c r="T22" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U22" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 0 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),0 *LEN($L22)+1,LEN($L22))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 1 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),1 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 2 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),2 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 3 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),3 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 4 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),4 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 5 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),5 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 6 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),6 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 7 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),7 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 8 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),8 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 9 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),9 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 10 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),10 *LEN($L22)+1,LEN($L22)))))</f>
@@ -1599,11 +1599,11 @@
         <v>0</v>
       </c>
       <c r="W22" s="0" t="str">
-        <f aca="true">IF(N22="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R22)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N22="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R22)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J23" s="10" t="str">
         <f aca="true">IF(L23="", IF(N23="","",W23+(INDIRECT("R" &amp; ROW() - 1) - R23)),IF(N23="", "", INDIRECT("R" &amp; ROW() - 1) - R23))</f>
         <v/>
@@ -1633,8 +1633,8 @@
         <v/>
       </c>
       <c r="T23" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U23" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 0 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),0 *LEN($L23)+1,LEN($L23))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 1 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),1 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 2 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),2 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 3 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),3 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 4 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),4 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 5 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),5 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 6 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),6 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 7 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),7 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 8 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),8 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 9 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),9 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 10 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),10 *LEN($L23)+1,LEN($L23)))))</f>
@@ -1645,11 +1645,11 @@
         <v>0</v>
       </c>
       <c r="W23" s="0" t="str">
-        <f aca="true">IF(N23="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R23)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N23="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R23)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J24" s="10" t="str">
         <f aca="true">IF(L24="", IF(N24="","",W24+(INDIRECT("R" &amp; ROW() - 1) - R24)),IF(N24="", "", INDIRECT("R" &amp; ROW() - 1) - R24))</f>
         <v/>
@@ -1679,8 +1679,8 @@
         <v/>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U24" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 0 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),0 *LEN($L24)+1,LEN($L24))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 1 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),1 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 2 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),2 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 3 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),3 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 4 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),4 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 5 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),5 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 6 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),6 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 7 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),7 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 8 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),8 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 9 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),9 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 10 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),10 *LEN($L24)+1,LEN($L24)))))</f>
@@ -1691,11 +1691,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="0" t="str">
-        <f aca="true">IF(N24="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R24)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N24="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R24)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J25" s="10" t="str">
         <f aca="true">IF(L25="", IF(N25="","",W25+(INDIRECT("R" &amp; ROW() - 1) - R25)),IF(N25="", "", INDIRECT("R" &amp; ROW() - 1) - R25))</f>
         <v/>
@@ -1725,8 +1725,8 @@
         <v/>
       </c>
       <c r="T25" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U25" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 0 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),0 *LEN($L25)+1,LEN($L25))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 1 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),1 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 2 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),2 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 3 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),3 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 4 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),4 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 5 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),5 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 6 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),6 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 7 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),7 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 8 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),8 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 9 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),9 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 10 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),10 *LEN($L25)+1,LEN($L25)))))</f>
@@ -1737,11 +1737,11 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="str">
-        <f aca="true">IF(N25="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R25)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N25="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R25)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J26" s="10" t="str">
         <f aca="true">IF(L26="", IF(N26="","",W26+(INDIRECT("R" &amp; ROW() - 1) - R26)),IF(N26="", "", INDIRECT("R" &amp; ROW() - 1) - R26))</f>
         <v/>
@@ -1771,8 +1771,8 @@
         <v/>
       </c>
       <c r="T26" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U26" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 0 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),0 *LEN($L26)+1,LEN($L26))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 1 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),1 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 2 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),2 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 3 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),3 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 4 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),4 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 5 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),5 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 6 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),6 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 7 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),7 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 8 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),8 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 9 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),9 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 10 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),10 *LEN($L26)+1,LEN($L26)))))</f>
@@ -1783,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="W26" s="0" t="str">
-        <f aca="true">IF(N26="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R26)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N26="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R26)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J27" s="10" t="str">
         <f aca="true">IF(L27="", IF(N27="","",W27+(INDIRECT("R" &amp; ROW() - 1) - R27)),IF(N27="", "", INDIRECT("R" &amp; ROW() - 1) - R27))</f>
         <v/>
@@ -1817,8 +1817,8 @@
         <v/>
       </c>
       <c r="T27" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U27" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 0 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),0 *LEN($L27)+1,LEN($L27))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 1 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),1 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 2 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),2 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 3 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),3 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 4 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),4 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 5 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),5 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 6 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),6 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 7 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),7 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 8 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),8 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 9 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),9 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 10 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),10 *LEN($L27)+1,LEN($L27)))))</f>
@@ -1829,11 +1829,11 @@
         <v>0</v>
       </c>
       <c r="W27" s="0" t="str">
-        <f aca="true">IF(N27="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R27)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N27="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R27)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J28" s="10" t="str">
         <f aca="true">IF(L28="", IF(N28="","",W28+(INDIRECT("R" &amp; ROW() - 1) - R28)),IF(N28="", "", INDIRECT("R" &amp; ROW() - 1) - R28))</f>
         <v/>
@@ -1863,8 +1863,8 @@
         <v/>
       </c>
       <c r="T28" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U28" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 0 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),0 *LEN($L28)+1,LEN($L28))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 1 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),1 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 2 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),2 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 3 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),3 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 4 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),4 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 5 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),5 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 6 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),6 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 7 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),7 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 8 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),8 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 9 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),9 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 10 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),10 *LEN($L28)+1,LEN($L28)))))</f>
@@ -1875,11 +1875,11 @@
         <v>0</v>
       </c>
       <c r="W28" s="0" t="str">
-        <f aca="true">IF(N28="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R28)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N28="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R28)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J29" s="10" t="str">
         <f aca="true">IF(L29="", IF(N29="","",W29+(INDIRECT("R" &amp; ROW() - 1) - R29)),IF(N29="", "", INDIRECT("R" &amp; ROW() - 1) - R29))</f>
         <v/>
@@ -1909,8 +1909,8 @@
         <v/>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U29" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 0 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),0 *LEN($L29)+1,LEN($L29))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 1 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),1 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 2 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),2 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 3 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),3 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 4 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),4 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 5 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),5 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 6 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),6 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 7 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),7 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 8 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),8 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 9 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),9 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 10 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),10 *LEN($L29)+1,LEN($L29)))))</f>
@@ -1921,11 +1921,11 @@
         <v>0</v>
       </c>
       <c r="W29" s="0" t="str">
-        <f aca="true">IF(N29="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R29)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N29="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R29)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J30" s="10" t="str">
         <f aca="true">IF(L30="", IF(N30="","",W30+(INDIRECT("R" &amp; ROW() - 1) - R30)),IF(N30="", "", INDIRECT("R" &amp; ROW() - 1) - R30))</f>
         <v/>
@@ -1955,8 +1955,8 @@
         <v/>
       </c>
       <c r="T30" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U30" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 0 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),0 *LEN($L30)+1,LEN($L30))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 1 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),1 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 2 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),2 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 3 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),3 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 4 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),4 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 5 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),5 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 6 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),6 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 7 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),7 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 8 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),8 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 9 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),9 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 10 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),10 *LEN($L30)+1,LEN($L30)))))</f>
@@ -1967,11 +1967,11 @@
         <v>0</v>
       </c>
       <c r="W30" s="0" t="str">
-        <f aca="true">IF(N30="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R30)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N30="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R30)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J31" s="10" t="str">
         <f aca="true">IF(L31="", IF(N31="","",W31+(INDIRECT("R" &amp; ROW() - 1) - R31)),IF(N31="", "", INDIRECT("R" &amp; ROW() - 1) - R31))</f>
         <v/>
@@ -2001,8 +2001,8 @@
         <v/>
       </c>
       <c r="T31" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U31" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 0 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),0 *LEN($L31)+1,LEN($L31))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 1 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),1 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 2 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),2 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 3 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),3 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 4 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),4 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 5 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),5 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 6 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),6 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 7 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),7 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 8 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),8 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 9 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),9 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 10 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),10 *LEN($L31)+1,LEN($L31)))))</f>
@@ -2013,11 +2013,11 @@
         <v>0</v>
       </c>
       <c r="W31" s="0" t="str">
-        <f aca="true">IF(N31="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R31)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N31="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R31)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J32" s="10" t="str">
         <f aca="true">IF(L32="", IF(N32="","",W32+(INDIRECT("R" &amp; ROW() - 1) - R32)),IF(N32="", "", INDIRECT("R" &amp; ROW() - 1) - R32))</f>
         <v/>
@@ -2047,8 +2047,8 @@
         <v/>
       </c>
       <c r="T32" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U32" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 0 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),0 *LEN($L32)+1,LEN($L32))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 1 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),1 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 2 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),2 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 3 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),3 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 4 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),4 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 5 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),5 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 6 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),6 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 7 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),7 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 8 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),8 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 9 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),9 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 10 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),10 *LEN($L32)+1,LEN($L32)))))</f>
@@ -2059,11 +2059,11 @@
         <v>0</v>
       </c>
       <c r="W32" s="0" t="str">
-        <f aca="true">IF(N32="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R32)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N32="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R32)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J33" s="10" t="str">
         <f aca="true">IF(L33="", IF(N33="","",W33+(INDIRECT("R" &amp; ROW() - 1) - R33)),IF(N33="", "", INDIRECT("R" &amp; ROW() - 1) - R33))</f>
         <v/>
@@ -2093,8 +2093,8 @@
         <v/>
       </c>
       <c r="T33" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U33" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 0 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),0 *LEN($L33)+1,LEN($L33))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 1 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),1 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 2 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),2 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 3 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),3 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 4 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),4 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 5 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),5 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 6 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),6 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 7 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),7 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 8 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),8 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 9 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),9 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 10 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),10 *LEN($L33)+1,LEN($L33)))))</f>
@@ -2105,11 +2105,11 @@
         <v>0</v>
       </c>
       <c r="W33" s="0" t="str">
-        <f aca="true">IF(N33="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R33)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N33="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R33)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J34" s="10" t="str">
         <f aca="true">IF(L34="", IF(N34="","",W34+(INDIRECT("R" &amp; ROW() - 1) - R34)),IF(N34="", "", INDIRECT("R" &amp; ROW() - 1) - R34))</f>
         <v/>
@@ -2139,8 +2139,8 @@
         <v/>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U34" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 0 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),0 *LEN($L34)+1,LEN($L34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 1 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),1 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 2 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),2 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 3 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),3 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 4 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),4 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 5 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),5 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 6 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),6 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 7 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),7 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 8 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),8 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 9 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),9 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 10 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),10 *LEN($L34)+1,LEN($L34)))))</f>
@@ -2151,11 +2151,11 @@
         <v>0</v>
       </c>
       <c r="W34" s="0" t="str">
-        <f aca="true">IF(N34="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R34)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N34="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R34)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J35" s="10" t="str">
         <f aca="true">IF(L35="", IF(N35="","",W35+(INDIRECT("R" &amp; ROW() - 1) - R35)),IF(N35="", "", INDIRECT("R" &amp; ROW() - 1) - R35))</f>
         <v/>
@@ -2185,8 +2185,8 @@
         <v/>
       </c>
       <c r="T35" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U35" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 0 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),0 *LEN($L35)+1,LEN($L35))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 1 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),1 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 2 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),2 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 3 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),3 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 4 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),4 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 5 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),5 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 6 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),6 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 7 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),7 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 8 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),8 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 9 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),9 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 10 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),10 *LEN($L35)+1,LEN($L35)))))</f>
@@ -2197,11 +2197,11 @@
         <v>0</v>
       </c>
       <c r="W35" s="0" t="str">
-        <f aca="true">IF(N35="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R35)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N35="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R35)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J36" s="10" t="str">
         <f aca="true">IF(L36="", IF(N36="","",W36+(INDIRECT("R" &amp; ROW() - 1) - R36)),IF(N36="", "", INDIRECT("R" &amp; ROW() - 1) - R36))</f>
         <v/>
@@ -2231,8 +2231,8 @@
         <v/>
       </c>
       <c r="T36" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U36" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 0 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),0 *LEN($L36)+1,LEN($L36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 1 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),1 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 2 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),2 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 3 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),3 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 4 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),4 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 5 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),5 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 6 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),6 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 7 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),7 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 8 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),8 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 9 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),9 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 10 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),10 *LEN($L36)+1,LEN($L36)))))</f>
@@ -2243,11 +2243,11 @@
         <v>0</v>
       </c>
       <c r="W36" s="0" t="str">
-        <f aca="true">IF(N36="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R36)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N36="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R36)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J37" s="10" t="str">
         <f aca="true">IF(L37="", IF(N37="","",W37+(INDIRECT("R" &amp; ROW() - 1) - R37)),IF(N37="", "", INDIRECT("R" &amp; ROW() - 1) - R37))</f>
         <v/>
@@ -2277,8 +2277,8 @@
         <v/>
       </c>
       <c r="T37" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U37" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 0 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),0 *LEN($L37)+1,LEN($L37))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 1 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),1 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 2 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),2 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 3 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),3 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 4 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),4 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 5 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),5 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 6 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),6 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 7 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),7 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 8 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),8 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 9 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),9 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 10 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),10 *LEN($L37)+1,LEN($L37)))))</f>
@@ -2289,11 +2289,11 @@
         <v>0</v>
       </c>
       <c r="W37" s="0" t="str">
-        <f aca="true">IF(N37="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R37)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N37="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R37)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J38" s="10" t="str">
         <f aca="true">IF(L38="", IF(N38="","",W38+(INDIRECT("R" &amp; ROW() - 1) - R38)),IF(N38="", "", INDIRECT("R" &amp; ROW() - 1) - R38))</f>
         <v/>
@@ -2323,8 +2323,8 @@
         <v/>
       </c>
       <c r="T38" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U38" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 0 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),0 *LEN($L38)+1,LEN($L38))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 1 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),1 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 2 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),2 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 3 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),3 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 4 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),4 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 5 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),5 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 6 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),6 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 7 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),7 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 8 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),8 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 9 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),9 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 10 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),10 *LEN($L38)+1,LEN($L38)))))</f>
@@ -2335,11 +2335,11 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="str">
-        <f aca="true">IF(N38="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R38)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N38="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R38)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J39" s="10" t="str">
         <f aca="true">IF(L39="", IF(N39="","",W39+(INDIRECT("R" &amp; ROW() - 1) - R39)),IF(N39="", "", INDIRECT("R" &amp; ROW() - 1) - R39))</f>
         <v/>
@@ -2369,8 +2369,8 @@
         <v/>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U39" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 0 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),0 *LEN($L39)+1,LEN($L39))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 1 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),1 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 2 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),2 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 3 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),3 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 4 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),4 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 5 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),5 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 6 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),6 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 7 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),7 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 8 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),8 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 9 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),9 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 10 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),10 *LEN($L39)+1,LEN($L39)))))</f>
@@ -2381,11 +2381,11 @@
         <v>0</v>
       </c>
       <c r="W39" s="0" t="str">
-        <f aca="true">IF(N39="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R39)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N39="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R39)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J40" s="10" t="str">
         <f aca="true">IF(L40="", IF(N40="","",W40+(INDIRECT("R" &amp; ROW() - 1) - R40)),IF(N40="", "", INDIRECT("R" &amp; ROW() - 1) - R40))</f>
         <v/>
@@ -2415,8 +2415,8 @@
         <v/>
       </c>
       <c r="T40" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U40" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 0 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),0 *LEN($L40)+1,LEN($L40))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 1 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),1 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 2 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),2 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 3 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),3 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 4 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),4 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 5 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),5 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 6 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),6 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 7 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),7 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 8 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),8 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 9 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),9 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 10 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),10 *LEN($L40)+1,LEN($L40)))))</f>
@@ -2427,11 +2427,11 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="str">
-        <f aca="true">IF(N40="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R40)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N40="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R40)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J41" s="10" t="str">
         <f aca="true">IF(L41="", IF(N41="","",W41+(INDIRECT("R" &amp; ROW() - 1) - R41)),IF(N41="", "", INDIRECT("R" &amp; ROW() - 1) - R41))</f>
         <v/>
@@ -2461,8 +2461,8 @@
         <v/>
       </c>
       <c r="T41" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U41" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 0 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),0 *LEN($L41)+1,LEN($L41))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 1 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),1 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 2 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),2 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 3 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),3 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 4 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),4 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 5 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),5 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 6 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),6 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 7 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),7 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 8 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),8 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 9 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),9 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 10 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),10 *LEN($L41)+1,LEN($L41)))))</f>
@@ -2473,11 +2473,11 @@
         <v>0</v>
       </c>
       <c r="W41" s="0" t="str">
-        <f aca="true">IF(N41="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R41)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N41="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R41)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J42" s="10" t="str">
         <f aca="true">IF(L42="", IF(N42="","",W42+(INDIRECT("R" &amp; ROW() - 1) - R42)),IF(N42="", "", INDIRECT("R" &amp; ROW() - 1) - R42))</f>
         <v/>
@@ -2507,8 +2507,8 @@
         <v/>
       </c>
       <c r="T42" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U42" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 0 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),0 *LEN($L42)+1,LEN($L42))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 1 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),1 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 2 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),2 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 3 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),3 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 4 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),4 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 5 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),5 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 6 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),6 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 7 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),7 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 8 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),8 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 9 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),9 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 10 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),10 *LEN($L42)+1,LEN($L42)))))</f>
@@ -2519,11 +2519,11 @@
         <v>0</v>
       </c>
       <c r="W42" s="0" t="str">
-        <f aca="true">IF(N42="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R42)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N42="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R42)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J43" s="10" t="str">
         <f aca="true">IF(L43="", IF(N43="","",W43+(INDIRECT("R" &amp; ROW() - 1) - R43)),IF(N43="", "", INDIRECT("R" &amp; ROW() - 1) - R43))</f>
         <v/>
@@ -2553,8 +2553,8 @@
         <v/>
       </c>
       <c r="T43" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U43" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 0 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),0 *LEN($L43)+1,LEN($L43))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 1 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),1 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 2 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),2 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 3 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),3 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 4 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),4 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 5 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),5 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 6 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),6 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 7 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),7 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 8 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),8 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 9 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),9 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 10 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),10 *LEN($L43)+1,LEN($L43)))))</f>
@@ -2565,11 +2565,11 @@
         <v>0</v>
       </c>
       <c r="W43" s="0" t="str">
-        <f aca="true">IF(N43="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R43)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N43="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R43)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J44" s="10" t="str">
         <f aca="true">IF(L44="", IF(N44="","",W44+(INDIRECT("R" &amp; ROW() - 1) - R44)),IF(N44="", "", INDIRECT("R" &amp; ROW() - 1) - R44))</f>
         <v/>
@@ -2599,8 +2599,8 @@
         <v/>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U44" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 0 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),0 *LEN($L44)+1,LEN($L44))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 1 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),1 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 2 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),2 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 3 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),3 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 4 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),4 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 5 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),5 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 6 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),6 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 7 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),7 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 8 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),8 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 9 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),9 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 10 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),10 *LEN($L44)+1,LEN($L44)))))</f>
@@ -2611,11 +2611,11 @@
         <v>0</v>
       </c>
       <c r="W44" s="0" t="str">
-        <f aca="true">IF(N44="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R44)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N44="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R44)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J45" s="10" t="str">
         <f aca="true">IF(L45="", IF(N45="","",W45+(INDIRECT("R" &amp; ROW() - 1) - R45)),IF(N45="", "", INDIRECT("R" &amp; ROW() - 1) - R45))</f>
         <v/>
@@ -2645,8 +2645,8 @@
         <v/>
       </c>
       <c r="T45" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U45" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 0 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),0 *LEN($L45)+1,LEN($L45))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 1 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),1 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 2 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),2 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 3 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),3 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 4 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),4 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 5 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),5 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 6 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),6 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 7 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),7 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 8 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),8 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 9 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),9 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 10 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),10 *LEN($L45)+1,LEN($L45)))))</f>
@@ -2657,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="W45" s="0" t="str">
-        <f aca="true">IF(N45="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R45)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N45="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R45)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J46" s="10" t="str">
         <f aca="true">IF(L46="", IF(N46="","",W46+(INDIRECT("R" &amp; ROW() - 1) - R46)),IF(N46="", "", INDIRECT("R" &amp; ROW() - 1) - R46))</f>
         <v/>
@@ -2691,8 +2691,8 @@
         <v/>
       </c>
       <c r="T46" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U46" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 0 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),0 *LEN($L46)+1,LEN($L46))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 1 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),1 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 2 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),2 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 3 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),3 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 4 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),4 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 5 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),5 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 6 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),6 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 7 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),7 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 8 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),8 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 9 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),9 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 10 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),10 *LEN($L46)+1,LEN($L46)))))</f>
@@ -2703,11 +2703,11 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="str">
-        <f aca="true">IF(N46="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R46)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N46="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R46)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J47" s="10" t="str">
         <f aca="true">IF(L47="", IF(N47="","",W47+(INDIRECT("R" &amp; ROW() - 1) - R47)),IF(N47="", "", INDIRECT("R" &amp; ROW() - 1) - R47))</f>
         <v/>
@@ -2737,8 +2737,8 @@
         <v/>
       </c>
       <c r="T47" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U47" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 0 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),0 *LEN($L47)+1,LEN($L47))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 1 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),1 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 2 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),2 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 3 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),3 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 4 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),4 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 5 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),5 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 6 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),6 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 7 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),7 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 8 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),8 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 9 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),9 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 10 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),10 *LEN($L47)+1,LEN($L47)))))</f>
@@ -2749,11 +2749,11 @@
         <v>0</v>
       </c>
       <c r="W47" s="0" t="str">
-        <f aca="true">IF(N47="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R47)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N47="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R47)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J48" s="10" t="str">
         <f aca="true">IF(L48="", IF(N48="","",W48+(INDIRECT("R" &amp; ROW() - 1) - R48)),IF(N48="", "", INDIRECT("R" &amp; ROW() - 1) - R48))</f>
         <v/>
@@ -2783,8 +2783,8 @@
         <v/>
       </c>
       <c r="T48" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U48" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 0 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),0 *LEN($L48)+1,LEN($L48))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 1 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),1 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 2 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),2 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 3 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),3 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 4 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),4 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 5 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),5 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 6 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),6 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 7 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),7 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 8 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),8 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 9 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),9 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 10 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),10 *LEN($L48)+1,LEN($L48)))))</f>
@@ -2795,11 +2795,11 @@
         <v>0</v>
       </c>
       <c r="W48" s="0" t="str">
-        <f aca="true">IF(N48="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R48)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N48="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R48)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J49" s="10" t="str">
         <f aca="true">IF(L49="", IF(N49="","",W49+(INDIRECT("R" &amp; ROW() - 1) - R49)),IF(N49="", "", INDIRECT("R" &amp; ROW() - 1) - R49))</f>
         <v/>
@@ -2829,8 +2829,8 @@
         <v/>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U49" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 0 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),0 *LEN($L49)+1,LEN($L49))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 1 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),1 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 2 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),2 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 3 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),3 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 4 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),4 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 5 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),5 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 6 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),6 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 7 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),7 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 8 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),8 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 9 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),9 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 10 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),10 *LEN($L49)+1,LEN($L49)))))</f>
@@ -2841,11 +2841,11 @@
         <v>0</v>
       </c>
       <c r="W49" s="0" t="str">
-        <f aca="true">IF(N49="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R49)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N49="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R49)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J50" s="10" t="str">
         <f aca="true">IF(L50="", IF(N50="","",W50+(INDIRECT("R" &amp; ROW() - 1) - R50)),IF(N50="", "", INDIRECT("R" &amp; ROW() - 1) - R50))</f>
         <v/>
@@ -2875,8 +2875,8 @@
         <v/>
       </c>
       <c r="T50" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U50" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 0 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),0 *LEN($L50)+1,LEN($L50))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 1 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),1 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 2 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),2 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 3 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),3 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 4 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),4 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 5 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),5 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 6 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),6 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 7 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),7 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 8 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),8 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 9 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),9 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 10 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),10 *LEN($L50)+1,LEN($L50)))))</f>
@@ -2887,11 +2887,11 @@
         <v>0</v>
       </c>
       <c r="W50" s="0" t="str">
-        <f aca="true">IF(N50="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R50)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N50="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R50)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J51" s="10" t="str">
         <f aca="true">IF(L51="", IF(N51="","",W51+(INDIRECT("R" &amp; ROW() - 1) - R51)),IF(N51="", "", INDIRECT("R" &amp; ROW() - 1) - R51))</f>
         <v/>
@@ -2921,8 +2921,8 @@
         <v/>
       </c>
       <c r="T51" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U51" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 0 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),0 *LEN($L51)+1,LEN($L51))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 1 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),1 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 2 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),2 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 3 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),3 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 4 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),4 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 5 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),5 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 6 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),6 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 7 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),7 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 8 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),8 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 9 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),9 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 10 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),10 *LEN($L51)+1,LEN($L51)))))</f>
@@ -2933,11 +2933,11 @@
         <v>0</v>
       </c>
       <c r="W51" s="0" t="str">
-        <f aca="true">IF(N51="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R51)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N51="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R51)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J52" s="10" t="str">
         <f aca="true">IF(L52="", IF(N52="","",W52+(INDIRECT("R" &amp; ROW() - 1) - R52)),IF(N52="", "", INDIRECT("R" &amp; ROW() - 1) - R52))</f>
         <v/>
@@ -2967,8 +2967,8 @@
         <v/>
       </c>
       <c r="T52" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U52" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 0 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),0 *LEN($L52)+1,LEN($L52))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 1 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),1 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 2 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),2 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 3 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),3 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 4 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),4 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 5 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),5 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 6 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),6 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 7 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),7 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 8 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),8 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 9 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),9 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 10 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),10 *LEN($L52)+1,LEN($L52)))))</f>
@@ -2979,11 +2979,11 @@
         <v>0</v>
       </c>
       <c r="W52" s="0" t="str">
-        <f aca="true">IF(N52="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R52)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N52="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R52)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J53" s="10" t="str">
         <f aca="true">IF(L53="", IF(N53="","",W53+(INDIRECT("R" &amp; ROW() - 1) - R53)),IF(N53="", "", INDIRECT("R" &amp; ROW() - 1) - R53))</f>
         <v/>
@@ -3013,8 +3013,8 @@
         <v/>
       </c>
       <c r="T53" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U53" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 0 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),0 *LEN($L53)+1,LEN($L53))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 1 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),1 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 2 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),2 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 3 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),3 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 4 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),4 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 5 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),5 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 6 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),6 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 7 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),7 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 8 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),8 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 9 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),9 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 10 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),10 *LEN($L53)+1,LEN($L53)))))</f>
@@ -3025,11 +3025,11 @@
         <v>0</v>
       </c>
       <c r="W53" s="0" t="str">
-        <f aca="true">IF(N53="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R53)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N53="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R53)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J54" s="10" t="str">
         <f aca="true">IF(L54="", IF(N54="","",W54+(INDIRECT("R" &amp; ROW() - 1) - R54)),IF(N54="", "", INDIRECT("R" &amp; ROW() - 1) - R54))</f>
         <v/>
@@ -3059,8 +3059,8 @@
         <v/>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U54" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 0 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),0 *LEN($L54)+1,LEN($L54))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 1 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),1 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 2 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),2 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 3 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),3 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 4 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),4 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 5 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),5 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 6 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),6 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 7 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),7 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 8 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),8 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 9 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),9 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 10 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),10 *LEN($L54)+1,LEN($L54)))))</f>
@@ -3071,11 +3071,11 @@
         <v>0</v>
       </c>
       <c r="W54" s="0" t="str">
-        <f aca="true">IF(N54="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R54)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N54="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R54)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J55" s="10" t="str">
         <f aca="true">IF(L55="", IF(N55="","",W55+(INDIRECT("R" &amp; ROW() - 1) - R55)),IF(N55="", "", INDIRECT("R" &amp; ROW() - 1) - R55))</f>
         <v/>
@@ -3105,8 +3105,8 @@
         <v/>
       </c>
       <c r="T55" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U55" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 0 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),0 *LEN($L55)+1,LEN($L55))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 1 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),1 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 2 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),2 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 3 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),3 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 4 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),4 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 5 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),5 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 6 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),6 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 7 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),7 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 8 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),8 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 9 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),9 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 10 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),10 *LEN($L55)+1,LEN($L55)))))</f>
@@ -3117,11 +3117,11 @@
         <v>0</v>
       </c>
       <c r="W55" s="0" t="str">
-        <f aca="true">IF(N55="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R55)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N55="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R55)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J56" s="10" t="str">
         <f aca="true">IF(L56="", IF(N56="","",W56+(INDIRECT("R" &amp; ROW() - 1) - R56)),IF(N56="", "", INDIRECT("R" &amp; ROW() - 1) - R56))</f>
         <v/>
@@ -3151,8 +3151,8 @@
         <v/>
       </c>
       <c r="T56" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U56" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 0 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),0 *LEN($L56)+1,LEN($L56))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 1 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),1 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 2 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),2 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 3 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),3 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 4 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),4 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 5 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),5 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 6 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),6 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 7 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),7 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 8 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),8 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 9 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),9 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 10 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),10 *LEN($L56)+1,LEN($L56)))))</f>
@@ -3163,11 +3163,11 @@
         <v>0</v>
       </c>
       <c r="W56" s="0" t="str">
-        <f aca="true">IF(N56="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R56)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N56="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R56)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J57" s="10" t="str">
         <f aca="true">IF(L57="", IF(N57="","",W57+(INDIRECT("R" &amp; ROW() - 1) - R57)),IF(N57="", "", INDIRECT("R" &amp; ROW() - 1) - R57))</f>
         <v/>
@@ -3197,8 +3197,8 @@
         <v/>
       </c>
       <c r="T57" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U57" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 0 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),0 *LEN($L57)+1,LEN($L57))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 1 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),1 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 2 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),2 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 3 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),3 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 4 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),4 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 5 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),5 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 6 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),6 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 7 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),7 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 8 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),8 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 9 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),9 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 10 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),10 *LEN($L57)+1,LEN($L57)))))</f>
@@ -3209,11 +3209,11 @@
         <v>0</v>
       </c>
       <c r="W57" s="0" t="str">
-        <f aca="true">IF(N57="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R57)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N57="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R57)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J58" s="10" t="str">
         <f aca="true">IF(L58="", IF(N58="","",W58+(INDIRECT("R" &amp; ROW() - 1) - R58)),IF(N58="", "", INDIRECT("R" &amp; ROW() - 1) - R58))</f>
         <v/>
@@ -3243,8 +3243,8 @@
         <v/>
       </c>
       <c r="T58" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U58" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 0 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),0 *LEN($L58)+1,LEN($L58))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 1 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),1 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 2 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),2 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 3 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),3 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 4 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),4 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 5 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),5 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 6 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),6 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 7 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),7 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 8 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),8 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 9 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),9 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 10 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),10 *LEN($L58)+1,LEN($L58)))))</f>
@@ -3255,11 +3255,11 @@
         <v>0</v>
       </c>
       <c r="W58" s="0" t="str">
-        <f aca="true">IF(N58="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R58)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N58="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R58)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J59" s="10" t="str">
         <f aca="true">IF(L59="", IF(N59="","",W59+(INDIRECT("R" &amp; ROW() - 1) - R59)),IF(N59="", "", INDIRECT("R" &amp; ROW() - 1) - R59))</f>
         <v/>
@@ -3290,8 +3290,8 @@
         <v/>
       </c>
       <c r="T59" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U59" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 0 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),0 *LEN($L59)+1,LEN($L59))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 1 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),1 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 2 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),2 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 3 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),3 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 4 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),4 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 5 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),5 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 6 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),6 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 7 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),7 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 8 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),8 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 9 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),9 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 10 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),10 *LEN($L59)+1,LEN($L59)))))</f>
@@ -3302,11 +3302,11 @@
         <v>0</v>
       </c>
       <c r="W59" s="0" t="str">
-        <f aca="true">IF(N59="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R59)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N59="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R59)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J60" s="10" t="str">
         <f aca="true">IF(L60="", IF(N60="","",W60+(INDIRECT("R" &amp; ROW() - 1) - R60)),IF(N60="", "", INDIRECT("R" &amp; ROW() - 1) - R60))</f>
         <v/>
@@ -3336,8 +3336,8 @@
         <v/>
       </c>
       <c r="T60" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U60" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 0 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),0 *LEN($L60)+1,LEN($L60))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 1 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),1 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 2 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),2 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 3 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),3 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 4 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),4 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 5 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),5 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 6 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),6 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 7 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),7 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 8 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),8 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 9 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),9 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 10 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),10 *LEN($L60)+1,LEN($L60)))))</f>
@@ -3348,11 +3348,11 @@
         <v>0</v>
       </c>
       <c r="W60" s="0" t="str">
-        <f aca="true">IF(N60="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R60)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N60="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R60)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J61" s="10" t="str">
         <f aca="true">IF(L61="", IF(N61="","",W61+(INDIRECT("R" &amp; ROW() - 1) - R61)),IF(N61="", "", INDIRECT("R" &amp; ROW() - 1) - R61))</f>
         <v/>
@@ -3382,8 +3382,8 @@
         <v/>
       </c>
       <c r="T61" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U61" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 0 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),0 *LEN($L61)+1,LEN($L61))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 1 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),1 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 2 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),2 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 3 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),3 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 4 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),4 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 5 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),5 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 6 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),6 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 7 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),7 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 8 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),8 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 9 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),9 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 10 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),10 *LEN($L61)+1,LEN($L61)))))</f>
@@ -3394,11 +3394,11 @@
         <v>0</v>
       </c>
       <c r="W61" s="0" t="str">
-        <f aca="true">IF(N61="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R61)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N61="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R61)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J62" s="10" t="str">
         <f aca="true">IF(L62="", IF(N62="","",W62+(INDIRECT("R" &amp; ROW() - 1) - R62)),IF(N62="", "", INDIRECT("R" &amp; ROW() - 1) - R62))</f>
         <v/>
@@ -3428,8 +3428,8 @@
         <v/>
       </c>
       <c r="T62" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U62" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 0 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),0 *LEN($L62)+1,LEN($L62))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 1 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),1 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 2 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),2 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 3 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),3 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 4 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),4 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 5 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),5 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 6 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),6 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 7 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),7 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 8 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),8 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 9 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),9 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 10 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),10 *LEN($L62)+1,LEN($L62)))))</f>
@@ -3440,11 +3440,11 @@
         <v>0</v>
       </c>
       <c r="W62" s="0" t="str">
-        <f aca="true">IF(N62="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R62)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N62="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R62)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J63" s="10" t="str">
         <f aca="true">IF(L63="", IF(N63="","",W63+(INDIRECT("R" &amp; ROW() - 1) - R63)),IF(N63="", "", INDIRECT("R" &amp; ROW() - 1) - R63))</f>
         <v/>
@@ -3474,8 +3474,8 @@
         <v/>
       </c>
       <c r="T63" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U63" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 0 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),0 *LEN($L63)+1,LEN($L63))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 1 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),1 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 2 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),2 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 3 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),3 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 4 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),4 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 5 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),5 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 6 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),6 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 7 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),7 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 8 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),8 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 9 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),9 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 10 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),10 *LEN($L63)+1,LEN($L63)))))</f>
@@ -3486,11 +3486,11 @@
         <v>0</v>
       </c>
       <c r="W63" s="0" t="str">
-        <f aca="true">IF(N63="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R63)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N63="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R63)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J64" s="10" t="str">
         <f aca="true">IF(L64="", IF(N64="","",W64+(INDIRECT("R" &amp; ROW() - 1) - R64)),IF(N64="", "", INDIRECT("R" &amp; ROW() - 1) - R64))</f>
         <v/>
@@ -3520,8 +3520,8 @@
         <v/>
       </c>
       <c r="T64" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U64" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 0 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),0 *LEN($L64)+1,LEN($L64))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 1 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),1 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 2 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),2 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 3 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),3 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 4 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),4 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 5 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),5 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 6 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),6 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 7 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),7 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 8 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),8 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 9 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),9 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 10 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),10 *LEN($L64)+1,LEN($L64)))))</f>
@@ -3532,11 +3532,11 @@
         <v>0</v>
       </c>
       <c r="W64" s="0" t="str">
-        <f aca="true">IF(N64="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R64)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N64="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R64)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J65" s="10" t="str">
         <f aca="true">IF(L65="", IF(N65="","",W65+(INDIRECT("R" &amp; ROW() - 1) - R65)),IF(N65="", "", INDIRECT("R" &amp; ROW() - 1) - R65))</f>
         <v/>
@@ -3566,8 +3566,8 @@
         <v/>
       </c>
       <c r="T65" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U65" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 0 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),0 *LEN($L65)+1,LEN($L65))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 1 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),1 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 2 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),2 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 3 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),3 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 4 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),4 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 5 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),5 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 6 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),6 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 7 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),7 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 8 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),8 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 9 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),9 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 10 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),10 *LEN($L65)+1,LEN($L65)))))</f>
@@ -3578,11 +3578,11 @@
         <v>0</v>
       </c>
       <c r="W65" s="0" t="str">
-        <f aca="true">IF(N65="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R65)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N65="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R65)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J66" s="10" t="str">
         <f aca="true">IF(L66="", IF(N66="","",W66+(INDIRECT("R" &amp; ROW() - 1) - R66)),IF(N66="", "", INDIRECT("R" &amp; ROW() - 1) - R66))</f>
         <v/>
@@ -3612,8 +3612,8 @@
         <v/>
       </c>
       <c r="T66" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U66" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 0 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),0 *LEN($L66)+1,LEN($L66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 1 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),1 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 2 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),2 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 3 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),3 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 4 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),4 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 5 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),5 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 6 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),6 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 7 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),7 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 8 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),8 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 9 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),9 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 10 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),10 *LEN($L66)+1,LEN($L66)))))</f>
@@ -3624,11 +3624,11 @@
         <v>0</v>
       </c>
       <c r="W66" s="0" t="str">
-        <f aca="true">IF(N66="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R66)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N66="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R66)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J67" s="10" t="str">
         <f aca="true">IF(L67="", IF(N67="","",W67+(INDIRECT("R" &amp; ROW() - 1) - R67)),IF(N67="", "", INDIRECT("R" &amp; ROW() - 1) - R67))</f>
         <v/>
@@ -3658,8 +3658,8 @@
         <v/>
       </c>
       <c r="T67" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U67" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 0 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),0 *LEN($L67)+1,LEN($L67))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 1 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),1 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 2 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),2 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 3 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),3 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 4 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),4 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 5 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),5 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 6 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),6 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 7 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),7 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 8 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),8 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 9 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),9 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 10 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),10 *LEN($L67)+1,LEN($L67)))))</f>
@@ -3670,11 +3670,11 @@
         <v>0</v>
       </c>
       <c r="W67" s="0" t="str">
-        <f aca="true">IF(N67="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R67)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N67="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R67)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J68" s="10" t="str">
         <f aca="true">IF(L68="", IF(N68="","",W68+(INDIRECT("R" &amp; ROW() - 1) - R68)),IF(N68="", "", INDIRECT("R" &amp; ROW() - 1) - R68))</f>
         <v/>
@@ -3704,8 +3704,8 @@
         <v/>
       </c>
       <c r="T68" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U68" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 0 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),0 *LEN($L68)+1,LEN($L68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 1 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),1 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 2 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),2 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 3 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),3 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 4 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),4 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 5 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),5 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 6 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),6 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 7 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),7 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 8 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),8 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 9 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),9 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 10 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),10 *LEN($L68)+1,LEN($L68)))))</f>
@@ -3716,11 +3716,11 @@
         <v>0</v>
       </c>
       <c r="W68" s="0" t="str">
-        <f aca="true">IF(N68="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R68)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N68="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R68)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J69" s="10" t="str">
         <f aca="true">IF(L69="", IF(N69="","",W69+(INDIRECT("R" &amp; ROW() - 1) - R69)),IF(N69="", "", INDIRECT("R" &amp; ROW() - 1) - R69))</f>
         <v/>
@@ -3750,8 +3750,8 @@
         <v/>
       </c>
       <c r="T69" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U69" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 0 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),0 *LEN($L69)+1,LEN($L69))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 1 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),1 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 2 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),2 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 3 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),3 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 4 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),4 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 5 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),5 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 6 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),6 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 7 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),7 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 8 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),8 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 9 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),9 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 10 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),10 *LEN($L69)+1,LEN($L69)))))</f>
@@ -3762,11 +3762,11 @@
         <v>0</v>
       </c>
       <c r="W69" s="0" t="str">
-        <f aca="true">IF(N69="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R69)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N69="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R69)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J70" s="10" t="str">
         <f aca="true">IF(L70="", IF(N70="","",W70+(INDIRECT("R" &amp; ROW() - 1) - R70)),IF(N70="", "", INDIRECT("R" &amp; ROW() - 1) - R70))</f>
         <v/>
@@ -3796,8 +3796,8 @@
         <v/>
       </c>
       <c r="T70" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U70" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 0 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),0 *LEN($L70)+1,LEN($L70))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 1 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),1 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 2 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),2 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 3 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),3 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 4 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),4 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 5 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),5 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 6 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),6 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 7 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),7 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 8 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),8 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 9 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),9 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 10 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),10 *LEN($L70)+1,LEN($L70)))))</f>
@@ -3808,11 +3808,11 @@
         <v>0</v>
       </c>
       <c r="W70" s="0" t="str">
-        <f aca="true">IF(N70="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R70)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N70="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R70)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J71" s="10" t="str">
         <f aca="true">IF(L71="", IF(N71="","",W71+(INDIRECT("R" &amp; ROW() - 1) - R71)),IF(N71="", "", INDIRECT("R" &amp; ROW() - 1) - R71))</f>
         <v/>
@@ -3842,8 +3842,8 @@
         <v/>
       </c>
       <c r="T71" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U71" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 0 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),0 *LEN($L71)+1,LEN($L71))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 1 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),1 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 2 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),2 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 3 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),3 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 4 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),4 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 5 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),5 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 6 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),6 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 7 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),7 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 8 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),8 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 9 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),9 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 10 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),10 *LEN($L71)+1,LEN($L71)))))</f>
@@ -3854,11 +3854,11 @@
         <v>0</v>
       </c>
       <c r="W71" s="0" t="str">
-        <f aca="true">IF(N71="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R71)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N71="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R71)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J72" s="10" t="str">
         <f aca="true">IF(L72="", IF(N72="","",W72+(INDIRECT("R" &amp; ROW() - 1) - R72)),IF(N72="", "", INDIRECT("R" &amp; ROW() - 1) - R72))</f>
         <v/>
@@ -3888,8 +3888,8 @@
         <v/>
       </c>
       <c r="T72" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U72" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 0 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),0 *LEN($L72)+1,LEN($L72))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 1 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),1 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 2 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),2 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 3 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),3 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 4 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),4 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 5 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),5 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 6 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),6 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 7 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),7 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 8 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),8 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 9 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),9 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 10 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),10 *LEN($L72)+1,LEN($L72)))))</f>
@@ -3900,11 +3900,11 @@
         <v>0</v>
       </c>
       <c r="W72" s="0" t="str">
-        <f aca="true">IF(N72="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R72)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N72="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R72)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J73" s="10" t="str">
         <f aca="true">IF(L73="", IF(N73="","",W73+(INDIRECT("R" &amp; ROW() - 1) - R73)),IF(N73="", "", INDIRECT("R" &amp; ROW() - 1) - R73))</f>
         <v/>
@@ -3934,8 +3934,8 @@
         <v/>
       </c>
       <c r="T73" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U73" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 0 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),0 *LEN($L73)+1,LEN($L73))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 1 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),1 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 2 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),2 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 3 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),3 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 4 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),4 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 5 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),5 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 6 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),6 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 7 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),7 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 8 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),8 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 9 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),9 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 10 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),10 *LEN($L73)+1,LEN($L73)))))</f>
@@ -3946,11 +3946,11 @@
         <v>0</v>
       </c>
       <c r="W73" s="0" t="str">
-        <f aca="true">IF(N73="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R73)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N73="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R73)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J74" s="10" t="str">
         <f aca="true">IF(L74="", IF(N74="","",W74+(INDIRECT("R" &amp; ROW() - 1) - R74)),IF(N74="", "", INDIRECT("R" &amp; ROW() - 1) - R74))</f>
         <v/>
@@ -3980,8 +3980,8 @@
         <v/>
       </c>
       <c r="T74" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U74" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 0 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),0 *LEN($L74)+1,LEN($L74))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 1 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),1 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 2 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),2 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 3 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),3 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 4 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),4 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 5 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),5 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 6 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),6 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 7 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),7 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 8 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),8 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 9 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),9 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 10 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),10 *LEN($L74)+1,LEN($L74)))))</f>
@@ -3992,11 +3992,11 @@
         <v>0</v>
       </c>
       <c r="W74" s="0" t="str">
-        <f aca="true">IF(N74="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R74)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N74="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R74)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J75" s="10" t="str">
         <f aca="true">IF(L75="", IF(N75="","",W75+(INDIRECT("R" &amp; ROW() - 1) - R75)),IF(N75="", "", INDIRECT("R" &amp; ROW() - 1) - R75))</f>
         <v/>
@@ -4026,8 +4026,8 @@
         <v/>
       </c>
       <c r="T75" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U75" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 0 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),0 *LEN($L75)+1,LEN($L75))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 1 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),1 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 2 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),2 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 3 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),3 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 4 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),4 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 5 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),5 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 6 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),6 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 7 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),7 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 8 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),8 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 9 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),9 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 10 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),10 *LEN($L75)+1,LEN($L75)))))</f>
@@ -4038,11 +4038,11 @@
         <v>0</v>
       </c>
       <c r="W75" s="0" t="str">
-        <f aca="true">IF(N75="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R75)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N75="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R75)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J76" s="10" t="str">
         <f aca="true">IF(L76="", IF(N76="","",W76+(INDIRECT("R" &amp; ROW() - 1) - R76)),IF(N76="", "", INDIRECT("R" &amp; ROW() - 1) - R76))</f>
         <v/>
@@ -4072,8 +4072,8 @@
         <v/>
       </c>
       <c r="T76" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U76" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 0 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),0 *LEN($L76)+1,LEN($L76))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 1 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),1 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 2 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),2 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 3 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),3 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 4 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),4 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 5 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),5 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 6 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),6 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 7 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),7 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 8 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),8 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 9 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),9 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 10 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),10 *LEN($L76)+1,LEN($L76)))))</f>
@@ -4084,11 +4084,11 @@
         <v>0</v>
       </c>
       <c r="W76" s="0" t="str">
-        <f aca="true">IF(N76="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R76)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N76="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R76)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J77" s="10" t="str">
         <f aca="true">IF(L77="", IF(N77="","",W77+(INDIRECT("R" &amp; ROW() - 1) - R77)),IF(N77="", "", INDIRECT("R" &amp; ROW() - 1) - R77))</f>
         <v/>
@@ -4118,8 +4118,8 @@
         <v/>
       </c>
       <c r="T77" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U77" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 0 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),0 *LEN($L77)+1,LEN($L77))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 1 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),1 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 2 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),2 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 3 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),3 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 4 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),4 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 5 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),5 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 6 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),6 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 7 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),7 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 8 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),8 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 9 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),9 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 10 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),10 *LEN($L77)+1,LEN($L77)))))</f>
@@ -4130,11 +4130,11 @@
         <v>0</v>
       </c>
       <c r="W77" s="0" t="str">
-        <f aca="true">IF(N77="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R77)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N77="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R77)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J78" s="10" t="str">
         <f aca="true">IF(L78="", IF(N78="","",W78+(INDIRECT("R" &amp; ROW() - 1) - R78)),IF(N78="", "", INDIRECT("R" &amp; ROW() - 1) - R78))</f>
         <v/>
@@ -4164,8 +4164,8 @@
         <v/>
       </c>
       <c r="T78" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U78" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 0 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),0 *LEN($L78)+1,LEN($L78))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 1 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),1 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 2 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),2 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 3 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),3 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 4 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),4 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 5 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),5 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 6 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),6 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 7 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),7 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 8 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),8 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 9 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),9 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 10 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),10 *LEN($L78)+1,LEN($L78)))))</f>
@@ -4176,11 +4176,11 @@
         <v>0</v>
       </c>
       <c r="W78" s="0" t="str">
-        <f aca="true">IF(N78="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R78)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N78="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R78)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J79" s="10" t="str">
         <f aca="true">IF(L79="", IF(N79="","",W79+(INDIRECT("R" &amp; ROW() - 1) - R79)),IF(N79="", "", INDIRECT("R" &amp; ROW() - 1) - R79))</f>
         <v/>
@@ -4210,8 +4210,8 @@
         <v/>
       </c>
       <c r="T79" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U79" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 0 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),0 *LEN($L79)+1,LEN($L79))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 1 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),1 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 2 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),2 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 3 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),3 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 4 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),4 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 5 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),5 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 6 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),6 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 7 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),7 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 8 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),8 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 9 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),9 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 10 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),10 *LEN($L79)+1,LEN($L79)))))</f>
@@ -4222,11 +4222,11 @@
         <v>0</v>
       </c>
       <c r="W79" s="0" t="str">
-        <f aca="true">IF(N79="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R79)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N79="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R79)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J80" s="10" t="str">
         <f aca="true">IF(L80="", IF(N80="","",W80+(INDIRECT("R" &amp; ROW() - 1) - R80)),IF(N80="", "", INDIRECT("R" &amp; ROW() - 1) - R80))</f>
         <v/>
@@ -4256,8 +4256,8 @@
         <v/>
       </c>
       <c r="T80" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U80" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 0 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),0 *LEN($L80)+1,LEN($L80))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 1 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),1 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 2 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),2 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 3 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),3 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 4 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),4 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 5 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),5 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 6 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),6 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 7 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),7 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 8 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),8 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 9 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),9 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 10 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),10 *LEN($L80)+1,LEN($L80)))))</f>
@@ -4268,11 +4268,11 @@
         <v>0</v>
       </c>
       <c r="W80" s="0" t="str">
-        <f aca="true">IF(N80="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R80)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N80="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R80)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J81" s="10" t="str">
         <f aca="true">IF(L81="", IF(N81="","",W81+(INDIRECT("R" &amp; ROW() - 1) - R81)),IF(N81="", "", INDIRECT("R" &amp; ROW() - 1) - R81))</f>
         <v/>
@@ -4302,8 +4302,8 @@
         <v/>
       </c>
       <c r="T81" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U81" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 0 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),0 *LEN($L81)+1,LEN($L81))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 1 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),1 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 2 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),2 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 3 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),3 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 4 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),4 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 5 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),5 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 6 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),6 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 7 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),7 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 8 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),8 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 9 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),9 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 10 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),10 *LEN($L81)+1,LEN($L81)))))</f>
@@ -4314,11 +4314,11 @@
         <v>0</v>
       </c>
       <c r="W81" s="0" t="str">
-        <f aca="true">IF(N81="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R81)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N81="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R81)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J82" s="10" t="str">
         <f aca="true">IF(L82="", IF(N82="","",W82+(INDIRECT("R" &amp; ROW() - 1) - R82)),IF(N82="", "", INDIRECT("R" &amp; ROW() - 1) - R82))</f>
         <v/>
@@ -4348,8 +4348,8 @@
         <v/>
       </c>
       <c r="T82" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U82" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 0 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),0 *LEN($L82)+1,LEN($L82))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 1 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),1 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 2 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),2 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 3 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),3 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 4 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),4 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 5 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),5 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 6 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),6 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 7 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),7 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 8 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),8 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 9 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),9 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 10 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),10 *LEN($L82)+1,LEN($L82)))))</f>
@@ -4360,11 +4360,11 @@
         <v>0</v>
       </c>
       <c r="W82" s="0" t="str">
-        <f aca="true">IF(N82="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R82)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N82="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R82)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J83" s="10" t="str">
         <f aca="true">IF(L83="", IF(N83="","",W83+(INDIRECT("R" &amp; ROW() - 1) - R83)),IF(N83="", "", INDIRECT("R" &amp; ROW() - 1) - R83))</f>
         <v/>
@@ -4394,8 +4394,8 @@
         <v/>
       </c>
       <c r="T83" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U83" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 0 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),0 *LEN($L83)+1,LEN($L83))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 1 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),1 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 2 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),2 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 3 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),3 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 4 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),4 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 5 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),5 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 6 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),6 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 7 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),7 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 8 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),8 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 9 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),9 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 10 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),10 *LEN($L83)+1,LEN($L83)))))</f>
@@ -4406,11 +4406,11 @@
         <v>0</v>
       </c>
       <c r="W83" s="0" t="str">
-        <f aca="true">IF(N83="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R83)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N83="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R83)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J84" s="10" t="str">
         <f aca="true">IF(L84="", IF(N84="","",W84+(INDIRECT("R" &amp; ROW() - 1) - R84)),IF(N84="", "", INDIRECT("R" &amp; ROW() - 1) - R84))</f>
         <v/>
@@ -4440,8 +4440,8 @@
         <v/>
       </c>
       <c r="T84" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U84" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 0 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),0 *LEN($L84)+1,LEN($L84))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 1 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),1 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 2 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),2 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 3 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),3 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 4 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),4 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 5 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),5 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 6 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),6 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 7 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),7 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 8 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),8 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 9 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),9 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 10 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),10 *LEN($L84)+1,LEN($L84)))))</f>
@@ -4452,11 +4452,11 @@
         <v>0</v>
       </c>
       <c r="W84" s="0" t="str">
-        <f aca="true">IF(N84="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R84)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N84="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R84)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J85" s="10" t="str">
         <f aca="true">IF(L85="", IF(N85="","",W85+(INDIRECT("R" &amp; ROW() - 1) - R85)),IF(N85="", "", INDIRECT("R" &amp; ROW() - 1) - R85))</f>
         <v/>
@@ -4486,8 +4486,8 @@
         <v/>
       </c>
       <c r="T85" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U85" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 0 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),0 *LEN($L85)+1,LEN($L85))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 1 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),1 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 2 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),2 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 3 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),3 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 4 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),4 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 5 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),5 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 6 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),6 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 7 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),7 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 8 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),8 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 9 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),9 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 10 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),10 *LEN($L85)+1,LEN($L85)))))</f>
@@ -4498,11 +4498,11 @@
         <v>0</v>
       </c>
       <c r="W85" s="0" t="str">
-        <f aca="true">IF(N85="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R85)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N85="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R85)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J86" s="10" t="str">
         <f aca="true">IF(L86="", IF(N86="","",W86+(INDIRECT("R" &amp; ROW() - 1) - R86)),IF(N86="", "", INDIRECT("R" &amp; ROW() - 1) - R86))</f>
         <v/>
@@ -4532,8 +4532,8 @@
         <v/>
       </c>
       <c r="T86" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U86" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 0 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),0 *LEN($L86)+1,LEN($L86))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 1 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),1 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 2 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),2 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 3 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),3 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 4 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),4 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 5 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),5 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 6 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),6 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 7 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),7 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 8 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),8 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 9 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),9 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 10 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),10 *LEN($L86)+1,LEN($L86)))))</f>
@@ -4544,11 +4544,11 @@
         <v>0</v>
       </c>
       <c r="W86" s="0" t="str">
-        <f aca="true">IF(N86="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R86)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N86="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R86)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J87" s="10" t="str">
         <f aca="true">IF(L87="", IF(N87="","",W87+(INDIRECT("R" &amp; ROW() - 1) - R87)),IF(N87="", "", INDIRECT("R" &amp; ROW() - 1) - R87))</f>
         <v/>
@@ -4578,8 +4578,8 @@
         <v/>
       </c>
       <c r="T87" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U87" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 0 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),0 *LEN($L87)+1,LEN($L87))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 1 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),1 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 2 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),2 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 3 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),3 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 4 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),4 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 5 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),5 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 6 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),6 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 7 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),7 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 8 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),8 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 9 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),9 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 10 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),10 *LEN($L87)+1,LEN($L87)))))</f>
@@ -4590,11 +4590,11 @@
         <v>0</v>
       </c>
       <c r="W87" s="0" t="str">
-        <f aca="true">IF(N87="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R87)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N87="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R87)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J88" s="10" t="str">
         <f aca="true">IF(L88="", IF(N88="","",W88+(INDIRECT("R" &amp; ROW() - 1) - R88)),IF(N88="", "", INDIRECT("R" &amp; ROW() - 1) - R88))</f>
         <v/>
@@ -4624,8 +4624,8 @@
         <v/>
       </c>
       <c r="T88" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U88" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 0 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),0 *LEN($L88)+1,LEN($L88))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 1 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),1 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 2 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),2 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 3 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),3 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 4 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),4 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 5 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),5 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 6 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),6 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 7 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),7 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 8 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),8 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 9 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),9 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 10 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),10 *LEN($L88)+1,LEN($L88)))))</f>
@@ -4636,11 +4636,11 @@
         <v>0</v>
       </c>
       <c r="W88" s="0" t="str">
-        <f aca="true">IF(N88="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R88)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N88="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R88)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J89" s="10" t="str">
         <f aca="true">IF(L89="", IF(N89="","",W89+(INDIRECT("R" &amp; ROW() - 1) - R89)),IF(N89="", "", INDIRECT("R" &amp; ROW() - 1) - R89))</f>
         <v/>
@@ -4670,8 +4670,8 @@
         <v/>
       </c>
       <c r="T89" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U89" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 0 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),0 *LEN($L89)+1,LEN($L89))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 1 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),1 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 2 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),2 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 3 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),3 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 4 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),4 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 5 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),5 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 6 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),6 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 7 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),7 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 8 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),8 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 9 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),9 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 10 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),10 *LEN($L89)+1,LEN($L89)))))</f>
@@ -4682,11 +4682,11 @@
         <v>0</v>
       </c>
       <c r="W89" s="0" t="str">
-        <f aca="true">IF(N89="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R89)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N89="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R89)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J90" s="10" t="str">
         <f aca="true">IF(L90="", IF(N90="","",W90+(INDIRECT("R" &amp; ROW() - 1) - R90)),IF(N90="", "", INDIRECT("R" &amp; ROW() - 1) - R90))</f>
         <v/>
@@ -4716,8 +4716,8 @@
         <v/>
       </c>
       <c r="T90" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U90" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 0 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),0 *LEN($L90)+1,LEN($L90))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 1 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),1 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 2 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),2 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 3 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),3 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 4 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),4 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 5 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),5 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 6 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),6 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 7 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),7 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 8 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),8 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 9 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),9 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 10 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),10 *LEN($L90)+1,LEN($L90)))))</f>
@@ -4728,11 +4728,11 @@
         <v>0</v>
       </c>
       <c r="W90" s="0" t="str">
-        <f aca="true">IF(N90="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R90)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N90="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R90)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J91" s="10" t="str">
         <f aca="true">IF(L91="", IF(N91="","",W91+(INDIRECT("R" &amp; ROW() - 1) - R91)),IF(N91="", "", INDIRECT("R" &amp; ROW() - 1) - R91))</f>
         <v/>
@@ -4762,8 +4762,8 @@
         <v/>
       </c>
       <c r="T91" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U91" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 0 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),0 *LEN($L91)+1,LEN($L91))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 1 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),1 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 2 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),2 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 3 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),3 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 4 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),4 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 5 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),5 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 6 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),6 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 7 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),7 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 8 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),8 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 9 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),9 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 10 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),10 *LEN($L91)+1,LEN($L91)))))</f>
@@ -4774,11 +4774,11 @@
         <v>0</v>
       </c>
       <c r="W91" s="0" t="str">
-        <f aca="true">IF(N91="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R91)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N91="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R91)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J92" s="10" t="str">
         <f aca="true">IF(L92="", IF(N92="","",W92+(INDIRECT("R" &amp; ROW() - 1) - R92)),IF(N92="", "", INDIRECT("R" &amp; ROW() - 1) - R92))</f>
         <v/>
@@ -4808,8 +4808,8 @@
         <v/>
       </c>
       <c r="T92" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U92" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 0 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),0 *LEN($L92)+1,LEN($L92))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 1 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),1 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 2 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),2 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 3 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),3 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 4 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),4 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 5 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),5 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 6 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),6 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 7 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),7 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 8 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),8 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 9 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),9 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 10 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),10 *LEN($L92)+1,LEN($L92)))))</f>
@@ -4820,11 +4820,11 @@
         <v>0</v>
       </c>
       <c r="W92" s="0" t="str">
-        <f aca="true">IF(N92="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R92)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N92="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R92)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J93" s="10" t="str">
         <f aca="true">IF(L93="", IF(N93="","",W93+(INDIRECT("R" &amp; ROW() - 1) - R93)),IF(N93="", "", INDIRECT("R" &amp; ROW() - 1) - R93))</f>
         <v/>
@@ -4854,8 +4854,8 @@
         <v/>
       </c>
       <c r="T93" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U93" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 0 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),0 *LEN($L93)+1,LEN($L93))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 1 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),1 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 2 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),2 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 3 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),3 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 4 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),4 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 5 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),5 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 6 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),6 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 7 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),7 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 8 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),8 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 9 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),9 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 10 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),10 *LEN($L93)+1,LEN($L93)))))</f>
@@ -4866,11 +4866,11 @@
         <v>0</v>
       </c>
       <c r="W93" s="0" t="str">
-        <f aca="true">IF(N93="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R93)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N93="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R93)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J94" s="10" t="str">
         <f aca="true">IF(L94="", IF(N94="","",W94+(INDIRECT("R" &amp; ROW() - 1) - R94)),IF(N94="", "", INDIRECT("R" &amp; ROW() - 1) - R94))</f>
         <v/>
@@ -4900,8 +4900,8 @@
         <v/>
       </c>
       <c r="T94" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U94" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 0 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),0 *LEN($L94)+1,LEN($L94))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 1 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),1 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 2 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),2 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 3 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),3 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 4 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),4 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 5 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),5 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 6 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),6 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 7 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),7 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 8 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),8 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 9 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),9 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 10 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),10 *LEN($L94)+1,LEN($L94)))))</f>
@@ -4912,11 +4912,11 @@
         <v>0</v>
       </c>
       <c r="W94" s="0" t="str">
-        <f aca="true">IF(N94="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R94)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N94="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R94)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J95" s="10" t="str">
         <f aca="true">IF(L95="", IF(N95="","",W95+(INDIRECT("R" &amp; ROW() - 1) - R95)),IF(N95="", "", INDIRECT("R" &amp; ROW() - 1) - R95))</f>
         <v/>
@@ -4946,8 +4946,8 @@
         <v/>
       </c>
       <c r="T95" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U95" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 0 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),0 *LEN($L95)+1,LEN($L95))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 1 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),1 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 2 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),2 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 3 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),3 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 4 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),4 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 5 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),5 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 6 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),6 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 7 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),7 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 8 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),8 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 9 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),9 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 10 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),10 *LEN($L95)+1,LEN($L95)))))</f>
@@ -4958,11 +4958,11 @@
         <v>0</v>
       </c>
       <c r="W95" s="0" t="str">
-        <f aca="true">IF(N95="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R95)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N95="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R95)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J96" s="10" t="str">
         <f aca="true">IF(L96="", IF(N96="","",W96+(INDIRECT("R" &amp; ROW() - 1) - R96)),IF(N96="", "", INDIRECT("R" &amp; ROW() - 1) - R96))</f>
         <v/>
@@ -4992,8 +4992,8 @@
         <v/>
       </c>
       <c r="T96" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U96" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 0 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),0 *LEN($L96)+1,LEN($L96))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 1 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),1 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 2 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),2 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 3 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),3 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 4 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),4 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 5 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),5 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 6 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),6 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 7 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),7 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 8 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),8 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 9 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),9 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 10 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),10 *LEN($L96)+1,LEN($L96)))))</f>
@@ -5004,11 +5004,11 @@
         <v>0</v>
       </c>
       <c r="W96" s="0" t="str">
-        <f aca="true">IF(N96="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R96)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N96="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R96)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J97" s="10" t="str">
         <f aca="true">IF(L97="", IF(N97="","",W97+(INDIRECT("R" &amp; ROW() - 1) - R97)),IF(N97="", "", INDIRECT("R" &amp; ROW() - 1) - R97))</f>
         <v/>
@@ -5038,8 +5038,8 @@
         <v/>
       </c>
       <c r="T97" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U97" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 0 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),0 *LEN($L97)+1,LEN($L97))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 1 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),1 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 2 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),2 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 3 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),3 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 4 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),4 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 5 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),5 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 6 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),6 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 7 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),7 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 8 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),8 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 9 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),9 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 10 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),10 *LEN($L97)+1,LEN($L97)))))</f>
@@ -5050,11 +5050,11 @@
         <v>0</v>
       </c>
       <c r="W97" s="0" t="str">
-        <f aca="true">IF(N97="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R97)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N97="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R97)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J98" s="10" t="str">
         <f aca="true">IF(L98="", IF(N98="","",W98+(INDIRECT("R" &amp; ROW() - 1) - R98)),IF(N98="", "", INDIRECT("R" &amp; ROW() - 1) - R98))</f>
         <v/>
@@ -5084,8 +5084,8 @@
         <v/>
       </c>
       <c r="T98" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U98" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 0 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),0 *LEN($L98)+1,LEN($L98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 1 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),1 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 2 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),2 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 3 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),3 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 4 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),4 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 5 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),5 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 6 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),6 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 7 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),7 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 8 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),8 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 9 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),9 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 10 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),10 *LEN($L98)+1,LEN($L98)))))</f>
@@ -5096,11 +5096,11 @@
         <v>0</v>
       </c>
       <c r="W98" s="0" t="str">
-        <f aca="true">IF(N98="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R98)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N98="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R98)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J99" s="10" t="str">
         <f aca="true">IF(L99="", IF(N99="","",W99+(INDIRECT("R" &amp; ROW() - 1) - R99)),IF(N99="", "", INDIRECT("R" &amp; ROW() - 1) - R99))</f>
         <v/>
@@ -5130,8 +5130,8 @@
         <v/>
       </c>
       <c r="T99" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U99" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 0 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),0 *LEN($L99)+1,LEN($L99))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 1 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),1 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 2 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),2 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 3 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),3 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 4 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),4 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 5 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),5 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 6 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),6 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 7 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),7 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 8 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),8 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 9 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),9 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 10 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),10 *LEN($L99)+1,LEN($L99)))))</f>
@@ -5142,11 +5142,11 @@
         <v>0</v>
       </c>
       <c r="W99" s="0" t="str">
-        <f aca="true">IF(N99="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R99)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N99="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R99)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J100" s="10" t="str">
         <f aca="true">IF(L100="", IF(N100="","",W100+(INDIRECT("R" &amp; ROW() - 1) - R100)),IF(N100="", "", INDIRECT("R" &amp; ROW() - 1) - R100))</f>
         <v/>
@@ -5176,8 +5176,8 @@
         <v/>
       </c>
       <c r="T100" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U100" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 0 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),0 *LEN($L100)+1,LEN($L100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 1 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),1 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 2 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),2 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 3 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),3 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 4 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),4 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 5 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),5 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 6 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),6 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 7 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),7 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 8 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),8 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 9 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),9 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 10 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),10 *LEN($L100)+1,LEN($L100)))))</f>
@@ -5188,11 +5188,11 @@
         <v>0</v>
       </c>
       <c r="W100" s="0" t="str">
-        <f aca="true">IF(N100="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R100)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N100="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R100)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J101" s="10" t="str">
         <f aca="true">IF(L101="", IF(N101="","",W101+(INDIRECT("R" &amp; ROW() - 1) - R101)),IF(N101="", "", INDIRECT("R" &amp; ROW() - 1) - R101))</f>
         <v/>
@@ -5222,8 +5222,8 @@
         <v/>
       </c>
       <c r="T101" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U101" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 0 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),0 *LEN($L101)+1,LEN($L101))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 1 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),1 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 2 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),2 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 3 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),3 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 4 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),4 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 5 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),5 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 6 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),6 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 7 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),7 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 8 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),8 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 9 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),9 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 10 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),10 *LEN($L101)+1,LEN($L101)))))</f>
@@ -5234,11 +5234,11 @@
         <v>0</v>
       </c>
       <c r="W101" s="0" t="str">
-        <f aca="true">IF(N101="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R101)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N101="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R101)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J102" s="10" t="str">
         <f aca="true">IF(L102="", IF(N102="","",W102+(INDIRECT("R" &amp; ROW() - 1) - R102)),IF(N102="", "", INDIRECT("R" &amp; ROW() - 1) - R102))</f>
         <v/>
@@ -5268,8 +5268,8 @@
         <v/>
       </c>
       <c r="T102" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U102" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 0 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),0 *LEN($L102)+1,LEN($L102))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 1 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),1 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 2 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),2 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 3 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),3 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 4 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),4 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 5 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),5 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 6 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),6 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 7 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),7 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 8 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),8 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 9 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),9 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 10 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),10 *LEN($L102)+1,LEN($L102)))))</f>
@@ -5280,11 +5280,11 @@
         <v>0</v>
       </c>
       <c r="W102" s="0" t="str">
-        <f aca="true">IF(N102="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R102)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N102="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R102)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J103" s="10" t="str">
         <f aca="true">IF(L103="", IF(N103="","",W103+(INDIRECT("R" &amp; ROW() - 1) - R103)),IF(N103="", "", INDIRECT("R" &amp; ROW() - 1) - R103))</f>
         <v/>
@@ -5314,8 +5314,8 @@
         <v/>
       </c>
       <c r="T103" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U103" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 0 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),0 *LEN($L103)+1,LEN($L103))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 1 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),1 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 2 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),2 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 3 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),3 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 4 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),4 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 5 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),5 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 6 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),6 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 7 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),7 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 8 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),8 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 9 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),9 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 10 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),10 *LEN($L103)+1,LEN($L103)))))</f>
@@ -5326,11 +5326,11 @@
         <v>0</v>
       </c>
       <c r="W103" s="0" t="str">
-        <f aca="true">IF(N103="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R103)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N103="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R103)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J104" s="10" t="str">
         <f aca="true">IF(L104="", IF(N104="","",W104+(INDIRECT("R" &amp; ROW() - 1) - R104)),IF(N104="", "", INDIRECT("R" &amp; ROW() - 1) - R104))</f>
         <v/>
@@ -5360,8 +5360,8 @@
         <v/>
       </c>
       <c r="T104" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U104" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 0 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),0 *LEN($L104)+1,LEN($L104))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 1 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),1 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 2 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),2 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 3 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),3 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 4 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),4 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 5 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),5 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 6 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),6 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 7 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),7 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 8 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),8 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 9 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),9 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 10 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),10 *LEN($L104)+1,LEN($L104)))))</f>
@@ -5372,11 +5372,11 @@
         <v>0</v>
       </c>
       <c r="W104" s="0" t="str">
-        <f aca="true">IF(N104="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R104)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N104="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R104)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J105" s="10" t="str">
         <f aca="true">IF(L105="", IF(N105="","",W105+(INDIRECT("R" &amp; ROW() - 1) - R105)),IF(N105="", "", INDIRECT("R" &amp; ROW() - 1) - R105))</f>
         <v/>
@@ -5406,8 +5406,8 @@
         <v/>
       </c>
       <c r="T105" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U105" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 0 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),0 *LEN($L105)+1,LEN($L105))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 1 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),1 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 2 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),2 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 3 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),3 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 4 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),4 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 5 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),5 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 6 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),6 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 7 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),7 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 8 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),8 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 9 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),9 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 10 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),10 *LEN($L105)+1,LEN($L105)))))</f>
@@ -5418,11 +5418,11 @@
         <v>0</v>
       </c>
       <c r="W105" s="0" t="str">
-        <f aca="true">IF(N105="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R105)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N105="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R105)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J106" s="10" t="str">
         <f aca="true">IF(L106="", IF(N106="","",W106+(INDIRECT("R" &amp; ROW() - 1) - R106)),IF(N106="", "", INDIRECT("R" &amp; ROW() - 1) - R106))</f>
         <v/>
@@ -5452,8 +5452,8 @@
         <v/>
       </c>
       <c r="T106" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U106" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 0 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),0 *LEN($L106)+1,LEN($L106))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 1 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),1 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 2 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),2 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 3 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),3 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 4 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),4 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 5 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),5 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 6 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),6 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 7 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),7 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 8 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),8 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 9 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),9 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 10 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),10 *LEN($L106)+1,LEN($L106)))))</f>
@@ -5464,11 +5464,11 @@
         <v>0</v>
       </c>
       <c r="W106" s="0" t="str">
-        <f aca="true">IF(N106="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R106)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N106="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R106)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J107" s="10" t="str">
         <f aca="true">IF(L107="", IF(N107="","",W107+(INDIRECT("R" &amp; ROW() - 1) - R107)),IF(N107="", "", INDIRECT("R" &amp; ROW() - 1) - R107))</f>
         <v/>
@@ -5498,8 +5498,8 @@
         <v/>
       </c>
       <c r="T107" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U107" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 0 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),0 *LEN($L107)+1,LEN($L107))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 1 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),1 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 2 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),2 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 3 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),3 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 4 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),4 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 5 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),5 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 6 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),6 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 7 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),7 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 8 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),8 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 9 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),9 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 10 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),10 *LEN($L107)+1,LEN($L107)))))</f>
@@ -5510,11 +5510,11 @@
         <v>0</v>
       </c>
       <c r="W107" s="0" t="str">
-        <f aca="true">IF(N107="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R107)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N107="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R107)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J108" s="10" t="str">
         <f aca="true">IF(L108="", IF(N108="","",W108+(INDIRECT("R" &amp; ROW() - 1) - R108)),IF(N108="", "", INDIRECT("R" &amp; ROW() - 1) - R108))</f>
         <v/>
@@ -5544,8 +5544,8 @@
         <v/>
       </c>
       <c r="T108" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U108" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 0 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),0 *LEN($L108)+1,LEN($L108))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 1 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),1 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 2 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),2 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 3 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),3 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 4 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),4 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 5 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),5 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 6 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),6 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 7 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),7 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 8 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),8 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 9 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),9 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 10 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),10 *LEN($L108)+1,LEN($L108)))))</f>
@@ -5556,11 +5556,11 @@
         <v>0</v>
       </c>
       <c r="W108" s="0" t="str">
-        <f aca="true">IF(N108="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R108)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N108="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R108)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J109" s="10" t="str">
         <f aca="true">IF(L109="", IF(N109="","",W109+(INDIRECT("R" &amp; ROW() - 1) - R109)),IF(N109="", "", INDIRECT("R" &amp; ROW() - 1) - R109))</f>
         <v/>
@@ -5590,8 +5590,8 @@
         <v/>
       </c>
       <c r="T109" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U109" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 0 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),0 *LEN($L109)+1,LEN($L109))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 1 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),1 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 2 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),2 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 3 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),3 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 4 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),4 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 5 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),5 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 6 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),6 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 7 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),7 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 8 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),8 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 9 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),9 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 10 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),10 *LEN($L109)+1,LEN($L109)))))</f>
@@ -5602,11 +5602,11 @@
         <v>0</v>
       </c>
       <c r="W109" s="0" t="str">
-        <f aca="true">IF(N109="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R109)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N109="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R109)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J110" s="10" t="str">
         <f aca="true">IF(L110="", IF(N110="","",W110+(INDIRECT("R" &amp; ROW() - 1) - R110)),IF(N110="", "", INDIRECT("R" &amp; ROW() - 1) - R110))</f>
         <v/>
@@ -5636,8 +5636,8 @@
         <v/>
       </c>
       <c r="T110" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U110" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 0 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),0 *LEN($L110)+1,LEN($L110))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 1 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),1 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 2 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),2 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 3 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),3 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 4 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),4 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 5 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),5 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 6 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),6 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 7 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),7 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 8 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),8 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 9 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),9 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 10 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),10 *LEN($L110)+1,LEN($L110)))))</f>
@@ -5648,11 +5648,11 @@
         <v>0</v>
       </c>
       <c r="W110" s="0" t="str">
-        <f aca="true">IF(N110="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R110)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N110="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R110)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J111" s="10" t="str">
         <f aca="true">IF(L111="", IF(N111="","",W111+(INDIRECT("R" &amp; ROW() - 1) - R111)),IF(N111="", "", INDIRECT("R" &amp; ROW() - 1) - R111))</f>
         <v/>
@@ -5682,8 +5682,8 @@
         <v/>
       </c>
       <c r="T111" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U111" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 0 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),0 *LEN($L111)+1,LEN($L111))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 1 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),1 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 2 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),2 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 3 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),3 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 4 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),4 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 5 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),5 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 6 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),6 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 7 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),7 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 8 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),8 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 9 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),9 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 10 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),10 *LEN($L111)+1,LEN($L111)))))</f>
@@ -5694,11 +5694,11 @@
         <v>0</v>
       </c>
       <c r="W111" s="0" t="str">
-        <f aca="true">IF(N111="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R111)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N111="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R111)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J112" s="10" t="str">
         <f aca="true">IF(L112="", IF(N112="","",W112+(INDIRECT("R" &amp; ROW() - 1) - R112)),IF(N112="", "", INDIRECT("R" &amp; ROW() - 1) - R112))</f>
         <v/>
@@ -5728,8 +5728,8 @@
         <v/>
       </c>
       <c r="T112" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U112" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 0 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),0 *LEN($L112)+1,LEN($L112))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 1 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),1 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 2 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),2 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 3 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),3 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 4 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),4 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 5 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),5 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 6 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),6 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 7 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),7 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 8 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),8 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 9 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),9 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 10 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),10 *LEN($L112)+1,LEN($L112)))))</f>
@@ -5740,11 +5740,11 @@
         <v>0</v>
       </c>
       <c r="W112" s="0" t="str">
-        <f aca="true">IF(N112="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R112)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N112="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R112)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J113" s="10" t="str">
         <f aca="true">IF(L113="", IF(N113="","",W113+(INDIRECT("R" &amp; ROW() - 1) - R113)),IF(N113="", "", INDIRECT("R" &amp; ROW() - 1) - R113))</f>
         <v/>
@@ -5774,8 +5774,8 @@
         <v/>
       </c>
       <c r="T113" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U113" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 0 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),0 *LEN($L113)+1,LEN($L113))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 1 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),1 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 2 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),2 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 3 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),3 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 4 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),4 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 5 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),5 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 6 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),6 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 7 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),7 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 8 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),8 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 9 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),9 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 10 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),10 *LEN($L113)+1,LEN($L113)))))</f>
@@ -5786,11 +5786,11 @@
         <v>0</v>
       </c>
       <c r="W113" s="0" t="str">
-        <f aca="true">IF(N113="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R113)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N113="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R113)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J114" s="10" t="str">
         <f aca="true">IF(L114="", IF(N114="","",W114+(INDIRECT("R" &amp; ROW() - 1) - R114)),IF(N114="", "", INDIRECT("R" &amp; ROW() - 1) - R114))</f>
         <v/>
@@ -5820,8 +5820,8 @@
         <v/>
       </c>
       <c r="T114" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U114" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 0 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),0 *LEN($L114)+1,LEN($L114))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 1 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),1 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 2 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),2 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 3 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),3 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 4 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),4 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 5 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),5 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 6 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),6 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 7 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),7 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 8 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),8 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 9 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),9 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 10 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),10 *LEN($L114)+1,LEN($L114)))))</f>
@@ -5832,11 +5832,11 @@
         <v>0</v>
       </c>
       <c r="W114" s="0" t="str">
-        <f aca="true">IF(N114="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R114)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N114="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R114)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J115" s="10" t="str">
         <f aca="true">IF(L115="", IF(N115="","",W115+(INDIRECT("R" &amp; ROW() - 1) - R115)),IF(N115="", "", INDIRECT("R" &amp; ROW() - 1) - R115))</f>
         <v/>
@@ -5866,8 +5866,8 @@
         <v/>
       </c>
       <c r="T115" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U115" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 0 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),0 *LEN($L115)+1,LEN($L115))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 1 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),1 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 2 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),2 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 3 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),3 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 4 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),4 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 5 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),5 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 6 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),6 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 7 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),7 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 8 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),8 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 9 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),9 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 10 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),10 *LEN($L115)+1,LEN($L115)))))</f>
@@ -5878,11 +5878,11 @@
         <v>0</v>
       </c>
       <c r="W115" s="0" t="str">
-        <f aca="true">IF(N115="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R115)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N115="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R115)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J116" s="10" t="str">
         <f aca="true">IF(L116="", IF(N116="","",W116+(INDIRECT("R" &amp; ROW() - 1) - R116)),IF(N116="", "", INDIRECT("R" &amp; ROW() - 1) - R116))</f>
         <v/>
@@ -5912,8 +5912,8 @@
         <v/>
       </c>
       <c r="T116" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U116" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 0 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),0 *LEN($L116)+1,LEN($L116))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 1 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),1 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 2 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),2 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 3 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),3 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 4 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),4 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 5 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),5 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 6 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),6 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 7 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),7 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 8 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),8 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 9 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),9 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 10 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),10 *LEN($L116)+1,LEN($L116)))))</f>
@@ -5924,11 +5924,11 @@
         <v>0</v>
       </c>
       <c r="W116" s="0" t="str">
-        <f aca="true">IF(N116="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R116)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N116="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R116)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J117" s="10" t="str">
         <f aca="true">IF(L117="", IF(N117="","",W117+(INDIRECT("R" &amp; ROW() - 1) - R117)),IF(N117="", "", INDIRECT("R" &amp; ROW() - 1) - R117))</f>
         <v/>
@@ -5958,8 +5958,8 @@
         <v/>
       </c>
       <c r="T117" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U117" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 0 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),0 *LEN($L117)+1,LEN($L117))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 1 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),1 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 2 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),2 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 3 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),3 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 4 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),4 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 5 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),5 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 6 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),6 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 7 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),7 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 8 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),8 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 9 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),9 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 10 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),10 *LEN($L117)+1,LEN($L117)))))</f>
@@ -5970,11 +5970,11 @@
         <v>0</v>
       </c>
       <c r="W117" s="0" t="str">
-        <f aca="true">IF(N117="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R117)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N117="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R117)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J118" s="10" t="str">
         <f aca="true">IF(L118="", IF(N118="","",W118+(INDIRECT("R" &amp; ROW() - 1) - R118)),IF(N118="", "", INDIRECT("R" &amp; ROW() - 1) - R118))</f>
         <v/>
@@ -6004,8 +6004,8 @@
         <v/>
       </c>
       <c r="T118" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U118" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 0 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),0 *LEN($L118)+1,LEN($L118))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 1 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),1 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 2 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),2 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 3 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),3 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 4 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),4 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 5 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),5 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 6 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),6 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 7 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),7 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 8 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),8 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 9 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),9 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 10 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),10 *LEN($L118)+1,LEN($L118)))))</f>
@@ -6016,11 +6016,11 @@
         <v>0</v>
       </c>
       <c r="W118" s="0" t="str">
-        <f aca="true">IF(N118="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R118)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N118="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R118)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J119" s="10" t="str">
         <f aca="true">IF(L119="", IF(N119="","",W119+(INDIRECT("R" &amp; ROW() - 1) - R119)),IF(N119="", "", INDIRECT("R" &amp; ROW() - 1) - R119))</f>
         <v/>
@@ -6050,8 +6050,8 @@
         <v/>
       </c>
       <c r="T119" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U119" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 0 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),0 *LEN($L119)+1,LEN($L119))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 1 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),1 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 2 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),2 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 3 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),3 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 4 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),4 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 5 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),5 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 6 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),6 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 7 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),7 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 8 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),8 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 9 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),9 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 10 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),10 *LEN($L119)+1,LEN($L119)))))</f>
@@ -6062,11 +6062,11 @@
         <v>0</v>
       </c>
       <c r="W119" s="0" t="str">
-        <f aca="true">IF(N119="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R119)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N119="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R119)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J120" s="10" t="str">
         <f aca="true">IF(L120="", IF(N120="","",W120+(INDIRECT("R" &amp; ROW() - 1) - R120)),IF(N120="", "", INDIRECT("R" &amp; ROW() - 1) - R120))</f>
         <v/>
@@ -6096,8 +6096,8 @@
         <v/>
       </c>
       <c r="T120" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U120" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 0 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),0 *LEN($L120)+1,LEN($L120))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 1 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),1 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 2 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),2 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 3 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),3 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 4 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),4 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 5 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),5 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 6 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),6 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 7 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),7 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 8 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),8 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 9 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),9 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 10 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),10 *LEN($L120)+1,LEN($L120)))))</f>
@@ -6108,11 +6108,11 @@
         <v>0</v>
       </c>
       <c r="W120" s="0" t="str">
-        <f aca="true">IF(N120="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R120)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N120="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R120)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J121" s="10" t="str">
         <f aca="true">IF(L121="", IF(N121="","",W121+(INDIRECT("R" &amp; ROW() - 1) - R121)),IF(N121="", "", INDIRECT("R" &amp; ROW() - 1) - R121))</f>
         <v/>
@@ -6142,8 +6142,8 @@
         <v/>
       </c>
       <c r="T121" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U121" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 0 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),0 *LEN($L121)+1,LEN($L121))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 1 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),1 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 2 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),2 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 3 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),3 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 4 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),4 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 5 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),5 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 6 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),6 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 7 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),7 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 8 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),8 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 9 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),9 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 10 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),10 *LEN($L121)+1,LEN($L121)))))</f>
@@ -6154,11 +6154,11 @@
         <v>0</v>
       </c>
       <c r="W121" s="0" t="str">
-        <f aca="true">IF(N121="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R121)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="true">IF(N121="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R121)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J122" s="10" t="str">
         <f aca="true">IF(L122="", IF(N122="","",W122+(INDIRECT("R" &amp; ROW() - 1) - R122)),IF(N122="", "", INDIRECT("R" &amp; ROW() - 1) - R122))</f>
         <v/>
@@ -6188,8 +6188,8 @@
         <v/>
       </c>
       <c r="T122" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/1000</f>
+        <v>8</v>
       </c>
       <c r="U122" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 0 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),0 *LEN($L122)+1,LEN($L122))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 1 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),1 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 2 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),2 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 3 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),3 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 4 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),4 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 5 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),5 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 6 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),6 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 7 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),7 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 8 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),8 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 9 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),9 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 10 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),10 *LEN($L122)+1,LEN($L122)))))</f>
@@ -6200,10 +6200,12 @@
         <v>0</v>
       </c>
       <c r="W122" s="0" t="str">
-        <f aca="true">IF(N122="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R122)/$C$2, 0), 1) * $C$2)</f>
-        <v/>
-      </c>
-    </row>
+        <f aca="true">IF(N122="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R122)/1000, 0), 1) * 1000)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="B2:B122">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
@@ -6228,12 +6230,12 @@
       <formula1>'Типы варок'!$A$1:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
+      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
     <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H2:H59" type="list">
       <formula1>'Вода SKU'!$A$1:$A$137</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="E2:F122" type="list">
-      <formula1>'Форм фактор плавления'!$A$1:$A$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -6255,11 +6257,9 @@
   <dimension ref="A1:W122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="15" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="P92" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J:J"/>
+      <selection pane="bottomLeft" activeCell="I114" activeCellId="0" sqref="I114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6386,8 +6386,8 @@
         <v/>
       </c>
       <c r="T2" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U2" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 0 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),0 *LEN($L2)+1,LEN($L2))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 1 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),1 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 2 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),2 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 3 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),3 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 4 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),4 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 5 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),5 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 6 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),6 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 7 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),7 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 8 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),8 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 9 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),9 *LEN($L2)+1,LEN($L2))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))), 10 *LEN($L2)+1,LEN($L2))) = "", "0", TRIM(MID(SUBSTITUTE($L2,",",REPT(" ",LEN($L2))),10 *LEN($L2)+1,LEN($L2)))))</f>
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="0" t="str">
-        <f aca="true">IF(N2="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R2)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N2="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R2)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6432,8 +6432,8 @@
         <v/>
       </c>
       <c r="T3" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U3" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 0 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),0 *LEN($L3)+1,LEN($L3))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 1 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),1 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 2 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),2 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 3 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),3 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 4 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),4 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 5 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),5 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 6 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),6 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 7 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),7 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 8 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),8 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 9 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),9 *LEN($L3)+1,LEN($L3))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))), 10 *LEN($L3)+1,LEN($L3))) = "", "0", TRIM(MID(SUBSTITUTE($L3,",",REPT(" ",LEN($L3))),10 *LEN($L3)+1,LEN($L3)))))</f>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="str">
-        <f aca="true">IF(N3="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R3)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N3="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R3)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6478,8 +6478,8 @@
         <v/>
       </c>
       <c r="T4" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U4" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 0 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),0 *LEN($L4)+1,LEN($L4))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 1 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),1 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 2 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),2 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 3 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),3 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 4 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),4 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 5 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),5 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 6 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),6 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 7 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),7 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 8 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),8 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 9 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),9 *LEN($L4)+1,LEN($L4))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))), 10 *LEN($L4)+1,LEN($L4))) = "", "0", TRIM(MID(SUBSTITUTE($L4,",",REPT(" ",LEN($L4))),10 *LEN($L4)+1,LEN($L4)))))</f>
@@ -6490,7 +6490,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="str">
-        <f aca="true">IF(N4="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R4)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N4="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R4)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6524,8 +6524,8 @@
         <v/>
       </c>
       <c r="T5" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U5" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 0 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),0 *LEN($L5)+1,LEN($L5))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 1 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),1 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 2 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),2 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 3 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),3 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 4 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),4 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 5 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),5 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 6 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),6 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 7 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),7 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 8 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),8 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 9 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),9 *LEN($L5)+1,LEN($L5))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))), 10 *LEN($L5)+1,LEN($L5))) = "", "0", TRIM(MID(SUBSTITUTE($L5,",",REPT(" ",LEN($L5))),10 *LEN($L5)+1,LEN($L5)))))</f>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="str">
-        <f aca="true">IF(N5="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R5)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N5="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R5)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6570,8 +6570,8 @@
         <v/>
       </c>
       <c r="T6" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U6" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 0 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),0 *LEN($L6)+1,LEN($L6))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 1 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),1 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 2 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),2 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 3 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),3 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 4 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),4 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 5 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),5 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 6 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),6 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 7 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),7 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 8 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),8 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 9 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),9 *LEN($L6)+1,LEN($L6))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))), 10 *LEN($L6)+1,LEN($L6))) = "", "0", TRIM(MID(SUBSTITUTE($L6,",",REPT(" ",LEN($L6))),10 *LEN($L6)+1,LEN($L6)))))</f>
@@ -6582,7 +6582,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="str">
-        <f aca="true">IF(N6="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R6)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N6="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R6)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6616,8 +6616,8 @@
         <v/>
       </c>
       <c r="T7" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U7" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 0 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),0 *LEN($L7)+1,LEN($L7))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 1 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),1 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 2 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),2 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 3 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),3 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 4 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),4 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 5 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),5 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 6 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),6 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 7 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),7 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 8 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),8 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 9 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),9 *LEN($L7)+1,LEN($L7))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))), 10 *LEN($L7)+1,LEN($L7))) = "", "0", TRIM(MID(SUBSTITUTE($L7,",",REPT(" ",LEN($L7))),10 *LEN($L7)+1,LEN($L7)))))</f>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="0" t="str">
-        <f aca="true">IF(N7="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R7)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N7="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R7)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6662,8 +6662,8 @@
         <v/>
       </c>
       <c r="T8" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U8" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 0 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),0 *LEN($L8)+1,LEN($L8))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 1 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),1 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 2 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),2 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 3 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),3 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 4 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),4 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 5 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),5 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 6 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),6 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 7 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),7 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 8 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),8 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 9 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),9 *LEN($L8)+1,LEN($L8))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))), 10 *LEN($L8)+1,LEN($L8))) = "", "0", TRIM(MID(SUBSTITUTE($L8,",",REPT(" ",LEN($L8))),10 *LEN($L8)+1,LEN($L8)))))</f>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="str">
-        <f aca="true">IF(N8="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R8)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N8="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R8)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6708,8 +6708,8 @@
         <v/>
       </c>
       <c r="T9" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U9" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 0 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),0 *LEN($L9)+1,LEN($L9))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 1 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),1 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 2 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),2 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 3 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),3 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 4 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),4 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 5 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),5 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 6 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),6 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 7 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),7 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 8 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),8 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 9 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),9 *LEN($L9)+1,LEN($L9))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))), 10 *LEN($L9)+1,LEN($L9))) = "", "0", TRIM(MID(SUBSTITUTE($L9,",",REPT(" ",LEN($L9))),10 *LEN($L9)+1,LEN($L9)))))</f>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="str">
-        <f aca="true">IF(N9="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R9)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N9="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R9)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6754,8 +6754,8 @@
         <v/>
       </c>
       <c r="T10" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U10" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 0 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),0 *LEN($L10)+1,LEN($L10))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 1 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),1 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 2 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),2 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 3 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),3 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 4 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),4 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 5 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),5 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 6 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),6 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 7 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),7 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 8 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),8 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 9 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),9 *LEN($L10)+1,LEN($L10))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))), 10 *LEN($L10)+1,LEN($L10))) = "", "0", TRIM(MID(SUBSTITUTE($L10,",",REPT(" ",LEN($L10))),10 *LEN($L10)+1,LEN($L10)))))</f>
@@ -6766,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="str">
-        <f aca="true">IF(N10="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R10)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N10="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R10)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6800,8 +6800,8 @@
         <v/>
       </c>
       <c r="T11" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U11" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 0 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),0 *LEN($L11)+1,LEN($L11))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 1 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),1 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 2 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),2 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 3 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),3 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 4 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),4 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 5 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),5 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 6 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),6 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 7 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),7 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 8 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),8 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 9 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),9 *LEN($L11)+1,LEN($L11))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))), 10 *LEN($L11)+1,LEN($L11))) = "", "0", TRIM(MID(SUBSTITUTE($L11,",",REPT(" ",LEN($L11))),10 *LEN($L11)+1,LEN($L11)))))</f>
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="str">
-        <f aca="true">IF(N11="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R11)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N11="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R11)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6846,8 +6846,8 @@
         <v/>
       </c>
       <c r="T12" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U12" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 0 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),0 *LEN($L12)+1,LEN($L12))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 1 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),1 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 2 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),2 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 3 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),3 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 4 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),4 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 5 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),5 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 6 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),6 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 7 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),7 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 8 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),8 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 9 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),9 *LEN($L12)+1,LEN($L12))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))), 10 *LEN($L12)+1,LEN($L12))) = "", "0", TRIM(MID(SUBSTITUTE($L12,",",REPT(" ",LEN($L12))),10 *LEN($L12)+1,LEN($L12)))))</f>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0" t="str">
-        <f aca="true">IF(N12="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R12)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N12="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R12)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6892,8 +6892,8 @@
         <v/>
       </c>
       <c r="T13" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U13" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 0 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),0 *LEN($L13)+1,LEN($L13))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 1 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),1 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 2 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),2 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 3 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),3 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 4 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),4 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 5 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),5 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 6 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),6 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 7 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),7 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 8 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),8 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 9 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),9 *LEN($L13)+1,LEN($L13))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))), 10 *LEN($L13)+1,LEN($L13))) = "", "0", TRIM(MID(SUBSTITUTE($L13,",",REPT(" ",LEN($L13))),10 *LEN($L13)+1,LEN($L13)))))</f>
@@ -6904,7 +6904,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="0" t="str">
-        <f aca="true">IF(N13="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R13)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N13="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R13)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6938,8 +6938,8 @@
         <v/>
       </c>
       <c r="T14" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U14" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 0 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),0 *LEN($L14)+1,LEN($L14))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 1 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),1 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 2 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),2 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 3 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),3 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 4 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),4 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 5 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),5 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 6 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),6 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 7 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),7 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 8 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),8 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 9 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),9 *LEN($L14)+1,LEN($L14))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))), 10 *LEN($L14)+1,LEN($L14))) = "", "0", TRIM(MID(SUBSTITUTE($L14,",",REPT(" ",LEN($L14))),10 *LEN($L14)+1,LEN($L14)))))</f>
@@ -6950,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="0" t="str">
-        <f aca="true">IF(N14="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R14)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N14="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R14)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -6984,8 +6984,8 @@
         <v/>
       </c>
       <c r="T15" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U15" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 0 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),0 *LEN($L15)+1,LEN($L15))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 1 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),1 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 2 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),2 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 3 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),3 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 4 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),4 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 5 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),5 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 6 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),6 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 7 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),7 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 8 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),8 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 9 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),9 *LEN($L15)+1,LEN($L15))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))), 10 *LEN($L15)+1,LEN($L15))) = "", "0", TRIM(MID(SUBSTITUTE($L15,",",REPT(" ",LEN($L15))),10 *LEN($L15)+1,LEN($L15)))))</f>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="str">
-        <f aca="true">IF(N15="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R15)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N15="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R15)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7030,8 +7030,8 @@
         <v/>
       </c>
       <c r="T16" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U16" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 0 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),0 *LEN($L16)+1,LEN($L16))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 1 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),1 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 2 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),2 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 3 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),3 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 4 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),4 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 5 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),5 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 6 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),6 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 7 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),7 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 8 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),8 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 9 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),9 *LEN($L16)+1,LEN($L16))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))), 10 *LEN($L16)+1,LEN($L16))) = "", "0", TRIM(MID(SUBSTITUTE($L16,",",REPT(" ",LEN($L16))),10 *LEN($L16)+1,LEN($L16)))))</f>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="0" t="str">
-        <f aca="true">IF(N16="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R16)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N16="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R16)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7076,8 +7076,8 @@
         <v/>
       </c>
       <c r="T17" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U17" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 0 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),0 *LEN($L17)+1,LEN($L17))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 1 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),1 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 2 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),2 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 3 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),3 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 4 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),4 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 5 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),5 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 6 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),6 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 7 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),7 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 8 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),8 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 9 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),9 *LEN($L17)+1,LEN($L17))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))), 10 *LEN($L17)+1,LEN($L17))) = "", "0", TRIM(MID(SUBSTITUTE($L17,",",REPT(" ",LEN($L17))),10 *LEN($L17)+1,LEN($L17)))))</f>
@@ -7088,7 +7088,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="0" t="str">
-        <f aca="true">IF(N17="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R17)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N17="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R17)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7122,8 +7122,8 @@
         <v/>
       </c>
       <c r="T18" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U18" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 0 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),0 *LEN($L18)+1,LEN($L18))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 1 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),1 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 2 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),2 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 3 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),3 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 4 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),4 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 5 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),5 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 6 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),6 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 7 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),7 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 8 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),8 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 9 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),9 *LEN($L18)+1,LEN($L18))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))), 10 *LEN($L18)+1,LEN($L18))) = "", "0", TRIM(MID(SUBSTITUTE($L18,",",REPT(" ",LEN($L18))),10 *LEN($L18)+1,LEN($L18)))))</f>
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="0" t="str">
-        <f aca="true">IF(N18="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R18)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N18="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R18)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7168,8 +7168,8 @@
         <v/>
       </c>
       <c r="T19" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U19" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 0 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),0 *LEN($L19)+1,LEN($L19))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 1 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),1 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 2 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),2 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 3 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),3 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 4 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),4 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 5 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),5 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 6 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),6 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 7 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),7 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 8 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),8 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 9 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),9 *LEN($L19)+1,LEN($L19))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))), 10 *LEN($L19)+1,LEN($L19))) = "", "0", TRIM(MID(SUBSTITUTE($L19,",",REPT(" ",LEN($L19))),10 *LEN($L19)+1,LEN($L19)))))</f>
@@ -7180,7 +7180,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="0" t="str">
-        <f aca="true">IF(N19="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R19)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N19="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R19)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7214,8 +7214,8 @@
         <v/>
       </c>
       <c r="T20" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U20" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 0 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),0 *LEN($L20)+1,LEN($L20))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 1 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),1 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 2 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),2 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 3 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),3 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 4 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),4 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 5 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),5 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 6 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),6 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 7 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),7 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 8 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),8 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 9 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),9 *LEN($L20)+1,LEN($L20))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))), 10 *LEN($L20)+1,LEN($L20))) = "", "0", TRIM(MID(SUBSTITUTE($L20,",",REPT(" ",LEN($L20))),10 *LEN($L20)+1,LEN($L20)))))</f>
@@ -7226,7 +7226,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="0" t="str">
-        <f aca="true">IF(N20="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R20)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N20="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R20)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7260,8 +7260,8 @@
         <v/>
       </c>
       <c r="T21" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U21" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 0 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),0 *LEN($L21)+1,LEN($L21))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 1 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),1 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 2 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),2 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 3 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),3 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 4 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),4 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 5 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),5 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 6 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),6 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 7 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),7 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 8 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),8 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 9 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),9 *LEN($L21)+1,LEN($L21))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))), 10 *LEN($L21)+1,LEN($L21))) = "", "0", TRIM(MID(SUBSTITUTE($L21,",",REPT(" ",LEN($L21))),10 *LEN($L21)+1,LEN($L21)))))</f>
@@ -7272,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="0" t="str">
-        <f aca="true">IF(N21="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R21)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N21="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R21)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7306,8 +7306,8 @@
         <v/>
       </c>
       <c r="T22" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U22" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 0 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),0 *LEN($L22)+1,LEN($L22))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 1 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),1 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 2 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),2 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 3 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),3 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 4 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),4 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 5 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),5 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 6 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),6 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 7 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),7 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 8 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),8 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 9 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),9 *LEN($L22)+1,LEN($L22))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))), 10 *LEN($L22)+1,LEN($L22))) = "", "0", TRIM(MID(SUBSTITUTE($L22,",",REPT(" ",LEN($L22))),10 *LEN($L22)+1,LEN($L22)))))</f>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="0" t="str">
-        <f aca="true">IF(N22="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R22)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N22="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R22)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7352,8 +7352,8 @@
         <v/>
       </c>
       <c r="T23" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U23" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 0 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),0 *LEN($L23)+1,LEN($L23))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 1 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),1 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 2 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),2 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 3 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),3 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 4 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),4 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 5 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),5 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 6 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),6 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 7 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),7 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 8 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),8 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 9 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),9 *LEN($L23)+1,LEN($L23))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))), 10 *LEN($L23)+1,LEN($L23))) = "", "0", TRIM(MID(SUBSTITUTE($L23,",",REPT(" ",LEN($L23))),10 *LEN($L23)+1,LEN($L23)))))</f>
@@ -7364,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="0" t="str">
-        <f aca="true">IF(N23="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R23)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N23="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R23)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7398,8 +7398,8 @@
         <v/>
       </c>
       <c r="T24" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U24" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 0 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),0 *LEN($L24)+1,LEN($L24))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 1 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),1 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 2 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),2 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 3 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),3 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 4 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),4 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 5 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),5 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 6 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),6 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 7 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),7 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 8 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),8 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 9 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),9 *LEN($L24)+1,LEN($L24))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))), 10 *LEN($L24)+1,LEN($L24))) = "", "0", TRIM(MID(SUBSTITUTE($L24,",",REPT(" ",LEN($L24))),10 *LEN($L24)+1,LEN($L24)))))</f>
@@ -7410,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0" t="str">
-        <f aca="true">IF(N24="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R24)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N24="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R24)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7444,8 +7444,8 @@
         <v/>
       </c>
       <c r="T25" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U25" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 0 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),0 *LEN($L25)+1,LEN($L25))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 1 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),1 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 2 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),2 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 3 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),3 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 4 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),4 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 5 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),5 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 6 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),6 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 7 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),7 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 8 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),8 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 9 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),9 *LEN($L25)+1,LEN($L25))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))), 10 *LEN($L25)+1,LEN($L25))) = "", "0", TRIM(MID(SUBSTITUTE($L25,",",REPT(" ",LEN($L25))),10 *LEN($L25)+1,LEN($L25)))))</f>
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="str">
-        <f aca="true">IF(N25="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R25)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N25="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R25)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7490,8 +7490,8 @@
         <v/>
       </c>
       <c r="T26" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U26" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 0 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),0 *LEN($L26)+1,LEN($L26))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 1 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),1 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 2 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),2 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 3 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),3 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 4 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),4 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 5 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),5 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 6 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),6 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 7 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),7 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 8 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),8 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 9 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),9 *LEN($L26)+1,LEN($L26))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))), 10 *LEN($L26)+1,LEN($L26))) = "", "0", TRIM(MID(SUBSTITUTE($L26,",",REPT(" ",LEN($L26))),10 *LEN($L26)+1,LEN($L26)))))</f>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="0" t="str">
-        <f aca="true">IF(N26="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R26)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N26="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R26)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7536,8 +7536,8 @@
         <v/>
       </c>
       <c r="T27" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U27" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 0 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),0 *LEN($L27)+1,LEN($L27))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 1 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),1 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 2 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),2 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 3 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),3 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 4 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),4 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 5 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),5 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 6 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),6 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 7 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),7 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 8 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),8 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 9 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),9 *LEN($L27)+1,LEN($L27))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))), 10 *LEN($L27)+1,LEN($L27))) = "", "0", TRIM(MID(SUBSTITUTE($L27,",",REPT(" ",LEN($L27))),10 *LEN($L27)+1,LEN($L27)))))</f>
@@ -7548,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="0" t="str">
-        <f aca="true">IF(N27="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R27)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N27="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R27)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7582,8 +7582,8 @@
         <v/>
       </c>
       <c r="T28" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U28" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 0 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),0 *LEN($L28)+1,LEN($L28))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 1 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),1 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 2 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),2 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 3 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),3 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 4 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),4 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 5 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),5 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 6 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),6 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 7 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),7 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 8 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),8 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 9 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),9 *LEN($L28)+1,LEN($L28))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))), 10 *LEN($L28)+1,LEN($L28))) = "", "0", TRIM(MID(SUBSTITUTE($L28,",",REPT(" ",LEN($L28))),10 *LEN($L28)+1,LEN($L28)))))</f>
@@ -7594,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="0" t="str">
-        <f aca="true">IF(N28="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R28)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N28="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R28)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7628,8 +7628,8 @@
         <v/>
       </c>
       <c r="T29" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U29" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 0 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),0 *LEN($L29)+1,LEN($L29))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 1 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),1 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 2 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),2 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 3 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),3 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 4 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),4 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 5 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),5 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 6 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),6 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 7 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),7 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 8 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),8 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 9 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),9 *LEN($L29)+1,LEN($L29))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))), 10 *LEN($L29)+1,LEN($L29))) = "", "0", TRIM(MID(SUBSTITUTE($L29,",",REPT(" ",LEN($L29))),10 *LEN($L29)+1,LEN($L29)))))</f>
@@ -7640,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="0" t="str">
-        <f aca="true">IF(N29="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R29)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N29="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R29)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7674,8 +7674,8 @@
         <v/>
       </c>
       <c r="T30" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U30" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 0 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),0 *LEN($L30)+1,LEN($L30))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 1 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),1 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 2 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),2 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 3 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),3 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 4 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),4 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 5 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),5 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 6 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),6 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 7 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),7 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 8 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),8 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 9 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),9 *LEN($L30)+1,LEN($L30))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))), 10 *LEN($L30)+1,LEN($L30))) = "", "0", TRIM(MID(SUBSTITUTE($L30,",",REPT(" ",LEN($L30))),10 *LEN($L30)+1,LEN($L30)))))</f>
@@ -7686,7 +7686,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0" t="str">
-        <f aca="true">IF(N30="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R30)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N30="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R30)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7720,8 +7720,8 @@
         <v/>
       </c>
       <c r="T31" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U31" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 0 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),0 *LEN($L31)+1,LEN($L31))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 1 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),1 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 2 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),2 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 3 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),3 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 4 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),4 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 5 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),5 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 6 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),6 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 7 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),7 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 8 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),8 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 9 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),9 *LEN($L31)+1,LEN($L31))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))), 10 *LEN($L31)+1,LEN($L31))) = "", "0", TRIM(MID(SUBSTITUTE($L31,",",REPT(" ",LEN($L31))),10 *LEN($L31)+1,LEN($L31)))))</f>
@@ -7732,7 +7732,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="0" t="str">
-        <f aca="true">IF(N31="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R31)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N31="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R31)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7766,8 +7766,8 @@
         <v/>
       </c>
       <c r="T32" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U32" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 0 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),0 *LEN($L32)+1,LEN($L32))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 1 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),1 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 2 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),2 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 3 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),3 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 4 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),4 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 5 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),5 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 6 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),6 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 7 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),7 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 8 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),8 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 9 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),9 *LEN($L32)+1,LEN($L32))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))), 10 *LEN($L32)+1,LEN($L32))) = "", "0", TRIM(MID(SUBSTITUTE($L32,",",REPT(" ",LEN($L32))),10 *LEN($L32)+1,LEN($L32)))))</f>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="0" t="str">
-        <f aca="true">IF(N32="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R32)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N32="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R32)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7812,8 +7812,8 @@
         <v/>
       </c>
       <c r="T33" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U33" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 0 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),0 *LEN($L33)+1,LEN($L33))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 1 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),1 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 2 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),2 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 3 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),3 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 4 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),4 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 5 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),5 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 6 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),6 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 7 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),7 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 8 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),8 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 9 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),9 *LEN($L33)+1,LEN($L33))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))), 10 *LEN($L33)+1,LEN($L33))) = "", "0", TRIM(MID(SUBSTITUTE($L33,",",REPT(" ",LEN($L33))),10 *LEN($L33)+1,LEN($L33)))))</f>
@@ -7824,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="0" t="str">
-        <f aca="true">IF(N33="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R33)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N33="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R33)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7858,8 +7858,8 @@
         <v/>
       </c>
       <c r="T34" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U34" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 0 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),0 *LEN($L34)+1,LEN($L34))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 1 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),1 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 2 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),2 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 3 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),3 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 4 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),4 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 5 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),5 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 6 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),6 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 7 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),7 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 8 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),8 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 9 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),9 *LEN($L34)+1,LEN($L34))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))), 10 *LEN($L34)+1,LEN($L34))) = "", "0", TRIM(MID(SUBSTITUTE($L34,",",REPT(" ",LEN($L34))),10 *LEN($L34)+1,LEN($L34)))))</f>
@@ -7870,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0" t="str">
-        <f aca="true">IF(N34="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R34)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N34="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R34)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7904,8 +7904,8 @@
         <v/>
       </c>
       <c r="T35" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U35" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 0 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),0 *LEN($L35)+1,LEN($L35))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 1 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),1 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 2 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),2 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 3 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),3 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 4 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),4 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 5 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),5 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 6 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),6 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 7 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),7 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 8 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),8 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 9 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),9 *LEN($L35)+1,LEN($L35))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))), 10 *LEN($L35)+1,LEN($L35))) = "", "0", TRIM(MID(SUBSTITUTE($L35,",",REPT(" ",LEN($L35))),10 *LEN($L35)+1,LEN($L35)))))</f>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="0" t="str">
-        <f aca="true">IF(N35="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R35)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N35="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R35)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7950,8 +7950,8 @@
         <v/>
       </c>
       <c r="T36" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U36" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 0 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),0 *LEN($L36)+1,LEN($L36))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 1 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),1 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 2 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),2 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 3 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),3 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 4 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),4 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 5 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),5 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 6 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),6 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 7 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),7 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 8 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),8 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 9 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),9 *LEN($L36)+1,LEN($L36))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))), 10 *LEN($L36)+1,LEN($L36))) = "", "0", TRIM(MID(SUBSTITUTE($L36,",",REPT(" ",LEN($L36))),10 *LEN($L36)+1,LEN($L36)))))</f>
@@ -7962,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="0" t="str">
-        <f aca="true">IF(N36="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R36)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N36="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R36)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -7996,8 +7996,8 @@
         <v/>
       </c>
       <c r="T37" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U37" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 0 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),0 *LEN($L37)+1,LEN($L37))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 1 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),1 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 2 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),2 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 3 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),3 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 4 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),4 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 5 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),5 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 6 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),6 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 7 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),7 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 8 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),8 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 9 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),9 *LEN($L37)+1,LEN($L37))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))), 10 *LEN($L37)+1,LEN($L37))) = "", "0", TRIM(MID(SUBSTITUTE($L37,",",REPT(" ",LEN($L37))),10 *LEN($L37)+1,LEN($L37)))))</f>
@@ -8008,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="0" t="str">
-        <f aca="true">IF(N37="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R37)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N37="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R37)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8042,8 +8042,8 @@
         <v/>
       </c>
       <c r="T38" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U38" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 0 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),0 *LEN($L38)+1,LEN($L38))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 1 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),1 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 2 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),2 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 3 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),3 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 4 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),4 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 5 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),5 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 6 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),6 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 7 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),7 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 8 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),8 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 9 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),9 *LEN($L38)+1,LEN($L38))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))), 10 *LEN($L38)+1,LEN($L38))) = "", "0", TRIM(MID(SUBSTITUTE($L38,",",REPT(" ",LEN($L38))),10 *LEN($L38)+1,LEN($L38)))))</f>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="str">
-        <f aca="true">IF(N38="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R38)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N38="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R38)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8088,8 +8088,8 @@
         <v/>
       </c>
       <c r="T39" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U39" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 0 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),0 *LEN($L39)+1,LEN($L39))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 1 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),1 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 2 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),2 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 3 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),3 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 4 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),4 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 5 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),5 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 6 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),6 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 7 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),7 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 8 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),8 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 9 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),9 *LEN($L39)+1,LEN($L39))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))), 10 *LEN($L39)+1,LEN($L39))) = "", "0", TRIM(MID(SUBSTITUTE($L39,",",REPT(" ",LEN($L39))),10 *LEN($L39)+1,LEN($L39)))))</f>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="0" t="str">
-        <f aca="true">IF(N39="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R39)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N39="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R39)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8134,8 +8134,8 @@
         <v/>
       </c>
       <c r="T40" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U40" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 0 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),0 *LEN($L40)+1,LEN($L40))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 1 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),1 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 2 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),2 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 3 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),3 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 4 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),4 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 5 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),5 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 6 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),6 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 7 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),7 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 8 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),8 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 9 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),9 *LEN($L40)+1,LEN($L40))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))), 10 *LEN($L40)+1,LEN($L40))) = "", "0", TRIM(MID(SUBSTITUTE($L40,",",REPT(" ",LEN($L40))),10 *LEN($L40)+1,LEN($L40)))))</f>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="str">
-        <f aca="true">IF(N40="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R40)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N40="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R40)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8180,8 +8180,8 @@
         <v/>
       </c>
       <c r="T41" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U41" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 0 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),0 *LEN($L41)+1,LEN($L41))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 1 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),1 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 2 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),2 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 3 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),3 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 4 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),4 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 5 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),5 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 6 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),6 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 7 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),7 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 8 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),8 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 9 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),9 *LEN($L41)+1,LEN($L41))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))), 10 *LEN($L41)+1,LEN($L41))) = "", "0", TRIM(MID(SUBSTITUTE($L41,",",REPT(" ",LEN($L41))),10 *LEN($L41)+1,LEN($L41)))))</f>
@@ -8192,7 +8192,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="0" t="str">
-        <f aca="true">IF(N41="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R41)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N41="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R41)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8226,8 +8226,8 @@
         <v/>
       </c>
       <c r="T42" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U42" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 0 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),0 *LEN($L42)+1,LEN($L42))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 1 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),1 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 2 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),2 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 3 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),3 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 4 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),4 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 5 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),5 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 6 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),6 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 7 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),7 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 8 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),8 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 9 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),9 *LEN($L42)+1,LEN($L42))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))), 10 *LEN($L42)+1,LEN($L42))) = "", "0", TRIM(MID(SUBSTITUTE($L42,",",REPT(" ",LEN($L42))),10 *LEN($L42)+1,LEN($L42)))))</f>
@@ -8238,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="0" t="str">
-        <f aca="true">IF(N42="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R42)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N42="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R42)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8272,8 +8272,8 @@
         <v/>
       </c>
       <c r="T43" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U43" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 0 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),0 *LEN($L43)+1,LEN($L43))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 1 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),1 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 2 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),2 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 3 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),3 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 4 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),4 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 5 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),5 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 6 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),6 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 7 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),7 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 8 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),8 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 9 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),9 *LEN($L43)+1,LEN($L43))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))), 10 *LEN($L43)+1,LEN($L43))) = "", "0", TRIM(MID(SUBSTITUTE($L43,",",REPT(" ",LEN($L43))),10 *LEN($L43)+1,LEN($L43)))))</f>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="0" t="str">
-        <f aca="true">IF(N43="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R43)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N43="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R43)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8318,8 +8318,8 @@
         <v/>
       </c>
       <c r="T44" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U44" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 0 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),0 *LEN($L44)+1,LEN($L44))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 1 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),1 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 2 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),2 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 3 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),3 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 4 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),4 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 5 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),5 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 6 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),6 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 7 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),7 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 8 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),8 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 9 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),9 *LEN($L44)+1,LEN($L44))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))), 10 *LEN($L44)+1,LEN($L44))) = "", "0", TRIM(MID(SUBSTITUTE($L44,",",REPT(" ",LEN($L44))),10 *LEN($L44)+1,LEN($L44)))))</f>
@@ -8330,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="0" t="str">
-        <f aca="true">IF(N44="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R44)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N44="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R44)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8364,8 +8364,8 @@
         <v/>
       </c>
       <c r="T45" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U45" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 0 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),0 *LEN($L45)+1,LEN($L45))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 1 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),1 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 2 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),2 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 3 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),3 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 4 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),4 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 5 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),5 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 6 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),6 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 7 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),7 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 8 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),8 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 9 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),9 *LEN($L45)+1,LEN($L45))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))), 10 *LEN($L45)+1,LEN($L45))) = "", "0", TRIM(MID(SUBSTITUTE($L45,",",REPT(" ",LEN($L45))),10 *LEN($L45)+1,LEN($L45)))))</f>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="0" t="str">
-        <f aca="true">IF(N45="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R45)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N45="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R45)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8410,8 +8410,8 @@
         <v/>
       </c>
       <c r="T46" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U46" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 0 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),0 *LEN($L46)+1,LEN($L46))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 1 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),1 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 2 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),2 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 3 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),3 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 4 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),4 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 5 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),5 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 6 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),6 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 7 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),7 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 8 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),8 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 9 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),9 *LEN($L46)+1,LEN($L46))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))), 10 *LEN($L46)+1,LEN($L46))) = "", "0", TRIM(MID(SUBSTITUTE($L46,",",REPT(" ",LEN($L46))),10 *LEN($L46)+1,LEN($L46)))))</f>
@@ -8422,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="str">
-        <f aca="true">IF(N46="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R46)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N46="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R46)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8456,8 +8456,8 @@
         <v/>
       </c>
       <c r="T47" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U47" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 0 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),0 *LEN($L47)+1,LEN($L47))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 1 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),1 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 2 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),2 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 3 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),3 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 4 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),4 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 5 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),5 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 6 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),6 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 7 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),7 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 8 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),8 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 9 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),9 *LEN($L47)+1,LEN($L47))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))), 10 *LEN($L47)+1,LEN($L47))) = "", "0", TRIM(MID(SUBSTITUTE($L47,",",REPT(" ",LEN($L47))),10 *LEN($L47)+1,LEN($L47)))))</f>
@@ -8468,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="0" t="str">
-        <f aca="true">IF(N47="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R47)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N47="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R47)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8502,8 +8502,8 @@
         <v/>
       </c>
       <c r="T48" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U48" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 0 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),0 *LEN($L48)+1,LEN($L48))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 1 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),1 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 2 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),2 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 3 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),3 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 4 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),4 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 5 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),5 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 6 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),6 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 7 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),7 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 8 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),8 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 9 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),9 *LEN($L48)+1,LEN($L48))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))), 10 *LEN($L48)+1,LEN($L48))) = "", "0", TRIM(MID(SUBSTITUTE($L48,",",REPT(" ",LEN($L48))),10 *LEN($L48)+1,LEN($L48)))))</f>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="0" t="str">
-        <f aca="true">IF(N48="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R48)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N48="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R48)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8548,8 +8548,8 @@
         <v/>
       </c>
       <c r="T49" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U49" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 0 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),0 *LEN($L49)+1,LEN($L49))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 1 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),1 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 2 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),2 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 3 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),3 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 4 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),4 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 5 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),5 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 6 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),6 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 7 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),7 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 8 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),8 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 9 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),9 *LEN($L49)+1,LEN($L49))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))), 10 *LEN($L49)+1,LEN($L49))) = "", "0", TRIM(MID(SUBSTITUTE($L49,",",REPT(" ",LEN($L49))),10 *LEN($L49)+1,LEN($L49)))))</f>
@@ -8560,7 +8560,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0" t="str">
-        <f aca="true">IF(N49="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R49)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N49="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R49)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8594,8 +8594,8 @@
         <v/>
       </c>
       <c r="T50" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U50" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 0 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),0 *LEN($L50)+1,LEN($L50))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 1 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),1 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 2 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),2 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 3 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),3 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 4 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),4 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 5 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),5 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 6 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),6 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 7 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),7 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 8 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),8 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 9 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),9 *LEN($L50)+1,LEN($L50))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))), 10 *LEN($L50)+1,LEN($L50))) = "", "0", TRIM(MID(SUBSTITUTE($L50,",",REPT(" ",LEN($L50))),10 *LEN($L50)+1,LEN($L50)))))</f>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="0" t="str">
-        <f aca="true">IF(N50="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R50)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N50="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R50)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8640,8 +8640,8 @@
         <v/>
       </c>
       <c r="T51" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U51" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 0 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),0 *LEN($L51)+1,LEN($L51))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 1 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),1 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 2 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),2 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 3 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),3 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 4 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),4 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 5 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),5 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 6 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),6 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 7 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),7 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 8 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),8 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 9 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),9 *LEN($L51)+1,LEN($L51))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))), 10 *LEN($L51)+1,LEN($L51))) = "", "0", TRIM(MID(SUBSTITUTE($L51,",",REPT(" ",LEN($L51))),10 *LEN($L51)+1,LEN($L51)))))</f>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0" t="str">
-        <f aca="true">IF(N51="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R51)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N51="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R51)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8686,8 +8686,8 @@
         <v/>
       </c>
       <c r="T52" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U52" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 0 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),0 *LEN($L52)+1,LEN($L52))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 1 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),1 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 2 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),2 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 3 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),3 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 4 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),4 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 5 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),5 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 6 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),6 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 7 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),7 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 8 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),8 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 9 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),9 *LEN($L52)+1,LEN($L52))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))), 10 *LEN($L52)+1,LEN($L52))) = "", "0", TRIM(MID(SUBSTITUTE($L52,",",REPT(" ",LEN($L52))),10 *LEN($L52)+1,LEN($L52)))))</f>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="0" t="str">
-        <f aca="true">IF(N52="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R52)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N52="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R52)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8732,8 +8732,8 @@
         <v/>
       </c>
       <c r="T53" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U53" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 0 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),0 *LEN($L53)+1,LEN($L53))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 1 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),1 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 2 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),2 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 3 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),3 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 4 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),4 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 5 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),5 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 6 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),6 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 7 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),7 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 8 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),8 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 9 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),9 *LEN($L53)+1,LEN($L53))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))), 10 *LEN($L53)+1,LEN($L53))) = "", "0", TRIM(MID(SUBSTITUTE($L53,",",REPT(" ",LEN($L53))),10 *LEN($L53)+1,LEN($L53)))))</f>
@@ -8744,7 +8744,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="0" t="str">
-        <f aca="true">IF(N53="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R53)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N53="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R53)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8778,8 +8778,8 @@
         <v/>
       </c>
       <c r="T54" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U54" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 0 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),0 *LEN($L54)+1,LEN($L54))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 1 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),1 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 2 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),2 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 3 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),3 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 4 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),4 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 5 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),5 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 6 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),6 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 7 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),7 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 8 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),8 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 9 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),9 *LEN($L54)+1,LEN($L54))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))), 10 *LEN($L54)+1,LEN($L54))) = "", "0", TRIM(MID(SUBSTITUTE($L54,",",REPT(" ",LEN($L54))),10 *LEN($L54)+1,LEN($L54)))))</f>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="0" t="str">
-        <f aca="true">IF(N54="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R54)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N54="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R54)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8824,8 +8824,8 @@
         <v/>
       </c>
       <c r="T55" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U55" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 0 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),0 *LEN($L55)+1,LEN($L55))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 1 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),1 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 2 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),2 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 3 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),3 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 4 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),4 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 5 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),5 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 6 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),6 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 7 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),7 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 8 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),8 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 9 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),9 *LEN($L55)+1,LEN($L55))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))), 10 *LEN($L55)+1,LEN($L55))) = "", "0", TRIM(MID(SUBSTITUTE($L55,",",REPT(" ",LEN($L55))),10 *LEN($L55)+1,LEN($L55)))))</f>
@@ -8836,7 +8836,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0" t="str">
-        <f aca="true">IF(N55="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R55)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N55="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R55)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8870,8 +8870,8 @@
         <v/>
       </c>
       <c r="T56" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U56" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 0 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),0 *LEN($L56)+1,LEN($L56))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 1 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),1 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 2 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),2 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 3 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),3 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 4 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),4 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 5 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),5 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 6 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),6 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 7 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),7 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 8 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),8 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 9 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),9 *LEN($L56)+1,LEN($L56))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))), 10 *LEN($L56)+1,LEN($L56))) = "", "0", TRIM(MID(SUBSTITUTE($L56,",",REPT(" ",LEN($L56))),10 *LEN($L56)+1,LEN($L56)))))</f>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="W56" s="0" t="str">
-        <f aca="true">IF(N56="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R56)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N56="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R56)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8916,8 +8916,8 @@
         <v/>
       </c>
       <c r="T57" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U57" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 0 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),0 *LEN($L57)+1,LEN($L57))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 1 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),1 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 2 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),2 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 3 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),3 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 4 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),4 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 5 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),5 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 6 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),6 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 7 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),7 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 8 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),8 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 9 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),9 *LEN($L57)+1,LEN($L57))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))), 10 *LEN($L57)+1,LEN($L57))) = "", "0", TRIM(MID(SUBSTITUTE($L57,",",REPT(" ",LEN($L57))),10 *LEN($L57)+1,LEN($L57)))))</f>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
       <c r="W57" s="0" t="str">
-        <f aca="true">IF(N57="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R57)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N57="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R57)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -8962,8 +8962,8 @@
         <v/>
       </c>
       <c r="T58" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U58" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 0 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),0 *LEN($L58)+1,LEN($L58))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 1 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),1 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 2 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),2 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 3 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),3 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 4 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),4 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 5 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),5 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 6 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),6 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 7 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),7 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 8 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),8 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 9 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),9 *LEN($L58)+1,LEN($L58))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))), 10 *LEN($L58)+1,LEN($L58))) = "", "0", TRIM(MID(SUBSTITUTE($L58,",",REPT(" ",LEN($L58))),10 *LEN($L58)+1,LEN($L58)))))</f>
@@ -8974,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="0" t="str">
-        <f aca="true">IF(N58="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R58)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N58="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R58)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9009,8 +9009,8 @@
         <v/>
       </c>
       <c r="T59" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U59" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 0 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),0 *LEN($L59)+1,LEN($L59))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 1 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),1 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 2 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),2 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 3 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),3 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 4 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),4 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 5 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),5 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 6 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),6 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 7 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),7 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 8 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),8 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 9 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),9 *LEN($L59)+1,LEN($L59))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))), 10 *LEN($L59)+1,LEN($L59))) = "", "0", TRIM(MID(SUBSTITUTE($L59,",",REPT(" ",LEN($L59))),10 *LEN($L59)+1,LEN($L59)))))</f>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="0" t="str">
-        <f aca="true">IF(N59="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R59)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N59="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R59)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9055,8 +9055,8 @@
         <v/>
       </c>
       <c r="T60" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U60" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 0 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),0 *LEN($L60)+1,LEN($L60))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 1 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),1 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 2 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),2 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 3 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),3 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 4 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),4 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 5 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),5 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 6 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),6 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 7 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),7 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 8 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),8 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 9 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),9 *LEN($L60)+1,LEN($L60))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))), 10 *LEN($L60)+1,LEN($L60))) = "", "0", TRIM(MID(SUBSTITUTE($L60,",",REPT(" ",LEN($L60))),10 *LEN($L60)+1,LEN($L60)))))</f>
@@ -9067,7 +9067,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="0" t="str">
-        <f aca="true">IF(N60="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R60)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N60="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R60)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9101,8 +9101,8 @@
         <v/>
       </c>
       <c r="T61" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U61" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 0 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),0 *LEN($L61)+1,LEN($L61))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 1 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),1 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 2 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),2 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 3 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),3 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 4 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),4 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 5 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),5 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 6 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),6 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 7 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),7 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 8 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),8 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 9 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),9 *LEN($L61)+1,LEN($L61))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))), 10 *LEN($L61)+1,LEN($L61))) = "", "0", TRIM(MID(SUBSTITUTE($L61,",",REPT(" ",LEN($L61))),10 *LEN($L61)+1,LEN($L61)))))</f>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="W61" s="0" t="str">
-        <f aca="true">IF(N61="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R61)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N61="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R61)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9147,8 +9147,8 @@
         <v/>
       </c>
       <c r="T62" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U62" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 0 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),0 *LEN($L62)+1,LEN($L62))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 1 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),1 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 2 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),2 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 3 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),3 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 4 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),4 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 5 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),5 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 6 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),6 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 7 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),7 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 8 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),8 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 9 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),9 *LEN($L62)+1,LEN($L62))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))), 10 *LEN($L62)+1,LEN($L62))) = "", "0", TRIM(MID(SUBSTITUTE($L62,",",REPT(" ",LEN($L62))),10 *LEN($L62)+1,LEN($L62)))))</f>
@@ -9159,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="W62" s="0" t="str">
-        <f aca="true">IF(N62="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R62)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N62="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R62)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9193,8 +9193,8 @@
         <v/>
       </c>
       <c r="T63" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U63" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 0 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),0 *LEN($L63)+1,LEN($L63))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 1 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),1 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 2 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),2 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 3 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),3 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 4 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),4 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 5 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),5 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 6 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),6 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 7 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),7 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 8 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),8 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 9 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),9 *LEN($L63)+1,LEN($L63))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))), 10 *LEN($L63)+1,LEN($L63))) = "", "0", TRIM(MID(SUBSTITUTE($L63,",",REPT(" ",LEN($L63))),10 *LEN($L63)+1,LEN($L63)))))</f>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="0" t="str">
-        <f aca="true">IF(N63="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R63)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N63="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R63)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9239,8 +9239,8 @@
         <v/>
       </c>
       <c r="T64" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U64" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 0 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),0 *LEN($L64)+1,LEN($L64))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 1 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),1 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 2 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),2 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 3 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),3 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 4 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),4 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 5 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),5 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 6 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),6 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 7 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),7 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 8 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),8 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 9 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),9 *LEN($L64)+1,LEN($L64))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))), 10 *LEN($L64)+1,LEN($L64))) = "", "0", TRIM(MID(SUBSTITUTE($L64,",",REPT(" ",LEN($L64))),10 *LEN($L64)+1,LEN($L64)))))</f>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="0" t="str">
-        <f aca="true">IF(N64="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R64)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N64="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R64)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9285,8 +9285,8 @@
         <v/>
       </c>
       <c r="T65" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U65" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 0 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),0 *LEN($L65)+1,LEN($L65))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 1 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),1 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 2 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),2 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 3 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),3 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 4 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),4 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 5 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),5 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 6 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),6 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 7 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),7 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 8 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),8 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 9 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),9 *LEN($L65)+1,LEN($L65))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))), 10 *LEN($L65)+1,LEN($L65))) = "", "0", TRIM(MID(SUBSTITUTE($L65,",",REPT(" ",LEN($L65))),10 *LEN($L65)+1,LEN($L65)))))</f>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="0" t="str">
-        <f aca="true">IF(N65="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R65)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N65="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R65)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9331,8 +9331,8 @@
         <v/>
       </c>
       <c r="T66" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U66" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 0 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),0 *LEN($L66)+1,LEN($L66))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 1 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),1 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 2 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),2 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 3 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),3 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 4 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),4 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 5 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),5 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 6 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),6 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 7 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),7 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 8 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),8 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 9 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),9 *LEN($L66)+1,LEN($L66))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))), 10 *LEN($L66)+1,LEN($L66))) = "", "0", TRIM(MID(SUBSTITUTE($L66,",",REPT(" ",LEN($L66))),10 *LEN($L66)+1,LEN($L66)))))</f>
@@ -9343,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0" t="str">
-        <f aca="true">IF(N66="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R66)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N66="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R66)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9377,8 +9377,8 @@
         <v/>
       </c>
       <c r="T67" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U67" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 0 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),0 *LEN($L67)+1,LEN($L67))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 1 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),1 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 2 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),2 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 3 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),3 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 4 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),4 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 5 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),5 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 6 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),6 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 7 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),7 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 8 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),8 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 9 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),9 *LEN($L67)+1,LEN($L67))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))), 10 *LEN($L67)+1,LEN($L67))) = "", "0", TRIM(MID(SUBSTITUTE($L67,",",REPT(" ",LEN($L67))),10 *LEN($L67)+1,LEN($L67)))))</f>
@@ -9389,7 +9389,7 @@
         <v>0</v>
       </c>
       <c r="W67" s="0" t="str">
-        <f aca="true">IF(N67="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R67)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N67="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R67)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9423,8 +9423,8 @@
         <v/>
       </c>
       <c r="T68" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U68" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 0 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),0 *LEN($L68)+1,LEN($L68))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 1 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),1 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 2 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),2 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 3 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),3 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 4 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),4 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 5 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),5 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 6 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),6 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 7 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),7 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 8 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),8 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 9 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),9 *LEN($L68)+1,LEN($L68))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))), 10 *LEN($L68)+1,LEN($L68))) = "", "0", TRIM(MID(SUBSTITUTE($L68,",",REPT(" ",LEN($L68))),10 *LEN($L68)+1,LEN($L68)))))</f>
@@ -9435,7 +9435,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="0" t="str">
-        <f aca="true">IF(N68="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R68)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N68="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R68)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9469,8 +9469,8 @@
         <v/>
       </c>
       <c r="T69" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U69" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 0 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),0 *LEN($L69)+1,LEN($L69))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 1 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),1 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 2 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),2 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 3 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),3 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 4 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),4 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 5 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),5 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 6 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),6 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 7 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),7 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 8 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),8 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 9 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),9 *LEN($L69)+1,LEN($L69))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))), 10 *LEN($L69)+1,LEN($L69))) = "", "0", TRIM(MID(SUBSTITUTE($L69,",",REPT(" ",LEN($L69))),10 *LEN($L69)+1,LEN($L69)))))</f>
@@ -9481,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="0" t="str">
-        <f aca="true">IF(N69="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R69)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N69="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R69)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9515,8 +9515,8 @@
         <v/>
       </c>
       <c r="T70" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U70" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 0 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),0 *LEN($L70)+1,LEN($L70))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 1 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),1 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 2 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),2 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 3 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),3 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 4 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),4 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 5 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),5 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 6 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),6 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 7 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),7 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 8 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),8 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 9 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),9 *LEN($L70)+1,LEN($L70))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))), 10 *LEN($L70)+1,LEN($L70))) = "", "0", TRIM(MID(SUBSTITUTE($L70,",",REPT(" ",LEN($L70))),10 *LEN($L70)+1,LEN($L70)))))</f>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="0" t="str">
-        <f aca="true">IF(N70="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R70)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N70="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R70)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9561,8 +9561,8 @@
         <v/>
       </c>
       <c r="T71" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U71" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 0 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),0 *LEN($L71)+1,LEN($L71))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 1 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),1 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 2 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),2 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 3 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),3 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 4 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),4 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 5 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),5 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 6 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),6 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 7 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),7 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 8 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),8 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 9 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),9 *LEN($L71)+1,LEN($L71))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))), 10 *LEN($L71)+1,LEN($L71))) = "", "0", TRIM(MID(SUBSTITUTE($L71,",",REPT(" ",LEN($L71))),10 *LEN($L71)+1,LEN($L71)))))</f>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="0" t="str">
-        <f aca="true">IF(N71="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R71)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N71="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R71)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9607,8 +9607,8 @@
         <v/>
       </c>
       <c r="T72" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U72" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 0 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),0 *LEN($L72)+1,LEN($L72))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 1 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),1 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 2 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),2 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 3 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),3 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 4 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),4 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 5 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),5 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 6 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),6 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 7 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),7 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 8 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),8 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 9 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),9 *LEN($L72)+1,LEN($L72))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))), 10 *LEN($L72)+1,LEN($L72))) = "", "0", TRIM(MID(SUBSTITUTE($L72,",",REPT(" ",LEN($L72))),10 *LEN($L72)+1,LEN($L72)))))</f>
@@ -9619,7 +9619,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="0" t="str">
-        <f aca="true">IF(N72="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R72)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N72="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R72)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9653,8 +9653,8 @@
         <v/>
       </c>
       <c r="T73" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U73" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 0 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),0 *LEN($L73)+1,LEN($L73))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 1 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),1 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 2 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),2 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 3 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),3 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 4 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),4 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 5 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),5 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 6 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),6 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 7 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),7 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 8 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),8 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 9 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),9 *LEN($L73)+1,LEN($L73))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))), 10 *LEN($L73)+1,LEN($L73))) = "", "0", TRIM(MID(SUBSTITUTE($L73,",",REPT(" ",LEN($L73))),10 *LEN($L73)+1,LEN($L73)))))</f>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="0" t="str">
-        <f aca="true">IF(N73="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R73)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N73="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R73)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9699,8 +9699,8 @@
         <v/>
       </c>
       <c r="T74" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U74" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 0 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),0 *LEN($L74)+1,LEN($L74))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 1 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),1 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 2 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),2 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 3 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),3 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 4 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),4 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 5 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),5 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 6 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),6 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 7 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),7 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 8 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),8 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 9 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),9 *LEN($L74)+1,LEN($L74))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))), 10 *LEN($L74)+1,LEN($L74))) = "", "0", TRIM(MID(SUBSTITUTE($L74,",",REPT(" ",LEN($L74))),10 *LEN($L74)+1,LEN($L74)))))</f>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="0" t="str">
-        <f aca="true">IF(N74="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R74)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N74="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R74)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9745,8 +9745,8 @@
         <v/>
       </c>
       <c r="T75" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U75" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 0 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),0 *LEN($L75)+1,LEN($L75))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 1 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),1 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 2 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),2 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 3 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),3 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 4 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),4 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 5 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),5 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 6 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),6 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 7 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),7 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 8 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),8 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 9 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),9 *LEN($L75)+1,LEN($L75))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))), 10 *LEN($L75)+1,LEN($L75))) = "", "0", TRIM(MID(SUBSTITUTE($L75,",",REPT(" ",LEN($L75))),10 *LEN($L75)+1,LEN($L75)))))</f>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="0" t="str">
-        <f aca="true">IF(N75="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R75)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N75="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R75)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9791,8 +9791,8 @@
         <v/>
       </c>
       <c r="T76" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U76" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 0 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),0 *LEN($L76)+1,LEN($L76))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 1 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),1 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 2 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),2 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 3 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),3 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 4 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),4 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 5 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),5 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 6 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),6 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 7 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),7 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 8 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),8 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 9 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),9 *LEN($L76)+1,LEN($L76))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))), 10 *LEN($L76)+1,LEN($L76))) = "", "0", TRIM(MID(SUBSTITUTE($L76,",",REPT(" ",LEN($L76))),10 *LEN($L76)+1,LEN($L76)))))</f>
@@ -9803,7 +9803,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="0" t="str">
-        <f aca="true">IF(N76="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R76)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N76="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R76)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9837,8 +9837,8 @@
         <v/>
       </c>
       <c r="T77" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U77" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 0 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),0 *LEN($L77)+1,LEN($L77))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 1 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),1 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 2 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),2 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 3 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),3 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 4 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),4 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 5 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),5 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 6 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),6 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 7 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),7 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 8 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),8 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 9 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),9 *LEN($L77)+1,LEN($L77))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))), 10 *LEN($L77)+1,LEN($L77))) = "", "0", TRIM(MID(SUBSTITUTE($L77,",",REPT(" ",LEN($L77))),10 *LEN($L77)+1,LEN($L77)))))</f>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="0" t="str">
-        <f aca="true">IF(N77="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R77)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N77="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R77)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9883,8 +9883,8 @@
         <v/>
       </c>
       <c r="T78" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U78" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 0 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),0 *LEN($L78)+1,LEN($L78))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 1 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),1 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 2 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),2 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 3 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),3 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 4 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),4 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 5 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),5 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 6 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),6 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 7 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),7 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 8 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),8 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 9 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),9 *LEN($L78)+1,LEN($L78))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))), 10 *LEN($L78)+1,LEN($L78))) = "", "0", TRIM(MID(SUBSTITUTE($L78,",",REPT(" ",LEN($L78))),10 *LEN($L78)+1,LEN($L78)))))</f>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="W78" s="0" t="str">
-        <f aca="true">IF(N78="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R78)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N78="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R78)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9929,8 +9929,8 @@
         <v/>
       </c>
       <c r="T79" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U79" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 0 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),0 *LEN($L79)+1,LEN($L79))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 1 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),1 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 2 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),2 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 3 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),3 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 4 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),4 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 5 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),5 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 6 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),6 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 7 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),7 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 8 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),8 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 9 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),9 *LEN($L79)+1,LEN($L79))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))), 10 *LEN($L79)+1,LEN($L79))) = "", "0", TRIM(MID(SUBSTITUTE($L79,",",REPT(" ",LEN($L79))),10 *LEN($L79)+1,LEN($L79)))))</f>
@@ -9941,7 +9941,7 @@
         <v>0</v>
       </c>
       <c r="W79" s="0" t="str">
-        <f aca="true">IF(N79="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R79)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N79="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R79)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -9975,8 +9975,8 @@
         <v/>
       </c>
       <c r="T80" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U80" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 0 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),0 *LEN($L80)+1,LEN($L80))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 1 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),1 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 2 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),2 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 3 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),3 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 4 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),4 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 5 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),5 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 6 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),6 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 7 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),7 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 8 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),8 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 9 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),9 *LEN($L80)+1,LEN($L80))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))), 10 *LEN($L80)+1,LEN($L80))) = "", "0", TRIM(MID(SUBSTITUTE($L80,",",REPT(" ",LEN($L80))),10 *LEN($L80)+1,LEN($L80)))))</f>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="W80" s="0" t="str">
-        <f aca="true">IF(N80="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R80)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N80="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R80)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10021,8 +10021,8 @@
         <v/>
       </c>
       <c r="T81" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U81" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 0 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),0 *LEN($L81)+1,LEN($L81))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 1 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),1 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 2 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),2 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 3 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),3 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 4 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),4 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 5 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),5 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 6 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),6 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 7 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),7 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 8 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),8 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 9 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),9 *LEN($L81)+1,LEN($L81))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))), 10 *LEN($L81)+1,LEN($L81))) = "", "0", TRIM(MID(SUBSTITUTE($L81,",",REPT(" ",LEN($L81))),10 *LEN($L81)+1,LEN($L81)))))</f>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="W81" s="0" t="str">
-        <f aca="true">IF(N81="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R81)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N81="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R81)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10067,8 +10067,8 @@
         <v/>
       </c>
       <c r="T82" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U82" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 0 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),0 *LEN($L82)+1,LEN($L82))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 1 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),1 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 2 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),2 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 3 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),3 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 4 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),4 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 5 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),5 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 6 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),6 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 7 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),7 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 8 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),8 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 9 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),9 *LEN($L82)+1,LEN($L82))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))), 10 *LEN($L82)+1,LEN($L82))) = "", "0", TRIM(MID(SUBSTITUTE($L82,",",REPT(" ",LEN($L82))),10 *LEN($L82)+1,LEN($L82)))))</f>
@@ -10079,7 +10079,7 @@
         <v>0</v>
       </c>
       <c r="W82" s="0" t="str">
-        <f aca="true">IF(N82="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R82)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N82="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R82)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10113,8 +10113,8 @@
         <v/>
       </c>
       <c r="T83" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U83" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 0 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),0 *LEN($L83)+1,LEN($L83))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 1 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),1 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 2 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),2 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 3 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),3 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 4 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),4 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 5 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),5 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 6 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),6 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 7 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),7 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 8 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),8 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 9 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),9 *LEN($L83)+1,LEN($L83))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))), 10 *LEN($L83)+1,LEN($L83))) = "", "0", TRIM(MID(SUBSTITUTE($L83,",",REPT(" ",LEN($L83))),10 *LEN($L83)+1,LEN($L83)))))</f>
@@ -10125,7 +10125,7 @@
         <v>0</v>
       </c>
       <c r="W83" s="0" t="str">
-        <f aca="true">IF(N83="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R83)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N83="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R83)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10159,8 +10159,8 @@
         <v/>
       </c>
       <c r="T84" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U84" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 0 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),0 *LEN($L84)+1,LEN($L84))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 1 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),1 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 2 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),2 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 3 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),3 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 4 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),4 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 5 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),5 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 6 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),6 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 7 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),7 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 8 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),8 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 9 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),9 *LEN($L84)+1,LEN($L84))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))), 10 *LEN($L84)+1,LEN($L84))) = "", "0", TRIM(MID(SUBSTITUTE($L84,",",REPT(" ",LEN($L84))),10 *LEN($L84)+1,LEN($L84)))))</f>
@@ -10171,7 +10171,7 @@
         <v>0</v>
       </c>
       <c r="W84" s="0" t="str">
-        <f aca="true">IF(N84="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R84)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N84="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R84)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10205,8 +10205,8 @@
         <v/>
       </c>
       <c r="T85" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U85" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 0 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),0 *LEN($L85)+1,LEN($L85))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 1 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),1 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 2 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),2 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 3 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),3 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 4 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),4 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 5 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),5 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 6 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),6 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 7 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),7 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 8 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),8 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 9 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),9 *LEN($L85)+1,LEN($L85))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))), 10 *LEN($L85)+1,LEN($L85))) = "", "0", TRIM(MID(SUBSTITUTE($L85,",",REPT(" ",LEN($L85))),10 *LEN($L85)+1,LEN($L85)))))</f>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="W85" s="0" t="str">
-        <f aca="true">IF(N85="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R85)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N85="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R85)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10251,8 +10251,8 @@
         <v/>
       </c>
       <c r="T86" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U86" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 0 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),0 *LEN($L86)+1,LEN($L86))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 1 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),1 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 2 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),2 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 3 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),3 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 4 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),4 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 5 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),5 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 6 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),6 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 7 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),7 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 8 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),8 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 9 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),9 *LEN($L86)+1,LEN($L86))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))), 10 *LEN($L86)+1,LEN($L86))) = "", "0", TRIM(MID(SUBSTITUTE($L86,",",REPT(" ",LEN($L86))),10 *LEN($L86)+1,LEN($L86)))))</f>
@@ -10263,7 +10263,7 @@
         <v>0</v>
       </c>
       <c r="W86" s="0" t="str">
-        <f aca="true">IF(N86="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R86)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N86="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R86)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10297,8 +10297,8 @@
         <v/>
       </c>
       <c r="T87" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U87" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 0 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),0 *LEN($L87)+1,LEN($L87))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 1 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),1 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 2 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),2 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 3 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),3 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 4 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),4 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 5 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),5 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 6 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),6 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 7 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),7 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 8 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),8 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 9 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),9 *LEN($L87)+1,LEN($L87))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))), 10 *LEN($L87)+1,LEN($L87))) = "", "0", TRIM(MID(SUBSTITUTE($L87,",",REPT(" ",LEN($L87))),10 *LEN($L87)+1,LEN($L87)))))</f>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="W87" s="0" t="str">
-        <f aca="true">IF(N87="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R87)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N87="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R87)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10343,8 +10343,8 @@
         <v/>
       </c>
       <c r="T88" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U88" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 0 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),0 *LEN($L88)+1,LEN($L88))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 1 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),1 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 2 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),2 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 3 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),3 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 4 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),4 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 5 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),5 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 6 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),6 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 7 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),7 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 8 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),8 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 9 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),9 *LEN($L88)+1,LEN($L88))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))), 10 *LEN($L88)+1,LEN($L88))) = "", "0", TRIM(MID(SUBSTITUTE($L88,",",REPT(" ",LEN($L88))),10 *LEN($L88)+1,LEN($L88)))))</f>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="W88" s="0" t="str">
-        <f aca="true">IF(N88="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R88)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N88="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R88)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10389,8 +10389,8 @@
         <v/>
       </c>
       <c r="T89" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U89" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 0 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),0 *LEN($L89)+1,LEN($L89))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 1 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),1 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 2 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),2 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 3 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),3 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 4 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),4 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 5 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),5 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 6 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),6 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 7 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),7 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 8 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),8 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 9 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),9 *LEN($L89)+1,LEN($L89))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))), 10 *LEN($L89)+1,LEN($L89))) = "", "0", TRIM(MID(SUBSTITUTE($L89,",",REPT(" ",LEN($L89))),10 *LEN($L89)+1,LEN($L89)))))</f>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="W89" s="0" t="str">
-        <f aca="true">IF(N89="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R89)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N89="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R89)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10435,8 +10435,8 @@
         <v/>
       </c>
       <c r="T90" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U90" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 0 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),0 *LEN($L90)+1,LEN($L90))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 1 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),1 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 2 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),2 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 3 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),3 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 4 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),4 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 5 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),5 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 6 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),6 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 7 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),7 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 8 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),8 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 9 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),9 *LEN($L90)+1,LEN($L90))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))), 10 *LEN($L90)+1,LEN($L90))) = "", "0", TRIM(MID(SUBSTITUTE($L90,",",REPT(" ",LEN($L90))),10 *LEN($L90)+1,LEN($L90)))))</f>
@@ -10447,7 +10447,7 @@
         <v>0</v>
       </c>
       <c r="W90" s="0" t="str">
-        <f aca="true">IF(N90="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R90)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N90="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R90)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10481,8 +10481,8 @@
         <v/>
       </c>
       <c r="T91" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U91" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 0 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),0 *LEN($L91)+1,LEN($L91))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 1 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),1 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 2 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),2 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 3 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),3 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 4 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),4 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 5 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),5 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 6 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),6 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 7 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),7 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 8 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),8 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 9 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),9 *LEN($L91)+1,LEN($L91))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))), 10 *LEN($L91)+1,LEN($L91))) = "", "0", TRIM(MID(SUBSTITUTE($L91,",",REPT(" ",LEN($L91))),10 *LEN($L91)+1,LEN($L91)))))</f>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="W91" s="0" t="str">
-        <f aca="true">IF(N91="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R91)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N91="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R91)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10527,8 +10527,8 @@
         <v/>
       </c>
       <c r="T92" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U92" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 0 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),0 *LEN($L92)+1,LEN($L92))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 1 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),1 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 2 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),2 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 3 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),3 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 4 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),4 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 5 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),5 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 6 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),6 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 7 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),7 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 8 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),8 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 9 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),9 *LEN($L92)+1,LEN($L92))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))), 10 *LEN($L92)+1,LEN($L92))) = "", "0", TRIM(MID(SUBSTITUTE($L92,",",REPT(" ",LEN($L92))),10 *LEN($L92)+1,LEN($L92)))))</f>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="W92" s="0" t="str">
-        <f aca="true">IF(N92="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R92)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N92="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R92)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10573,8 +10573,8 @@
         <v/>
       </c>
       <c r="T93" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U93" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 0 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),0 *LEN($L93)+1,LEN($L93))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 1 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),1 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 2 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),2 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 3 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),3 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 4 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),4 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 5 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),5 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 6 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),6 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 7 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),7 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 8 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),8 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 9 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),9 *LEN($L93)+1,LEN($L93))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))), 10 *LEN($L93)+1,LEN($L93))) = "", "0", TRIM(MID(SUBSTITUTE($L93,",",REPT(" ",LEN($L93))),10 *LEN($L93)+1,LEN($L93)))))</f>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="W93" s="0" t="str">
-        <f aca="true">IF(N93="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R93)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N93="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R93)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10619,8 +10619,8 @@
         <v/>
       </c>
       <c r="T94" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U94" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 0 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),0 *LEN($L94)+1,LEN($L94))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 1 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),1 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 2 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),2 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 3 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),3 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 4 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),4 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 5 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),5 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 6 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),6 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 7 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),7 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 8 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),8 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 9 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),9 *LEN($L94)+1,LEN($L94))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))), 10 *LEN($L94)+1,LEN($L94))) = "", "0", TRIM(MID(SUBSTITUTE($L94,",",REPT(" ",LEN($L94))),10 *LEN($L94)+1,LEN($L94)))))</f>
@@ -10631,7 +10631,7 @@
         <v>0</v>
       </c>
       <c r="W94" s="0" t="str">
-        <f aca="true">IF(N94="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R94)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N94="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R94)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10665,8 +10665,8 @@
         <v/>
       </c>
       <c r="T95" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U95" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 0 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),0 *LEN($L95)+1,LEN($L95))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 1 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),1 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 2 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),2 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 3 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),3 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 4 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),4 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 5 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),5 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 6 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),6 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 7 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),7 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 8 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),8 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 9 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),9 *LEN($L95)+1,LEN($L95))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))), 10 *LEN($L95)+1,LEN($L95))) = "", "0", TRIM(MID(SUBSTITUTE($L95,",",REPT(" ",LEN($L95))),10 *LEN($L95)+1,LEN($L95)))))</f>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="W95" s="0" t="str">
-        <f aca="true">IF(N95="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R95)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N95="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R95)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10711,8 +10711,8 @@
         <v/>
       </c>
       <c r="T96" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U96" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 0 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),0 *LEN($L96)+1,LEN($L96))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 1 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),1 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 2 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),2 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 3 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),3 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 4 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),4 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 5 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),5 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 6 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),6 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 7 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),7 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 8 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),8 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 9 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),9 *LEN($L96)+1,LEN($L96))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))), 10 *LEN($L96)+1,LEN($L96))) = "", "0", TRIM(MID(SUBSTITUTE($L96,",",REPT(" ",LEN($L96))),10 *LEN($L96)+1,LEN($L96)))))</f>
@@ -10723,7 +10723,7 @@
         <v>0</v>
       </c>
       <c r="W96" s="0" t="str">
-        <f aca="true">IF(N96="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R96)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N96="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R96)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10757,8 +10757,8 @@
         <v/>
       </c>
       <c r="T97" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U97" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 0 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),0 *LEN($L97)+1,LEN($L97))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 1 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),1 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 2 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),2 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 3 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),3 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 4 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),4 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 5 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),5 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 6 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),6 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 7 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),7 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 8 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),8 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 9 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),9 *LEN($L97)+1,LEN($L97))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))), 10 *LEN($L97)+1,LEN($L97))) = "", "0", TRIM(MID(SUBSTITUTE($L97,",",REPT(" ",LEN($L97))),10 *LEN($L97)+1,LEN($L97)))))</f>
@@ -10769,7 +10769,7 @@
         <v>0</v>
       </c>
       <c r="W97" s="0" t="str">
-        <f aca="true">IF(N97="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R97)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N97="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R97)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10803,8 +10803,8 @@
         <v/>
       </c>
       <c r="T98" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U98" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 0 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),0 *LEN($L98)+1,LEN($L98))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 1 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),1 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 2 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),2 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 3 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),3 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 4 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),4 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 5 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),5 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 6 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),6 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 7 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),7 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 8 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),8 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 9 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),9 *LEN($L98)+1,LEN($L98))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))), 10 *LEN($L98)+1,LEN($L98))) = "", "0", TRIM(MID(SUBSTITUTE($L98,",",REPT(" ",LEN($L98))),10 *LEN($L98)+1,LEN($L98)))))</f>
@@ -10815,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="W98" s="0" t="str">
-        <f aca="true">IF(N98="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R98)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N98="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R98)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10849,8 +10849,8 @@
         <v/>
       </c>
       <c r="T99" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U99" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 0 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),0 *LEN($L99)+1,LEN($L99))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 1 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),1 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 2 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),2 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 3 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),3 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 4 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),4 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 5 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),5 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 6 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),6 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 7 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),7 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 8 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),8 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 9 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),9 *LEN($L99)+1,LEN($L99))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))), 10 *LEN($L99)+1,LEN($L99))) = "", "0", TRIM(MID(SUBSTITUTE($L99,",",REPT(" ",LEN($L99))),10 *LEN($L99)+1,LEN($L99)))))</f>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="W99" s="0" t="str">
-        <f aca="true">IF(N99="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R99)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N99="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R99)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10895,8 +10895,8 @@
         <v/>
       </c>
       <c r="T100" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U100" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 0 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),0 *LEN($L100)+1,LEN($L100))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 1 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),1 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 2 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),2 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 3 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),3 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 4 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),4 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 5 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),5 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 6 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),6 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 7 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),7 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 8 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),8 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 9 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),9 *LEN($L100)+1,LEN($L100))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))), 10 *LEN($L100)+1,LEN($L100))) = "", "0", TRIM(MID(SUBSTITUTE($L100,",",REPT(" ",LEN($L100))),10 *LEN($L100)+1,LEN($L100)))))</f>
@@ -10907,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="0" t="str">
-        <f aca="true">IF(N100="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R100)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N100="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R100)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10941,8 +10941,8 @@
         <v/>
       </c>
       <c r="T101" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U101" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 0 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),0 *LEN($L101)+1,LEN($L101))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 1 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),1 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 2 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),2 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 3 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),3 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 4 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),4 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 5 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),5 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 6 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),6 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 7 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),7 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 8 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),8 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 9 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),9 *LEN($L101)+1,LEN($L101))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))), 10 *LEN($L101)+1,LEN($L101))) = "", "0", TRIM(MID(SUBSTITUTE($L101,",",REPT(" ",LEN($L101))),10 *LEN($L101)+1,LEN($L101)))))</f>
@@ -10953,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="W101" s="0" t="str">
-        <f aca="true">IF(N101="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R101)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N101="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R101)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -10987,8 +10987,8 @@
         <v/>
       </c>
       <c r="T102" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U102" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 0 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),0 *LEN($L102)+1,LEN($L102))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 1 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),1 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 2 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),2 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 3 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),3 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 4 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),4 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 5 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),5 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 6 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),6 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 7 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),7 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 8 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),8 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 9 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),9 *LEN($L102)+1,LEN($L102))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))), 10 *LEN($L102)+1,LEN($L102))) = "", "0", TRIM(MID(SUBSTITUTE($L102,",",REPT(" ",LEN($L102))),10 *LEN($L102)+1,LEN($L102)))))</f>
@@ -10999,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="W102" s="0" t="str">
-        <f aca="true">IF(N102="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R102)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N102="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R102)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11033,8 +11033,8 @@
         <v/>
       </c>
       <c r="T103" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U103" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 0 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),0 *LEN($L103)+1,LEN($L103))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 1 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),1 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 2 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),2 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 3 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),3 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 4 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),4 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 5 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),5 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 6 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),6 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 7 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),7 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 8 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),8 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 9 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),9 *LEN($L103)+1,LEN($L103))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))), 10 *LEN($L103)+1,LEN($L103))) = "", "0", TRIM(MID(SUBSTITUTE($L103,",",REPT(" ",LEN($L103))),10 *LEN($L103)+1,LEN($L103)))))</f>
@@ -11045,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="W103" s="0" t="str">
-        <f aca="true">IF(N103="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R103)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N103="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R103)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11079,8 +11079,8 @@
         <v/>
       </c>
       <c r="T104" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U104" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 0 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),0 *LEN($L104)+1,LEN($L104))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 1 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),1 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 2 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),2 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 3 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),3 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 4 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),4 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 5 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),5 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 6 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),6 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 7 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),7 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 8 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),8 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 9 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),9 *LEN($L104)+1,LEN($L104))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))), 10 *LEN($L104)+1,LEN($L104))) = "", "0", TRIM(MID(SUBSTITUTE($L104,",",REPT(" ",LEN($L104))),10 *LEN($L104)+1,LEN($L104)))))</f>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
       <c r="W104" s="0" t="str">
-        <f aca="true">IF(N104="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R104)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N104="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R104)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11125,8 +11125,8 @@
         <v/>
       </c>
       <c r="T105" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U105" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 0 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),0 *LEN($L105)+1,LEN($L105))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 1 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),1 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 2 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),2 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 3 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),3 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 4 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),4 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 5 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),5 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 6 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),6 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 7 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),7 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 8 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),8 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 9 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),9 *LEN($L105)+1,LEN($L105))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))), 10 *LEN($L105)+1,LEN($L105))) = "", "0", TRIM(MID(SUBSTITUTE($L105,",",REPT(" ",LEN($L105))),10 *LEN($L105)+1,LEN($L105)))))</f>
@@ -11137,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="W105" s="0" t="str">
-        <f aca="true">IF(N105="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R105)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N105="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R105)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11171,8 +11171,8 @@
         <v/>
       </c>
       <c r="T106" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U106" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 0 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),0 *LEN($L106)+1,LEN($L106))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 1 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),1 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 2 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),2 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 3 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),3 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 4 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),4 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 5 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),5 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 6 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),6 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 7 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),7 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 8 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),8 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 9 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),9 *LEN($L106)+1,LEN($L106))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))), 10 *LEN($L106)+1,LEN($L106))) = "", "0", TRIM(MID(SUBSTITUTE($L106,",",REPT(" ",LEN($L106))),10 *LEN($L106)+1,LEN($L106)))))</f>
@@ -11183,7 +11183,7 @@
         <v>0</v>
       </c>
       <c r="W106" s="0" t="str">
-        <f aca="true">IF(N106="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R106)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N106="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R106)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11217,8 +11217,8 @@
         <v/>
       </c>
       <c r="T107" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U107" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 0 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),0 *LEN($L107)+1,LEN($L107))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 1 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),1 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 2 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),2 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 3 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),3 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 4 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),4 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 5 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),5 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 6 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),6 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 7 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),7 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 8 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),8 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 9 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),9 *LEN($L107)+1,LEN($L107))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))), 10 *LEN($L107)+1,LEN($L107))) = "", "0", TRIM(MID(SUBSTITUTE($L107,",",REPT(" ",LEN($L107))),10 *LEN($L107)+1,LEN($L107)))))</f>
@@ -11229,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="W107" s="0" t="str">
-        <f aca="true">IF(N107="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R107)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N107="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R107)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11263,8 +11263,8 @@
         <v/>
       </c>
       <c r="T108" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U108" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 0 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),0 *LEN($L108)+1,LEN($L108))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 1 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),1 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 2 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),2 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 3 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),3 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 4 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),4 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 5 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),5 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 6 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),6 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 7 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),7 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 8 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),8 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 9 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),9 *LEN($L108)+1,LEN($L108))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))), 10 *LEN($L108)+1,LEN($L108))) = "", "0", TRIM(MID(SUBSTITUTE($L108,",",REPT(" ",LEN($L108))),10 *LEN($L108)+1,LEN($L108)))))</f>
@@ -11275,7 +11275,7 @@
         <v>0</v>
       </c>
       <c r="W108" s="0" t="str">
-        <f aca="true">IF(N108="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R108)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N108="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R108)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11309,8 +11309,8 @@
         <v/>
       </c>
       <c r="T109" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U109" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 0 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),0 *LEN($L109)+1,LEN($L109))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 1 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),1 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 2 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),2 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 3 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),3 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 4 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),4 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 5 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),5 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 6 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),6 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 7 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),7 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 8 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),8 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 9 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),9 *LEN($L109)+1,LEN($L109))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))), 10 *LEN($L109)+1,LEN($L109))) = "", "0", TRIM(MID(SUBSTITUTE($L109,",",REPT(" ",LEN($L109))),10 *LEN($L109)+1,LEN($L109)))))</f>
@@ -11321,7 +11321,7 @@
         <v>0</v>
       </c>
       <c r="W109" s="0" t="str">
-        <f aca="true">IF(N109="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R109)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N109="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R109)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11355,8 +11355,8 @@
         <v/>
       </c>
       <c r="T110" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U110" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 0 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),0 *LEN($L110)+1,LEN($L110))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 1 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),1 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 2 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),2 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 3 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),3 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 4 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),4 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 5 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),5 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 6 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),6 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 7 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),7 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 8 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),8 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 9 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),9 *LEN($L110)+1,LEN($L110))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))), 10 *LEN($L110)+1,LEN($L110))) = "", "0", TRIM(MID(SUBSTITUTE($L110,",",REPT(" ",LEN($L110))),10 *LEN($L110)+1,LEN($L110)))))</f>
@@ -11367,7 +11367,7 @@
         <v>0</v>
       </c>
       <c r="W110" s="0" t="str">
-        <f aca="true">IF(N110="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R110)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N110="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R110)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11401,8 +11401,8 @@
         <v/>
       </c>
       <c r="T111" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U111" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 0 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),0 *LEN($L111)+1,LEN($L111))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 1 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),1 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 2 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),2 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 3 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),3 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 4 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),4 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 5 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),5 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 6 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),6 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 7 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),7 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 8 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),8 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 9 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),9 *LEN($L111)+1,LEN($L111))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))), 10 *LEN($L111)+1,LEN($L111))) = "", "0", TRIM(MID(SUBSTITUTE($L111,",",REPT(" ",LEN($L111))),10 *LEN($L111)+1,LEN($L111)))))</f>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="W111" s="0" t="str">
-        <f aca="true">IF(N111="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R111)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N111="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R111)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11447,8 +11447,8 @@
         <v/>
       </c>
       <c r="T112" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U112" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 0 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),0 *LEN($L112)+1,LEN($L112))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 1 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),1 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 2 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),2 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 3 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),3 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 4 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),4 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 5 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),5 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 6 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),6 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 7 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),7 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 8 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),8 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 9 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),9 *LEN($L112)+1,LEN($L112))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))), 10 *LEN($L112)+1,LEN($L112))) = "", "0", TRIM(MID(SUBSTITUTE($L112,",",REPT(" ",LEN($L112))),10 *LEN($L112)+1,LEN($L112)))))</f>
@@ -11459,7 +11459,7 @@
         <v>0</v>
       </c>
       <c r="W112" s="0" t="str">
-        <f aca="true">IF(N112="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R112)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N112="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R112)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11493,8 +11493,8 @@
         <v/>
       </c>
       <c r="T113" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U113" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 0 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),0 *LEN($L113)+1,LEN($L113))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 1 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),1 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 2 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),2 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 3 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),3 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 4 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),4 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 5 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),5 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 6 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),6 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 7 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),7 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 8 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),8 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 9 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),9 *LEN($L113)+1,LEN($L113))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))), 10 *LEN($L113)+1,LEN($L113))) = "", "0", TRIM(MID(SUBSTITUTE($L113,",",REPT(" ",LEN($L113))),10 *LEN($L113)+1,LEN($L113)))))</f>
@@ -11505,7 +11505,7 @@
         <v>0</v>
       </c>
       <c r="W113" s="0" t="str">
-        <f aca="true">IF(N113="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R113)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N113="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R113)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11539,8 +11539,8 @@
         <v/>
       </c>
       <c r="T114" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U114" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 0 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),0 *LEN($L114)+1,LEN($L114))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 1 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),1 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 2 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),2 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 3 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),3 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 4 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),4 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 5 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),5 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 6 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),6 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 7 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),7 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 8 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),8 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 9 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),9 *LEN($L114)+1,LEN($L114))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))), 10 *LEN($L114)+1,LEN($L114))) = "", "0", TRIM(MID(SUBSTITUTE($L114,",",REPT(" ",LEN($L114))),10 *LEN($L114)+1,LEN($L114)))))</f>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="W114" s="0" t="str">
-        <f aca="true">IF(N114="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R114)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N114="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R114)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11585,8 +11585,8 @@
         <v/>
       </c>
       <c r="T115" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U115" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 0 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),0 *LEN($L115)+1,LEN($L115))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 1 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),1 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 2 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),2 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 3 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),3 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 4 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),4 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 5 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),5 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 6 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),6 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 7 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),7 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 8 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),8 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 9 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),9 *LEN($L115)+1,LEN($L115))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))), 10 *LEN($L115)+1,LEN($L115))) = "", "0", TRIM(MID(SUBSTITUTE($L115,",",REPT(" ",LEN($L115))),10 *LEN($L115)+1,LEN($L115)))))</f>
@@ -11597,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="W115" s="0" t="str">
-        <f aca="true">IF(N115="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R115)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N115="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R115)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11631,8 +11631,8 @@
         <v/>
       </c>
       <c r="T116" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U116" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 0 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),0 *LEN($L116)+1,LEN($L116))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 1 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),1 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 2 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),2 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 3 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),3 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 4 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),4 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 5 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),5 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 6 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),6 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 7 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),7 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 8 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),8 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 9 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),9 *LEN($L116)+1,LEN($L116))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))), 10 *LEN($L116)+1,LEN($L116))) = "", "0", TRIM(MID(SUBSTITUTE($L116,",",REPT(" ",LEN($L116))),10 *LEN($L116)+1,LEN($L116)))))</f>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="W116" s="0" t="str">
-        <f aca="true">IF(N116="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R116)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N116="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R116)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11677,8 +11677,8 @@
         <v/>
       </c>
       <c r="T117" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U117" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 0 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),0 *LEN($L117)+1,LEN($L117))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 1 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),1 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 2 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),2 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 3 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),3 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 4 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),4 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 5 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),5 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 6 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),6 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 7 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),7 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 8 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),8 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 9 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),9 *LEN($L117)+1,LEN($L117))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))), 10 *LEN($L117)+1,LEN($L117))) = "", "0", TRIM(MID(SUBSTITUTE($L117,",",REPT(" ",LEN($L117))),10 *LEN($L117)+1,LEN($L117)))))</f>
@@ -11689,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="W117" s="0" t="str">
-        <f aca="true">IF(N117="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R117)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N117="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R117)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11723,8 +11723,8 @@
         <v/>
       </c>
       <c r="T118" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U118" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 0 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),0 *LEN($L118)+1,LEN($L118))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 1 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),1 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 2 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),2 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 3 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),3 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 4 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),4 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 5 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),5 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 6 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),6 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 7 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),7 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 8 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),8 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 9 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),9 *LEN($L118)+1,LEN($L118))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))), 10 *LEN($L118)+1,LEN($L118))) = "", "0", TRIM(MID(SUBSTITUTE($L118,",",REPT(" ",LEN($L118))),10 *LEN($L118)+1,LEN($L118)))))</f>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="W118" s="0" t="str">
-        <f aca="true">IF(N118="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R118)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N118="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R118)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11769,8 +11769,8 @@
         <v/>
       </c>
       <c r="T119" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U119" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 0 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),0 *LEN($L119)+1,LEN($L119))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 1 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),1 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 2 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),2 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 3 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),3 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 4 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),4 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 5 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),5 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 6 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),6 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 7 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),7 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 8 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),8 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 9 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),9 *LEN($L119)+1,LEN($L119))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))), 10 *LEN($L119)+1,LEN($L119))) = "", "0", TRIM(MID(SUBSTITUTE($L119,",",REPT(" ",LEN($L119))),10 *LEN($L119)+1,LEN($L119)))))</f>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="W119" s="0" t="str">
-        <f aca="true">IF(N119="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R119)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N119="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R119)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11815,8 +11815,8 @@
         <v/>
       </c>
       <c r="T120" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U120" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 0 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),0 *LEN($L120)+1,LEN($L120))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 1 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),1 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 2 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),2 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 3 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),3 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 4 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),4 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 5 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),5 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 6 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),6 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 7 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),7 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 8 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),8 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 9 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),9 *LEN($L120)+1,LEN($L120))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))), 10 *LEN($L120)+1,LEN($L120))) = "", "0", TRIM(MID(SUBSTITUTE($L120,",",REPT(" ",LEN($L120))),10 *LEN($L120)+1,LEN($L120)))))</f>
@@ -11827,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="W120" s="0" t="str">
-        <f aca="true">IF(N120="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R120)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N120="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R120)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11861,8 +11861,8 @@
         <v/>
       </c>
       <c r="T121" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U121" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 0 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),0 *LEN($L121)+1,LEN($L121))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 1 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),1 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 2 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),2 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 3 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),3 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 4 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),4 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 5 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),5 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 6 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),6 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 7 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),7 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 8 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),8 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 9 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),9 *LEN($L121)+1,LEN($L121))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))), 10 *LEN($L121)+1,LEN($L121))) = "", "0", TRIM(MID(SUBSTITUTE($L121,",",REPT(" ",LEN($L121))),10 *LEN($L121)+1,LEN($L121)))))</f>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="W121" s="0" t="str">
-        <f aca="true">IF(N121="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R121)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N121="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R121)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11907,8 +11907,8 @@
         <v/>
       </c>
       <c r="T122" s="0" t="n">
-        <f aca="false">IF($C$2 = "", 1, 8000/$C$2)</f>
-        <v>1</v>
+        <f aca="false">8000/850</f>
+        <v>9.41176470588235</v>
       </c>
       <c r="U122" s="0" t="n">
         <f aca="false">VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 0 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),0 *LEN($L122)+1,LEN($L122))))) +   VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 1 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),1 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 2 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),2 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 3 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),3 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 4 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),4 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 5 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),5 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 6 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),6 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 7 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),7 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 8 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),8 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 9 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),9 *LEN($L122)+1,LEN($L122))))) +  VALUE(IF(TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))), 10 *LEN($L122)+1,LEN($L122))) = "", "0", TRIM(MID(SUBSTITUTE($L122,",",REPT(" ",LEN($L122))),10 *LEN($L122)+1,LEN($L122)))))</f>
@@ -11919,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="W122" s="0" t="str">
-        <f aca="true">IF(N122="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R122)/$C$2, 0), 1) * $C$2)</f>
+        <f aca="true">IF(N122="", "", MAX(ROUND(-(INDIRECT("R" &amp; ROW() - 1) - R122)/850, 0), 1) * 850)</f>
         <v/>
       </c>
     </row>
@@ -11971,7 +11971,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="1" sqref="J:J G11"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11997,7 +11997,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="J:J A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12023,7 +12023,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="J:J E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12050,7 +12050,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="1" sqref="J:J F26"/>
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12077,7 +12077,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="1" sqref="J:J A34"/>
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/templates/constructor.xlsx
+++ b/app/data/templates/constructor.xlsx
@@ -159,14 +159,14 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="7"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="7"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
@@ -199,15 +199,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8AA97"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -215,8 +221,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF666666"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -240,13 +276,19 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -254,7 +296,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -274,7 +316,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" in